--- a/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
+++ b/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESATAN-TMS\ESATAN-TMS-Models\EO_Micro_Satellite_Project\Relevant Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E205D0BD-D421-4EEF-AE99-CEE7FD1E35EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ABCA4B-21A6-4E0F-973F-5343FF23CF17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NODES&amp;LABELS (config1)" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="127">
   <si>
     <t>ELEMENTO</t>
   </si>
@@ -446,16 +446,25 @@
     <t>RAD_Ins</t>
   </si>
   <si>
-    <t>try: quarz;si</t>
-  </si>
-  <si>
-    <t>try coating de oro por detrás</t>
-  </si>
-  <si>
     <t>Copper</t>
   </si>
   <si>
     <t>http://www.matweb.com/tools/unitconverter.aspx?fromID=43&amp;fromValue=7.764</t>
+  </si>
+  <si>
+    <t>Goldised Kapton</t>
+  </si>
+  <si>
+    <t>Quarz</t>
+  </si>
+  <si>
+    <t>http://www.matweb.com/tools/unitconverter.aspx?fromID=65&amp;fromValue=0.700</t>
+  </si>
+  <si>
+    <t>Silicon</t>
+  </si>
+  <si>
+    <t>http://www.matweb.com/tools/unitconverter.aspx?fromID=65&amp;fromValue=0.794</t>
   </si>
 </sst>
 </file>
@@ -888,7 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -959,7 +968,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -985,6 +1003,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3393,10 +3414,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F00708A-3A2A-4030-B01E-19C8F86B1A4D}">
-  <dimension ref="A3:N16"/>
+  <dimension ref="A3:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3404,30 +3425,30 @@
     <col min="2" max="2" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="45" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="47"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="45"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
@@ -3452,10 +3473,10 @@
       <c r="J4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>90</v>
       </c>
@@ -3486,12 +3507,12 @@
       <c r="J5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="43"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L5" s="47"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>90</v>
       </c>
@@ -3522,12 +3543,12 @@
       <c r="J6" s="10">
         <v>0.1</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="43"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L6" s="47"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>90</v>
       </c>
@@ -3558,13 +3579,13 @@
       <c r="J7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="10">
         <v>0.05</v>
@@ -3590,10 +3611,10 @@
       <c r="J8" s="10">
         <v>0.1</v>
       </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="49"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>90</v>
       </c>
@@ -3624,10 +3645,10 @@
       <c r="J9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>90</v>
       </c>
@@ -3658,10 +3679,10 @@
       <c r="J10" s="10">
         <v>0.92</v>
       </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="49"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>90</v>
       </c>
@@ -3692,16 +3713,10 @@
       <c r="J11" s="10">
         <v>1</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="49"/>
-      <c r="M11" t="s">
-        <v>120</v>
-      </c>
-      <c r="N11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>90</v>
       </c>
@@ -3732,10 +3747,10 @@
       <c r="J12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>90</v>
       </c>
@@ -3766,10 +3781,10 @@
       <c r="J13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>90</v>
       </c>
@@ -3800,10 +3815,10 @@
       <c r="J14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>90</v>
       </c>
@@ -3834,53 +3849,79 @@
       <c r="J15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>60</v>
+        <v>122</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.75</v>
       </c>
       <c r="K16" s="43"/>
       <c r="L16" s="43"/>
     </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K12:L12"/>
@@ -3889,6 +3930,12 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3897,37 +3944,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAE4BA2-4334-46B3-8623-C9D04CC254E6}">
-  <dimension ref="A4:O13"/>
+  <dimension ref="A4:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="47" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="H4" s="50" t="s">
+      <c r="F4" s="50"/>
+      <c r="H4" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="47" t="s">
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="47"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -3942,8 +3989,8 @@
       <c r="D5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
       <c r="H5" s="9" t="s">
         <v>36</v>
       </c>
@@ -3962,8 +4009,8 @@
       <c r="M5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3978,8 +4025,8 @@
       <c r="D6" s="5">
         <v>2700</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="3" t="s">
         <v>90</v>
       </c>
@@ -4001,8 +4048,8 @@
       <c r="M6" s="5">
         <v>1750</v>
       </c>
-      <c r="N6" s="48"/>
-      <c r="O6" s="49"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="52"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4017,10 +4064,10 @@
       <c r="D7" s="11">
         <v>2840</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="52"/>
       <c r="G7" s="3" t="s">
         <v>90</v>
       </c>
@@ -4046,10 +4093,10 @@
       <c r="D8" s="5">
         <v>2810</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="3" t="s">
         <v>90</v>
       </c>
@@ -4064,7 +4111,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B9" s="36">
         <v>385</v>
@@ -4075,10 +4122,10 @@
       <c r="D9" s="3">
         <v>7760</v>
       </c>
-      <c r="E9" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="49"/>
+      <c r="E9" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="52"/>
       <c r="G9" s="3" t="s">
         <v>90</v>
       </c>
@@ -4104,8 +4151,8 @@
       <c r="D10" s="5">
         <v>5300</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="3" t="s">
         <v>90</v>
       </c>
@@ -4123,8 +4170,8 @@
       <c r="D11" s="5">
         <v>5330</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="3" t="s">
         <v>90</v>
       </c>
@@ -4150,37 +4197,80 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="43">
+        <v>2</v>
+      </c>
+      <c r="C13" s="43">
+        <v>700</v>
+      </c>
+      <c r="D13" s="43">
+        <v>2200</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="43">
+        <v>124</v>
+      </c>
+      <c r="C14" s="56">
+        <v>794</v>
+      </c>
+      <c r="D14" s="56">
+        <v>2300</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="52"/>
+      <c r="G14" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B15" s="5">
         <v>0</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C15" s="5">
         <v>900</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D15" s="5">
         <v>300</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="3" t="s">
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="3" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="N4:O5"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F5"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
+++ b/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESATAN-TMS\ESATAN-TMS-Models\EO_Micro_Satellite_Project\Relevant Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ABCA4B-21A6-4E0F-973F-5343FF23CF17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEBC22D-C707-48CF-9928-FA432147FBB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NODES&amp;LABELS (config1)" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="PROPERTIES" sheetId="2" r:id="rId3"/>
     <sheet name="THERMO-OPTICALS" sheetId="3" r:id="rId4"/>
     <sheet name="MATERIALS" sheetId="4" r:id="rId5"/>
+    <sheet name="GLs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +38,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DE31815B-D17C-487A-AD83-CDD355BB9138}</author>
+    <author>tc={BB70071E-F16F-4101-AC45-CF64A32436DB}</author>
+    <author>tc={9E3BA7D6-E7F8-4AFB-8806-BFBC971C374E}</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{DE31815B-D17C-487A-AD83-CDD355BB9138}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Distancia del nodo central a su borde</t>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="1" shapeId="0" xr:uid="{BB70071E-F16F-4101-AC45-CF64A32436DB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    AREA DE ESE LATERAL</t>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="2" shapeId="0" xr:uid="{9E3BA7D6-E7F8-4AFB-8806-BFBC971C374E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    300 o 100 (hasta 1000)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="168">
   <si>
     <t>ELEMENTO</t>
   </si>
@@ -466,15 +503,139 @@
   <si>
     <t>http://www.matweb.com/tools/unitconverter.aspx?fromID=65&amp;fromValue=0.794</t>
   </si>
+  <si>
+    <t>UDC</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>CCD_Panel</t>
+  </si>
+  <si>
+    <t>CCD_Rad</t>
+  </si>
+  <si>
+    <t>EBox</t>
+  </si>
+  <si>
+    <t>EBox_Rad</t>
+  </si>
+  <si>
+    <t>IR_Tel_Lens_IR_Tel_Obj</t>
+  </si>
+  <si>
+    <t>IR_Tel_Lens</t>
+  </si>
+  <si>
+    <t>IR_Tel_Obj</t>
+  </si>
+  <si>
+    <t>IR_Tel_STR_Panel_inf</t>
+  </si>
+  <si>
+    <t>IR_Tel_Obj_IR_Tel_CCD</t>
+  </si>
+  <si>
+    <t>IR_Tel_Obj_IR_Tel_STR</t>
+  </si>
+  <si>
+    <t>PLD1_RAD</t>
+  </si>
+  <si>
+    <t>Panel_Plate</t>
+  </si>
+  <si>
+    <t>Plate1_PLD1</t>
+  </si>
+  <si>
+    <t>Plate1_PLD2</t>
+  </si>
+  <si>
+    <t>Plate_Panel</t>
+  </si>
+  <si>
+    <t>IR_Tel_STR</t>
+  </si>
+  <si>
+    <t>Panel_inf</t>
+  </si>
+  <si>
+    <t>RAD_INS</t>
+  </si>
+  <si>
+    <t>Rad_IR_Tel</t>
+  </si>
+  <si>
+    <t>PLD2_RAD</t>
+  </si>
+  <si>
+    <t>PLD1</t>
+  </si>
+  <si>
+    <t>PLD2</t>
+  </si>
+  <si>
+    <t>Panel</t>
+  </si>
+  <si>
+    <t>Panel_SolarPanel</t>
+  </si>
+  <si>
+    <t>Plate</t>
+  </si>
+  <si>
+    <t>Solar Panel</t>
+  </si>
+  <si>
+    <t>Li [m]</t>
+  </si>
+  <si>
+    <t>GL [W/K]</t>
+  </si>
+  <si>
+    <t>Ai [m^2]</t>
+  </si>
+  <si>
+    <t>Ac [m^2]</t>
+  </si>
+  <si>
+    <t>Aj [m^2]</t>
+  </si>
+  <si>
+    <t>ki [W/(mK)]</t>
+  </si>
+  <si>
+    <t>kj [W/(mK)]</t>
+  </si>
+  <si>
+    <t>hc [W/(m^2K)]</t>
+  </si>
+  <si>
+    <t>k [W/(mK)]</t>
+  </si>
+  <si>
+    <t>L [m]</t>
+  </si>
+  <si>
+    <t>GL = kAc/L</t>
+  </si>
+  <si>
+    <t>STRAPS / HEAT PIPES</t>
+  </si>
+  <si>
+    <t>FAKE CONTACT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +671,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -550,7 +717,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -892,12 +1059,266 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -974,10 +1395,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,12 +1419,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1004,9 +1428,57 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2069,6 +2541,193 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>96862</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>135213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53893BCB-9428-44EA-AEB0-ACE5DB4D04D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10240987" y="161925"/>
+          <a:ext cx="5061878" cy="1984968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>102869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>358897</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>132693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9DAA9B9-CDDB-4F00-8A6C-6255E877C15D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14146530" y="2484119"/>
+          <a:ext cx="5372857" cy="3672184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>584645</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>401112</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>92584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C39DFFF-3190-4400-AD1E-FD54CF907984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10119170" y="2444115"/>
+          <a:ext cx="4079857" cy="3687319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>207457</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F900FDEA-1220-458B-91C8-6AB7192A9A2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="5193030"/>
+          <a:ext cx="1512382" cy="638096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Diego M" id="{7FEA3327-5DCA-4904-9FA0-972C46AA4A40}" userId="d04d5963266fa2c7" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2330,6 +2989,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D3" dT="2021-05-10T14:59:54.90" personId="{7FEA3327-5DCA-4904-9FA0-972C46AA4A40}" id="{DE31815B-D17C-487A-AD83-CDD355BB9138}">
+    <text>Distancia del nodo central a su borde</text>
+  </threadedComment>
+  <threadedComment ref="F3" dT="2021-05-10T14:59:03.21" personId="{7FEA3327-5DCA-4904-9FA0-972C46AA4A40}" id="{BB70071E-F16F-4101-AC45-CF64A32436DB}">
+    <text>AREA DE ESE LATERAL</text>
+  </threadedComment>
+  <threadedComment ref="H3" dT="2021-05-10T14:59:22.47" personId="{7FEA3327-5DCA-4904-9FA0-972C46AA4A40}" id="{9E3BA7D6-E7F8-4AFB-8806-BFBC971C374E}">
+    <text>300 o 100 (hasta 1000)</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M24"/>
@@ -2806,10 +3479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CF5359-1665-44CF-A856-0B357D0D1ACE}">
-  <dimension ref="A2:M28"/>
+  <dimension ref="A2:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2892,219 +3565,217 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="2">
         <v>11000</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="22">
         <v>11999</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="3">
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="88">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="89">
+        <v>11999</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="I7" s="3">
         <v>12345</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K7" t="s">
         <v>33</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L7" t="s">
         <v>34</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D8" s="41">
         <v>20000</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E8" s="42">
         <v>29999</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="2" t="s">
+      <c r="F8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>20000</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E9" s="22">
         <v>20999</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24" t="s">
+      <c r="F9" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D10" s="24">
         <v>21000</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E10" s="25">
         <v>21999</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="F10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D11" s="19">
         <v>30000</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E11" s="20">
         <v>39999</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="F11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
         <v>84</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J11" t="s">
         <v>85</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K11" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2">
-        <v>30000</v>
-      </c>
-      <c r="E11" s="22">
-        <v>30999</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="22">
+        <v>30999</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>31000</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E13" s="22">
         <v>31999</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="35" t="s">
+      <c r="F13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H12" s="35"/>
-    </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24" t="s">
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D14" s="24">
         <v>32000</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E14" s="25">
         <v>32999</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="35" t="s">
+      <c r="F14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D15" s="19">
         <v>40000</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E15" s="20">
         <v>49999</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="2">
-        <v>40000</v>
-      </c>
-      <c r="E15" s="22">
-        <v>40499</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>90</v>
@@ -3116,63 +3787,63 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D16" s="2">
-        <v>40500</v>
+        <v>40000</v>
       </c>
       <c r="E16" s="22">
-        <v>40999</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>40499</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="2" t="s">
-        <v>114</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D17" s="2">
-        <v>45000</v>
+        <v>40500</v>
       </c>
       <c r="E17" s="22">
-        <v>45999</v>
+        <v>40999</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45000</v>
+      </c>
+      <c r="E18" s="22">
+        <v>45999</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="2">
         <v>41000</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E19" s="22">
         <v>41999</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="29">
-        <v>42000</v>
-      </c>
-      <c r="E19" s="34">
-        <v>42999</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>90</v>
@@ -3181,70 +3852,70 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="33"/>
       <c r="B20" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D20" s="29">
-        <v>43000</v>
+        <v>42000</v>
       </c>
       <c r="E20" s="34">
-        <v>43999</v>
+        <v>42999</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="33"/>
       <c r="B21" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="29">
+        <v>43000</v>
+      </c>
+      <c r="E21" s="34">
+        <v>43999</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33"/>
+      <c r="B22" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C22" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D22" s="29">
         <v>44000</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E22" s="34">
         <v>44999</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="F22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D23" s="19">
         <v>50000</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E23" s="20">
         <v>59999</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="2">
-        <v>50000</v>
-      </c>
-      <c r="E23" s="22">
-        <v>50999</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>90</v>
@@ -3253,79 +3924,97 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E24" s="22">
+        <v>50999</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="2">
         <v>51000</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E25" s="22">
         <v>51999</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
-      <c r="B25" s="29" t="s">
+      <c r="F25" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="33"/>
+      <c r="B26" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C26" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D26" s="29">
         <v>52000</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E26" s="34">
         <v>52999</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="F26" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D27" s="19">
         <v>60000</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E27" s="20">
         <v>69999</v>
       </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="2">
         <v>60000</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E28" s="22">
         <v>69999</v>
       </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24" t="s">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D29" s="24">
         <v>61000</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E29" s="25">
         <v>69999</v>
       </c>
     </row>
@@ -3426,29 +4115,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="50"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="48"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
@@ -3473,8 +4162,8 @@
       <c r="J4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -3507,7 +4196,7 @@
       <c r="J5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="50" t="s">
         <v>88</v>
       </c>
       <c r="L5" s="47"/>
@@ -3543,7 +4232,7 @@
       <c r="J6" s="10">
         <v>0.1</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="50" t="s">
         <v>88</v>
       </c>
       <c r="L6" s="47"/>
@@ -3611,8 +4300,8 @@
       <c r="J8" s="10">
         <v>0.1</v>
       </c>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -3679,8 +4368,8 @@
       <c r="J10" s="10">
         <v>0.92</v>
       </c>
-      <c r="K10" s="51"/>
-      <c r="L10" s="52"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="49"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -3713,8 +4402,8 @@
       <c r="J11" s="10">
         <v>1</v>
       </c>
-      <c r="K11" s="51"/>
-      <c r="L11" s="52"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="49"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -3920,6 +4609,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K7:L7"/>
@@ -3930,12 +4625,6 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3946,35 +4635,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAE4BA2-4334-46B3-8623-C9D04CC254E6}">
   <dimension ref="A4:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="50" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="H4" s="53" t="s">
+      <c r="F4" s="53"/>
+      <c r="H4" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="50" t="s">
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="50"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -3989,8 +4678,8 @@
       <c r="D5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
       <c r="H5" s="9" t="s">
         <v>36</v>
       </c>
@@ -4009,8 +4698,8 @@
       <c r="M5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -4025,8 +4714,8 @@
       <c r="D6" s="5">
         <v>2700</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="3" t="s">
         <v>90</v>
       </c>
@@ -4048,8 +4737,8 @@
       <c r="M6" s="5">
         <v>1750</v>
       </c>
-      <c r="N6" s="51"/>
-      <c r="O6" s="52"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="49"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4064,10 +4753,10 @@
       <c r="D7" s="11">
         <v>2840</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="52"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="3" t="s">
         <v>90</v>
       </c>
@@ -4093,10 +4782,10 @@
       <c r="D8" s="5">
         <v>2810</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="52"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="3" t="s">
         <v>90</v>
       </c>
@@ -4122,10 +4811,10 @@
       <c r="D9" s="3">
         <v>7760</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="3" t="s">
         <v>90</v>
       </c>
@@ -4151,8 +4840,8 @@
       <c r="D10" s="5">
         <v>5300</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="3" t="s">
         <v>90</v>
       </c>
@@ -4170,8 +4859,8 @@
       <c r="D11" s="5">
         <v>5330</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="3" t="s">
         <v>90</v>
       </c>
@@ -4223,16 +4912,16 @@
       <c r="B14" s="43">
         <v>124</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="46">
         <v>794</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="46">
         <v>2300</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="49"/>
       <c r="G14" s="3" t="s">
         <v>90</v>
       </c>
@@ -4250,14 +4939,20 @@
       <c r="D15" s="5">
         <v>300</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="52"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="49"/>
       <c r="G15" s="3" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E15:F15"/>
@@ -4265,13 +4960,580 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9202D-ACAD-4878-A51F-5C577BBAB029}">
+  <dimension ref="A2:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" s="78" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="70">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="E4" s="60">
+        <f>MATERIALS!B14</f>
+        <v>124</v>
+      </c>
+      <c r="F4" s="74">
+        <f>PI()*(0.07^2)</f>
+        <v>1.5393804002589988E-2</v>
+      </c>
+      <c r="G4" s="60">
+        <f>MIN(F4,J4)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H4" s="60">
+        <v>400</v>
+      </c>
+      <c r="I4" s="60">
+        <v>160</v>
+      </c>
+      <c r="J4" s="60">
+        <f>0.01*0.4</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K4" s="60"/>
+      <c r="L4" s="85"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="80"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="71"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="80"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="80"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="72"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="80"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="72"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="80"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="73"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="81"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I12" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="78" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="18">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="E14" s="19">
+        <f>MATERIALS!B31</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="74">
+        <f>PI()*(0.07^2)</f>
+        <v>1.5393804002589988E-2</v>
+      </c>
+      <c r="G14" s="79">
+        <f>D14*E14/F14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="76"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="86" t="e">
+        <f t="shared" ref="G15:G27" si="0">D15*E15/F15</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" s="76"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="86" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="86" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="86" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="86" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="86" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="76"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="86" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="76"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="86" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="86" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="84"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="86" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="86" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="86" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="87" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I28" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="78" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="80"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="81"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
+++ b/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESATAN-TMS\ESATAN-TMS-Models\EO_Micro_Satellite_Project\Relevant Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEBC22D-C707-48CF-9928-FA432147FBB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C189FD6-19DA-40BB-9A32-B03473BC8725}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NODES&amp;LABELS (config1)" sheetId="1" r:id="rId1"/>
     <sheet name="NODES&amp;LABELS (config2)" sheetId="5" r:id="rId2"/>
-    <sheet name="PROPERTIES" sheetId="2" r:id="rId3"/>
-    <sheet name="THERMO-OPTICALS" sheetId="3" r:id="rId4"/>
-    <sheet name="MATERIALS" sheetId="4" r:id="rId5"/>
-    <sheet name="GLs" sheetId="6" r:id="rId6"/>
+    <sheet name="NODES&amp;LABELS (config3)" sheetId="7" r:id="rId3"/>
+    <sheet name="NODES&amp;LABELS (config45)" sheetId="8" r:id="rId4"/>
+    <sheet name="PROPERTIES" sheetId="2" r:id="rId5"/>
+    <sheet name="THERMO-OPTICALS" sheetId="3" r:id="rId6"/>
+    <sheet name="MATERIALS" sheetId="4" r:id="rId7"/>
+    <sheet name="GLs" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,6 +46,7 @@
     <author>tc={DE31815B-D17C-487A-AD83-CDD355BB9138}</author>
     <author>tc={BB70071E-F16F-4101-AC45-CF64A32436DB}</author>
     <author>tc={9E3BA7D6-E7F8-4AFB-8806-BFBC971C374E}</author>
+    <author>tc={75572D8B-1384-4140-99D3-048349AB0F48}</author>
   </authors>
   <commentList>
     <comment ref="D3" authorId="0" shapeId="0" xr:uid="{DE31815B-D17C-487A-AD83-CDD355BB9138}">
@@ -70,12 +73,20 @@
     300 o 100 (hasta 1000)</t>
       </text>
     </comment>
+    <comment ref="I4" authorId="3" shapeId="0" xr:uid="{75572D8B-1384-4140-99D3-048349AB0F48}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    PCB</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="186">
   <si>
     <t>ELEMENTO</t>
   </si>
@@ -543,18 +554,6 @@
     <t>PLD1_RAD</t>
   </si>
   <si>
-    <t>Panel_Plate</t>
-  </si>
-  <si>
-    <t>Plate1_PLD1</t>
-  </si>
-  <si>
-    <t>Plate1_PLD2</t>
-  </si>
-  <si>
-    <t>Plate_Panel</t>
-  </si>
-  <si>
     <t>IR_Tel_STR</t>
   </si>
   <si>
@@ -621,21 +620,88 @@
     <t>GL = kAc/L</t>
   </si>
   <si>
-    <t>STRAPS / HEAT PIPES</t>
-  </si>
-  <si>
     <t>FAKE CONTACT</t>
+  </si>
+  <si>
+    <t>Plate2_PLD1</t>
+  </si>
+  <si>
+    <t>Plate2_PLD2</t>
+  </si>
+  <si>
+    <t>Plate 2</t>
+  </si>
+  <si>
+    <t>Plate 1</t>
+  </si>
+  <si>
+    <t>RAD_Tel_Support</t>
+  </si>
+  <si>
+    <t>RAD_Ins_Support</t>
+  </si>
+  <si>
+    <t>STRAPS,HEAT PIPES</t>
+  </si>
+  <si>
+    <t>Panel_Plate_xy</t>
+  </si>
+  <si>
+    <t>Panel_Plate_yx</t>
+  </si>
+  <si>
+    <t>Panel_Plate2_xy</t>
+  </si>
+  <si>
+    <t>Panel_Plate2_yx</t>
+  </si>
+  <si>
+    <t>Plate_Panel_xy</t>
+  </si>
+  <si>
+    <t>Plate_Panel_yx</t>
+  </si>
+  <si>
+    <t>Plate2_Panel_xy</t>
+  </si>
+  <si>
+    <t>Plate2_Panel_yx</t>
+  </si>
+  <si>
+    <t>RAD_Ins_block</t>
+  </si>
+  <si>
+    <t>Note that if im using config3 must define UDC for rad INS conn</t>
+  </si>
+  <si>
+    <t>100 es muy alto</t>
+  </si>
+  <si>
+    <t>Probar:</t>
+  </si>
+  <si>
+    <t>Espejo para mover CCD a cerca del radiador</t>
+  </si>
+  <si>
+    <t>RAD_IR_Tel_block</t>
+  </si>
+  <si>
+    <t>RAD_IR_TEL</t>
+  </si>
+  <si>
+    <t>RAD_IR_TEL_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,12 +737,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -717,7 +777,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1180,43 +1240,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1309,6 +1332,17 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1318,7 +1352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1398,6 +1432,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1428,57 +1521,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2545,16 +2587,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>96862</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>135213</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99018</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2589,94 +2631,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>102869</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>358897</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>132693</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9DAA9B9-CDDB-4F00-8A6C-6255E877C15D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14146530" y="2484119"/>
-          <a:ext cx="5372857" cy="3672184"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>584645</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>62865</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>401112</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>92584</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C39DFFF-3190-4400-AD1E-FD54CF907984}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10119170" y="2444115"/>
-          <a:ext cx="4079857" cy="3687319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>28</xdr:row>
@@ -2684,7 +2638,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>207457</xdr:colOff>
+      <xdr:colOff>114112</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>154226</xdr:rowOff>
     </xdr:to>
@@ -2702,7 +2656,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2711,6 +2665,50 @@
         <a:xfrm>
           <a:off x="6838950" y="5193030"/>
           <a:ext cx="1512382" cy="638096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83819</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>77127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>78817</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>20055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDFC55A-3A75-4B3F-B39E-564530E05D37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10256519" y="2096427"/>
+          <a:ext cx="6700598" cy="5055948"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3000,6 +2998,9 @@
   <threadedComment ref="H3" dT="2021-05-10T14:59:22.47" personId="{7FEA3327-5DCA-4904-9FA0-972C46AA4A40}" id="{9E3BA7D6-E7F8-4AFB-8806-BFBC971C374E}">
     <text>300 o 100 (hasta 1000)</text>
   </threadedComment>
+  <threadedComment ref="I4" dT="2021-05-10T18:29:49.85" personId="{7FEA3327-5DCA-4904-9FA0-972C46AA4A40}" id="{75572D8B-1384-4140-99D3-048349AB0F48}">
+    <text>PCB</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -3482,7 +3483,7 @@
   <dimension ref="A2:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3585,16 +3586,16 @@
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="88">
+      <c r="D7" s="67">
         <v>12000</v>
       </c>
-      <c r="E7" s="89">
+      <c r="E7" s="68">
         <v>11999</v>
       </c>
       <c r="F7" s="3"/>
@@ -4025,6 +4026,1170 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF39B4B1-3F1C-4EF1-9A04-9C094A06A8EE}">
+  <dimension ref="A2:M31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="7" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="20">
+        <v>19999</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="22">
+        <v>10999</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E6" s="22">
+        <v>11999</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="67">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="68">
+        <v>11999</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="I7" s="3">
+        <v>12345</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="41">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="42">
+        <v>29999</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="22">
+        <v>20999</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="24">
+        <v>21000</v>
+      </c>
+      <c r="E10" s="25">
+        <v>21999</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="19">
+        <v>30000</v>
+      </c>
+      <c r="E11" s="20">
+        <v>39999</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="22">
+        <v>30999</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31000</v>
+      </c>
+      <c r="E13" s="22">
+        <v>31999</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="24">
+        <v>32000</v>
+      </c>
+      <c r="E14" s="25">
+        <v>32999</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="19">
+        <v>40000</v>
+      </c>
+      <c r="E15" s="20">
+        <v>49999</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40000</v>
+      </c>
+      <c r="E16" s="22">
+        <v>40499</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="2">
+        <v>40500</v>
+      </c>
+      <c r="E17" s="22">
+        <v>40999</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45000</v>
+      </c>
+      <c r="E18" s="22">
+        <v>45999</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2">
+        <v>41000</v>
+      </c>
+      <c r="E19" s="22">
+        <v>41999</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="29">
+        <v>42000</v>
+      </c>
+      <c r="E20" s="34">
+        <v>42999</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="29">
+        <v>43000</v>
+      </c>
+      <c r="E21" s="34">
+        <v>43999</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33"/>
+      <c r="B22" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="29">
+        <v>44000</v>
+      </c>
+      <c r="E22" s="34">
+        <v>44999</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="19">
+        <v>50000</v>
+      </c>
+      <c r="E23" s="20">
+        <v>59999</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E24" s="22">
+        <v>50999</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2">
+        <v>51000</v>
+      </c>
+      <c r="E25" s="22">
+        <v>51999</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="33"/>
+      <c r="B26" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="29">
+        <v>51000</v>
+      </c>
+      <c r="E26" s="34">
+        <v>51999</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="19">
+        <v>60000</v>
+      </c>
+      <c r="E27" s="20">
+        <v>69999</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="2">
+        <v>60000</v>
+      </c>
+      <c r="E28" s="22">
+        <v>60999</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="29">
+        <v>61000</v>
+      </c>
+      <c r="E29" s="34">
+        <v>61999</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="33"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="24">
+        <v>62000</v>
+      </c>
+      <c r="E30" s="25">
+        <v>62999</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="24">
+        <v>63000</v>
+      </c>
+      <c r="E31" s="25">
+        <v>63999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808A1311-6419-4949-A2BB-3628B364634E}">
+  <dimension ref="A2:M32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="7" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="20">
+        <v>19999</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="22">
+        <v>10999</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E6" s="22">
+        <v>11999</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="67">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="68">
+        <v>11999</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="I7" s="3">
+        <v>12345</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="41">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="42">
+        <v>29999</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="22">
+        <v>20999</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="24">
+        <v>21000</v>
+      </c>
+      <c r="E10" s="25">
+        <v>21999</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="19">
+        <v>30000</v>
+      </c>
+      <c r="E11" s="20">
+        <v>39999</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="22">
+        <v>30999</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31000</v>
+      </c>
+      <c r="E13" s="22">
+        <v>31999</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="24">
+        <v>32000</v>
+      </c>
+      <c r="E14" s="25">
+        <v>32999</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="19">
+        <v>40000</v>
+      </c>
+      <c r="E15" s="20">
+        <v>49999</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40000</v>
+      </c>
+      <c r="E16" s="22">
+        <v>40499</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="2">
+        <v>40500</v>
+      </c>
+      <c r="E17" s="22">
+        <v>40999</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45000</v>
+      </c>
+      <c r="E18" s="22">
+        <v>45999</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2">
+        <v>41000</v>
+      </c>
+      <c r="E19" s="22">
+        <v>41999</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="29">
+        <v>42000</v>
+      </c>
+      <c r="E20" s="34">
+        <v>42999</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="29">
+        <v>43000</v>
+      </c>
+      <c r="E21" s="34">
+        <v>43999</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33"/>
+      <c r="B22" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="29">
+        <v>44000</v>
+      </c>
+      <c r="E22" s="34">
+        <v>44999</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="19">
+        <v>50000</v>
+      </c>
+      <c r="E23" s="20">
+        <v>59999</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E24" s="22">
+        <v>50999</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2">
+        <v>51000</v>
+      </c>
+      <c r="E25" s="22">
+        <v>51999</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="33"/>
+      <c r="B26" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="29">
+        <v>51000</v>
+      </c>
+      <c r="E26" s="34">
+        <v>51999</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="19">
+        <v>60000</v>
+      </c>
+      <c r="E27" s="20">
+        <v>69999</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="2">
+        <v>60000</v>
+      </c>
+      <c r="E28" s="22">
+        <v>60999</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="29">
+        <v>61000</v>
+      </c>
+      <c r="E29" s="34">
+        <v>61999</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="33"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="24">
+        <v>62000</v>
+      </c>
+      <c r="E30" s="25">
+        <v>62999</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="33"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="24">
+        <v>63000</v>
+      </c>
+      <c r="E31" s="25">
+        <v>63999</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="24">
+        <v>64000</v>
+      </c>
+      <c r="E32" s="25">
+        <v>64999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBE864F-9D47-4299-B304-91E8AAA86025}">
   <dimension ref="B3:C9"/>
   <sheetViews>
@@ -4101,7 +5266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F00708A-3A2A-4030-B01E-19C8F86B1A4D}">
   <dimension ref="A3:L17"/>
   <sheetViews>
@@ -4115,29 +5280,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52" t="s">
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53" t="s">
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="53"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="51"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
@@ -4162,8 +5327,8 @@
       <c r="J4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -4196,10 +5361,10 @@
       <c r="J5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="K5" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="47"/>
+      <c r="L5" s="84"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -4232,10 +5397,10 @@
       <c r="J6" s="10">
         <v>0.1</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="K6" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="47"/>
+      <c r="L6" s="84"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -4268,8 +5433,8 @@
       <c r="J7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
@@ -4300,8 +5465,8 @@
       <c r="J8" s="10">
         <v>0.1</v>
       </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="49"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="86"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -4334,8 +5499,8 @@
       <c r="J9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -4368,8 +5533,8 @@
       <c r="J10" s="10">
         <v>0.92</v>
       </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="49"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="86"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -4402,8 +5567,8 @@
       <c r="J11" s="10">
         <v>1</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="49"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -4436,8 +5601,8 @@
       <c r="J12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -4470,8 +5635,8 @@
       <c r="J13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -4504,8 +5669,8 @@
       <c r="J14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -4538,8 +5703,8 @@
       <c r="J15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
@@ -4604,8 +5769,8 @@
       <c r="J17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4631,7 +5796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAE4BA2-4334-46B3-8623-C9D04CC254E6}">
   <dimension ref="A4:O15"/>
   <sheetViews>
@@ -4642,28 +5807,28 @@
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="53" t="s">
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="H4" s="54" t="s">
+      <c r="F4" s="90"/>
+      <c r="H4" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="53" t="s">
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="53"/>
+      <c r="O4" s="90"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -4678,8 +5843,8 @@
       <c r="D5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
       <c r="H5" s="9" t="s">
         <v>36</v>
       </c>
@@ -4698,8 +5863,8 @@
       <c r="M5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -4714,8 +5879,8 @@
       <c r="D6" s="5">
         <v>2700</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
       <c r="G6" s="3" t="s">
         <v>90</v>
       </c>
@@ -4737,8 +5902,8 @@
       <c r="M6" s="5">
         <v>1750</v>
       </c>
-      <c r="N6" s="48"/>
-      <c r="O6" s="49"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="86"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4753,10 +5918,10 @@
       <c r="D7" s="11">
         <v>2840</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="86"/>
       <c r="G7" s="3" t="s">
         <v>90</v>
       </c>
@@ -4782,10 +5947,10 @@
       <c r="D8" s="5">
         <v>2810</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="86"/>
       <c r="G8" s="3" t="s">
         <v>90</v>
       </c>
@@ -4811,10 +5976,10 @@
       <c r="D9" s="3">
         <v>7760</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="86"/>
       <c r="G9" s="3" t="s">
         <v>90</v>
       </c>
@@ -4840,8 +6005,8 @@
       <c r="D10" s="5">
         <v>5300</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
       <c r="G10" s="3" t="s">
         <v>90</v>
       </c>
@@ -4859,8 +6024,8 @@
       <c r="D11" s="5">
         <v>5330</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="3" t="s">
         <v>90</v>
       </c>
@@ -4918,10 +6083,10 @@
       <c r="D14" s="46">
         <v>2300</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="49"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="3" t="s">
         <v>90</v>
       </c>
@@ -4939,8 +6104,8 @@
       <c r="D15" s="5">
         <v>300</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
       <c r="G15" s="3" t="s">
         <v>90</v>
       </c>
@@ -4965,70 +6130,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9202D-ACAD-4878-A51F-5C577BBAB029}">
-  <dimension ref="A2:L32"/>
+  <dimension ref="A2:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="64" t="s">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="E3" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="F3" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="J3" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="L3" s="78" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="K3" s="82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="55" t="s">
         <v>129</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -5037,36 +6199,38 @@
       <c r="C4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="18">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="50">
         <f>MATERIALS!B14</f>
         <v>124</v>
       </c>
-      <c r="F4" s="74">
-        <f>PI()*(0.07^2)</f>
-        <v>1.5393804002589988E-2</v>
-      </c>
-      <c r="G4" s="60">
+      <c r="F4" s="69">
+        <f>PI()*(0.07^2)*0.001</f>
+        <v>1.5393804002589989E-5</v>
+      </c>
+      <c r="G4" s="19">
         <f>MIN(F4,J4)</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H4" s="60">
-        <v>400</v>
-      </c>
-      <c r="I4" s="60">
-        <v>160</v>
-      </c>
-      <c r="J4" s="60">
+        <v>1.5393804002589989E-5</v>
+      </c>
+      <c r="H4" s="50">
+        <v>50</v>
+      </c>
+      <c r="I4" s="50">
+        <v>0.24</v>
+      </c>
+      <c r="J4" s="50">
         <f>0.01*0.4</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="85"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
+      <c r="K4" s="83">
+        <f>1 / ( (D4/(E4*F4)) + (1/(G4*H4))+(D4/(I4*J4)))</f>
+        <v>7.3421305756203787E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="57" t="s">
         <v>133</v>
       </c>
       <c r="B5" s="33" t="s">
@@ -5075,18 +6239,39 @@
       <c r="C5" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="80"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="D5" s="33">
+        <f>0.001+0.08</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E5" s="53">
+        <f>MATERIALS!B11</f>
+        <v>59</v>
+      </c>
+      <c r="F5" s="73">
+        <f>PI()*(0.08^2)*0.01</f>
+        <v>2.0106192982974677E-4</v>
+      </c>
+      <c r="G5" s="72">
+        <f>MIN(F5,J5)</f>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="H5" s="53">
+        <v>100</v>
+      </c>
+      <c r="I5" s="53">
+        <v>0.24</v>
+      </c>
+      <c r="J5" s="53">
+        <f>PI()*(0.08^2)*0.002</f>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="K5" s="83">
+        <f t="shared" ref="K5:K17" si="0">1 / ( (D5/(E5*F5)) + (1/(G5*H5))+(D5/(I5*J5)))</f>
+        <v>1.1562773333549455E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="57" t="s">
         <v>137</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -5095,440 +6280,789 @@
       <c r="C6" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="80"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
+      <c r="D6" s="21">
+        <f>0.01+0.07</f>
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="53">
+        <f>I5</f>
+        <v>0.24</v>
+      </c>
+      <c r="F6" s="53">
+        <f>J5</f>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="G6" s="53">
+        <f t="shared" ref="G6:G17" si="1">MIN(F6,J6)</f>
+        <v>1.5393804002589989E-5</v>
+      </c>
+      <c r="H6" s="53">
+        <v>100</v>
+      </c>
+      <c r="I6" s="53">
+        <v>0.24</v>
+      </c>
+      <c r="J6" s="70">
+        <f>F4</f>
+        <v>1.5393804002589989E-5</v>
+      </c>
+      <c r="K6" s="83">
+        <f t="shared" si="0"/>
+        <v>3.2687573197271373E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="57" t="s">
         <v>138</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>135</v>
       </c>
       <c r="C7" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="33">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E7" s="53">
+        <f>E6</f>
+        <v>0.24</v>
+      </c>
+      <c r="F7" s="53">
+        <f>F6</f>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="G7" s="53">
+        <f t="shared" si="1"/>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="H7" s="53">
+        <v>100</v>
+      </c>
+      <c r="I7" s="53">
+        <f>MATERIALS!B6</f>
+        <v>160</v>
+      </c>
+      <c r="J7" s="71">
+        <f>F17</f>
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="K7" s="83">
+        <f t="shared" si="0"/>
+        <v>2.0336976997947383E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.13</v>
+      </c>
+      <c r="E8" s="53">
+        <v>160</v>
+      </c>
+      <c r="F8" s="53">
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="G8" s="53">
+        <f t="shared" si="1"/>
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="H8" s="53">
+        <v>300</v>
+      </c>
+      <c r="I8" s="53">
+        <v>160</v>
+      </c>
+      <c r="J8" s="71">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K8" s="83">
+        <f t="shared" si="0"/>
+        <v>1.1811765605433695E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="53">
+        <v>160</v>
+      </c>
+      <c r="F9" s="53">
+        <f>0.002*0.125</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G9" s="53">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H9" s="53">
+        <v>300</v>
+      </c>
+      <c r="I9" s="53">
+        <v>160</v>
+      </c>
+      <c r="J9" s="71">
+        <f>F13</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K9" s="83">
+        <f t="shared" si="0"/>
+        <v>5.7485029940119753E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="33" t="str">
+        <f>B9</f>
+        <v>Panel</v>
+      </c>
+      <c r="C10" s="53" t="str">
+        <f>C9</f>
+        <v>Plate 1</v>
+      </c>
+      <c r="D10" s="33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E10" s="53">
+        <f>E9</f>
+        <v>160</v>
+      </c>
+      <c r="F10" s="53">
+        <f>0.002*0.15</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G10" s="53">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H10" s="53">
+        <f>H9</f>
+        <v>300</v>
+      </c>
+      <c r="I10" s="53">
+        <f>I9</f>
+        <v>160</v>
+      </c>
+      <c r="J10" s="71">
+        <f t="shared" ref="J10:J12" si="2">F14</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K10" s="83">
+        <f t="shared" si="0"/>
+        <v>7.0243902439024397E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="53">
+        <v>160</v>
+      </c>
+      <c r="F11" s="53">
+        <f>F9</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G11" s="53">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H11" s="53">
+        <v>300</v>
+      </c>
+      <c r="I11" s="53">
+        <v>160</v>
+      </c>
+      <c r="J11" s="71">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K11" s="83">
+        <f t="shared" si="0"/>
+        <v>5.7485029940119753E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="33" t="str">
+        <f>B11</f>
+        <v>Panel</v>
+      </c>
+      <c r="C12" s="53" t="str">
+        <f>C11</f>
+        <v>Plate 2</v>
+      </c>
+      <c r="D12" s="33">
+        <f>D10</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E12" s="53">
+        <f>E11</f>
+        <v>160</v>
+      </c>
+      <c r="F12" s="53">
+        <f>F10</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G12" s="53">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H12" s="53">
+        <f>H11</f>
+        <v>300</v>
+      </c>
+      <c r="I12" s="53">
+        <f>I11</f>
+        <v>160</v>
+      </c>
+      <c r="J12" s="71">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K12" s="83">
+        <f t="shared" si="0"/>
+        <v>7.0243902439024397E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="53">
+        <v>160</v>
+      </c>
+      <c r="F13" s="53">
+        <f>0.002*0.2</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G13" s="53">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H13" s="53">
+        <v>300</v>
+      </c>
+      <c r="I13" s="53">
+        <v>160</v>
+      </c>
+      <c r="J13" s="71">
+        <f>F9</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="K13" s="83">
+        <f t="shared" si="0"/>
+        <v>5.7485029940119753E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="33" t="str">
+        <f>B13</f>
+        <v>Plate 1</v>
+      </c>
+      <c r="C14" s="53" t="str">
+        <f>C13</f>
+        <v>Panel</v>
+      </c>
+      <c r="D14" s="33">
+        <f>D12</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E14" s="53">
+        <f>E13</f>
+        <v>160</v>
+      </c>
+      <c r="F14" s="53">
+        <f>0.002*0.15</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G14" s="53">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H14" s="53">
+        <f>H13</f>
+        <v>300</v>
+      </c>
+      <c r="I14" s="53">
+        <f>I13</f>
+        <v>160</v>
+      </c>
+      <c r="J14" s="71">
+        <f t="shared" ref="J14:J16" si="3">F10</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K14" s="83">
+        <f t="shared" si="0"/>
+        <v>7.0243902439024397E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="53">
+        <v>160</v>
+      </c>
+      <c r="F15" s="53">
+        <f>F13</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G15" s="53">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H15" s="53">
+        <v>300</v>
+      </c>
+      <c r="I15" s="53">
+        <v>160</v>
+      </c>
+      <c r="J15" s="71">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="K15" s="83">
+        <f t="shared" si="0"/>
+        <v>5.7485029940119753E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="33" t="str">
+        <f>B15</f>
+        <v>Plate 2</v>
+      </c>
+      <c r="C16" s="53" t="str">
+        <f>C15</f>
+        <v>Panel</v>
+      </c>
+      <c r="D16" s="33">
+        <f>D14</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E16" s="53">
+        <f>E15</f>
+        <v>160</v>
+      </c>
+      <c r="F16" s="53">
+        <f>F14</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G16" s="53">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H16" s="53">
+        <f>H15</f>
+        <v>300</v>
+      </c>
+      <c r="I16" s="53">
+        <f>I15</f>
+        <v>160</v>
+      </c>
+      <c r="J16" s="71">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K16" s="83">
+        <f t="shared" si="0"/>
+        <v>7.0243902439024397E-2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="23">
+        <f>0.005+0.125</f>
+        <v>0.13</v>
+      </c>
+      <c r="E17" s="52">
+        <f>I7</f>
+        <v>160</v>
+      </c>
+      <c r="F17" s="52">
+        <f>PI()*(0.125^2)*0.001</f>
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="G17" s="52">
+        <f t="shared" si="1"/>
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="H17" s="52">
+        <v>300</v>
+      </c>
+      <c r="I17" s="52">
+        <f>E17</f>
+        <v>160</v>
+      </c>
+      <c r="J17" s="52">
+        <f>J4</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K17" s="64">
+        <f t="shared" si="0"/>
+        <v>1.1811765605433695E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="60">
+        <v>50000</v>
+      </c>
+      <c r="E21" s="78">
+        <f>0.06^2*PI()</f>
+        <v>1.1309733552923255E-2</v>
+      </c>
+      <c r="F21" s="61">
+        <f>0.21</f>
+        <v>0.21</v>
+      </c>
+      <c r="G21" s="75">
+        <f t="shared" ref="G21:G27" si="4">D21*E21/F21</f>
+        <v>2692.7937030769658</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="60">
+        <v>50000</v>
+      </c>
+      <c r="E22" s="78">
+        <f>0.035^2*PI()</f>
+        <v>3.8484510006474969E-3</v>
+      </c>
+      <c r="F22" s="61">
+        <v>0.19</v>
+      </c>
+      <c r="G22" s="75">
+        <f t="shared" si="4"/>
+        <v>1012.7502633282887</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="60">
+        <f>D22</f>
+        <v>50000</v>
+      </c>
+      <c r="E23" s="78">
+        <f>0.025^2*PI()</f>
+        <v>1.9634954084936209E-3</v>
+      </c>
+      <c r="F23" s="61">
+        <v>0.11</v>
+      </c>
+      <c r="G23" s="75">
+        <f t="shared" si="4"/>
+        <v>892.49791295164584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="80"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="34" t="s">
+      <c r="B24" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="60">
+        <f>D22</f>
+        <v>50000</v>
+      </c>
+      <c r="E24" s="78">
+        <f>E23</f>
+        <v>1.9634954084936209E-3</v>
+      </c>
+      <c r="F24" s="61">
+        <v>0.31</v>
+      </c>
+      <c r="G24" s="75">
+        <f t="shared" si="4"/>
+        <v>316.69280782155175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="66">
+        <v>160</v>
+      </c>
+      <c r="E25" s="79">
+        <f>0.01^2*PI()</f>
+        <v>3.1415926535897931E-4</v>
+      </c>
+      <c r="F25" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="75">
+        <f t="shared" si="4"/>
+        <v>1.0053096491487337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="33" t="str">
+        <f>B27</f>
+        <v>Panel</v>
+      </c>
+      <c r="C26" s="53" t="str">
+        <f>C21</f>
+        <v>Rad_IR_Tel</v>
+      </c>
+      <c r="D26" s="33">
+        <v>0.24</v>
+      </c>
+      <c r="E26" s="80">
+        <f>0.001^2*PI()</f>
+        <v>3.1415926535897929E-6</v>
+      </c>
+      <c r="F26" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="G26" s="76">
+        <f t="shared" si="4"/>
+        <v>7.5398223686155033E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="23">
+        <v>0.24</v>
+      </c>
+      <c r="E27" s="81">
+        <f>E26</f>
+        <v>3.1415926535897929E-6</v>
+      </c>
+      <c r="F27" s="52">
+        <v>0.01</v>
+      </c>
+      <c r="G27" s="77">
+        <f t="shared" si="4"/>
+        <v>7.5398223686155033E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I28" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="62" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="80"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="80"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="81"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I12" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="59" t="s">
+      <c r="D31" s="33">
+        <v>500</v>
+      </c>
+      <c r="E31" s="53">
+        <f>0.04*0.04</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="F31" s="63">
+        <f>D31*E31</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="78" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="18">
-        <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="E14" s="19">
-        <f>MATERIALS!B31</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="74">
-        <f>PI()*(0.07^2)</f>
-        <v>1.5393804002589988E-2</v>
-      </c>
-      <c r="G14" s="79">
-        <f>D14*E14/F14</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="76"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="86" t="e">
-        <f t="shared" ref="G15:G27" si="0">D15*E15/F15</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="67" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="63" t="s">
+      <c r="B32" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="86" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="86" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="61" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="86" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="86" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="86" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="86" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="76"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="86" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="86" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="86" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="86" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="86" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="87" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I28" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="E30" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="F30" s="78" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="80"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="81"/>
+      <c r="D32" s="23">
+        <v>500</v>
+      </c>
+      <c r="E32" s="52">
+        <f>0.02*0.02</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F32" s="64">
+        <f>D32*E32</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
+++ b/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESATAN-TMS\ESATAN-TMS-Models\EO_Micro_Satellite_Project\Relevant Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C189FD6-19DA-40BB-9A32-B03473BC8725}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B19F41-5C2A-4780-A421-33511B85CC43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="778" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NODES&amp;LABELS (config1)" sheetId="1" r:id="rId1"/>
-    <sheet name="NODES&amp;LABELS (config2)" sheetId="5" r:id="rId2"/>
-    <sheet name="NODES&amp;LABELS (config3)" sheetId="7" r:id="rId3"/>
-    <sheet name="NODES&amp;LABELS (config45)" sheetId="8" r:id="rId4"/>
-    <sheet name="PROPERTIES" sheetId="2" r:id="rId5"/>
-    <sheet name="THERMO-OPTICALS" sheetId="3" r:id="rId6"/>
-    <sheet name="MATERIALS" sheetId="4" r:id="rId7"/>
-    <sheet name="GLs" sheetId="6" r:id="rId8"/>
+    <sheet name="NODES&amp;LABELS (cnfg5)" sheetId="8" r:id="rId1"/>
+    <sheet name="PROPERTIES" sheetId="2" r:id="rId2"/>
+    <sheet name="THERMO-OPTICALS" sheetId="3" r:id="rId3"/>
+    <sheet name="MATERIALS" sheetId="4" r:id="rId4"/>
+    <sheet name="GLs" sheetId="6" r:id="rId5"/>
+    <sheet name="NODES&amp;LABELS (config3)" sheetId="7" r:id="rId6"/>
+    <sheet name="NODES&amp;LABELS (config2)" sheetId="5" r:id="rId7"/>
+    <sheet name="NODES&amp;LABELS (config1)" sheetId="1" r:id="rId8"/>
+    <sheet name="GLs (2)" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,8 +86,53 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={BDFEC537-1183-4619-9C1A-E2728858C75D}</author>
+    <author>tc={F39D7AC3-F117-462C-AEC4-D2E1F36C7EAE}</author>
+    <author>tc={8E8E0BF6-9B7A-4B23-B066-8CC4C2B02C69}</author>
+    <author>tc={66787325-7481-41E9-A0C1-14CBE48CA2DF}</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{BDFEC537-1183-4619-9C1A-E2728858C75D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Distancia del nodo central a su borde</t>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="1" shapeId="0" xr:uid="{F39D7AC3-F117-462C-AEC4-D2E1F36C7EAE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    AREA DE ESE LATERAL</t>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="2" shapeId="0" xr:uid="{8E8E0BF6-9B7A-4B23-B066-8CC4C2B02C69}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    300 o 100 (hasta 1000)</t>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="3" shapeId="0" xr:uid="{66787325-7481-41E9-A0C1-14CBE48CA2DF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    PCB</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="202">
   <si>
     <t>ELEMENTO</t>
   </si>
@@ -691,6 +737,54 @@
   <si>
     <t>RAD_IR_TEL_2</t>
   </si>
+  <si>
+    <t>IR_TEL_STR_Rad_in</t>
+  </si>
+  <si>
+    <t>IR_TEL_STR_Rad_ext</t>
+  </si>
+  <si>
+    <t>IR_TEL_Obj</t>
+  </si>
+  <si>
+    <t>Panel_STR_Rad</t>
+  </si>
+  <si>
+    <t>RAD_STR</t>
+  </si>
+  <si>
+    <t>Rad_IR_TEL</t>
+  </si>
+  <si>
+    <t>RAD_IR_Tel_Support</t>
+  </si>
+  <si>
+    <t>RAD_STR_Support</t>
+  </si>
+  <si>
+    <t>Rad_disk_V_Rad</t>
+  </si>
+  <si>
+    <t>Rad_disk</t>
+  </si>
+  <si>
+    <t>IR_Tel_Asmbly_Rad_ext</t>
+  </si>
+  <si>
+    <t>IR_Tel_Asmbly_Rad_side</t>
+  </si>
+  <si>
+    <t>IR_Tel_Asmbly_RAD_rad_in</t>
+  </si>
+  <si>
+    <t>Sources temp heat pipes</t>
+  </si>
+  <si>
+    <t>https://sci-hub.st/https://link.springer.com/article/10.1007/s002310050097</t>
+  </si>
+  <si>
+    <t>http://www.thermalfluidscentral.org/encyclopedia/index.php/Heat_Pipe_Characteristics</t>
+  </si>
 </sst>
 </file>
 
@@ -701,7 +795,7 @@
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,6 +828,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -777,7 +885,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1347,12 +1455,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1491,16 +1679,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1512,6 +1694,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1521,6 +1709,52 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2633,13 +2867,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114112</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>154226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2684,7 +2918,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>78817</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>20055</xdr:rowOff>
+      <xdr:rowOff>12435</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2709,6 +2943,143 @@
         <a:xfrm>
           <a:off x="10256519" y="2096427"/>
           <a:ext cx="6700598" cy="5055948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>96862</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99018</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48FD4A1D-8022-4DAC-98F3-C367F9139CA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9865702" y="161925"/>
+          <a:ext cx="5065688" cy="1956393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114112</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>154226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B82607E2-C09D-4B55-8E3A-7A4B4AFC20C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7151370" y="5585460"/>
+          <a:ext cx="1512382" cy="641906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83819</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>77127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>78817</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>20055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF03723-C00D-4AAA-832C-C95270D7C8CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9852659" y="3201327"/>
+          <a:ext cx="6700598" cy="5094048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3004,7 +3375,3806 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D3" dT="2021-05-10T14:59:54.90" personId="{7FEA3327-5DCA-4904-9FA0-972C46AA4A40}" id="{BDFEC537-1183-4619-9C1A-E2728858C75D}">
+    <text>Distancia del nodo central a su borde</text>
+  </threadedComment>
+  <threadedComment ref="F3" dT="2021-05-10T14:59:03.21" personId="{7FEA3327-5DCA-4904-9FA0-972C46AA4A40}" id="{F39D7AC3-F117-462C-AEC4-D2E1F36C7EAE}">
+    <text>AREA DE ESE LATERAL</text>
+  </threadedComment>
+  <threadedComment ref="H3" dT="2021-05-10T14:59:22.47" personId="{7FEA3327-5DCA-4904-9FA0-972C46AA4A40}" id="{8E8E0BF6-9B7A-4B23-B066-8CC4C2B02C69}">
+    <text>300 o 100 (hasta 1000)</text>
+  </threadedComment>
+  <threadedComment ref="I4" dT="2021-05-10T18:29:49.85" personId="{7FEA3327-5DCA-4904-9FA0-972C46AA4A40}" id="{66787325-7481-41E9-A0C1-14CBE48CA2DF}">
+    <text>PCB</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808A1311-6419-4949-A2BB-3628B364634E}">
+  <dimension ref="A2:M32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="7" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="20">
+        <v>19999</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="22">
+        <v>10999</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E6" s="22">
+        <v>11999</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="67">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="68">
+        <v>11999</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="I7" s="3">
+        <v>12345</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="41">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="42">
+        <v>29999</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="22">
+        <v>20999</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="24">
+        <v>21000</v>
+      </c>
+      <c r="E10" s="25">
+        <v>21999</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="19">
+        <v>30000</v>
+      </c>
+      <c r="E11" s="20">
+        <v>39999</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="22">
+        <v>30999</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31000</v>
+      </c>
+      <c r="E13" s="22">
+        <v>31999</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="24">
+        <v>32000</v>
+      </c>
+      <c r="E14" s="25">
+        <v>32999</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="19">
+        <v>40000</v>
+      </c>
+      <c r="E15" s="20">
+        <v>49999</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40000</v>
+      </c>
+      <c r="E16" s="22">
+        <v>40499</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="2">
+        <v>40500</v>
+      </c>
+      <c r="E17" s="22">
+        <v>40999</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45000</v>
+      </c>
+      <c r="E18" s="22">
+        <v>45999</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2">
+        <v>41000</v>
+      </c>
+      <c r="E19" s="22">
+        <v>41999</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="29">
+        <v>42000</v>
+      </c>
+      <c r="E20" s="34">
+        <v>42999</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="29">
+        <v>43000</v>
+      </c>
+      <c r="E21" s="34">
+        <v>43999</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33"/>
+      <c r="B22" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="29">
+        <v>44000</v>
+      </c>
+      <c r="E22" s="34">
+        <v>44999</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="19">
+        <v>50000</v>
+      </c>
+      <c r="E23" s="20">
+        <v>59999</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E24" s="22">
+        <v>50999</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2">
+        <v>51000</v>
+      </c>
+      <c r="E25" s="22">
+        <v>51999</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="33"/>
+      <c r="B26" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="29">
+        <v>51000</v>
+      </c>
+      <c r="E26" s="34">
+        <v>51999</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="19">
+        <v>60000</v>
+      </c>
+      <c r="E27" s="20">
+        <v>69999</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="2">
+        <v>60000</v>
+      </c>
+      <c r="E28" s="22">
+        <v>60999</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="29">
+        <v>61000</v>
+      </c>
+      <c r="E29" s="34">
+        <v>61999</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="33"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="24">
+        <v>62000</v>
+      </c>
+      <c r="E30" s="25">
+        <v>62999</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="33"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="24">
+        <v>63000</v>
+      </c>
+      <c r="E31" s="25">
+        <v>63999</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="24">
+        <v>64000</v>
+      </c>
+      <c r="E32" s="25">
+        <v>64999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBE864F-9D47-4299-B304-91E8AAA86025}">
+  <dimension ref="B3:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>-75</v>
+      </c>
+      <c r="C5" s="12">
+        <v>3.9300000000000003E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>-45</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1.499E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>50</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2.2890000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>70</v>
+      </c>
+      <c r="C9" s="12">
+        <v>3.3680000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F00708A-3A2A-4030-B01E-19C8F86B1A4D}">
+  <dimension ref="A3:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="88"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="85"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="85"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="89"/>
+      <c r="L8" s="90"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="K10" s="89"/>
+      <c r="L10" s="90"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1</v>
+      </c>
+      <c r="K11" s="89"/>
+      <c r="L11" s="90"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="K5:L5"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAE4BA2-4334-46B3-8623-C9D04CC254E6}">
+  <dimension ref="A4:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="88"/>
+      <c r="H4" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" s="88"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="H5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="5">
+        <v>160</v>
+      </c>
+      <c r="C6" s="5">
+        <v>900</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2700</v>
+      </c>
+      <c r="E6" s="89"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="5">
+        <v>42</v>
+      </c>
+      <c r="J6" s="5">
+        <v>42</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>800</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1750</v>
+      </c>
+      <c r="N6" s="89"/>
+      <c r="O6" s="90"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="11">
+        <v>121</v>
+      </c>
+      <c r="C7" s="11">
+        <v>864</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2840</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="90"/>
+      <c r="G7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="11">
+        <v>130</v>
+      </c>
+      <c r="C8" s="5">
+        <v>960</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2810</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="90"/>
+      <c r="G8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="36">
+        <v>385</v>
+      </c>
+      <c r="C9" s="36">
+        <v>385</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7760</v>
+      </c>
+      <c r="E9" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="90"/>
+      <c r="G9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="5">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5300</v>
+      </c>
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="5">
+        <v>59</v>
+      </c>
+      <c r="C11" s="5">
+        <v>310</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5330</v>
+      </c>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="15">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>700</v>
+      </c>
+      <c r="D12" s="15">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="43">
+        <v>2</v>
+      </c>
+      <c r="C13" s="43">
+        <v>700</v>
+      </c>
+      <c r="D13" s="43">
+        <v>2200</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="43">
+        <v>124</v>
+      </c>
+      <c r="C14" s="46">
+        <v>794</v>
+      </c>
+      <c r="D14" s="46">
+        <v>2300</v>
+      </c>
+      <c r="E14" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="90"/>
+      <c r="G14" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>900</v>
+      </c>
+      <c r="D15" s="5">
+        <v>300</v>
+      </c>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9202D-ACAD-4878-A51F-5C577BBAB029}">
+  <dimension ref="A2:M47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="18">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="E4" s="50">
+        <f>MATERIALS!B14</f>
+        <v>124</v>
+      </c>
+      <c r="F4" s="69">
+        <f>PI()*(0.07^2)*0.001</f>
+        <v>1.5393804002589989E-5</v>
+      </c>
+      <c r="G4" s="19">
+        <f>MIN(F4,J4)</f>
+        <v>1.5393804002589989E-5</v>
+      </c>
+      <c r="H4" s="50">
+        <v>50</v>
+      </c>
+      <c r="I4" s="50">
+        <v>0.24</v>
+      </c>
+      <c r="J4" s="50">
+        <f>0.01*0.4</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K4" s="83">
+        <f>1 / ( (D4/(E4*F4)) + (1/(G4*H4))+(D4/(I4*J4)))</f>
+        <v>7.3421305756203787E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="33">
+        <f>0.001+0.08</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E5" s="53">
+        <f>MATERIALS!B11</f>
+        <v>59</v>
+      </c>
+      <c r="F5" s="73">
+        <f>PI()*(0.08^2)*0.01</f>
+        <v>2.0106192982974677E-4</v>
+      </c>
+      <c r="G5" s="72">
+        <f>MIN(F5,J5)</f>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="H5" s="53">
+        <v>100</v>
+      </c>
+      <c r="I5" s="53">
+        <v>0.24</v>
+      </c>
+      <c r="J5" s="53">
+        <f>PI()*(0.08^2)*0.002</f>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="K5" s="83">
+        <f t="shared" ref="K5:K17" si="0">1 / ( (D5/(E5*F5)) + (1/(G5*H5))+(D5/(I5*J5)))</f>
+        <v>1.1562773333549455E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="21">
+        <f>0.01+0.07</f>
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="53">
+        <f>I5</f>
+        <v>0.24</v>
+      </c>
+      <c r="F6" s="53">
+        <f>J5</f>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="G6" s="53">
+        <f t="shared" ref="G6:G17" si="1">MIN(F6,J6)</f>
+        <v>1.5393804002589989E-5</v>
+      </c>
+      <c r="H6" s="53">
+        <v>100</v>
+      </c>
+      <c r="I6" s="53">
+        <v>0.24</v>
+      </c>
+      <c r="J6" s="70">
+        <f>F4</f>
+        <v>1.5393804002589989E-5</v>
+      </c>
+      <c r="K6" s="83">
+        <f t="shared" si="0"/>
+        <v>3.2687573197271373E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="33">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E7" s="53">
+        <f>E6</f>
+        <v>0.24</v>
+      </c>
+      <c r="F7" s="53">
+        <f>F6</f>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="G7" s="53">
+        <f t="shared" si="1"/>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="H7" s="53">
+        <v>100</v>
+      </c>
+      <c r="I7" s="53">
+        <f>MATERIALS!B6</f>
+        <v>160</v>
+      </c>
+      <c r="J7" s="71">
+        <f>F17</f>
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="K7" s="83">
+        <f t="shared" si="0"/>
+        <v>2.0336976997947383E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.13</v>
+      </c>
+      <c r="E8" s="53">
+        <v>160</v>
+      </c>
+      <c r="F8" s="53">
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="G8" s="53">
+        <f t="shared" si="1"/>
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="H8" s="53">
+        <v>300</v>
+      </c>
+      <c r="I8" s="53">
+        <v>160</v>
+      </c>
+      <c r="J8" s="71">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K8" s="83">
+        <f t="shared" si="0"/>
+        <v>1.1811765605433695E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="53">
+        <v>160</v>
+      </c>
+      <c r="F9" s="53">
+        <f>0.002*0.125</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G9" s="53">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H9" s="53">
+        <v>300</v>
+      </c>
+      <c r="I9" s="53">
+        <v>160</v>
+      </c>
+      <c r="J9" s="71">
+        <f>F13</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K9" s="83">
+        <f t="shared" si="0"/>
+        <v>5.7485029940119753E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="33" t="str">
+        <f>B9</f>
+        <v>Panel</v>
+      </c>
+      <c r="C10" s="53" t="str">
+        <f>C9</f>
+        <v>Plate 1</v>
+      </c>
+      <c r="D10" s="33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E10" s="53">
+        <f>E9</f>
+        <v>160</v>
+      </c>
+      <c r="F10" s="53">
+        <f>0.002*0.15</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G10" s="53">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H10" s="53">
+        <f>H9</f>
+        <v>300</v>
+      </c>
+      <c r="I10" s="53">
+        <f>I9</f>
+        <v>160</v>
+      </c>
+      <c r="J10" s="71">
+        <f t="shared" ref="J10:J12" si="2">F14</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K10" s="83">
+        <f t="shared" si="0"/>
+        <v>7.0243902439024397E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="53">
+        <v>160</v>
+      </c>
+      <c r="F11" s="53">
+        <f>F9</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G11" s="53">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H11" s="53">
+        <v>300</v>
+      </c>
+      <c r="I11" s="53">
+        <v>160</v>
+      </c>
+      <c r="J11" s="71">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K11" s="83">
+        <f t="shared" si="0"/>
+        <v>5.7485029940119753E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="33" t="str">
+        <f>B11</f>
+        <v>Panel</v>
+      </c>
+      <c r="C12" s="53" t="str">
+        <f>C11</f>
+        <v>Plate 2</v>
+      </c>
+      <c r="D12" s="33">
+        <f>D10</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E12" s="53">
+        <f>E11</f>
+        <v>160</v>
+      </c>
+      <c r="F12" s="53">
+        <f>F10</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G12" s="53">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H12" s="53">
+        <f>H11</f>
+        <v>300</v>
+      </c>
+      <c r="I12" s="53">
+        <f>I11</f>
+        <v>160</v>
+      </c>
+      <c r="J12" s="71">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K12" s="83">
+        <f t="shared" si="0"/>
+        <v>7.0243902439024397E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="53">
+        <v>160</v>
+      </c>
+      <c r="F13" s="53">
+        <f>0.002*0.2</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G13" s="53">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H13" s="53">
+        <v>300</v>
+      </c>
+      <c r="I13" s="53">
+        <v>160</v>
+      </c>
+      <c r="J13" s="71">
+        <f>F9</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="K13" s="83">
+        <f t="shared" si="0"/>
+        <v>5.7485029940119753E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="33" t="str">
+        <f>B13</f>
+        <v>Plate 1</v>
+      </c>
+      <c r="C14" s="53" t="str">
+        <f>C13</f>
+        <v>Panel</v>
+      </c>
+      <c r="D14" s="33">
+        <f>D12</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E14" s="53">
+        <f>E13</f>
+        <v>160</v>
+      </c>
+      <c r="F14" s="53">
+        <f>0.002*0.15</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G14" s="53">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H14" s="53">
+        <f>H13</f>
+        <v>300</v>
+      </c>
+      <c r="I14" s="53">
+        <f>I13</f>
+        <v>160</v>
+      </c>
+      <c r="J14" s="71">
+        <f t="shared" ref="J14:J16" si="3">F10</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K14" s="83">
+        <f t="shared" si="0"/>
+        <v>7.0243902439024397E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="53">
+        <v>160</v>
+      </c>
+      <c r="F15" s="53">
+        <f>F13</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G15" s="53">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H15" s="53">
+        <v>300</v>
+      </c>
+      <c r="I15" s="53">
+        <v>160</v>
+      </c>
+      <c r="J15" s="71">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="K15" s="83">
+        <f t="shared" si="0"/>
+        <v>5.7485029940119753E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="33" t="str">
+        <f>B15</f>
+        <v>Plate 2</v>
+      </c>
+      <c r="C16" s="53" t="str">
+        <f>C15</f>
+        <v>Panel</v>
+      </c>
+      <c r="D16" s="33">
+        <f>D14</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E16" s="53">
+        <f>E15</f>
+        <v>160</v>
+      </c>
+      <c r="F16" s="53">
+        <f>F14</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G16" s="53">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H16" s="53">
+        <f>H15</f>
+        <v>300</v>
+      </c>
+      <c r="I16" s="53">
+        <f>I15</f>
+        <v>160</v>
+      </c>
+      <c r="J16" s="71">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K16" s="83">
+        <f t="shared" si="0"/>
+        <v>7.0243902439024397E-2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="23">
+        <f>0.005+0.125</f>
+        <v>0.13</v>
+      </c>
+      <c r="E17" s="52">
+        <f>I7</f>
+        <v>160</v>
+      </c>
+      <c r="F17" s="52">
+        <f>PI()*(0.125^2)*0.001</f>
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="G17" s="52">
+        <f t="shared" si="1"/>
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="H17" s="52">
+        <v>300</v>
+      </c>
+      <c r="I17" s="52">
+        <f>E17</f>
+        <v>160</v>
+      </c>
+      <c r="J17" s="52">
+        <f>J4</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K17" s="64">
+        <f t="shared" si="0"/>
+        <v>1.1811765605433695E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="100" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="106">
+        <v>4500</v>
+      </c>
+      <c r="E21" s="101">
+        <f>0.025^2*PI()</f>
+        <v>1.9634954084936209E-3</v>
+      </c>
+      <c r="F21" s="103">
+        <f>0.21</f>
+        <v>0.21</v>
+      </c>
+      <c r="G21" s="104">
+        <f t="shared" ref="G21:I34" si="4">D21*E21/F21</f>
+        <v>42.074901610577591</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="107">
+        <v>4500</v>
+      </c>
+      <c r="E22" s="78">
+        <f>0.015^2*PI()</f>
+        <v>7.0685834705770342E-4</v>
+      </c>
+      <c r="F22" s="61">
+        <v>0.19</v>
+      </c>
+      <c r="G22" s="75">
+        <f t="shared" si="4"/>
+        <v>16.741381903998239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="107">
+        <v>4500</v>
+      </c>
+      <c r="E23" s="78">
+        <f>0.01^2*PI()</f>
+        <v>3.1415926535897931E-4</v>
+      </c>
+      <c r="F23" s="61">
+        <v>0.35</v>
+      </c>
+      <c r="G23" s="75">
+        <f t="shared" si="4"/>
+        <v>4.0391905546154483</v>
+      </c>
+      <c r="I23" s="115" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="112" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="107">
+        <v>4500</v>
+      </c>
+      <c r="E24" s="78">
+        <f>0.01^2*PI()</f>
+        <v>3.1415926535897931E-4</v>
+      </c>
+      <c r="F24" s="61">
+        <v>0.16</v>
+      </c>
+      <c r="G24" s="75">
+        <f t="shared" si="4"/>
+        <v>8.8357293382212934</v>
+      </c>
+      <c r="I24" s="114" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="102" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" s="112" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="108">
+        <v>4500</v>
+      </c>
+      <c r="E25" s="78">
+        <f>0.01^2*PI()</f>
+        <v>3.1415926535897931E-4</v>
+      </c>
+      <c r="F25" s="51">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="75">
+        <f t="shared" si="4"/>
+        <v>28.274333882308138</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="102" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="112" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="108">
+        <v>4500</v>
+      </c>
+      <c r="E26" s="78">
+        <f>0.01^2*PI()</f>
+        <v>3.1415926535897931E-4</v>
+      </c>
+      <c r="F26" s="51">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="G26" s="75">
+        <f t="shared" si="4"/>
+        <v>3.6719914132867713</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="107">
+        <f>D22</f>
+        <v>4500</v>
+      </c>
+      <c r="E27" s="78">
+        <f>0.01^2*PI()</f>
+        <v>3.1415926535897931E-4</v>
+      </c>
+      <c r="F27" s="61">
+        <v>0.31</v>
+      </c>
+      <c r="G27" s="75">
+        <f>D27*E27/F27</f>
+        <v>4.5603764326303446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="107">
+        <f>D22</f>
+        <v>4500</v>
+      </c>
+      <c r="E28" s="78">
+        <f>E27</f>
+        <v>3.1415926535897931E-4</v>
+      </c>
+      <c r="F28" s="61">
+        <v>0.11</v>
+      </c>
+      <c r="G28" s="75">
+        <f t="shared" si="4"/>
+        <v>12.851969946503699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="109">
+        <v>160</v>
+      </c>
+      <c r="E29" s="79">
+        <f>0.01^2*PI()</f>
+        <v>3.1415926535897931E-4</v>
+      </c>
+      <c r="F29" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="G29" s="75">
+        <f t="shared" si="4"/>
+        <v>1.0053096491487337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="109">
+        <v>4500</v>
+      </c>
+      <c r="E30" s="79">
+        <f>0.06^2*PI()</f>
+        <v>1.1309733552923255E-2</v>
+      </c>
+      <c r="F30" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="G30" s="75">
+        <f t="shared" ref="G30:G32" si="5">D30*E30/F30</f>
+        <v>5089.3800988154644</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="102" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="112" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="110">
+        <v>0.24</v>
+      </c>
+      <c r="E31" s="95">
+        <f>0.001^2*PI()</f>
+        <v>3.1415926535897929E-6</v>
+      </c>
+      <c r="F31" s="51">
+        <v>0.01</v>
+      </c>
+      <c r="G31" s="75">
+        <f t="shared" si="5"/>
+        <v>7.5398223686155033E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="110">
+        <v>0.24</v>
+      </c>
+      <c r="E32" s="95">
+        <f>0.001^2*PI()</f>
+        <v>3.1415926535897929E-6</v>
+      </c>
+      <c r="F32" s="51">
+        <v>0.01</v>
+      </c>
+      <c r="G32" s="75">
+        <f t="shared" si="5"/>
+        <v>7.5398223686155033E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <f>B34</f>
+        <v>Panel</v>
+      </c>
+      <c r="C33" s="22" t="str">
+        <f>C21</f>
+        <v>Rad_IR_Tel</v>
+      </c>
+      <c r="D33" s="110">
+        <v>0.24</v>
+      </c>
+      <c r="E33" s="95">
+        <f>0.001^2*PI()</f>
+        <v>3.1415926535897929E-6</v>
+      </c>
+      <c r="F33" s="51">
+        <v>0.01</v>
+      </c>
+      <c r="G33" s="75">
+        <f>D33*E33/F33</f>
+        <v>7.5398223686155033E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="111">
+        <v>0.24</v>
+      </c>
+      <c r="E34" s="81">
+        <f>E33</f>
+        <v>3.1415926535897929E-6</v>
+      </c>
+      <c r="F34" s="52">
+        <v>0.01</v>
+      </c>
+      <c r="G34" s="77">
+        <f t="shared" si="4"/>
+        <v>7.5398223686155033E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="62" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="33">
+        <v>500</v>
+      </c>
+      <c r="E38" s="53">
+        <f>0.04*0.08</f>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="F38" s="63">
+        <f>D38*E38</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="23">
+        <v>500</v>
+      </c>
+      <c r="E39" s="52">
+        <f>0.02*0.02</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F39" s="64">
+        <f>D39*E39</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF39B4B1-3F1C-4EF1-9A04-9C094A06A8EE}">
+  <dimension ref="A2:M31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="7" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="20">
+        <v>19999</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="22">
+        <v>10999</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E6" s="22">
+        <v>11999</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="67">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="68">
+        <v>11999</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="I7" s="3">
+        <v>12345</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="41">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="42">
+        <v>29999</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="22">
+        <v>20999</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="24">
+        <v>21000</v>
+      </c>
+      <c r="E10" s="25">
+        <v>21999</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="19">
+        <v>30000</v>
+      </c>
+      <c r="E11" s="20">
+        <v>39999</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="22">
+        <v>30999</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31000</v>
+      </c>
+      <c r="E13" s="22">
+        <v>31999</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="24">
+        <v>32000</v>
+      </c>
+      <c r="E14" s="25">
+        <v>32999</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="19">
+        <v>40000</v>
+      </c>
+      <c r="E15" s="20">
+        <v>49999</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40000</v>
+      </c>
+      <c r="E16" s="22">
+        <v>40499</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="2">
+        <v>40500</v>
+      </c>
+      <c r="E17" s="22">
+        <v>40999</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45000</v>
+      </c>
+      <c r="E18" s="22">
+        <v>45999</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2">
+        <v>41000</v>
+      </c>
+      <c r="E19" s="22">
+        <v>41999</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="29">
+        <v>42000</v>
+      </c>
+      <c r="E20" s="34">
+        <v>42999</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="29">
+        <v>43000</v>
+      </c>
+      <c r="E21" s="34">
+        <v>43999</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33"/>
+      <c r="B22" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="29">
+        <v>44000</v>
+      </c>
+      <c r="E22" s="34">
+        <v>44999</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="19">
+        <v>50000</v>
+      </c>
+      <c r="E23" s="20">
+        <v>59999</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E24" s="22">
+        <v>50999</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2">
+        <v>51000</v>
+      </c>
+      <c r="E25" s="22">
+        <v>51999</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="33"/>
+      <c r="B26" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="29">
+        <v>51000</v>
+      </c>
+      <c r="E26" s="34">
+        <v>51999</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="19">
+        <v>60000</v>
+      </c>
+      <c r="E27" s="20">
+        <v>69999</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="2">
+        <v>60000</v>
+      </c>
+      <c r="E28" s="22">
+        <v>60999</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="29">
+        <v>61000</v>
+      </c>
+      <c r="E29" s="34">
+        <v>61999</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="33"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="24">
+        <v>62000</v>
+      </c>
+      <c r="E30" s="25">
+        <v>62999</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="24">
+        <v>63000</v>
+      </c>
+      <c r="E31" s="25">
+        <v>63999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CF5359-1665-44CF-A856-0B357D0D1ACE}">
+  <dimension ref="A2:M29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="7" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="20">
+        <v>19999</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="22">
+        <v>10999</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E6" s="22">
+        <v>11999</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="67">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="68">
+        <v>11999</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="I7" s="3">
+        <v>12345</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="41">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="42">
+        <v>29999</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="22">
+        <v>20999</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="24">
+        <v>21000</v>
+      </c>
+      <c r="E10" s="25">
+        <v>21999</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="19">
+        <v>30000</v>
+      </c>
+      <c r="E11" s="20">
+        <v>39999</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="22">
+        <v>30999</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31000</v>
+      </c>
+      <c r="E13" s="22">
+        <v>31999</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="24">
+        <v>32000</v>
+      </c>
+      <c r="E14" s="25">
+        <v>32999</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="19">
+        <v>40000</v>
+      </c>
+      <c r="E15" s="20">
+        <v>49999</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40000</v>
+      </c>
+      <c r="E16" s="22">
+        <v>40499</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="2">
+        <v>40500</v>
+      </c>
+      <c r="E17" s="22">
+        <v>40999</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45000</v>
+      </c>
+      <c r="E18" s="22">
+        <v>45999</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2">
+        <v>41000</v>
+      </c>
+      <c r="E19" s="22">
+        <v>41999</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="29">
+        <v>42000</v>
+      </c>
+      <c r="E20" s="34">
+        <v>42999</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="29">
+        <v>43000</v>
+      </c>
+      <c r="E21" s="34">
+        <v>43999</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33"/>
+      <c r="B22" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="29">
+        <v>44000</v>
+      </c>
+      <c r="E22" s="34">
+        <v>44999</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="19">
+        <v>50000</v>
+      </c>
+      <c r="E23" s="20">
+        <v>59999</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E24" s="22">
+        <v>50999</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2">
+        <v>51000</v>
+      </c>
+      <c r="E25" s="22">
+        <v>51999</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="33"/>
+      <c r="B26" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="29">
+        <v>52000</v>
+      </c>
+      <c r="E26" s="34">
+        <v>52999</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="19">
+        <v>60000</v>
+      </c>
+      <c r="E27" s="20">
+        <v>69999</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="2">
+        <v>60000</v>
+      </c>
+      <c r="E28" s="22">
+        <v>69999</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="24">
+        <v>61000</v>
+      </c>
+      <c r="E29" s="25">
+        <v>69999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M24"/>
   <sheetViews>
@@ -3478,2665 +7648,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CF5359-1665-44CF-A856-0B357D0D1ACE}">
-  <dimension ref="A2:M29"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AF8544-D7D6-4224-89B9-DF05E87627C2}">
+  <dimension ref="A2:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="7" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="19">
-        <v>10000</v>
-      </c>
-      <c r="E4" s="20">
-        <v>19999</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="22">
-        <v>10999</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="2">
-        <v>11000</v>
-      </c>
-      <c r="E6" s="22">
-        <v>11999</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
-      <c r="B7" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="67">
-        <v>12000</v>
-      </c>
-      <c r="E7" s="68">
-        <v>11999</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="I7" s="3">
-        <v>12345</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="41">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="42">
-        <v>29999</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2">
-        <v>20000</v>
-      </c>
-      <c r="E9" s="22">
-        <v>20999</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="24">
-        <v>21000</v>
-      </c>
-      <c r="E10" s="25">
-        <v>21999</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="19">
-        <v>30000</v>
-      </c>
-      <c r="E11" s="20">
-        <v>39999</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2">
-        <v>30000</v>
-      </c>
-      <c r="E12" s="22">
-        <v>30999</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2">
-        <v>31000</v>
-      </c>
-      <c r="E13" s="22">
-        <v>31999</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="24">
-        <v>32000</v>
-      </c>
-      <c r="E14" s="25">
-        <v>32999</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="35"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="19">
-        <v>40000</v>
-      </c>
-      <c r="E15" s="20">
-        <v>49999</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="2">
-        <v>40000</v>
-      </c>
-      <c r="E16" s="22">
-        <v>40499</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="2">
-        <v>40500</v>
-      </c>
-      <c r="E17" s="22">
-        <v>40999</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45000</v>
-      </c>
-      <c r="E18" s="22">
-        <v>45999</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="2">
-        <v>41000</v>
-      </c>
-      <c r="E19" s="22">
-        <v>41999</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="29">
-        <v>42000</v>
-      </c>
-      <c r="E20" s="34">
-        <v>42999</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="29">
-        <v>43000</v>
-      </c>
-      <c r="E21" s="34">
-        <v>43999</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
-      <c r="B22" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="29">
-        <v>44000</v>
-      </c>
-      <c r="E22" s="34">
-        <v>44999</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="19">
-        <v>50000</v>
-      </c>
-      <c r="E23" s="20">
-        <v>59999</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="2">
-        <v>50000</v>
-      </c>
-      <c r="E24" s="22">
-        <v>50999</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="2">
-        <v>51000</v>
-      </c>
-      <c r="E25" s="22">
-        <v>51999</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
-      <c r="B26" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="29">
-        <v>52000</v>
-      </c>
-      <c r="E26" s="34">
-        <v>52999</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="19">
-        <v>60000</v>
-      </c>
-      <c r="E27" s="20">
-        <v>69999</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="2">
-        <v>60000</v>
-      </c>
-      <c r="E28" s="22">
-        <v>69999</v>
-      </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="24">
-        <v>61000</v>
-      </c>
-      <c r="E29" s="25">
-        <v>69999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF39B4B1-3F1C-4EF1-9A04-9C094A06A8EE}">
-  <dimension ref="A2:M31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="7" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="19">
-        <v>10000</v>
-      </c>
-      <c r="E4" s="20">
-        <v>19999</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="22">
-        <v>10999</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="2">
-        <v>11000</v>
-      </c>
-      <c r="E6" s="22">
-        <v>11999</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
-      <c r="B7" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="67">
-        <v>12000</v>
-      </c>
-      <c r="E7" s="68">
-        <v>11999</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="I7" s="3">
-        <v>12345</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="41">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="42">
-        <v>29999</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2">
-        <v>20000</v>
-      </c>
-      <c r="E9" s="22">
-        <v>20999</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="24">
-        <v>21000</v>
-      </c>
-      <c r="E10" s="25">
-        <v>21999</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="19">
-        <v>30000</v>
-      </c>
-      <c r="E11" s="20">
-        <v>39999</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2">
-        <v>30000</v>
-      </c>
-      <c r="E12" s="22">
-        <v>30999</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2">
-        <v>31000</v>
-      </c>
-      <c r="E13" s="22">
-        <v>31999</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="24">
-        <v>32000</v>
-      </c>
-      <c r="E14" s="25">
-        <v>32999</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="35"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="19">
-        <v>40000</v>
-      </c>
-      <c r="E15" s="20">
-        <v>49999</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="2">
-        <v>40000</v>
-      </c>
-      <c r="E16" s="22">
-        <v>40499</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="2">
-        <v>40500</v>
-      </c>
-      <c r="E17" s="22">
-        <v>40999</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45000</v>
-      </c>
-      <c r="E18" s="22">
-        <v>45999</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="2">
-        <v>41000</v>
-      </c>
-      <c r="E19" s="22">
-        <v>41999</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="29">
-        <v>42000</v>
-      </c>
-      <c r="E20" s="34">
-        <v>42999</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="29">
-        <v>43000</v>
-      </c>
-      <c r="E21" s="34">
-        <v>43999</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
-      <c r="B22" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="29">
-        <v>44000</v>
-      </c>
-      <c r="E22" s="34">
-        <v>44999</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="19">
-        <v>50000</v>
-      </c>
-      <c r="E23" s="20">
-        <v>59999</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="2">
-        <v>50000</v>
-      </c>
-      <c r="E24" s="22">
-        <v>50999</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="2">
-        <v>51000</v>
-      </c>
-      <c r="E25" s="22">
-        <v>51999</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
-      <c r="B26" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="29">
-        <v>51000</v>
-      </c>
-      <c r="E26" s="34">
-        <v>51999</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="19">
-        <v>60000</v>
-      </c>
-      <c r="E27" s="20">
-        <v>69999</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="2">
-        <v>60000</v>
-      </c>
-      <c r="E28" s="22">
-        <v>60999</v>
-      </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="29">
-        <v>61000</v>
-      </c>
-      <c r="E29" s="34">
-        <v>61999</v>
-      </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="33"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="D30" s="24">
-        <v>62000</v>
-      </c>
-      <c r="E30" s="25">
-        <v>62999</v>
-      </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="24">
-        <v>63000</v>
-      </c>
-      <c r="E31" s="25">
-        <v>63999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808A1311-6419-4949-A2BB-3628B364634E}">
-  <dimension ref="A2:M32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="7" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="19">
-        <v>10000</v>
-      </c>
-      <c r="E4" s="20">
-        <v>19999</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="22">
-        <v>10999</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="2">
-        <v>11000</v>
-      </c>
-      <c r="E6" s="22">
-        <v>11999</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
-      <c r="B7" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="67">
-        <v>12000</v>
-      </c>
-      <c r="E7" s="68">
-        <v>11999</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="I7" s="3">
-        <v>12345</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="41">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="42">
-        <v>29999</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2">
-        <v>20000</v>
-      </c>
-      <c r="E9" s="22">
-        <v>20999</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="24">
-        <v>21000</v>
-      </c>
-      <c r="E10" s="25">
-        <v>21999</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="19">
-        <v>30000</v>
-      </c>
-      <c r="E11" s="20">
-        <v>39999</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2">
-        <v>30000</v>
-      </c>
-      <c r="E12" s="22">
-        <v>30999</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2">
-        <v>31000</v>
-      </c>
-      <c r="E13" s="22">
-        <v>31999</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="24">
-        <v>32000</v>
-      </c>
-      <c r="E14" s="25">
-        <v>32999</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="35"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="19">
-        <v>40000</v>
-      </c>
-      <c r="E15" s="20">
-        <v>49999</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="2">
-        <v>40000</v>
-      </c>
-      <c r="E16" s="22">
-        <v>40499</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="2">
-        <v>40500</v>
-      </c>
-      <c r="E17" s="22">
-        <v>40999</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45000</v>
-      </c>
-      <c r="E18" s="22">
-        <v>45999</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="2">
-        <v>41000</v>
-      </c>
-      <c r="E19" s="22">
-        <v>41999</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="29">
-        <v>42000</v>
-      </c>
-      <c r="E20" s="34">
-        <v>42999</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="29">
-        <v>43000</v>
-      </c>
-      <c r="E21" s="34">
-        <v>43999</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
-      <c r="B22" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="29">
-        <v>44000</v>
-      </c>
-      <c r="E22" s="34">
-        <v>44999</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="19">
-        <v>50000</v>
-      </c>
-      <c r="E23" s="20">
-        <v>59999</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="2">
-        <v>50000</v>
-      </c>
-      <c r="E24" s="22">
-        <v>50999</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="2">
-        <v>51000</v>
-      </c>
-      <c r="E25" s="22">
-        <v>51999</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
-      <c r="B26" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="29">
-        <v>51000</v>
-      </c>
-      <c r="E26" s="34">
-        <v>51999</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="19">
-        <v>60000</v>
-      </c>
-      <c r="E27" s="20">
-        <v>69999</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="2">
-        <v>60000</v>
-      </c>
-      <c r="E28" s="22">
-        <v>60999</v>
-      </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D29" s="29">
-        <v>61000</v>
-      </c>
-      <c r="E29" s="34">
-        <v>61999</v>
-      </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="33"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" s="24">
-        <v>62000</v>
-      </c>
-      <c r="E30" s="25">
-        <v>62999</v>
-      </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="33"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="24">
-        <v>63000</v>
-      </c>
-      <c r="E31" s="25">
-        <v>63999</v>
-      </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="D32" s="24">
-        <v>64000</v>
-      </c>
-      <c r="E32" s="25">
-        <v>64999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBE864F-9D47-4299-B304-91E8AAA86025}">
-  <dimension ref="B3:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D40:D41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
-        <v>-75</v>
-      </c>
-      <c r="C5" s="12">
-        <v>3.9300000000000003E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
-        <v>-45</v>
-      </c>
-      <c r="C6" s="12">
-        <v>1.04E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12">
-        <v>1.499E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
-        <v>50</v>
-      </c>
-      <c r="C8" s="12">
-        <v>2.2890000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
-        <v>70</v>
-      </c>
-      <c r="C9" s="12">
-        <v>3.3680000000000002E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F00708A-3A2A-4030-B01E-19C8F86B1A4D}">
-  <dimension ref="A3:L17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="90"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="L5" s="84"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.85</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="K6" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="84"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0.92</v>
-      </c>
-      <c r="K10" s="85"/>
-      <c r="L10" s="86"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10">
-        <v>1</v>
-      </c>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0.98</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10">
-        <v>0</v>
-      </c>
-      <c r="J16" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K8:L8"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAE4BA2-4334-46B3-8623-C9D04CC254E6}">
-  <dimension ref="A4:O15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="90"/>
-      <c r="H4" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4" s="90"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="H5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="5">
-        <v>160</v>
-      </c>
-      <c r="C6" s="5">
-        <v>900</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2700</v>
-      </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="5">
-        <v>42</v>
-      </c>
-      <c r="J6" s="5">
-        <v>42</v>
-      </c>
-      <c r="K6" s="5">
-        <v>5</v>
-      </c>
-      <c r="L6" s="5">
-        <v>800</v>
-      </c>
-      <c r="M6" s="5">
-        <v>1750</v>
-      </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="86"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="11">
-        <v>121</v>
-      </c>
-      <c r="C7" s="11">
-        <v>864</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2840</v>
-      </c>
-      <c r="E7" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="11">
-        <v>130</v>
-      </c>
-      <c r="C8" s="5">
-        <v>960</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2810</v>
-      </c>
-      <c r="E8" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="36">
-        <v>385</v>
-      </c>
-      <c r="C9" s="36">
-        <v>385</v>
-      </c>
-      <c r="D9" s="3">
-        <v>7760</v>
-      </c>
-      <c r="E9" s="85" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="5">
-        <v>55</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5300</v>
-      </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="5">
-        <v>59</v>
-      </c>
-      <c r="C11" s="5">
-        <v>310</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5330</v>
-      </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="15">
-        <v>2</v>
-      </c>
-      <c r="C12" s="15">
-        <v>700</v>
-      </c>
-      <c r="D12" s="15">
-        <v>2200</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="43">
-        <v>2</v>
-      </c>
-      <c r="C13" s="43">
-        <v>700</v>
-      </c>
-      <c r="D13" s="43">
-        <v>2200</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="43">
-        <v>124</v>
-      </c>
-      <c r="C14" s="46">
-        <v>794</v>
-      </c>
-      <c r="D14" s="46">
-        <v>2300</v>
-      </c>
-      <c r="E14" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>900</v>
-      </c>
-      <c r="D15" s="5">
-        <v>300</v>
-      </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E14:F14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9202D-ACAD-4878-A51F-5C577BBAB029}">
-  <dimension ref="A2:M40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C40" sqref="C40"/>
+      <selection pane="topRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6818,7 +8336,7 @@
         <v>0.21</v>
       </c>
       <c r="G21" s="75">
-        <f t="shared" ref="G21:G27" si="4">D21*E21/F21</f>
+        <f t="shared" ref="G21:G30" si="4">D21*E21/F21</f>
         <v>2692.7937030769658</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -6852,215 +8370,252 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="75"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B26" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C26" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="60">
+      <c r="D26" s="60">
         <f>D22</f>
         <v>50000</v>
       </c>
-      <c r="E23" s="78">
+      <c r="E26" s="78">
         <f>0.025^2*PI()</f>
         <v>1.9634954084936209E-3</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F26" s="61">
         <v>0.11</v>
       </c>
-      <c r="G23" s="75">
-        <f t="shared" si="4"/>
+      <c r="G26" s="75">
+        <f>D26*E26/F26</f>
         <v>892.49791295164584</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="57" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B27" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C27" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D27" s="60">
         <f>D22</f>
         <v>50000</v>
       </c>
-      <c r="E24" s="78">
-        <f>E23</f>
+      <c r="E27" s="78">
+        <f>E26</f>
         <v>1.9634954084936209E-3</v>
       </c>
-      <c r="F24" s="61">
+      <c r="F27" s="61">
         <v>0.31</v>
       </c>
-      <c r="G24" s="75">
+      <c r="G27" s="75">
         <f t="shared" si="4"/>
         <v>316.69280782155175</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="57" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B28" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C28" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="D25" s="66">
+      <c r="D28" s="66">
         <v>160</v>
       </c>
-      <c r="E25" s="79">
+      <c r="E28" s="79">
         <f>0.01^2*PI()</f>
         <v>3.1415926535897931E-4</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F28" s="65">
         <v>0.05</v>
       </c>
-      <c r="G25" s="75">
+      <c r="G28" s="75">
         <f t="shared" si="4"/>
         <v>1.0053096491487337</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="33" t="str">
-        <f>B27</f>
+      <c r="B29" s="33" t="str">
+        <f>B30</f>
         <v>Panel</v>
       </c>
-      <c r="C26" s="53" t="str">
+      <c r="C29" s="53" t="str">
         <f>C21</f>
         <v>Rad_IR_Tel</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D29" s="33">
         <v>0.24</v>
       </c>
-      <c r="E26" s="80">
+      <c r="E29" s="80">
         <f>0.001^2*PI()</f>
         <v>3.1415926535897929E-6</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F29" s="53">
         <v>0.01</v>
       </c>
-      <c r="G26" s="76">
+      <c r="G29" s="76">
         <f t="shared" si="4"/>
         <v>7.5398223686155033E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="58" t="s">
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B30" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C30" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D30" s="23">
         <v>0.24</v>
       </c>
-      <c r="E27" s="81">
-        <f>E26</f>
+      <c r="E30" s="81">
+        <f>E29</f>
         <v>3.1415926535897929E-6</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F30" s="52">
         <v>0.01</v>
       </c>
-      <c r="G27" s="77">
+      <c r="G30" s="77">
         <f t="shared" si="4"/>
         <v>7.5398223686155033E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I28" s="1" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I31" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="54" t="s">
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B33" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C33" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D33" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="E30" s="49" t="s">
+      <c r="E33" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="62" t="s">
+      <c r="F33" s="62" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="57" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B34" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C34" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D34" s="33">
         <v>500</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E34" s="53">
         <f>0.04*0.04</f>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="F31" s="63">
-        <f>D31*E31</f>
+      <c r="F34" s="63">
+        <f>D34*E34</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="58" t="s">
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B35" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C35" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D35" s="23">
         <v>500</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E35" s="52">
         <f>0.02*0.02</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F32" s="64">
-        <f>D32*E32</f>
+      <c r="F35" s="64">
+        <f>D35*E35</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="H36" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
         <v>182</v>
       </c>
     </row>

--- a/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
+++ b/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
@@ -2,26 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESATAN-TMS\ESATAN-TMS-Models\EO_Micro_Satellite_Project\Relevant Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B19F41-5C2A-4780-A421-33511B85CC43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FF2CC0-4513-46AE-B6BA-6C29D86D3D2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="778" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NODES&amp;LABELS (cnfg5)" sheetId="8" r:id="rId1"/>
-    <sheet name="PROPERTIES" sheetId="2" r:id="rId2"/>
-    <sheet name="THERMO-OPTICALS" sheetId="3" r:id="rId3"/>
-    <sheet name="MATERIALS" sheetId="4" r:id="rId4"/>
-    <sheet name="GLs" sheetId="6" r:id="rId5"/>
-    <sheet name="NODES&amp;LABELS (config3)" sheetId="7" r:id="rId6"/>
-    <sheet name="NODES&amp;LABELS (config2)" sheetId="5" r:id="rId7"/>
-    <sheet name="NODES&amp;LABELS (config1)" sheetId="1" r:id="rId8"/>
-    <sheet name="GLs (2)" sheetId="9" r:id="rId9"/>
+    <sheet name="NODES&amp;LABELS (CryoCool)" sheetId="12" r:id="rId2"/>
+    <sheet name="PROPERTIES" sheetId="2" r:id="rId3"/>
+    <sheet name="THERMO-OPTICALS" sheetId="3" r:id="rId4"/>
+    <sheet name="MATERIALS" sheetId="4" r:id="rId5"/>
+    <sheet name="GLs" sheetId="6" r:id="rId6"/>
+    <sheet name="GLs (CC)" sheetId="13" r:id="rId7"/>
+    <sheet name="Final Configs" sheetId="10" r:id="rId8"/>
+    <sheet name="NODES&amp;LABELS (config3)" sheetId="7" r:id="rId9"/>
+    <sheet name="NODES&amp;LABELS (config2)" sheetId="5" r:id="rId10"/>
+    <sheet name="NODES&amp;LABELS (config1)" sheetId="1" r:id="rId11"/>
+    <sheet name="GLs (2)" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,6 +92,51 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={5A759312-4249-4850-B4D4-9E48D56F121E}</author>
+    <author>tc={B8797AD6-6A6C-4231-A692-4110CB7C965E}</author>
+    <author>tc={1A85D25A-5AF0-4A7F-87FD-612F487FC140}</author>
+    <author>tc={05EFECE3-19B7-49C8-8E81-D397DD8E8C35}</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{5A759312-4249-4850-B4D4-9E48D56F121E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Distancia del nodo central a su borde</t>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="1" shapeId="0" xr:uid="{B8797AD6-6A6C-4231-A692-4110CB7C965E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    AREA DE ESE LATERAL</t>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="2" shapeId="0" xr:uid="{1A85D25A-5AF0-4A7F-87FD-612F487FC140}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    300 o 100 (hasta 1000)</t>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="3" shapeId="0" xr:uid="{05EFECE3-19B7-49C8-8E81-D397DD8E8C35}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    PCB</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={BDFEC537-1183-4619-9C1A-E2728858C75D}</author>
     <author>tc={F39D7AC3-F117-462C-AEC4-D2E1F36C7EAE}</author>
     <author>tc={8E8E0BF6-9B7A-4B23-B066-8CC4C2B02C69}</author>
@@ -132,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="272">
   <si>
     <t>ELEMENTO</t>
   </si>
@@ -785,15 +833,226 @@
   <si>
     <t>http://www.thermalfluidscentral.org/encyclopedia/index.php/Heat_Pipe_Characteristics</t>
   </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Orbit</t>
+  </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Active+Passive</t>
+  </si>
+  <si>
+    <t>Radiators</t>
+  </si>
+  <si>
+    <t>Active Cooler</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Cryo-cooler</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>CCD Temperature [K]</t>
+  </si>
+  <si>
+    <t>Max.</t>
+  </si>
+  <si>
+    <t>Min.</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>Must employ larger solar panels to deal with the added power consumption due to the use of a cryo-cooler</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>LEO SS 12am*</t>
+  </si>
+  <si>
+    <t>LEO SS 6am**</t>
+  </si>
+  <si>
+    <t>Detector model</t>
+  </si>
+  <si>
+    <t>Detector Operating Temp. Range [K]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>Cryo_Sink</t>
+  </si>
+  <si>
+    <t>Cryo_Diss</t>
+  </si>
+  <si>
+    <t>Cryo-Cooler</t>
+  </si>
+  <si>
+    <t>Cooled Side</t>
+  </si>
+  <si>
+    <t>Dissipation Side</t>
+  </si>
+  <si>
+    <t>Cryocooler sources:</t>
+  </si>
+  <si>
+    <t>Sources straps</t>
+  </si>
+  <si>
+    <t>http://thermotive.com/thermalstraps.html</t>
+  </si>
+  <si>
+    <t>CCD_to_CryoCool_Sink</t>
+  </si>
+  <si>
+    <t>CryoCool_Diss_RAD</t>
+  </si>
+  <si>
+    <t>Cryocooler sink</t>
+  </si>
+  <si>
+    <t>Cryocooler Diss</t>
+  </si>
+  <si>
+    <t>Cryo-cooler*****</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>https://www.ricor.com/wp-content/uploads/2019/07/RicorComparisonTable2019.pdf</t>
+  </si>
+  <si>
+    <t>K561 Model.     Min PC=4W;       Max. PC= 16W;      Cold tip temp: 80K-110K,     Cooldown 5min      Vol=2.97160e-4</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Cryocooler Sink</t>
+  </si>
+  <si>
+    <t>CryoCool_Diss_Support</t>
+  </si>
+  <si>
+    <t>CryoCool_Sink_Support</t>
+  </si>
+  <si>
+    <t>RAD_IR_STR</t>
+  </si>
+  <si>
+    <t>Plate1</t>
+  </si>
+  <si>
+    <t>Cryocooler diss</t>
+  </si>
+  <si>
+    <t>Survival Mode</t>
+  </si>
+  <si>
+    <t>Nominal Power [W]</t>
+  </si>
+  <si>
+    <t>Survival Power [W]</t>
+  </si>
+  <si>
+    <t>Heaters</t>
+  </si>
+  <si>
+    <t>OBDH&amp;C</t>
+  </si>
+  <si>
+    <t>Minimum Payload temperature [K]</t>
+  </si>
+  <si>
+    <t>Survival Mode data for diagram of survival tempoeratura vs range temp</t>
+  </si>
+  <si>
+    <t>PLD1 Temperature [K]</t>
+  </si>
+  <si>
+    <t>PLD2 Temperature [K]</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Nominal</t>
+  </si>
+  <si>
+    <t>Survival</t>
+  </si>
+  <si>
+    <t>CCD Operating Temperature [K]</t>
+  </si>
+  <si>
+    <t>PLD1  Operating Temperature [K]</t>
+  </si>
+  <si>
+    <t>PLD2  Operating Temperature [K]</t>
+  </si>
+  <si>
+    <t>OBDH&amp;C Temperature [K]</t>
+  </si>
+  <si>
+    <t>OBDH&amp;C Operating Temperature [K]</t>
+  </si>
+  <si>
+    <t>Active + Passive</t>
+  </si>
+  <si>
+    <t>Total Radiator Area</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -833,18 +1092,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -885,7 +1144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1535,12 +1794,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1679,36 +2094,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1754,7 +2139,347 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2967,6 +3692,143 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>12</xdr:row>
+      <xdr:rowOff>93303</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C0A15D-E002-41FB-A237-053ADB5768A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10075252" y="163830"/>
+          <a:ext cx="5065688" cy="1931628"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114112</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9FBCCDC-9740-4D45-B22F-06B277BAF5F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7359015" y="6267450"/>
+          <a:ext cx="1518097" cy="640001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>124752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>134062</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>58155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3AAA567-E8F3-42F3-99AF-491FB28DACE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306049" y="3048927"/>
+          <a:ext cx="6698693" cy="5059758"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>96862</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>99018</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3377,6 +4239,23 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D3" dT="2021-05-10T14:59:54.90" personId="{7FEA3327-5DCA-4904-9FA0-972C46AA4A40}" id="{5A759312-4249-4850-B4D4-9E48D56F121E}">
+    <text>Distancia del nodo central a su borde</text>
+  </threadedComment>
+  <threadedComment ref="F3" dT="2021-05-10T14:59:03.21" personId="{7FEA3327-5DCA-4904-9FA0-972C46AA4A40}" id="{B8797AD6-6A6C-4231-A692-4110CB7C965E}">
+    <text>AREA DE ESE LATERAL</text>
+  </threadedComment>
+  <threadedComment ref="H3" dT="2021-05-10T14:59:22.47" personId="{7FEA3327-5DCA-4904-9FA0-972C46AA4A40}" id="{1A85D25A-5AF0-4A7F-87FD-612F487FC140}">
+    <text>300 o 100 (hasta 1000)</text>
+  </threadedComment>
+  <threadedComment ref="I4" dT="2021-05-10T18:29:49.85" personId="{7FEA3327-5DCA-4904-9FA0-972C46AA4A40}" id="{05EFECE3-19B7-49C8-8E81-D397DD8E8C35}">
+    <text>PCB</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D3" dT="2021-05-10T14:59:54.90" personId="{7FEA3327-5DCA-4904-9FA0-972C46AA4A40}" id="{BDFEC537-1183-4619-9C1A-E2728858C75D}">
     <text>Distancia del nodo central a su borde</text>
   </threadedComment>
@@ -3394,10 +4273,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808A1311-6419-4949-A2BB-3628B364634E}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3981,12 +4861,2678 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBE864F-9D47-4299-B304-91E8AAA86025}">
-  <dimension ref="B3:C9"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CF5359-1665-44CF-A856-0B357D0D1ACE}">
+  <sheetPr codeName="Sheet7">
+    <tabColor theme="7" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A2:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="H42" sqref="H42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="7" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="20">
+        <v>19999</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="22">
+        <v>10999</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E6" s="22">
+        <v>11999</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="67">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="68">
+        <v>11999</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="I7" s="3">
+        <v>12345</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="41">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="42">
+        <v>29999</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="22">
+        <v>20999</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="24">
+        <v>21000</v>
+      </c>
+      <c r="E10" s="25">
+        <v>21999</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="19">
+        <v>30000</v>
+      </c>
+      <c r="E11" s="20">
+        <v>39999</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="22">
+        <v>30999</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31000</v>
+      </c>
+      <c r="E13" s="22">
+        <v>31999</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="24">
+        <v>32000</v>
+      </c>
+      <c r="E14" s="25">
+        <v>32999</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="19">
+        <v>40000</v>
+      </c>
+      <c r="E15" s="20">
+        <v>49999</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40000</v>
+      </c>
+      <c r="E16" s="22">
+        <v>40499</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="2">
+        <v>40500</v>
+      </c>
+      <c r="E17" s="22">
+        <v>40999</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45000</v>
+      </c>
+      <c r="E18" s="22">
+        <v>45999</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2">
+        <v>41000</v>
+      </c>
+      <c r="E19" s="22">
+        <v>41999</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="29">
+        <v>42000</v>
+      </c>
+      <c r="E20" s="34">
+        <v>42999</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="29">
+        <v>43000</v>
+      </c>
+      <c r="E21" s="34">
+        <v>43999</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33"/>
+      <c r="B22" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="29">
+        <v>44000</v>
+      </c>
+      <c r="E22" s="34">
+        <v>44999</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="19">
+        <v>50000</v>
+      </c>
+      <c r="E23" s="20">
+        <v>59999</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E24" s="22">
+        <v>50999</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2">
+        <v>51000</v>
+      </c>
+      <c r="E25" s="22">
+        <v>51999</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="33"/>
+      <c r="B26" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="29">
+        <v>52000</v>
+      </c>
+      <c r="E26" s="34">
+        <v>52999</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="19">
+        <v>60000</v>
+      </c>
+      <c r="E27" s="20">
+        <v>69999</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="2">
+        <v>60000</v>
+      </c>
+      <c r="E28" s="22">
+        <v>69999</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="24">
+        <v>61000</v>
+      </c>
+      <c r="E29" s="25">
+        <v>69999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet8">
+    <tabColor theme="7" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A2:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="7" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="20">
+        <v>19999</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="22">
+        <v>10999</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E6" s="22">
+        <v>11999</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="3">
+        <v>12345</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="24">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="25">
+        <v>12999</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="19">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="20">
+        <v>29999</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="22">
+        <v>20999</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="24">
+        <v>21000</v>
+      </c>
+      <c r="E10" s="25">
+        <v>21999</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="19">
+        <v>30000</v>
+      </c>
+      <c r="E11" s="20">
+        <v>39999</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="22">
+        <v>30999</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31000</v>
+      </c>
+      <c r="E13" s="22">
+        <v>31999</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="24">
+        <v>32000</v>
+      </c>
+      <c r="E14" s="25">
+        <v>32999</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="19">
+        <v>40000</v>
+      </c>
+      <c r="E15" s="20">
+        <v>49999</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40000</v>
+      </c>
+      <c r="E16" s="22">
+        <v>40999</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="2">
+        <v>41000</v>
+      </c>
+      <c r="E17" s="22">
+        <v>41999</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="29">
+        <v>42000</v>
+      </c>
+      <c r="E18" s="34">
+        <v>42999</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="29">
+        <v>43000</v>
+      </c>
+      <c r="E19" s="34">
+        <v>43999</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="24">
+        <v>44000</v>
+      </c>
+      <c r="E20" s="25">
+        <v>44999</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="19">
+        <v>50000</v>
+      </c>
+      <c r="E21" s="20">
+        <v>59999</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E22" s="22">
+        <v>50999</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="24">
+        <v>51000</v>
+      </c>
+      <c r="E23" s="25">
+        <v>51999</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="31">
+        <v>60000</v>
+      </c>
+      <c r="E24" s="32">
+        <v>69999</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AF8544-D7D6-4224-89B9-DF05E87627C2}">
+  <sheetPr codeName="Sheet9">
+    <tabColor theme="7" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A2:M43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="J36" sqref="J36"/>
+      <selection pane="topRight" activeCell="H42" sqref="H42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="18">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="E4" s="50">
+        <f>MATERIALS!B14</f>
+        <v>124</v>
+      </c>
+      <c r="F4" s="69">
+        <f>PI()*(0.07^2)*0.001</f>
+        <v>1.5393804002589989E-5</v>
+      </c>
+      <c r="G4" s="19">
+        <f>MIN(F4,J4)</f>
+        <v>1.5393804002589989E-5</v>
+      </c>
+      <c r="H4" s="50">
+        <v>50</v>
+      </c>
+      <c r="I4" s="50">
+        <v>0.24</v>
+      </c>
+      <c r="J4" s="50">
+        <f>0.01*0.4</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K4" s="83">
+        <f>1 / ( (D4/(E4*F4)) + (1/(G4*H4))+(D4/(I4*J4)))</f>
+        <v>7.3421305756203787E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="33">
+        <f>0.001+0.08</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E5" s="53">
+        <f>MATERIALS!B11</f>
+        <v>59</v>
+      </c>
+      <c r="F5" s="73">
+        <f>PI()*(0.08^2)*0.01</f>
+        <v>2.0106192982974677E-4</v>
+      </c>
+      <c r="G5" s="72">
+        <f>MIN(F5,J5)</f>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="H5" s="53">
+        <v>100</v>
+      </c>
+      <c r="I5" s="53">
+        <v>0.24</v>
+      </c>
+      <c r="J5" s="53">
+        <f>PI()*(0.08^2)*0.002</f>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="K5" s="83">
+        <f t="shared" ref="K5:K17" si="0">1 / ( (D5/(E5*F5)) + (1/(G5*H5))+(D5/(I5*J5)))</f>
+        <v>1.1562773333549455E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="21">
+        <f>0.01+0.07</f>
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="53">
+        <f>I5</f>
+        <v>0.24</v>
+      </c>
+      <c r="F6" s="53">
+        <f>J5</f>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="G6" s="53">
+        <f t="shared" ref="G6:G17" si="1">MIN(F6,J6)</f>
+        <v>1.5393804002589989E-5</v>
+      </c>
+      <c r="H6" s="53">
+        <v>100</v>
+      </c>
+      <c r="I6" s="53">
+        <v>0.24</v>
+      </c>
+      <c r="J6" s="70">
+        <f>F4</f>
+        <v>1.5393804002589989E-5</v>
+      </c>
+      <c r="K6" s="83">
+        <f t="shared" si="0"/>
+        <v>3.2687573197271373E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="33">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E7" s="53">
+        <f>E6</f>
+        <v>0.24</v>
+      </c>
+      <c r="F7" s="53">
+        <f>F6</f>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="G7" s="53">
+        <f t="shared" si="1"/>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="H7" s="53">
+        <v>100</v>
+      </c>
+      <c r="I7" s="53">
+        <f>MATERIALS!B6</f>
+        <v>160</v>
+      </c>
+      <c r="J7" s="71">
+        <f>F17</f>
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="K7" s="83">
+        <f t="shared" si="0"/>
+        <v>2.0336976997947383E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.13</v>
+      </c>
+      <c r="E8" s="53">
+        <v>160</v>
+      </c>
+      <c r="F8" s="53">
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="G8" s="53">
+        <f t="shared" si="1"/>
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="H8" s="53">
+        <v>300</v>
+      </c>
+      <c r="I8" s="53">
+        <v>160</v>
+      </c>
+      <c r="J8" s="71">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K8" s="83">
+        <f t="shared" si="0"/>
+        <v>1.1811765605433695E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="53">
+        <v>160</v>
+      </c>
+      <c r="F9" s="53">
+        <f>0.002*0.125</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G9" s="53">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H9" s="53">
+        <v>300</v>
+      </c>
+      <c r="I9" s="53">
+        <v>160</v>
+      </c>
+      <c r="J9" s="71">
+        <f>F13</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K9" s="83">
+        <f t="shared" si="0"/>
+        <v>5.7485029940119753E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="33" t="str">
+        <f>B9</f>
+        <v>Panel</v>
+      </c>
+      <c r="C10" s="53" t="str">
+        <f>C9</f>
+        <v>Plate 1</v>
+      </c>
+      <c r="D10" s="33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E10" s="53">
+        <f>E9</f>
+        <v>160</v>
+      </c>
+      <c r="F10" s="53">
+        <f>0.002*0.15</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G10" s="53">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H10" s="53">
+        <f>H9</f>
+        <v>300</v>
+      </c>
+      <c r="I10" s="53">
+        <f>I9</f>
+        <v>160</v>
+      </c>
+      <c r="J10" s="71">
+        <f t="shared" ref="J10:J12" si="2">F14</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K10" s="83">
+        <f t="shared" si="0"/>
+        <v>7.0243902439024397E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="53">
+        <v>160</v>
+      </c>
+      <c r="F11" s="53">
+        <f>F9</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G11" s="53">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H11" s="53">
+        <v>300</v>
+      </c>
+      <c r="I11" s="53">
+        <v>160</v>
+      </c>
+      <c r="J11" s="71">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K11" s="83">
+        <f t="shared" si="0"/>
+        <v>5.7485029940119753E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="33" t="str">
+        <f>B11</f>
+        <v>Panel</v>
+      </c>
+      <c r="C12" s="53" t="str">
+        <f>C11</f>
+        <v>Plate 2</v>
+      </c>
+      <c r="D12" s="33">
+        <f>D10</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E12" s="53">
+        <f>E11</f>
+        <v>160</v>
+      </c>
+      <c r="F12" s="53">
+        <f>F10</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G12" s="53">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H12" s="53">
+        <f>H11</f>
+        <v>300</v>
+      </c>
+      <c r="I12" s="53">
+        <f>I11</f>
+        <v>160</v>
+      </c>
+      <c r="J12" s="71">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K12" s="83">
+        <f t="shared" si="0"/>
+        <v>7.0243902439024397E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="53">
+        <v>160</v>
+      </c>
+      <c r="F13" s="53">
+        <f>0.002*0.2</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G13" s="53">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H13" s="53">
+        <v>300</v>
+      </c>
+      <c r="I13" s="53">
+        <v>160</v>
+      </c>
+      <c r="J13" s="71">
+        <f>F9</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="K13" s="83">
+        <f t="shared" si="0"/>
+        <v>5.7485029940119753E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="33" t="str">
+        <f>B13</f>
+        <v>Plate 1</v>
+      </c>
+      <c r="C14" s="53" t="str">
+        <f>C13</f>
+        <v>Panel</v>
+      </c>
+      <c r="D14" s="33">
+        <f>D12</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E14" s="53">
+        <f>E13</f>
+        <v>160</v>
+      </c>
+      <c r="F14" s="53">
+        <f>0.002*0.15</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G14" s="53">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H14" s="53">
+        <f>H13</f>
+        <v>300</v>
+      </c>
+      <c r="I14" s="53">
+        <f>I13</f>
+        <v>160</v>
+      </c>
+      <c r="J14" s="71">
+        <f t="shared" ref="J14:J16" si="3">F10</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K14" s="83">
+        <f t="shared" si="0"/>
+        <v>7.0243902439024397E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="53">
+        <v>160</v>
+      </c>
+      <c r="F15" s="53">
+        <f>F13</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G15" s="53">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H15" s="53">
+        <v>300</v>
+      </c>
+      <c r="I15" s="53">
+        <v>160</v>
+      </c>
+      <c r="J15" s="71">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="K15" s="83">
+        <f t="shared" si="0"/>
+        <v>5.7485029940119753E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="33" t="str">
+        <f>B15</f>
+        <v>Plate 2</v>
+      </c>
+      <c r="C16" s="53" t="str">
+        <f>C15</f>
+        <v>Panel</v>
+      </c>
+      <c r="D16" s="33">
+        <f>D14</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E16" s="53">
+        <f>E15</f>
+        <v>160</v>
+      </c>
+      <c r="F16" s="53">
+        <f>F14</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G16" s="53">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H16" s="53">
+        <f>H15</f>
+        <v>300</v>
+      </c>
+      <c r="I16" s="53">
+        <f>I15</f>
+        <v>160</v>
+      </c>
+      <c r="J16" s="71">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K16" s="83">
+        <f t="shared" si="0"/>
+        <v>7.0243902439024397E-2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="23">
+        <f>0.005+0.125</f>
+        <v>0.13</v>
+      </c>
+      <c r="E17" s="52">
+        <f>I7</f>
+        <v>160</v>
+      </c>
+      <c r="F17" s="52">
+        <f>PI()*(0.125^2)*0.001</f>
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="G17" s="52">
+        <f t="shared" si="1"/>
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="H17" s="52">
+        <v>300</v>
+      </c>
+      <c r="I17" s="52">
+        <f>E17</f>
+        <v>160</v>
+      </c>
+      <c r="J17" s="52">
+        <f>J4</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K17" s="64">
+        <f t="shared" si="0"/>
+        <v>1.1811765605433695E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="60">
+        <v>50000</v>
+      </c>
+      <c r="E21" s="78">
+        <f>0.06^2*PI()</f>
+        <v>1.1309733552923255E-2</v>
+      </c>
+      <c r="F21" s="61">
+        <f>0.21</f>
+        <v>0.21</v>
+      </c>
+      <c r="G21" s="75">
+        <f t="shared" ref="G21:G30" si="4">D21*E21/F21</f>
+        <v>2692.7937030769658</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="60">
+        <v>50000</v>
+      </c>
+      <c r="E22" s="78">
+        <f>0.035^2*PI()</f>
+        <v>3.8484510006474969E-3</v>
+      </c>
+      <c r="F22" s="61">
+        <v>0.19</v>
+      </c>
+      <c r="G22" s="75">
+        <f t="shared" si="4"/>
+        <v>1012.7502633282887</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="75"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="60">
+        <f>D22</f>
+        <v>50000</v>
+      </c>
+      <c r="E26" s="78">
+        <f>0.025^2*PI()</f>
+        <v>1.9634954084936209E-3</v>
+      </c>
+      <c r="F26" s="61">
+        <v>0.11</v>
+      </c>
+      <c r="G26" s="75">
+        <f>D26*E26/F26</f>
+        <v>892.49791295164584</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="60">
+        <f>D22</f>
+        <v>50000</v>
+      </c>
+      <c r="E27" s="78">
+        <f>E26</f>
+        <v>1.9634954084936209E-3</v>
+      </c>
+      <c r="F27" s="61">
+        <v>0.31</v>
+      </c>
+      <c r="G27" s="75">
+        <f t="shared" si="4"/>
+        <v>316.69280782155175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="66">
+        <v>160</v>
+      </c>
+      <c r="E28" s="79">
+        <f>0.01^2*PI()</f>
+        <v>3.1415926535897931E-4</v>
+      </c>
+      <c r="F28" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="G28" s="75">
+        <f t="shared" si="4"/>
+        <v>1.0053096491487337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="33" t="str">
+        <f>B30</f>
+        <v>Panel</v>
+      </c>
+      <c r="C29" s="53" t="str">
+        <f>C21</f>
+        <v>Rad_IR_Tel</v>
+      </c>
+      <c r="D29" s="33">
+        <v>0.24</v>
+      </c>
+      <c r="E29" s="80">
+        <f>0.001^2*PI()</f>
+        <v>3.1415926535897929E-6</v>
+      </c>
+      <c r="F29" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="G29" s="76">
+        <f t="shared" si="4"/>
+        <v>7.5398223686155033E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="23">
+        <v>0.24</v>
+      </c>
+      <c r="E30" s="81">
+        <f>E29</f>
+        <v>3.1415926535897929E-6</v>
+      </c>
+      <c r="F30" s="52">
+        <v>0.01</v>
+      </c>
+      <c r="G30" s="77">
+        <f t="shared" si="4"/>
+        <v>7.5398223686155033E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I31" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="62" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="33">
+        <v>500</v>
+      </c>
+      <c r="E34" s="53">
+        <f>0.04*0.04</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="F34" s="63">
+        <f>D34*E34</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="23">
+        <v>500</v>
+      </c>
+      <c r="E35" s="52">
+        <f>0.02*0.02</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F35" s="64">
+        <f>D35*E35</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7401929-A231-4740-A755-864549E0C2CF}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A2:M35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="7" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="19">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="20">
+        <v>19999</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="22">
+        <v>10999</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E6" s="22">
+        <v>11999</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="67">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="68">
+        <v>11999</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="I7" s="3">
+        <v>12345</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="41">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="42">
+        <v>29999</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="22">
+        <v>20999</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="24">
+        <v>21000</v>
+      </c>
+      <c r="E10" s="25">
+        <v>21999</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="19">
+        <v>30000</v>
+      </c>
+      <c r="E11" s="20">
+        <v>39999</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E12" s="22">
+        <v>30999</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>31000</v>
+      </c>
+      <c r="E13" s="22">
+        <v>31999</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="24">
+        <v>32000</v>
+      </c>
+      <c r="E14" s="25">
+        <v>32999</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="19">
+        <v>40000</v>
+      </c>
+      <c r="E15" s="20">
+        <v>49999</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40000</v>
+      </c>
+      <c r="E16" s="22">
+        <v>40499</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="2">
+        <v>40500</v>
+      </c>
+      <c r="E17" s="22">
+        <v>40999</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="105" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45000</v>
+      </c>
+      <c r="E18" s="22">
+        <v>45999</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2">
+        <v>41000</v>
+      </c>
+      <c r="E19" s="22">
+        <v>41999</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="29">
+        <v>42000</v>
+      </c>
+      <c r="E20" s="34">
+        <v>42999</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="29">
+        <v>43000</v>
+      </c>
+      <c r="E21" s="34">
+        <v>43999</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33"/>
+      <c r="B22" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="29">
+        <v>44000</v>
+      </c>
+      <c r="E22" s="34">
+        <v>44999</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="19">
+        <v>50000</v>
+      </c>
+      <c r="E23" s="20">
+        <v>59999</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E24" s="22">
+        <v>50999</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2">
+        <v>51000</v>
+      </c>
+      <c r="E25" s="22">
+        <v>51999</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="33"/>
+      <c r="B26" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="29">
+        <v>51000</v>
+      </c>
+      <c r="E26" s="34">
+        <v>51999</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="19">
+        <v>60000</v>
+      </c>
+      <c r="E27" s="20">
+        <v>69999</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="2">
+        <v>60000</v>
+      </c>
+      <c r="E28" s="22">
+        <v>60999</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="2">
+        <v>61000</v>
+      </c>
+      <c r="E29" s="22">
+        <v>61999</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="2">
+        <v>62000</v>
+      </c>
+      <c r="E30" s="22">
+        <v>62999</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="2">
+        <v>63000</v>
+      </c>
+      <c r="E31" s="22">
+        <v>63999</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="24">
+        <v>64000</v>
+      </c>
+      <c r="E32" s="25">
+        <v>64999</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="41">
+        <v>70000</v>
+      </c>
+      <c r="E33" s="42">
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="2">
+        <v>70000</v>
+      </c>
+      <c r="E34" s="22">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D35" s="24">
+        <v>72000</v>
+      </c>
+      <c r="E35" s="25">
+        <v>72999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBE864F-9D47-4299-B304-91E8AAA86025}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B3:J44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4051,6 +7597,11 @@
         <v>3.3680000000000002E-2</v>
       </c>
     </row>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J44" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4058,12 +7609,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F00708A-3A2A-4030-B01E-19C8F86B1A4D}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4072,29 +7624,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87" t="s">
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="88" t="s">
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="88"/>
+      <c r="L3" s="112"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="86"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
@@ -4119,8 +7671,8 @@
       <c r="J4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -4153,10 +7705,10 @@
       <c r="J5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="84" t="s">
+      <c r="K5" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="85"/>
+      <c r="L5" s="106"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -4189,10 +7741,10 @@
       <c r="J6" s="10">
         <v>0.1</v>
       </c>
-      <c r="K6" s="84" t="s">
+      <c r="K6" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="85"/>
+      <c r="L6" s="106"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -4225,8 +7777,8 @@
       <c r="J7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -4259,8 +7811,8 @@
       <c r="J8" s="10">
         <v>0.1</v>
       </c>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="108"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -4293,8 +7845,8 @@
       <c r="J9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -4327,8 +7879,8 @@
       <c r="J10" s="10">
         <v>0.92</v>
       </c>
-      <c r="K10" s="89"/>
-      <c r="L10" s="90"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="108"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -4361,8 +7913,8 @@
       <c r="J11" s="10">
         <v>1</v>
       </c>
-      <c r="K11" s="89"/>
-      <c r="L11" s="90"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="108"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -4395,8 +7947,8 @@
       <c r="J12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -4429,8 +7981,8 @@
       <c r="J13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -4463,8 +8015,8 @@
       <c r="J14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -4497,8 +8049,8 @@
       <c r="J15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -4565,11 +8117,17 @@
       <c r="J17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K7:L7"/>
@@ -4580,51 +8138,46 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAE4BA2-4334-46B3-8623-C9D04CC254E6}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A4:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="88" t="s">
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="88"/>
-      <c r="H4" s="91" t="s">
+      <c r="F4" s="112"/>
+      <c r="H4" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="88" t="s">
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="88"/>
+      <c r="O4" s="112"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -4639,8 +8192,8 @@
       <c r="D5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
       <c r="H5" s="9" t="s">
         <v>36</v>
       </c>
@@ -4659,8 +8212,8 @@
       <c r="M5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -4675,8 +8228,8 @@
       <c r="D6" s="5">
         <v>2700</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="90"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="108"/>
       <c r="G6" s="3" t="s">
         <v>90</v>
       </c>
@@ -4698,8 +8251,8 @@
       <c r="M6" s="5">
         <v>1750</v>
       </c>
-      <c r="N6" s="89"/>
-      <c r="O6" s="90"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="108"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -4714,10 +8267,10 @@
       <c r="D7" s="11">
         <v>2840</v>
       </c>
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="90"/>
+      <c r="F7" s="108"/>
       <c r="G7" s="3" t="s">
         <v>90</v>
       </c>
@@ -4743,10 +8296,10 @@
       <c r="D8" s="5">
         <v>2810</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="E8" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="90"/>
+      <c r="F8" s="108"/>
       <c r="G8" s="3" t="s">
         <v>90</v>
       </c>
@@ -4772,10 +8325,10 @@
       <c r="D9" s="3">
         <v>7760</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="108"/>
       <c r="G9" s="3" t="s">
         <v>90</v>
       </c>
@@ -4801,8 +8354,8 @@
       <c r="D10" s="5">
         <v>5300</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
       <c r="G10" s="3" t="s">
         <v>90</v>
       </c>
@@ -4820,8 +8373,8 @@
       <c r="D11" s="5">
         <v>5330</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="108"/>
       <c r="G11" s="3" t="s">
         <v>90</v>
       </c>
@@ -4879,10 +8432,10 @@
       <c r="D14" s="46">
         <v>2300</v>
       </c>
-      <c r="E14" s="89" t="s">
+      <c r="E14" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="90"/>
+      <c r="F14" s="108"/>
       <c r="G14" s="3" t="s">
         <v>90</v>
       </c>
@@ -4900,14 +8453,20 @@
       <c r="D15" s="5">
         <v>300</v>
       </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
       <c r="G15" s="3" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E15:F15"/>
@@ -4915,24 +8474,22 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D9202D-ACAD-4878-A51F-5C577BBAB029}">
+  <sheetPr codeName="Sheet5">
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I23" sqref="I23"/>
+      <selection activeCell="J44" sqref="J44"/>
+      <selection pane="topRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5567,28 +9124,28 @@
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="E20" s="99" t="s">
+      <c r="E20" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="98" t="s">
+      <c r="F20" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="G20" s="100" t="s">
+      <c r="G20" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="I20" s="113" t="s">
+      <c r="I20" s="103" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5602,19 +9159,19 @@
       <c r="C21" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="106">
+      <c r="D21" s="96">
         <v>4500</v>
       </c>
-      <c r="E21" s="101">
+      <c r="E21" s="91">
         <f>0.025^2*PI()</f>
         <v>1.9634954084936209E-3</v>
       </c>
-      <c r="F21" s="103">
+      <c r="F21" s="93">
         <f>0.21</f>
         <v>0.21</v>
       </c>
-      <c r="G21" s="104">
-        <f t="shared" ref="G21:I34" si="4">D21*E21/F21</f>
+      <c r="G21" s="94">
+        <f t="shared" ref="G21:G34" si="4">D21*E21/F21</f>
         <v>42.074901610577591</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -5631,7 +9188,7 @@
       <c r="C22" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="D22" s="107">
+      <c r="D22" s="97">
         <v>4500</v>
       </c>
       <c r="E22" s="78">
@@ -5656,7 +9213,7 @@
       <c r="C23" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="107">
+      <c r="D23" s="97">
         <v>4500</v>
       </c>
       <c r="E23" s="78">
@@ -5670,7 +9227,7 @@
         <f t="shared" si="4"/>
         <v>4.0391905546154483</v>
       </c>
-      <c r="I23" s="115" t="s">
+      <c r="I23" s="105" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5681,10 +9238,10 @@
       <c r="B24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="112" t="s">
+      <c r="C24" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="107">
+      <c r="D24" s="97">
         <v>4500</v>
       </c>
       <c r="E24" s="78">
@@ -5698,21 +9255,21 @@
         <f t="shared" si="4"/>
         <v>8.8357293382212934</v>
       </c>
-      <c r="I24" s="114" t="s">
+      <c r="I24" s="104" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="102" t="s">
+      <c r="A25" s="92" t="s">
         <v>198</v>
       </c>
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="112" t="s">
+      <c r="C25" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="D25" s="108">
+      <c r="D25" s="98">
         <v>4500</v>
       </c>
       <c r="E25" s="78">
@@ -5731,16 +9288,16 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="112" t="s">
+      <c r="C26" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="108">
+      <c r="D26" s="98">
         <v>4500</v>
       </c>
       <c r="E26" s="78">
@@ -5765,7 +9322,7 @@
       <c r="C27" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="107">
+      <c r="D27" s="97">
         <f>D22</f>
         <v>4500</v>
       </c>
@@ -5780,6 +9337,9 @@
         <f>D27*E27/F27</f>
         <v>4.5603764326303446</v>
       </c>
+      <c r="I27" s="105" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
@@ -5791,7 +9351,7 @@
       <c r="C28" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="107">
+      <c r="D28" s="97">
         <f>D22</f>
         <v>4500</v>
       </c>
@@ -5806,6 +9366,9 @@
         <f t="shared" si="4"/>
         <v>12.851969946503699</v>
       </c>
+      <c r="I28" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
@@ -5817,7 +9380,7 @@
       <c r="C29" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="109">
+      <c r="D29" s="99">
         <v>160</v>
       </c>
       <c r="E29" s="79">
@@ -5842,7 +9405,7 @@
       <c r="C30" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="109">
+      <c r="D30" s="99">
         <v>4500</v>
       </c>
       <c r="E30" s="79">
@@ -5858,19 +9421,19 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="112" t="s">
+      <c r="C31" s="102" t="s">
         <v>190</v>
       </c>
-      <c r="D31" s="110">
+      <c r="D31" s="100">
         <v>0.24</v>
       </c>
-      <c r="E31" s="95">
+      <c r="E31" s="85">
         <f>0.001^2*PI()</f>
         <v>3.1415926535897929E-6</v>
       </c>
@@ -5892,10 +9455,10 @@
       <c r="C32" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="D32" s="110">
+      <c r="D32" s="100">
         <v>0.24</v>
       </c>
-      <c r="E32" s="95">
+      <c r="E32" s="85">
         <f>0.001^2*PI()</f>
         <v>3.1415926535897929E-6</v>
       </c>
@@ -5919,10 +9482,10 @@
         <f>C21</f>
         <v>Rad_IR_Tel</v>
       </c>
-      <c r="D33" s="110">
+      <c r="D33" s="100">
         <v>0.24</v>
       </c>
-      <c r="E33" s="95">
+      <c r="E33" s="85">
         <f>0.001^2*PI()</f>
         <v>3.1415926535897929E-6</v>
       </c>
@@ -5944,7 +9507,7 @@
       <c r="C34" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="111">
+      <c r="D34" s="101">
         <v>0.24</v>
       </c>
       <c r="E34" s="81">
@@ -6052,12 +9615,2027 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBB2E2E-D1DD-4048-B633-B6CAFB7CF517}">
+  <sheetPr codeName="Sheet11">
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A2:M48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="J44" sqref="J44"/>
+      <selection pane="topRight" activeCell="H41" sqref="H41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="149" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="150" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="151" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="150">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="E4" s="152">
+        <f>MATERIALS!B14</f>
+        <v>124</v>
+      </c>
+      <c r="F4" s="153">
+        <f>PI()*(0.07^2)*0.001</f>
+        <v>1.5393804002589989E-5</v>
+      </c>
+      <c r="G4" s="154">
+        <f>MIN(F4,J4)</f>
+        <v>1.5393804002589989E-5</v>
+      </c>
+      <c r="H4" s="152">
+        <v>50</v>
+      </c>
+      <c r="I4" s="152">
+        <v>0.24</v>
+      </c>
+      <c r="J4" s="152">
+        <f>0.01*0.4</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K4" s="63">
+        <f>1 / ( (D4/(E4*F4)) + (1/(G4*H4))+(D4/(I4*J4)))</f>
+        <v>7.3421305756203787E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="150">
+        <f>0.001+0.08</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E5" s="152">
+        <f>MATERIALS!B11</f>
+        <v>59</v>
+      </c>
+      <c r="F5" s="155">
+        <f>PI()*(0.08^2)*0.01</f>
+        <v>2.0106192982974677E-4</v>
+      </c>
+      <c r="G5" s="50">
+        <f>MIN(F5,J5)</f>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="H5" s="152">
+        <v>100</v>
+      </c>
+      <c r="I5" s="152">
+        <v>0.24</v>
+      </c>
+      <c r="J5" s="152">
+        <f>PI()*(0.08^2)*0.002</f>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="K5" s="156">
+        <f t="shared" ref="K5:K17" si="0">1 / ( (D5/(E5*F5)) + (1/(G5*H5))+(D5/(I5*J5)))</f>
+        <v>1.1562773333549455E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="21">
+        <f>0.01+0.07</f>
+        <v>0.08</v>
+      </c>
+      <c r="E6" s="53">
+        <f>I5</f>
+        <v>0.24</v>
+      </c>
+      <c r="F6" s="53">
+        <f>J5</f>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="G6" s="53">
+        <f t="shared" ref="G6:G17" si="1">MIN(F6,J6)</f>
+        <v>1.5393804002589989E-5</v>
+      </c>
+      <c r="H6" s="53">
+        <v>100</v>
+      </c>
+      <c r="I6" s="53">
+        <v>0.24</v>
+      </c>
+      <c r="J6" s="70">
+        <f>F4</f>
+        <v>1.5393804002589989E-5</v>
+      </c>
+      <c r="K6" s="83">
+        <f t="shared" si="0"/>
+        <v>3.2687573197271373E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="33">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E7" s="53">
+        <f>E6</f>
+        <v>0.24</v>
+      </c>
+      <c r="F7" s="53">
+        <f>F6</f>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="G7" s="53">
+        <f t="shared" si="1"/>
+        <v>4.0212385965949353E-5</v>
+      </c>
+      <c r="H7" s="53">
+        <v>100</v>
+      </c>
+      <c r="I7" s="53">
+        <f>MATERIALS!B6</f>
+        <v>160</v>
+      </c>
+      <c r="J7" s="71">
+        <f>F17</f>
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="K7" s="83">
+        <f t="shared" si="0"/>
+        <v>2.0336976997947383E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.13</v>
+      </c>
+      <c r="E8" s="53">
+        <v>160</v>
+      </c>
+      <c r="F8" s="53">
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="G8" s="53">
+        <f t="shared" si="1"/>
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="H8" s="53">
+        <v>300</v>
+      </c>
+      <c r="I8" s="53">
+        <v>160</v>
+      </c>
+      <c r="J8" s="71">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K8" s="83">
+        <f t="shared" si="0"/>
+        <v>1.1811765605433695E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="53">
+        <v>160</v>
+      </c>
+      <c r="F9" s="53">
+        <f>0.002*0.125</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G9" s="53">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H9" s="53">
+        <v>300</v>
+      </c>
+      <c r="I9" s="53">
+        <v>160</v>
+      </c>
+      <c r="J9" s="71">
+        <f>F13</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K9" s="83">
+        <f t="shared" si="0"/>
+        <v>5.7485029940119753E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="33" t="str">
+        <f>B9</f>
+        <v>Panel</v>
+      </c>
+      <c r="C10" s="53" t="str">
+        <f>C9</f>
+        <v>Plate 1</v>
+      </c>
+      <c r="D10" s="33">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E10" s="53">
+        <f>E9</f>
+        <v>160</v>
+      </c>
+      <c r="F10" s="53">
+        <f>0.002*0.15</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G10" s="53">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H10" s="53">
+        <f>H9</f>
+        <v>300</v>
+      </c>
+      <c r="I10" s="53">
+        <f>I9</f>
+        <v>160</v>
+      </c>
+      <c r="J10" s="71">
+        <f t="shared" ref="J10:J12" si="2">F14</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K10" s="83">
+        <f t="shared" si="0"/>
+        <v>7.0243902439024397E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="53">
+        <v>160</v>
+      </c>
+      <c r="F11" s="53">
+        <f>F9</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="G11" s="53">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H11" s="53">
+        <v>300</v>
+      </c>
+      <c r="I11" s="53">
+        <v>160</v>
+      </c>
+      <c r="J11" s="71">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K11" s="83">
+        <f t="shared" si="0"/>
+        <v>5.7485029940119753E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="33" t="str">
+        <f>B11</f>
+        <v>Panel</v>
+      </c>
+      <c r="C12" s="53" t="str">
+        <f>C11</f>
+        <v>Plate 2</v>
+      </c>
+      <c r="D12" s="33">
+        <f>D10</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E12" s="53">
+        <f>E11</f>
+        <v>160</v>
+      </c>
+      <c r="F12" s="53">
+        <f>F10</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G12" s="53">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H12" s="53">
+        <f>H11</f>
+        <v>300</v>
+      </c>
+      <c r="I12" s="53">
+        <f>I11</f>
+        <v>160</v>
+      </c>
+      <c r="J12" s="71">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K12" s="83">
+        <f t="shared" si="0"/>
+        <v>7.0243902439024397E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="53">
+        <v>160</v>
+      </c>
+      <c r="F13" s="53">
+        <f>0.002*0.2</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G13" s="53">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H13" s="53">
+        <v>300</v>
+      </c>
+      <c r="I13" s="53">
+        <v>160</v>
+      </c>
+      <c r="J13" s="71">
+        <f>F9</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="K13" s="83">
+        <f t="shared" si="0"/>
+        <v>5.7485029940119753E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="33" t="str">
+        <f>B13</f>
+        <v>Plate 1</v>
+      </c>
+      <c r="C14" s="53" t="str">
+        <f>C13</f>
+        <v>Panel</v>
+      </c>
+      <c r="D14" s="33">
+        <f>D12</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E14" s="53">
+        <f>E13</f>
+        <v>160</v>
+      </c>
+      <c r="F14" s="53">
+        <f>0.002*0.15</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G14" s="53">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H14" s="53">
+        <f>H13</f>
+        <v>300</v>
+      </c>
+      <c r="I14" s="53">
+        <f>I13</f>
+        <v>160</v>
+      </c>
+      <c r="J14" s="71">
+        <f t="shared" ref="J14:J16" si="3">F10</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K14" s="83">
+        <f t="shared" si="0"/>
+        <v>7.0243902439024397E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="53">
+        <v>160</v>
+      </c>
+      <c r="F15" s="53">
+        <f>F13</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="G15" s="53">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H15" s="53">
+        <v>300</v>
+      </c>
+      <c r="I15" s="53">
+        <v>160</v>
+      </c>
+      <c r="J15" s="71">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="K15" s="83">
+        <f t="shared" si="0"/>
+        <v>5.7485029940119753E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="33" t="str">
+        <f>B15</f>
+        <v>Plate 2</v>
+      </c>
+      <c r="C16" s="53" t="str">
+        <f>C15</f>
+        <v>Panel</v>
+      </c>
+      <c r="D16" s="33">
+        <f>D14</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E16" s="53">
+        <f>E15</f>
+        <v>160</v>
+      </c>
+      <c r="F16" s="53">
+        <f>F14</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G16" s="53">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H16" s="53">
+        <f>H15</f>
+        <v>300</v>
+      </c>
+      <c r="I16" s="53">
+        <f>I15</f>
+        <v>160</v>
+      </c>
+      <c r="J16" s="71">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K16" s="83">
+        <f t="shared" si="0"/>
+        <v>7.0243902439024397E-2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="23">
+        <f>0.005+0.125</f>
+        <v>0.13</v>
+      </c>
+      <c r="E17" s="52">
+        <f>I7</f>
+        <v>160</v>
+      </c>
+      <c r="F17" s="52">
+        <f>PI()*(0.125^2)*0.001</f>
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="G17" s="52">
+        <f t="shared" si="1"/>
+        <v>4.908738521234052E-5</v>
+      </c>
+      <c r="H17" s="52">
+        <v>300</v>
+      </c>
+      <c r="I17" s="52">
+        <f>E17</f>
+        <v>160</v>
+      </c>
+      <c r="J17" s="52">
+        <f>J4</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K17" s="64">
+        <f t="shared" si="0"/>
+        <v>1.1811765605433695E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="103" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="60">
+        <v>4500</v>
+      </c>
+      <c r="E21" s="78">
+        <f>0.015^2*PI()</f>
+        <v>7.0685834705770342E-4</v>
+      </c>
+      <c r="F21" s="162">
+        <v>0.19</v>
+      </c>
+      <c r="G21" s="94">
+        <f t="shared" ref="G21:G24" si="4">D21*E21/F21</f>
+        <v>16.741381903998239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="60">
+        <v>4500</v>
+      </c>
+      <c r="E22" s="78">
+        <f>0.01^2*PI()</f>
+        <v>3.1415926535897931E-4</v>
+      </c>
+      <c r="F22" s="162">
+        <v>0.35</v>
+      </c>
+      <c r="G22" s="75">
+        <f t="shared" si="4"/>
+        <v>4.0391905546154483</v>
+      </c>
+      <c r="I22" s="105" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="60">
+        <v>4500</v>
+      </c>
+      <c r="E23" s="78">
+        <f>0.01^2*PI()</f>
+        <v>3.1415926535897931E-4</v>
+      </c>
+      <c r="F23" s="162">
+        <v>0.16</v>
+      </c>
+      <c r="G23" s="75">
+        <f t="shared" si="4"/>
+        <v>8.8357293382212934</v>
+      </c>
+      <c r="I23" s="104" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="102" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="163">
+        <v>4500</v>
+      </c>
+      <c r="E24" s="78">
+        <f>0.01^2*PI()</f>
+        <v>3.1415926535897931E-4</v>
+      </c>
+      <c r="F24" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="G24" s="75">
+        <f t="shared" si="4"/>
+        <v>28.274333882308138</v>
+      </c>
+      <c r="I24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="60">
+        <f>D21</f>
+        <v>4500</v>
+      </c>
+      <c r="E25" s="78">
+        <f>0.01^2*PI()</f>
+        <v>3.1415926535897931E-4</v>
+      </c>
+      <c r="F25" s="162">
+        <v>0.31</v>
+      </c>
+      <c r="G25" s="75">
+        <f>D25*E25/F25</f>
+        <v>4.5603764326303446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="60">
+        <f>D21</f>
+        <v>4500</v>
+      </c>
+      <c r="E26" s="78">
+        <f>E25</f>
+        <v>3.1415926535897931E-4</v>
+      </c>
+      <c r="F26" s="162">
+        <v>0.11</v>
+      </c>
+      <c r="G26" s="75">
+        <f>D26*E26/F26</f>
+        <v>12.851969946503699</v>
+      </c>
+      <c r="I26" s="105" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="66">
+        <v>160</v>
+      </c>
+      <c r="E27" s="79">
+        <f>0.01^2*PI()</f>
+        <v>3.1415926535897931E-4</v>
+      </c>
+      <c r="F27" s="164">
+        <v>0.05</v>
+      </c>
+      <c r="G27" s="75">
+        <f>D27*E27/F27</f>
+        <v>1.0053096491487337</v>
+      </c>
+      <c r="I27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="66">
+        <v>4500</v>
+      </c>
+      <c r="E28" s="79">
+        <f>0.06^2*PI()</f>
+        <v>1.1309733552923255E-2</v>
+      </c>
+      <c r="F28" s="164">
+        <v>0.01</v>
+      </c>
+      <c r="G28" s="75">
+        <f>D28*E28/F28</f>
+        <v>5089.3800988154644</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="E29" s="85">
+        <f>0.001^2*PI()</f>
+        <v>3.1415926535897929E-6</v>
+      </c>
+      <c r="F29" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="G29" s="75">
+        <f>D29*E29/F29</f>
+        <v>7.5398223686155033E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="E30" s="85">
+        <f>0.001^2*PI()</f>
+        <v>3.1415926535897929E-6</v>
+      </c>
+      <c r="F30" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="G30" s="75">
+        <f>D30*E30/F30</f>
+        <v>7.5398223686155033E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="33">
+        <v>0.24</v>
+      </c>
+      <c r="E31" s="80">
+        <v>3.1415926535897929E-6</v>
+      </c>
+      <c r="F31" s="34">
+        <v>0.01</v>
+      </c>
+      <c r="G31" s="75">
+        <f>D31*E31/F31</f>
+        <v>7.5398223686155033E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="33">
+        <v>4500</v>
+      </c>
+      <c r="E32" s="80">
+        <f>(0.008)^2*PI()</f>
+        <v>2.0106192982974675E-4</v>
+      </c>
+      <c r="F32" s="34">
+        <v>0.02</v>
+      </c>
+      <c r="G32" s="75">
+        <f>D32*E32/F32</f>
+        <v>45.238934211693014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="158" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" s="159" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="161" t="s">
+        <v>250</v>
+      </c>
+      <c r="D33" s="158">
+        <v>5</v>
+      </c>
+      <c r="E33" s="80">
+        <f t="shared" ref="E33" si="5">(0.008)^2*PI()</f>
+        <v>2.0106192982974675E-4</v>
+      </c>
+      <c r="F33" s="165">
+        <v>0.125</v>
+      </c>
+      <c r="G33" s="160">
+        <f>D33*E33/F33</f>
+        <v>8.0424771931898696E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="23">
+        <v>4500</v>
+      </c>
+      <c r="E34" s="81">
+        <f>(0.008)^2*PI()</f>
+        <v>2.0106192982974675E-4</v>
+      </c>
+      <c r="F34" s="25">
+        <v>0.21</v>
+      </c>
+      <c r="G34" s="77">
+        <f t="shared" ref="G34" si="6">D34*E34/F34</f>
+        <v>4.3084699249231448</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="62" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="169" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="152" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="150">
+        <v>500</v>
+      </c>
+      <c r="E38" s="152">
+        <f>0.04*0.08</f>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="F38" s="157">
+        <f>D38*E38</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="170" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39" s="167" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="166">
+        <v>500</v>
+      </c>
+      <c r="E39" s="167">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="F39" s="168">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="171" t="s">
+        <v>248</v>
+      </c>
+      <c r="B40" s="101" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" s="23">
+        <v>100</v>
+      </c>
+      <c r="E40" s="172">
+        <f>E32</f>
+        <v>2.0106192982974675E-4</v>
+      </c>
+      <c r="F40" s="64">
+        <f>D40*E40/2</f>
+        <v>1.0053096491487338E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10655B4E-66E6-4719-AFA2-E9D02F4D9E32}">
+  <sheetPr>
+    <tabColor theme="3" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B1:W42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="4" max="5" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" customWidth="1"/>
+    <col min="16" max="17" width="10.33203125" customWidth="1"/>
+    <col min="18" max="18" width="9.21875" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" customWidth="1"/>
+    <col min="21" max="21" width="9.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:19" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="206" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="208" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="204" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2" s="204" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="202" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="192" t="s">
+        <v>212</v>
+      </c>
+      <c r="I2" s="193"/>
+      <c r="J2" s="144" t="s">
+        <v>223</v>
+      </c>
+      <c r="K2" s="192" t="s">
+        <v>224</v>
+      </c>
+      <c r="L2" s="193"/>
+      <c r="M2" s="144" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="120" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="137"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="136" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="138" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="145"/>
+      <c r="K3" s="136" t="s">
+        <v>213</v>
+      </c>
+      <c r="L3" s="138" t="s">
+        <v>214</v>
+      </c>
+      <c r="M3" s="145"/>
+      <c r="N3" s="139"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="140" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="213">
+        <v>4</v>
+      </c>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="219">
+        <v>22.1</v>
+      </c>
+      <c r="H4" s="123">
+        <f>273.15-38.05</f>
+        <v>235.09999999999997</v>
+      </c>
+      <c r="I4" s="147">
+        <f>273.15-39.57</f>
+        <v>233.57999999999998</v>
+      </c>
+      <c r="J4" s="173"/>
+      <c r="K4" s="140">
+        <v>283.14999999999998</v>
+      </c>
+      <c r="L4" s="142">
+        <v>173.15</v>
+      </c>
+      <c r="M4" s="132" t="s">
+        <v>225</v>
+      </c>
+      <c r="N4" s="121" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="141"/>
+      <c r="D5" s="214"/>
+      <c r="E5" s="214"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="148">
+        <f>273.15-52.15</f>
+        <v>220.99999999999997</v>
+      </c>
+      <c r="I5" s="146">
+        <f>273.15-52.372</f>
+        <v>220.77799999999996</v>
+      </c>
+      <c r="J5" s="174"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="122"/>
+    </row>
+    <row r="6" spans="2:19" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="215" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="213">
+        <v>3</v>
+      </c>
+      <c r="E6" s="213"/>
+      <c r="F6" s="217" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" s="221">
+        <f>22.1+16</f>
+        <v>38.1</v>
+      </c>
+      <c r="H6" s="225">
+        <f>273.15-193.127</f>
+        <v>80.022999999999968</v>
+      </c>
+      <c r="I6" s="226">
+        <f>273.15-193.1314</f>
+        <v>80.018599999999964</v>
+      </c>
+      <c r="J6" s="173"/>
+      <c r="K6" s="140">
+        <v>100</v>
+      </c>
+      <c r="L6" s="142">
+        <v>60</v>
+      </c>
+      <c r="M6" s="132" t="s">
+        <v>226</v>
+      </c>
+      <c r="N6" s="121" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="216"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="223">
+        <f>273.15-193.1242</f>
+        <v>80.025799999999975</v>
+      </c>
+      <c r="I7" s="224">
+        <f>273.15-193.129</f>
+        <v>80.020999999999987</v>
+      </c>
+      <c r="J7" s="174"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="122"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="116" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="116"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="116" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="116"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="116" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="116"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="116"/>
+      <c r="D13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="116" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="116"/>
+      <c r="D14" t="s">
+        <v>242</v>
+      </c>
+      <c r="S14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="116" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="116"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="116"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="186" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="186"/>
+    </row>
+    <row r="20" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="206" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="208" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="227"/>
+      <c r="F21" s="208" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="204" t="s">
+        <v>254</v>
+      </c>
+      <c r="H21" s="210" t="s">
+        <v>255</v>
+      </c>
+      <c r="I21" s="187" t="s">
+        <v>256</v>
+      </c>
+      <c r="J21" s="192" t="s">
+        <v>258</v>
+      </c>
+      <c r="K21" s="212"/>
+      <c r="L21" s="193"/>
+      <c r="M21" s="144" t="s">
+        <v>87</v>
+      </c>
+      <c r="N21" s="130" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="137"/>
+      <c r="C22" s="207"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="228"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="136" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="138" t="s">
+        <v>146</v>
+      </c>
+      <c r="L22" s="185" t="s">
+        <v>257</v>
+      </c>
+      <c r="M22" s="145"/>
+      <c r="N22" s="131"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="140" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="213">
+        <v>4</v>
+      </c>
+      <c r="E23" s="229"/>
+      <c r="F23" s="213" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" s="219">
+        <v>22.1</v>
+      </c>
+      <c r="H23" s="181">
+        <v>2</v>
+      </c>
+      <c r="I23" s="135"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="179"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="121"/>
+    </row>
+    <row r="24" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="141"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="230"/>
+      <c r="F24" s="214"/>
+      <c r="G24" s="220"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="178"/>
+      <c r="K24" s="180"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="122"/>
+    </row>
+    <row r="25" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="215" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="213">
+        <v>3</v>
+      </c>
+      <c r="E25" s="229"/>
+      <c r="F25" s="217" t="s">
+        <v>239</v>
+      </c>
+      <c r="G25" s="221">
+        <f>22.1+16</f>
+        <v>38.1</v>
+      </c>
+      <c r="H25" s="175">
+        <v>2</v>
+      </c>
+      <c r="I25" s="135"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="179"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="121"/>
+    </row>
+    <row r="26" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="216"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="230"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="222"/>
+      <c r="H26" s="176"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="178"/>
+      <c r="K26" s="180"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="122"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="186" t="s">
+        <v>259</v>
+      </c>
+      <c r="C30" s="186"/>
+    </row>
+    <row r="32" spans="2:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:23" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="117" t="s">
+        <v>262</v>
+      </c>
+      <c r="C33" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33" s="184"/>
+      <c r="F33" s="183" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" s="129"/>
+      <c r="H33" s="192" t="s">
+        <v>265</v>
+      </c>
+      <c r="I33" s="193"/>
+      <c r="J33" s="183" t="s">
+        <v>260</v>
+      </c>
+      <c r="K33" s="129"/>
+      <c r="L33" s="192" t="s">
+        <v>266</v>
+      </c>
+      <c r="M33" s="193"/>
+      <c r="N33" s="183" t="s">
+        <v>261</v>
+      </c>
+      <c r="O33" s="129"/>
+      <c r="P33" s="192" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q33" s="193"/>
+      <c r="R33" s="192" t="s">
+        <v>268</v>
+      </c>
+      <c r="S33" s="193"/>
+      <c r="T33" s="192" t="s">
+        <v>269</v>
+      </c>
+      <c r="U33" s="193"/>
+      <c r="V33" s="130" t="s">
+        <v>87</v>
+      </c>
+      <c r="W33" s="194" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="137"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="136" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" s="138" t="s">
+        <v>214</v>
+      </c>
+      <c r="H34" s="136" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="138" t="s">
+        <v>214</v>
+      </c>
+      <c r="J34" s="136" t="s">
+        <v>213</v>
+      </c>
+      <c r="K34" s="138" t="s">
+        <v>214</v>
+      </c>
+      <c r="L34" s="136" t="s">
+        <v>213</v>
+      </c>
+      <c r="M34" s="138" t="s">
+        <v>214</v>
+      </c>
+      <c r="N34" s="136" t="s">
+        <v>213</v>
+      </c>
+      <c r="O34" s="138" t="s">
+        <v>214</v>
+      </c>
+      <c r="P34" s="136" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q34" s="138" t="s">
+        <v>214</v>
+      </c>
+      <c r="R34" s="136" t="s">
+        <v>213</v>
+      </c>
+      <c r="S34" s="138" t="s">
+        <v>214</v>
+      </c>
+      <c r="T34" s="136" t="s">
+        <v>213</v>
+      </c>
+      <c r="U34" s="138" t="s">
+        <v>214</v>
+      </c>
+      <c r="V34" s="131"/>
+      <c r="W34" s="195"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B35" s="189" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="189" t="s">
+        <v>205</v>
+      </c>
+      <c r="D35" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="232"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="140">
+        <f>K4</f>
+        <v>283.14999999999998</v>
+      </c>
+      <c r="I35" s="140">
+        <f>L4</f>
+        <v>173.15</v>
+      </c>
+      <c r="J35" s="123"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="132"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="147"/>
+      <c r="P35" s="132"/>
+      <c r="Q35" s="132"/>
+      <c r="R35" s="123"/>
+      <c r="S35" s="147"/>
+      <c r="T35" s="132"/>
+      <c r="U35" s="132"/>
+      <c r="V35" s="135"/>
+      <c r="W35" s="127"/>
+    </row>
+    <row r="36" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="190"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36" s="233"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="198"/>
+      <c r="I36" s="198"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="201"/>
+      <c r="M36" s="201"/>
+      <c r="N36" s="148"/>
+      <c r="O36" s="146"/>
+      <c r="P36" s="201"/>
+      <c r="Q36" s="201"/>
+      <c r="R36" s="148"/>
+      <c r="S36" s="146"/>
+      <c r="T36" s="201"/>
+      <c r="U36" s="201"/>
+      <c r="V36" s="134"/>
+      <c r="W36" s="128"/>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B37" s="190"/>
+      <c r="C37" s="197" t="s">
+        <v>270</v>
+      </c>
+      <c r="D37" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" s="232"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="199">
+        <f>K6</f>
+        <v>100</v>
+      </c>
+      <c r="I37" s="199">
+        <f>L6</f>
+        <v>60</v>
+      </c>
+      <c r="J37" s="123"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="201"/>
+      <c r="M37" s="201"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="124"/>
+      <c r="P37" s="201"/>
+      <c r="Q37" s="201"/>
+      <c r="R37" s="123"/>
+      <c r="S37" s="124"/>
+      <c r="T37" s="201"/>
+      <c r="U37" s="201"/>
+      <c r="V37" s="135"/>
+      <c r="W37" s="127"/>
+    </row>
+    <row r="38" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="191"/>
+      <c r="C38" s="196"/>
+      <c r="D38" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="E38" s="233"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="200"/>
+      <c r="I38" s="200"/>
+      <c r="J38" s="125"/>
+      <c r="K38" s="126"/>
+      <c r="L38" s="201"/>
+      <c r="M38" s="201"/>
+      <c r="N38" s="125"/>
+      <c r="O38" s="126"/>
+      <c r="P38" s="201"/>
+      <c r="Q38" s="201"/>
+      <c r="R38" s="125"/>
+      <c r="S38" s="126"/>
+      <c r="T38" s="201"/>
+      <c r="U38" s="201"/>
+      <c r="V38" s="134"/>
+      <c r="W38" s="128"/>
+    </row>
+    <row r="39" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="189" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" s="189" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="E39" s="232"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="199">
+        <f>H35</f>
+        <v>283.14999999999998</v>
+      </c>
+      <c r="I39" s="199">
+        <f>I35</f>
+        <v>173.15</v>
+      </c>
+      <c r="J39" s="123"/>
+      <c r="K39" s="147"/>
+      <c r="L39" s="201"/>
+      <c r="M39" s="201"/>
+      <c r="N39" s="123"/>
+      <c r="O39" s="147"/>
+      <c r="P39" s="201"/>
+      <c r="Q39" s="201"/>
+      <c r="R39" s="123"/>
+      <c r="S39" s="147"/>
+      <c r="T39" s="201"/>
+      <c r="U39" s="201"/>
+      <c r="V39" s="135"/>
+      <c r="W39" s="127"/>
+    </row>
+    <row r="40" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="190"/>
+      <c r="C40" s="190"/>
+      <c r="D40" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" s="233"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="146"/>
+      <c r="L40" s="201"/>
+      <c r="M40" s="201"/>
+      <c r="N40" s="148"/>
+      <c r="O40" s="146"/>
+      <c r="P40" s="201"/>
+      <c r="Q40" s="201"/>
+      <c r="R40" s="148"/>
+      <c r="S40" s="146"/>
+      <c r="T40" s="201"/>
+      <c r="U40" s="201"/>
+      <c r="V40" s="134"/>
+      <c r="W40" s="128"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B41" s="190"/>
+      <c r="C41" s="197" t="s">
+        <v>270</v>
+      </c>
+      <c r="D41" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="232"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="199">
+        <f>H37</f>
+        <v>100</v>
+      </c>
+      <c r="I41" s="199">
+        <f>I37</f>
+        <v>60</v>
+      </c>
+      <c r="J41" s="123"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="201"/>
+      <c r="M41" s="201"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="124"/>
+      <c r="P41" s="201"/>
+      <c r="Q41" s="201"/>
+      <c r="R41" s="123"/>
+      <c r="S41" s="124"/>
+      <c r="T41" s="201"/>
+      <c r="U41" s="201"/>
+      <c r="V41" s="135"/>
+      <c r="W41" s="127"/>
+    </row>
+    <row r="42" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="191"/>
+      <c r="C42" s="196"/>
+      <c r="D42" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" s="233"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="125"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="133"/>
+      <c r="N42" s="125"/>
+      <c r="O42" s="126"/>
+      <c r="P42" s="133"/>
+      <c r="Q42" s="133"/>
+      <c r="R42" s="125"/>
+      <c r="S42" s="126"/>
+      <c r="T42" s="133"/>
+      <c r="U42" s="133"/>
+      <c r="V42" s="134"/>
+      <c r="W42" s="128"/>
+    </row>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="T35:T42"/>
+    <mergeCell ref="U35:U42"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="L35:L42"/>
+    <mergeCell ref="M35:M42"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:V34"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="P35:P42"/>
+    <mergeCell ref="Q35:Q42"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF39B4B1-3F1C-4EF1-9A04-9C094A06A8EE}">
+  <sheetPr codeName="Sheet6">
+    <tabColor theme="7" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A2:M31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6625,2004 +12203,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CF5359-1665-44CF-A856-0B357D0D1ACE}">
-  <dimension ref="A2:M29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="7" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="19">
-        <v>10000</v>
-      </c>
-      <c r="E4" s="20">
-        <v>19999</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="22">
-        <v>10999</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="2">
-        <v>11000</v>
-      </c>
-      <c r="E6" s="22">
-        <v>11999</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
-      <c r="B7" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="67">
-        <v>12000</v>
-      </c>
-      <c r="E7" s="68">
-        <v>11999</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="I7" s="3">
-        <v>12345</v>
-      </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="41">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="42">
-        <v>29999</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2">
-        <v>20000</v>
-      </c>
-      <c r="E9" s="22">
-        <v>20999</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="24">
-        <v>21000</v>
-      </c>
-      <c r="E10" s="25">
-        <v>21999</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="19">
-        <v>30000</v>
-      </c>
-      <c r="E11" s="20">
-        <v>39999</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2">
-        <v>30000</v>
-      </c>
-      <c r="E12" s="22">
-        <v>30999</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2">
-        <v>31000</v>
-      </c>
-      <c r="E13" s="22">
-        <v>31999</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="24">
-        <v>32000</v>
-      </c>
-      <c r="E14" s="25">
-        <v>32999</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="35"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="19">
-        <v>40000</v>
-      </c>
-      <c r="E15" s="20">
-        <v>49999</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="2">
-        <v>40000</v>
-      </c>
-      <c r="E16" s="22">
-        <v>40499</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="2">
-        <v>40500</v>
-      </c>
-      <c r="E17" s="22">
-        <v>40999</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="2">
-        <v>45000</v>
-      </c>
-      <c r="E18" s="22">
-        <v>45999</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="2">
-        <v>41000</v>
-      </c>
-      <c r="E19" s="22">
-        <v>41999</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="29">
-        <v>42000</v>
-      </c>
-      <c r="E20" s="34">
-        <v>42999</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="29">
-        <v>43000</v>
-      </c>
-      <c r="E21" s="34">
-        <v>43999</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
-      <c r="B22" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="29">
-        <v>44000</v>
-      </c>
-      <c r="E22" s="34">
-        <v>44999</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="19">
-        <v>50000</v>
-      </c>
-      <c r="E23" s="20">
-        <v>59999</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="2">
-        <v>50000</v>
-      </c>
-      <c r="E24" s="22">
-        <v>50999</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="2">
-        <v>51000</v>
-      </c>
-      <c r="E25" s="22">
-        <v>51999</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
-      <c r="B26" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="29">
-        <v>52000</v>
-      </c>
-      <c r="E26" s="34">
-        <v>52999</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="19">
-        <v>60000</v>
-      </c>
-      <c r="E27" s="20">
-        <v>69999</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="2">
-        <v>60000</v>
-      </c>
-      <c r="E28" s="22">
-        <v>69999</v>
-      </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="24">
-        <v>61000</v>
-      </c>
-      <c r="E29" s="25">
-        <v>69999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="7" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="19">
-        <v>10000</v>
-      </c>
-      <c r="E4" s="20">
-        <v>19999</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="22">
-        <v>10999</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="2">
-        <v>11000</v>
-      </c>
-      <c r="E6" s="22">
-        <v>11999</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="3">
-        <v>12345</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="24">
-        <v>12000</v>
-      </c>
-      <c r="E7" s="25">
-        <v>12999</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="19">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="20">
-        <v>29999</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2">
-        <v>20000</v>
-      </c>
-      <c r="E9" s="22">
-        <v>20999</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="24">
-        <v>21000</v>
-      </c>
-      <c r="E10" s="25">
-        <v>21999</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="19">
-        <v>30000</v>
-      </c>
-      <c r="E11" s="20">
-        <v>39999</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2">
-        <v>30000</v>
-      </c>
-      <c r="E12" s="22">
-        <v>30999</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2">
-        <v>31000</v>
-      </c>
-      <c r="E13" s="22">
-        <v>31999</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="24">
-        <v>32000</v>
-      </c>
-      <c r="E14" s="25">
-        <v>32999</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="19">
-        <v>40000</v>
-      </c>
-      <c r="E15" s="20">
-        <v>49999</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="2">
-        <v>40000</v>
-      </c>
-      <c r="E16" s="22">
-        <v>40999</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="2">
-        <v>41000</v>
-      </c>
-      <c r="E17" s="22">
-        <v>41999</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="29">
-        <v>42000</v>
-      </c>
-      <c r="E18" s="34">
-        <v>42999</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="29">
-        <v>43000</v>
-      </c>
-      <c r="E19" s="34">
-        <v>43999</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="24">
-        <v>44000</v>
-      </c>
-      <c r="E20" s="25">
-        <v>44999</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="19">
-        <v>50000</v>
-      </c>
-      <c r="E21" s="20">
-        <v>59999</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="2">
-        <v>50000</v>
-      </c>
-      <c r="E22" s="22">
-        <v>50999</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="24">
-        <v>51000</v>
-      </c>
-      <c r="E23" s="25">
-        <v>51999</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="31">
-        <v>60000</v>
-      </c>
-      <c r="E24" s="32">
-        <v>69999</v>
-      </c>
-      <c r="F24" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AF8544-D7D6-4224-89B9-DF05E87627C2}">
-  <dimension ref="A2:M43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="K3" s="82" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="18">
-        <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="E4" s="50">
-        <f>MATERIALS!B14</f>
-        <v>124</v>
-      </c>
-      <c r="F4" s="69">
-        <f>PI()*(0.07^2)*0.001</f>
-        <v>1.5393804002589989E-5</v>
-      </c>
-      <c r="G4" s="19">
-        <f>MIN(F4,J4)</f>
-        <v>1.5393804002589989E-5</v>
-      </c>
-      <c r="H4" s="50">
-        <v>50</v>
-      </c>
-      <c r="I4" s="50">
-        <v>0.24</v>
-      </c>
-      <c r="J4" s="50">
-        <f>0.01*0.4</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K4" s="83">
-        <f>1 / ( (D4/(E4*F4)) + (1/(G4*H4))+(D4/(I4*J4)))</f>
-        <v>7.3421305756203787E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="33">
-        <f>0.001+0.08</f>
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="E5" s="53">
-        <f>MATERIALS!B11</f>
-        <v>59</v>
-      </c>
-      <c r="F5" s="73">
-        <f>PI()*(0.08^2)*0.01</f>
-        <v>2.0106192982974677E-4</v>
-      </c>
-      <c r="G5" s="72">
-        <f>MIN(F5,J5)</f>
-        <v>4.0212385965949353E-5</v>
-      </c>
-      <c r="H5" s="53">
-        <v>100</v>
-      </c>
-      <c r="I5" s="53">
-        <v>0.24</v>
-      </c>
-      <c r="J5" s="53">
-        <f>PI()*(0.08^2)*0.002</f>
-        <v>4.0212385965949353E-5</v>
-      </c>
-      <c r="K5" s="83">
-        <f t="shared" ref="K5:K17" si="0">1 / ( (D5/(E5*F5)) + (1/(G5*H5))+(D5/(I5*J5)))</f>
-        <v>1.1562773333549455E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="21">
-        <f>0.01+0.07</f>
-        <v>0.08</v>
-      </c>
-      <c r="E6" s="53">
-        <f>I5</f>
-        <v>0.24</v>
-      </c>
-      <c r="F6" s="53">
-        <f>J5</f>
-        <v>4.0212385965949353E-5</v>
-      </c>
-      <c r="G6" s="53">
-        <f t="shared" ref="G6:G17" si="1">MIN(F6,J6)</f>
-        <v>1.5393804002589989E-5</v>
-      </c>
-      <c r="H6" s="53">
-        <v>100</v>
-      </c>
-      <c r="I6" s="53">
-        <v>0.24</v>
-      </c>
-      <c r="J6" s="70">
-        <f>F4</f>
-        <v>1.5393804002589989E-5</v>
-      </c>
-      <c r="K6" s="83">
-        <f t="shared" si="0"/>
-        <v>3.2687573197271373E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="33">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E7" s="53">
-        <f>E6</f>
-        <v>0.24</v>
-      </c>
-      <c r="F7" s="53">
-        <f>F6</f>
-        <v>4.0212385965949353E-5</v>
-      </c>
-      <c r="G7" s="53">
-        <f t="shared" si="1"/>
-        <v>4.0212385965949353E-5</v>
-      </c>
-      <c r="H7" s="53">
-        <v>100</v>
-      </c>
-      <c r="I7" s="53">
-        <f>MATERIALS!B6</f>
-        <v>160</v>
-      </c>
-      <c r="J7" s="71">
-        <f>F17</f>
-        <v>4.908738521234052E-5</v>
-      </c>
-      <c r="K7" s="83">
-        <f t="shared" si="0"/>
-        <v>2.0336976997947383E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="33">
-        <v>0.13</v>
-      </c>
-      <c r="E8" s="53">
-        <v>160</v>
-      </c>
-      <c r="F8" s="53">
-        <v>4.908738521234052E-5</v>
-      </c>
-      <c r="G8" s="53">
-        <f t="shared" si="1"/>
-        <v>4.908738521234052E-5</v>
-      </c>
-      <c r="H8" s="53">
-        <v>300</v>
-      </c>
-      <c r="I8" s="53">
-        <v>160</v>
-      </c>
-      <c r="J8" s="71">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K8" s="83">
-        <f t="shared" si="0"/>
-        <v>1.1811765605433695E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="53">
-        <v>160</v>
-      </c>
-      <c r="F9" s="53">
-        <f>0.002*0.125</f>
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="G9" s="53">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="H9" s="53">
-        <v>300</v>
-      </c>
-      <c r="I9" s="53">
-        <v>160</v>
-      </c>
-      <c r="J9" s="71">
-        <f>F13</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="K9" s="83">
-        <f t="shared" si="0"/>
-        <v>5.7485029940119753E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="33" t="str">
-        <f>B9</f>
-        <v>Panel</v>
-      </c>
-      <c r="C10" s="53" t="str">
-        <f>C9</f>
-        <v>Plate 1</v>
-      </c>
-      <c r="D10" s="33">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E10" s="53">
-        <f>E9</f>
-        <v>160</v>
-      </c>
-      <c r="F10" s="53">
-        <f>0.002*0.15</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G10" s="53">
-        <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="H10" s="53">
-        <f>H9</f>
-        <v>300</v>
-      </c>
-      <c r="I10" s="53">
-        <f>I9</f>
-        <v>160</v>
-      </c>
-      <c r="J10" s="71">
-        <f t="shared" ref="J10:J12" si="2">F14</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="K10" s="83">
-        <f t="shared" si="0"/>
-        <v>7.0243902439024397E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="53">
-        <v>160</v>
-      </c>
-      <c r="F11" s="53">
-        <f>F9</f>
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="G11" s="53">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="H11" s="53">
-        <v>300</v>
-      </c>
-      <c r="I11" s="53">
-        <v>160</v>
-      </c>
-      <c r="J11" s="71">
-        <f t="shared" si="2"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="K11" s="83">
-        <f t="shared" si="0"/>
-        <v>5.7485029940119753E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12" s="33" t="str">
-        <f>B11</f>
-        <v>Panel</v>
-      </c>
-      <c r="C12" s="53" t="str">
-        <f>C11</f>
-        <v>Plate 2</v>
-      </c>
-      <c r="D12" s="33">
-        <f>D10</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E12" s="53">
-        <f>E11</f>
-        <v>160</v>
-      </c>
-      <c r="F12" s="53">
-        <f>F10</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G12" s="53">
-        <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="H12" s="53">
-        <f>H11</f>
-        <v>300</v>
-      </c>
-      <c r="I12" s="53">
-        <f>I11</f>
-        <v>160</v>
-      </c>
-      <c r="J12" s="71">
-        <f t="shared" si="2"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="K12" s="83">
-        <f t="shared" si="0"/>
-        <v>7.0243902439024397E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="53">
-        <v>160</v>
-      </c>
-      <c r="F13" s="53">
-        <f>0.002*0.2</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="G13" s="53">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="H13" s="53">
-        <v>300</v>
-      </c>
-      <c r="I13" s="53">
-        <v>160</v>
-      </c>
-      <c r="J13" s="71">
-        <f>F9</f>
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="K13" s="83">
-        <f t="shared" si="0"/>
-        <v>5.7485029940119753E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="57" t="s">
-        <v>175</v>
-      </c>
-      <c r="B14" s="33" t="str">
-        <f>B13</f>
-        <v>Plate 1</v>
-      </c>
-      <c r="C14" s="53" t="str">
-        <f>C13</f>
-        <v>Panel</v>
-      </c>
-      <c r="D14" s="33">
-        <f>D12</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E14" s="53">
-        <f>E13</f>
-        <v>160</v>
-      </c>
-      <c r="F14" s="53">
-        <f>0.002*0.15</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G14" s="53">
-        <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="H14" s="53">
-        <f>H13</f>
-        <v>300</v>
-      </c>
-      <c r="I14" s="53">
-        <f>I13</f>
-        <v>160</v>
-      </c>
-      <c r="J14" s="71">
-        <f t="shared" ref="J14:J16" si="3">F10</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="K14" s="83">
-        <f t="shared" si="0"/>
-        <v>7.0243902439024397E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="33">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="53">
-        <v>160</v>
-      </c>
-      <c r="F15" s="53">
-        <f>F13</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="G15" s="53">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="H15" s="53">
-        <v>300</v>
-      </c>
-      <c r="I15" s="53">
-        <v>160</v>
-      </c>
-      <c r="J15" s="71">
-        <f t="shared" si="3"/>
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="K15" s="83">
-        <f t="shared" si="0"/>
-        <v>5.7485029940119753E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="B16" s="33" t="str">
-        <f>B15</f>
-        <v>Plate 2</v>
-      </c>
-      <c r="C16" s="53" t="str">
-        <f>C15</f>
-        <v>Panel</v>
-      </c>
-      <c r="D16" s="33">
-        <f>D14</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E16" s="53">
-        <f>E15</f>
-        <v>160</v>
-      </c>
-      <c r="F16" s="53">
-        <f>F14</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G16" s="53">
-        <f t="shared" si="1"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="H16" s="53">
-        <f>H15</f>
-        <v>300</v>
-      </c>
-      <c r="I16" s="53">
-        <f>I15</f>
-        <v>160</v>
-      </c>
-      <c r="J16" s="71">
-        <f t="shared" si="3"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="K16" s="83">
-        <f t="shared" si="0"/>
-        <v>7.0243902439024397E-2</v>
-      </c>
-      <c r="M16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="23">
-        <f>0.005+0.125</f>
-        <v>0.13</v>
-      </c>
-      <c r="E17" s="52">
-        <f>I7</f>
-        <v>160</v>
-      </c>
-      <c r="F17" s="52">
-        <f>PI()*(0.125^2)*0.001</f>
-        <v>4.908738521234052E-5</v>
-      </c>
-      <c r="G17" s="52">
-        <f t="shared" si="1"/>
-        <v>4.908738521234052E-5</v>
-      </c>
-      <c r="H17" s="52">
-        <v>300</v>
-      </c>
-      <c r="I17" s="52">
-        <f>E17</f>
-        <v>160</v>
-      </c>
-      <c r="J17" s="52">
-        <f>J4</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K17" s="64">
-        <f t="shared" si="0"/>
-        <v>1.1811765605433695E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="I20" s="74" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="60">
-        <v>50000</v>
-      </c>
-      <c r="E21" s="78">
-        <f>0.06^2*PI()</f>
-        <v>1.1309733552923255E-2</v>
-      </c>
-      <c r="F21" s="61">
-        <f>0.21</f>
-        <v>0.21</v>
-      </c>
-      <c r="G21" s="75">
-        <f t="shared" ref="G21:G30" si="4">D21*E21/F21</f>
-        <v>2692.7937030769658</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="60">
-        <v>50000</v>
-      </c>
-      <c r="E22" s="78">
-        <f>0.035^2*PI()</f>
-        <v>3.8484510006474969E-3</v>
-      </c>
-      <c r="F22" s="61">
-        <v>0.19</v>
-      </c>
-      <c r="G22" s="75">
-        <f t="shared" si="4"/>
-        <v>1012.7502633282887</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="75"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="60">
-        <f>D22</f>
-        <v>50000</v>
-      </c>
-      <c r="E26" s="78">
-        <f>0.025^2*PI()</f>
-        <v>1.9634954084936209E-3</v>
-      </c>
-      <c r="F26" s="61">
-        <v>0.11</v>
-      </c>
-      <c r="G26" s="75">
-        <f>D26*E26/F26</f>
-        <v>892.49791295164584</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="60">
-        <f>D22</f>
-        <v>50000</v>
-      </c>
-      <c r="E27" s="78">
-        <f>E26</f>
-        <v>1.9634954084936209E-3</v>
-      </c>
-      <c r="F27" s="61">
-        <v>0.31</v>
-      </c>
-      <c r="G27" s="75">
-        <f t="shared" si="4"/>
-        <v>316.69280782155175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="66">
-        <v>160</v>
-      </c>
-      <c r="E28" s="79">
-        <f>0.01^2*PI()</f>
-        <v>3.1415926535897931E-4</v>
-      </c>
-      <c r="F28" s="65">
-        <v>0.05</v>
-      </c>
-      <c r="G28" s="75">
-        <f t="shared" si="4"/>
-        <v>1.0053096491487337</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="33" t="str">
-        <f>B30</f>
-        <v>Panel</v>
-      </c>
-      <c r="C29" s="53" t="str">
-        <f>C21</f>
-        <v>Rad_IR_Tel</v>
-      </c>
-      <c r="D29" s="33">
-        <v>0.24</v>
-      </c>
-      <c r="E29" s="80">
-        <f>0.001^2*PI()</f>
-        <v>3.1415926535897929E-6</v>
-      </c>
-      <c r="F29" s="53">
-        <v>0.01</v>
-      </c>
-      <c r="G29" s="76">
-        <f t="shared" si="4"/>
-        <v>7.5398223686155033E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="23">
-        <v>0.24</v>
-      </c>
-      <c r="E30" s="81">
-        <f>E29</f>
-        <v>3.1415926535897929E-6</v>
-      </c>
-      <c r="F30" s="52">
-        <v>0.01</v>
-      </c>
-      <c r="G30" s="77">
-        <f t="shared" si="4"/>
-        <v>7.5398223686155033E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I31" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="F33" s="62" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="33">
-        <v>500</v>
-      </c>
-      <c r="E34" s="53">
-        <f>0.04*0.04</f>
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="F34" s="63">
-        <f>D34*E34</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="23">
-        <v>500</v>
-      </c>
-      <c r="E35" s="52">
-        <f>0.02*0.02</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F35" s="64">
-        <f>D35*E35</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H39" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
 </file>
--- a/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
+++ b/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESATAN-TMS\ESATAN-TMS-Models\EO_Micro_Satellite_Project\Relevant Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FF2CC0-4513-46AE-B6BA-6C29D86D3D2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5FA7AE-0755-4A41-97A9-1765D9FEE25E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NODES&amp;LABELS (cnfg5)" sheetId="8" r:id="rId1"/>
-    <sheet name="NODES&amp;LABELS (CryoCool)" sheetId="12" r:id="rId2"/>
+    <sheet name="NODES&amp;LABELS (cnfgCryo)" sheetId="12" r:id="rId2"/>
     <sheet name="PROPERTIES" sheetId="2" r:id="rId3"/>
     <sheet name="THERMO-OPTICALS" sheetId="3" r:id="rId4"/>
     <sheet name="MATERIALS" sheetId="4" r:id="rId5"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="296">
   <si>
     <t>ELEMENTO</t>
   </si>
@@ -954,21 +954,6 @@
     <t>https://www.ricor.com/wp-content/uploads/2019/07/RicorComparisonTable2019.pdf</t>
   </si>
   <si>
-    <t>K561 Model.     Min PC=4W;       Max. PC= 16W;      Cold tip temp: 80K-110K,     Cooldown 5min      Vol=2.97160e-4</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Cryocooler Sink</t>
   </si>
   <si>
@@ -1042,6 +1027,93 @@
   </si>
   <si>
     <t>Total Radiator Area</t>
+  </si>
+  <si>
+    <t>Area Paneles Necesaria</t>
+  </si>
+  <si>
+    <t>Total Solar Panel Area</t>
+  </si>
+  <si>
+    <t>Average Heat Flux:</t>
+  </si>
+  <si>
+    <t>Average Het Flux:                         ;          Requires the solar panel area to decrease from … t …</t>
+  </si>
+  <si>
+    <t>TIPO CONTACT ZONE</t>
+  </si>
+  <si>
+    <t>hc=300</t>
+  </si>
+  <si>
+    <t>autogenerated --&gt; TIPO CONTACT</t>
+  </si>
+  <si>
+    <t>EBox_Plate_bottom</t>
+  </si>
+  <si>
+    <t>hc=200</t>
+  </si>
+  <si>
+    <t>Boundary Conditions</t>
+  </si>
+  <si>
+    <t>Boundary Condition</t>
+  </si>
+  <si>
+    <t>Boundary Condition Type</t>
+  </si>
+  <si>
+    <t>Cryo Sink</t>
+  </si>
+  <si>
+    <t>Cryo Diss</t>
+  </si>
+  <si>
+    <t>Total Heat Area Load</t>
+  </si>
+  <si>
+    <t>Power Dissipation</t>
+  </si>
+  <si>
+    <t>AC config</t>
+  </si>
+  <si>
+    <t>PC config</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Solar panels / Power Generation</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Packing factor</t>
+  </si>
+  <si>
+    <t>Mean Heat Flux [W/m^2]</t>
+  </si>
+  <si>
+    <t>Solar Panel Area [m^2]</t>
+  </si>
+  <si>
+    <t>Power Generated [W]</t>
+  </si>
+  <si>
+    <t>Power Dissipated [W]</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K538 Model.     Min PC=6W;       Max. PC= 16W;      Cold tip temp: 65K-110K,     Cooldown 5min     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vol=</t>
   </si>
 </sst>
 </file>
@@ -1100,13 +1172,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1143,8 +1217,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="63">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -1950,12 +2030,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2140,42 +2275,12 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2185,85 +2290,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2327,85 +2381,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2414,21 +2543,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2436,50 +2550,288 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3553,9 +3905,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>99018</xdr:rowOff>
+      <xdr:rowOff>95208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3643,7 +3995,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>78817</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>12435</xdr:rowOff>
+      <xdr:rowOff>16245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6877,7 +7229,7 @@
   <dimension ref="A2:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7194,7 +7546,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="2" t="s">
         <v>3</v>
@@ -7214,8 +7566,11 @@
       <c r="I17" s="105" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L17" s="105" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
         <v>114</v>
@@ -7233,7 +7588,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="2" t="s">
         <v>13</v>
@@ -7251,7 +7606,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="33"/>
       <c r="B20" s="29" t="s">
         <v>104</v>
@@ -7269,7 +7624,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="33"/>
       <c r="B21" s="29" t="s">
         <v>105</v>
@@ -7287,7 +7642,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
       <c r="B22" s="29" t="s">
         <v>14</v>
@@ -7305,7 +7660,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>6</v>
       </c>
@@ -7323,7 +7678,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="2" t="s">
         <v>15</v>
@@ -7341,7 +7696,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="2" t="s">
         <v>16</v>
@@ -7359,7 +7714,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="33"/>
       <c r="B26" s="29" t="s">
         <v>116</v>
@@ -7377,7 +7732,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>7</v>
       </c>
@@ -7395,7 +7750,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
@@ -7411,7 +7766,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
@@ -7427,7 +7782,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
@@ -7443,7 +7798,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
@@ -7459,7 +7814,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24" t="s">
@@ -7615,7 +7970,7 @@
   <dimension ref="A3:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7624,29 +7979,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111" t="s">
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112" t="s">
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="112"/>
+      <c r="L3" s="177"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="110"/>
+      <c r="B4" s="175"/>
       <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
@@ -7671,8 +8026,8 @@
       <c r="J4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
+      <c r="K4" s="177"/>
+      <c r="L4" s="177"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -7705,10 +8060,10 @@
       <c r="J5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="109" t="s">
+      <c r="K5" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="106"/>
+      <c r="L5" s="174"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -7741,10 +8096,10 @@
       <c r="J6" s="10">
         <v>0.1</v>
       </c>
-      <c r="K6" s="109" t="s">
+      <c r="K6" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="106"/>
+      <c r="L6" s="174"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -7777,8 +8132,8 @@
       <c r="J7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
+      <c r="K7" s="174"/>
+      <c r="L7" s="174"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -7811,8 +8166,8 @@
       <c r="J8" s="10">
         <v>0.1</v>
       </c>
-      <c r="K8" s="107"/>
-      <c r="L8" s="108"/>
+      <c r="K8" s="178"/>
+      <c r="L8" s="179"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -7845,8 +8200,8 @@
       <c r="J9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="174"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -7879,8 +8234,8 @@
       <c r="J10" s="10">
         <v>0.92</v>
       </c>
-      <c r="K10" s="107"/>
-      <c r="L10" s="108"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="179"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -7913,8 +8268,8 @@
       <c r="J11" s="10">
         <v>1</v>
       </c>
-      <c r="K11" s="107"/>
-      <c r="L11" s="108"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="179"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -7947,8 +8302,8 @@
       <c r="J12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -7981,8 +8336,8 @@
       <c r="J13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="174"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -8015,8 +8370,8 @@
       <c r="J14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -8049,8 +8404,8 @@
       <c r="J15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="174"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -8117,17 +8472,11 @@
       <c r="J17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K7:L7"/>
@@ -8138,6 +8487,12 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8150,34 +8505,34 @@
   <dimension ref="A4:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="112" t="s">
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="112"/>
-      <c r="H4" s="113" t="s">
+      <c r="F4" s="177"/>
+      <c r="H4" s="180" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="112" t="s">
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="181"/>
+      <c r="M4" s="182"/>
+      <c r="N4" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="112"/>
+      <c r="O4" s="177"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -8192,8 +8547,8 @@
       <c r="D5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
+      <c r="E5" s="177"/>
+      <c r="F5" s="177"/>
       <c r="H5" s="9" t="s">
         <v>36</v>
       </c>
@@ -8212,8 +8567,8 @@
       <c r="M5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
+      <c r="N5" s="177"/>
+      <c r="O5" s="177"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -8228,8 +8583,8 @@
       <c r="D6" s="5">
         <v>2700</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="108"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="179"/>
       <c r="G6" s="3" t="s">
         <v>90</v>
       </c>
@@ -8251,8 +8606,8 @@
       <c r="M6" s="5">
         <v>1750</v>
       </c>
-      <c r="N6" s="107"/>
-      <c r="O6" s="108"/>
+      <c r="N6" s="178"/>
+      <c r="O6" s="179"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -8267,10 +8622,10 @@
       <c r="D7" s="11">
         <v>2840</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="178" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="108"/>
+      <c r="F7" s="179"/>
       <c r="G7" s="3" t="s">
         <v>90</v>
       </c>
@@ -8296,10 +8651,10 @@
       <c r="D8" s="5">
         <v>2810</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="178" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="108"/>
+      <c r="F8" s="179"/>
       <c r="G8" s="3" t="s">
         <v>90</v>
       </c>
@@ -8325,10 +8680,10 @@
       <c r="D9" s="3">
         <v>7760</v>
       </c>
-      <c r="E9" s="107" t="s">
+      <c r="E9" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="108"/>
+      <c r="F9" s="179"/>
       <c r="G9" s="3" t="s">
         <v>90</v>
       </c>
@@ -8354,8 +8709,8 @@
       <c r="D10" s="5">
         <v>5300</v>
       </c>
-      <c r="E10" s="107"/>
-      <c r="F10" s="108"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="179"/>
       <c r="G10" s="3" t="s">
         <v>90</v>
       </c>
@@ -8373,8 +8728,8 @@
       <c r="D11" s="5">
         <v>5330</v>
       </c>
-      <c r="E11" s="107"/>
-      <c r="F11" s="108"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="179"/>
       <c r="G11" s="3" t="s">
         <v>90</v>
       </c>
@@ -8432,10 +8787,10 @@
       <c r="D14" s="46">
         <v>2300</v>
       </c>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="178" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="108"/>
+      <c r="F14" s="179"/>
       <c r="G14" s="3" t="s">
         <v>90</v>
       </c>
@@ -8453,20 +8808,14 @@
       <c r="D15" s="5">
         <v>300</v>
       </c>
-      <c r="E15" s="107"/>
-      <c r="F15" s="108"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="179"/>
       <c r="G15" s="3" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E15:F15"/>
@@ -8474,6 +8823,12 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8486,10 +8841,10 @@
   </sheetPr>
   <dimension ref="A2:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="J44" sqref="J44"/>
-      <selection pane="topRight" activeCell="H32" sqref="H32"/>
+      <selection pane="topRight" activeCell="A42" sqref="A42:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9412,12 +9767,12 @@
         <f>0.06^2*PI()</f>
         <v>1.1309733552923255E-2</v>
       </c>
-      <c r="F30" s="65">
-        <v>0.01</v>
+      <c r="F30" s="137">
+        <v>0.04</v>
       </c>
       <c r="G30" s="75">
         <f t="shared" ref="G30:G32" si="5">D30*E30/F30</f>
-        <v>5089.3800988154644</v>
+        <v>1272.3450247038661</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -9592,19 +9947,38 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>272</v>
+      </c>
+      <c r="B43" t="s">
+        <v>274</v>
+      </c>
       <c r="H43" t="s">
         <v>179</v>
       </c>
     </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>181</v>
+      </c>
+    </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>181</v>
+      <c r="A46" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H46" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>182</v>
+      <c r="A47" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -9622,10 +9996,10 @@
   </sheetPr>
   <dimension ref="A2:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="J44" sqref="J44"/>
-      <selection pane="topRight" activeCell="H41" sqref="H41"/>
+      <selection pane="topRight" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9678,37 +10052,37 @@
       </c>
     </row>
     <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="123" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="150">
+      <c r="D4" s="123">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="E4" s="152">
+      <c r="E4" s="125">
         <f>MATERIALS!B14</f>
         <v>124</v>
       </c>
-      <c r="F4" s="153">
+      <c r="F4" s="126">
         <f>PI()*(0.07^2)*0.001</f>
         <v>1.5393804002589989E-5</v>
       </c>
-      <c r="G4" s="154">
+      <c r="G4" s="127">
         <f>MIN(F4,J4)</f>
         <v>1.5393804002589989E-5</v>
       </c>
-      <c r="H4" s="152">
+      <c r="H4" s="125">
         <v>50</v>
       </c>
-      <c r="I4" s="152">
+      <c r="I4" s="125">
         <v>0.24</v>
       </c>
-      <c r="J4" s="152">
+      <c r="J4" s="125">
         <f>0.01*0.4</f>
         <v>4.0000000000000001E-3</v>
       </c>
@@ -9718,24 +10092,24 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="123" t="s">
         <v>134</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="150">
+      <c r="D5" s="123">
         <f>0.001+0.08</f>
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="E5" s="152">
+      <c r="E5" s="125">
         <f>MATERIALS!B11</f>
         <v>59</v>
       </c>
-      <c r="F5" s="155">
+      <c r="F5" s="128">
         <f>PI()*(0.08^2)*0.01</f>
         <v>2.0106192982974677E-4</v>
       </c>
@@ -9743,17 +10117,17 @@
         <f>MIN(F5,J5)</f>
         <v>4.0212385965949353E-5</v>
       </c>
-      <c r="H5" s="152">
+      <c r="H5" s="125">
         <v>100</v>
       </c>
-      <c r="I5" s="152">
+      <c r="I5" s="125">
         <v>0.24</v>
       </c>
-      <c r="J5" s="152">
+      <c r="J5" s="125">
         <f>PI()*(0.08^2)*0.002</f>
         <v>4.0212385965949353E-5</v>
       </c>
-      <c r="K5" s="156">
+      <c r="K5" s="129">
         <f t="shared" ref="K5:K17" si="0">1 / ( (D5/(E5*F5)) + (1/(G5*H5))+(D5/(I5*J5)))</f>
         <v>1.1562773333549455E-4</v>
       </c>
@@ -10301,7 +10675,7 @@
         <f>0.015^2*PI()</f>
         <v>7.0685834705770342E-4</v>
       </c>
-      <c r="F21" s="162">
+      <c r="F21" s="135">
         <v>0.19</v>
       </c>
       <c r="G21" s="94">
@@ -10326,7 +10700,7 @@
         <f>0.01^2*PI()</f>
         <v>3.1415926535897931E-4</v>
       </c>
-      <c r="F22" s="162">
+      <c r="F22" s="135">
         <v>0.35</v>
       </c>
       <c r="G22" s="75">
@@ -10354,7 +10728,7 @@
         <f>0.01^2*PI()</f>
         <v>3.1415926535897931E-4</v>
       </c>
-      <c r="F23" s="162">
+      <c r="F23" s="135">
         <v>0.16</v>
       </c>
       <c r="G23" s="75">
@@ -10375,7 +10749,7 @@
       <c r="C24" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="163">
+      <c r="D24" s="136">
         <v>4500</v>
       </c>
       <c r="E24" s="78">
@@ -10411,11 +10785,11 @@
         <f>0.01^2*PI()</f>
         <v>3.1415926535897931E-4</v>
       </c>
-      <c r="F25" s="162">
+      <c r="F25" s="135">
         <v>0.31</v>
       </c>
       <c r="G25" s="75">
-        <f>D25*E25/F25</f>
+        <f t="shared" ref="G25:G33" si="5">D25*E25/F25</f>
         <v>4.5603764326303446</v>
       </c>
     </row>
@@ -10437,11 +10811,11 @@
         <f>E25</f>
         <v>3.1415926535897931E-4</v>
       </c>
-      <c r="F26" s="162">
+      <c r="F26" s="135">
         <v>0.11</v>
       </c>
       <c r="G26" s="75">
-        <f>D26*E26/F26</f>
+        <f t="shared" si="5"/>
         <v>12.851969946503699</v>
       </c>
       <c r="I26" s="105" t="s">
@@ -10465,11 +10839,11 @@
         <f>0.01^2*PI()</f>
         <v>3.1415926535897931E-4</v>
       </c>
-      <c r="F27" s="164">
+      <c r="F27" s="137">
         <v>0.05</v>
       </c>
       <c r="G27" s="75">
-        <f>D27*E27/F27</f>
+        <f t="shared" si="5"/>
         <v>1.0053096491487337</v>
       </c>
       <c r="I27" t="s">
@@ -10493,12 +10867,12 @@
         <f>0.06^2*PI()</f>
         <v>1.1309733552923255E-2</v>
       </c>
-      <c r="F28" s="164">
-        <v>0.01</v>
-      </c>
-      <c r="G28" s="75">
-        <f>D28*E28/F28</f>
-        <v>5089.3800988154644</v>
+      <c r="F28" s="137">
+        <v>0.04</v>
+      </c>
+      <c r="G28" s="243">
+        <f t="shared" si="5"/>
+        <v>1272.3450247038661</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -10522,7 +10896,7 @@
         <v>0.01</v>
       </c>
       <c r="G29" s="75">
-        <f>D29*E29/F29</f>
+        <f t="shared" si="5"/>
         <v>7.5398223686155033E-5</v>
       </c>
     </row>
@@ -10547,7 +10921,7 @@
         <v>0.01</v>
       </c>
       <c r="G30" s="75">
-        <f>D30*E30/F30</f>
+        <f t="shared" si="5"/>
         <v>7.5398223686155033E-5</v>
       </c>
     </row>
@@ -10571,7 +10945,7 @@
         <v>0.01</v>
       </c>
       <c r="G31" s="75">
-        <f>D31*E31/F31</f>
+        <f t="shared" si="5"/>
         <v>7.5398223686155033E-5</v>
       </c>
     </row>
@@ -10596,32 +10970,32 @@
         <v>0.02</v>
       </c>
       <c r="G32" s="75">
-        <f>D32*E32/F32</f>
+        <f t="shared" si="5"/>
         <v>45.238934211693014</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="158" t="s">
-        <v>249</v>
-      </c>
-      <c r="B33" s="159" t="s">
-        <v>247</v>
-      </c>
-      <c r="C33" s="161" t="s">
-        <v>250</v>
-      </c>
-      <c r="D33" s="158">
+      <c r="A33" s="131" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="C33" s="134" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33" s="131">
         <v>5</v>
       </c>
       <c r="E33" s="80">
-        <f t="shared" ref="E33" si="5">(0.008)^2*PI()</f>
+        <f t="shared" ref="E33" si="6">(0.008)^2*PI()</f>
         <v>2.0106192982974675E-4</v>
       </c>
-      <c r="F33" s="165">
+      <c r="F33" s="138">
         <v>0.125</v>
       </c>
-      <c r="G33" s="160">
-        <f>D33*E33/F33</f>
+      <c r="G33" s="133">
+        <f t="shared" si="5"/>
         <v>8.0424771931898696E-3</v>
       </c>
     </row>
@@ -10639,15 +11013,15 @@
         <v>4500</v>
       </c>
       <c r="E34" s="81">
-        <f>(0.008)^2*PI()</f>
-        <v>2.0106192982974675E-4</v>
+        <f>(0.02)^2*PI()</f>
+        <v>1.2566370614359172E-3</v>
       </c>
       <c r="F34" s="25">
         <v>0.21</v>
       </c>
       <c r="G34" s="77">
-        <f t="shared" ref="G34" si="6">D34*E34/F34</f>
-        <v>4.3084699249231448</v>
+        <f t="shared" ref="G34" si="7">D34*E34/F34</f>
+        <v>26.927937030769655</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -10680,79 +11054,89 @@
       <c r="A38" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B38" s="169" t="s">
-        <v>251</v>
-      </c>
-      <c r="C38" s="152" t="s">
+      <c r="B38" s="142" t="s">
+        <v>246</v>
+      </c>
+      <c r="C38" s="125" t="s">
         <v>145</v>
       </c>
-      <c r="D38" s="150">
-        <v>500</v>
-      </c>
-      <c r="E38" s="152">
+      <c r="D38" s="123">
+        <v>300</v>
+      </c>
+      <c r="E38" s="125">
         <f>0.04*0.08</f>
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="F38" s="157">
+      <c r="F38" s="130">
         <f>D38*E38</f>
-        <v>1.6</v>
+        <v>0.96000000000000008</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="170" t="s">
-        <v>251</v>
-      </c>
-      <c r="C39" s="167" t="s">
+      <c r="B39" s="143" t="s">
+        <v>246</v>
+      </c>
+      <c r="C39" s="140" t="s">
         <v>146</v>
       </c>
-      <c r="D39" s="166">
-        <v>500</v>
-      </c>
-      <c r="E39" s="167">
+      <c r="D39" s="139">
+        <v>300</v>
+      </c>
+      <c r="E39" s="140">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="F39" s="168">
+      <c r="F39" s="141">
         <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="171" t="s">
-        <v>248</v>
+      <c r="A40" s="144" t="s">
+        <v>243</v>
       </c>
       <c r="B40" s="101" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D40" s="23">
         <v>100</v>
       </c>
-      <c r="E40" s="172">
-        <f>E32</f>
-        <v>2.0106192982974675E-4</v>
+      <c r="E40" s="145">
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F40" s="64">
         <f>D40*E40/2</f>
-        <v>1.0053096491487338E-2</v>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>272</v>
+      </c>
+      <c r="B44" t="s">
+        <v>274</v>
+      </c>
       <c r="H44" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>181</v>
+      <c r="A47" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>182</v>
+      <c r="A48" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -10768,17 +11152,19 @@
   <sheetPr>
     <tabColor theme="3" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:W42"/>
+  <dimension ref="B1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="12" customWidth="1"/>
-    <col min="4" max="5" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="12.21875" customWidth="1"/>
     <col min="10" max="10" width="10.109375" customWidth="1"/>
@@ -10791,839 +11177,1173 @@
     <col min="19" max="19" width="8.6640625" customWidth="1"/>
     <col min="20" max="20" width="8.88671875" customWidth="1"/>
     <col min="21" max="21" width="9.5546875" customWidth="1"/>
+    <col min="23" max="24" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="204" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="206" t="s">
+      <c r="C2" s="191" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="193" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="204" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" s="204" t="s">
+      <c r="E2" s="187" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="187" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="187" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="202" t="s">
+      <c r="H2" s="160" t="s">
         <v>211</v>
       </c>
-      <c r="H2" s="192" t="s">
+      <c r="I2" s="195" t="s">
         <v>212</v>
       </c>
-      <c r="I2" s="193"/>
-      <c r="J2" s="144" t="s">
+      <c r="J2" s="197"/>
+      <c r="K2" s="158" t="s">
         <v>223</v>
       </c>
-      <c r="K2" s="192" t="s">
+      <c r="L2" s="195" t="s">
         <v>224</v>
       </c>
-      <c r="L2" s="193"/>
-      <c r="M2" s="144" t="s">
+      <c r="M2" s="197"/>
+      <c r="N2" s="158" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="120" t="s">
+      <c r="O2" s="110" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="137"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="136" t="s">
+      <c r="B3" s="205"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="I3" s="138" t="s">
+      <c r="J3" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="J3" s="145"/>
-      <c r="K3" s="136" t="s">
+      <c r="K3" s="159"/>
+      <c r="L3" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="L3" s="138" t="s">
+      <c r="M3" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="M3" s="145"/>
-      <c r="N3" s="139"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="118" t="s">
+      <c r="N3" s="159"/>
+      <c r="O3" s="119"/>
+    </row>
+    <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="109" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="151"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="114"/>
+    </row>
+    <row r="5" spans="2:19" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="140" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4" s="213">
-        <v>4</v>
-      </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213" t="s">
-        <v>209</v>
-      </c>
-      <c r="G4" s="219">
-        <v>22.1</v>
-      </c>
-      <c r="H4" s="123">
-        <f>273.15-38.05</f>
-        <v>235.09999999999997</v>
-      </c>
-      <c r="I4" s="147">
-        <f>273.15-39.57</f>
-        <v>233.57999999999998</v>
-      </c>
-      <c r="J4" s="173"/>
-      <c r="K4" s="140">
-        <v>283.14999999999998</v>
-      </c>
-      <c r="L4" s="142">
-        <v>173.15</v>
-      </c>
-      <c r="M4" s="132" t="s">
-        <v>225</v>
-      </c>
-      <c r="N4" s="121" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="119" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
-      <c r="F5" s="214"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="148">
-        <f>273.15-52.15</f>
-        <v>220.99999999999997</v>
-      </c>
-      <c r="I5" s="146">
-        <f>273.15-52.372</f>
-        <v>220.77799999999996</v>
-      </c>
-      <c r="J5" s="174"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="122"/>
-    </row>
-    <row r="6" spans="2:19" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="118" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="215" t="s">
+      <c r="C5" s="185" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="213">
+      <c r="D5" s="189">
         <v>3</v>
       </c>
-      <c r="E6" s="213"/>
-      <c r="F6" s="217" t="s">
+      <c r="E5" s="236"/>
+      <c r="F5" s="240"/>
+      <c r="G5" s="238" t="s">
         <v>239</v>
       </c>
-      <c r="G6" s="221">
+      <c r="H5" s="163">
         <f>22.1+16</f>
         <v>38.1</v>
       </c>
-      <c r="H6" s="225">
+      <c r="I5" s="167">
         <f>273.15-193.127</f>
         <v>80.022999999999968</v>
       </c>
-      <c r="I6" s="226">
+      <c r="J5" s="168">
         <f>273.15-193.1314</f>
         <v>80.018599999999964</v>
       </c>
-      <c r="J6" s="173"/>
-      <c r="K6" s="140">
+      <c r="K5" s="146"/>
+      <c r="L5" s="150">
         <v>100</v>
       </c>
-      <c r="L6" s="142">
+      <c r="M5" s="152">
         <v>60</v>
       </c>
-      <c r="M6" s="132" t="s">
+      <c r="N5" s="116" t="s">
         <v>226</v>
       </c>
-      <c r="N6" s="121" t="s">
+      <c r="O5" s="113" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="119" t="s">
+    <row r="6" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="223">
+      <c r="C6" s="186"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="165">
         <f>273.15-193.1242</f>
         <v>80.025799999999975</v>
       </c>
-      <c r="I7" s="224">
+      <c r="J6" s="166">
         <f>273.15-193.129</f>
         <v>80.020999999999987</v>
       </c>
-      <c r="J7" s="174"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="122"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="151"/>
+      <c r="M6" s="153"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="114"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="107" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="107"/>
+      <c r="D9" t="s">
+        <v>269</v>
+      </c>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="116" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" s="116"/>
-      <c r="R10" s="2"/>
+      <c r="B10" s="107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="107"/>
+      <c r="D10" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="116" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="116"/>
+      <c r="B11" s="107" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="107"/>
+      <c r="D11" t="s">
+        <v>294</v>
+      </c>
+      <c r="K11" t="s">
+        <v>295</v>
+      </c>
+      <c r="L11" s="308">
+        <f>(0.042)^2*PI()*0.071</f>
+        <v>3.9346563030620004E-4</v>
+      </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="C12" s="116"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="116" t="s">
+      <c r="B12" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="C13" s="116"/>
-      <c r="D13" t="s">
+      <c r="C12" s="107"/>
+      <c r="D12" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="13" spans="2:19" ht="18" x14ac:dyDescent="0.3">
+      <c r="B13" s="107" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="107"/>
+      <c r="O13" s="307"/>
+      <c r="S13" t="s">
+        <v>241</v>
+      </c>
+    </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14" s="116" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="116"/>
-      <c r="D14" t="s">
-        <v>242</v>
-      </c>
-      <c r="S14" t="s">
-        <v>241</v>
-      </c>
+      <c r="B14" s="107" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="107"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15" s="116" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" s="116"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16" s="116" t="s">
+      <c r="B15" s="107" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="116"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="186" t="s">
+      <c r="C15" s="107"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="157" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="157"/>
+    </row>
+    <row r="19" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="204" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="191" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" s="169"/>
+      <c r="F20" s="187" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="187" t="s">
+        <v>249</v>
+      </c>
+      <c r="H20" s="208" t="s">
+        <v>250</v>
+      </c>
+      <c r="I20" s="158" t="s">
+        <v>251</v>
+      </c>
+      <c r="J20" s="195" t="s">
         <v>253</v>
       </c>
-      <c r="C19" s="186"/>
-    </row>
-    <row r="20" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="117" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="206" t="s">
-        <v>204</v>
-      </c>
-      <c r="D21" s="208" t="s">
-        <v>207</v>
-      </c>
-      <c r="E21" s="227"/>
-      <c r="F21" s="208" t="s">
-        <v>208</v>
-      </c>
-      <c r="G21" s="204" t="s">
-        <v>254</v>
-      </c>
-      <c r="H21" s="210" t="s">
-        <v>255</v>
-      </c>
-      <c r="I21" s="187" t="s">
-        <v>256</v>
-      </c>
-      <c r="J21" s="192" t="s">
-        <v>258</v>
-      </c>
-      <c r="K21" s="212"/>
-      <c r="L21" s="193"/>
-      <c r="M21" s="144" t="s">
+      <c r="K20" s="196"/>
+      <c r="L20" s="197"/>
+      <c r="M20" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="130" t="s">
+      <c r="N20" s="202" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="137"/>
-      <c r="C22" s="207"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="228"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="211"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="136" t="s">
+    <row r="21" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="205"/>
+      <c r="C21" s="192"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="209"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="138" t="s">
+      <c r="K21" s="118" t="s">
         <v>146</v>
       </c>
-      <c r="L22" s="185" t="s">
-        <v>257</v>
-      </c>
-      <c r="M22" s="145"/>
-      <c r="N22" s="131"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="118" t="s">
+      <c r="L21" s="156" t="s">
+        <v>252</v>
+      </c>
+      <c r="M21" s="199"/>
+      <c r="N21" s="203"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C22" s="183" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="213">
+      <c r="D22" s="189">
         <v>4</v>
       </c>
-      <c r="E23" s="229"/>
-      <c r="F23" s="213" t="s">
+      <c r="E22" s="171"/>
+      <c r="F22" s="189" t="s">
         <v>209</v>
       </c>
-      <c r="G23" s="219">
+      <c r="G22" s="214">
         <v>22.1</v>
       </c>
-      <c r="H23" s="181">
+      <c r="H22" s="154">
         <v>2</v>
       </c>
-      <c r="I23" s="135"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="121"/>
-    </row>
-    <row r="24" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="119" t="s">
+      <c r="I22" s="116"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="206"/>
+    </row>
+    <row r="23" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="C24" s="141"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="230"/>
-      <c r="F24" s="214"/>
-      <c r="G24" s="220"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="122"/>
-    </row>
-    <row r="25" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="118" t="s">
+      <c r="C23" s="184"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="215"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="207"/>
+    </row>
+    <row r="24" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="C25" s="215" t="s">
+      <c r="C24" s="185" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="213">
+      <c r="D24" s="189">
         <v>3</v>
       </c>
-      <c r="E25" s="229"/>
-      <c r="F25" s="217" t="s">
+      <c r="E24" s="171"/>
+      <c r="F24" s="210" t="s">
         <v>239</v>
       </c>
-      <c r="G25" s="221">
+      <c r="G24" s="212">
         <f>22.1+16</f>
         <v>38.1</v>
       </c>
-      <c r="H25" s="175">
+      <c r="H24" s="148">
         <v>2</v>
       </c>
-      <c r="I25" s="135"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="179"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="121"/>
-    </row>
-    <row r="26" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="119" t="s">
+      <c r="I24" s="116"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="206"/>
+    </row>
+    <row r="25" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="C26" s="216"/>
-      <c r="D26" s="214"/>
-      <c r="E26" s="230"/>
-      <c r="F26" s="218"/>
-      <c r="G26" s="222"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="180"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="122"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="186" t="s">
+      <c r="C25" s="186"/>
+      <c r="D25" s="190"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="213"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="207"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B29" s="157" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" s="157"/>
+    </row>
+    <row r="31" spans="2:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:22" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="204" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="202" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" s="204" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="200" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" s="201"/>
+      <c r="G32" s="195" t="s">
+        <v>260</v>
+      </c>
+      <c r="H32" s="197"/>
+      <c r="I32" s="200" t="s">
+        <v>255</v>
+      </c>
+      <c r="J32" s="201"/>
+      <c r="K32" s="195" t="s">
+        <v>261</v>
+      </c>
+      <c r="L32" s="197"/>
+      <c r="M32" s="200" t="s">
+        <v>256</v>
+      </c>
+      <c r="N32" s="201"/>
+      <c r="O32" s="195" t="s">
+        <v>262</v>
+      </c>
+      <c r="P32" s="197"/>
+      <c r="Q32" s="195" t="s">
+        <v>263</v>
+      </c>
+      <c r="R32" s="197"/>
+      <c r="S32" s="195" t="s">
+        <v>264</v>
+      </c>
+      <c r="T32" s="197"/>
+      <c r="U32" s="202" t="s">
+        <v>87</v>
+      </c>
+      <c r="V32" s="202" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="205"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="205"/>
+      <c r="E33" s="117" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="118" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="117" t="s">
+        <v>213</v>
+      </c>
+      <c r="H33" s="118" t="s">
+        <v>214</v>
+      </c>
+      <c r="I33" s="117" t="s">
+        <v>213</v>
+      </c>
+      <c r="J33" s="118" t="s">
+        <v>214</v>
+      </c>
+      <c r="K33" s="117" t="s">
+        <v>213</v>
+      </c>
+      <c r="L33" s="118" t="s">
+        <v>214</v>
+      </c>
+      <c r="M33" s="117" t="s">
+        <v>213</v>
+      </c>
+      <c r="N33" s="118" t="s">
+        <v>214</v>
+      </c>
+      <c r="O33" s="117" t="s">
+        <v>213</v>
+      </c>
+      <c r="P33" s="118" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q33" s="117" t="s">
+        <v>213</v>
+      </c>
+      <c r="R33" s="118" t="s">
+        <v>214</v>
+      </c>
+      <c r="S33" s="117" t="s">
+        <v>213</v>
+      </c>
+      <c r="T33" s="118" t="s">
+        <v>214</v>
+      </c>
+      <c r="U33" s="216"/>
+      <c r="V33" s="216"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B34" s="223" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="224" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34" s="225" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" s="226"/>
+      <c r="F34" s="227"/>
+      <c r="G34" s="228" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H34" s="228" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I34" s="226"/>
+      <c r="J34" s="227"/>
+      <c r="K34" s="228"/>
+      <c r="L34" s="228"/>
+      <c r="M34" s="226"/>
+      <c r="N34" s="227"/>
+      <c r="O34" s="228"/>
+      <c r="P34" s="228"/>
+      <c r="Q34" s="226"/>
+      <c r="R34" s="227"/>
+      <c r="S34" s="228"/>
+      <c r="T34" s="228"/>
+      <c r="U34" s="226"/>
+      <c r="V34" s="111"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B35" s="229"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="218" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" s="220"/>
+      <c r="F35" s="220"/>
+      <c r="G35" s="221"/>
+      <c r="H35" s="221"/>
+      <c r="I35" s="220"/>
+      <c r="J35" s="220"/>
+      <c r="K35" s="221"/>
+      <c r="L35" s="221"/>
+      <c r="M35" s="220"/>
+      <c r="N35" s="220"/>
+      <c r="O35" s="221"/>
+      <c r="P35" s="221"/>
+      <c r="Q35" s="220"/>
+      <c r="R35" s="220"/>
+      <c r="S35" s="221"/>
+      <c r="T35" s="221"/>
+      <c r="U35" s="219"/>
+      <c r="V35" s="230"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B36" s="229"/>
+      <c r="C36" s="222" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" s="218" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" s="219"/>
+      <c r="F36" s="219"/>
+      <c r="G36" s="221">
+        <f>L5</f>
+        <v>100</v>
+      </c>
+      <c r="H36" s="221">
+        <f>M5</f>
+        <v>60</v>
+      </c>
+      <c r="I36" s="219"/>
+      <c r="J36" s="219"/>
+      <c r="K36" s="221"/>
+      <c r="L36" s="221"/>
+      <c r="M36" s="219"/>
+      <c r="N36" s="219"/>
+      <c r="O36" s="221"/>
+      <c r="P36" s="221"/>
+      <c r="Q36" s="219"/>
+      <c r="R36" s="219"/>
+      <c r="S36" s="221"/>
+      <c r="T36" s="221"/>
+      <c r="U36" s="219"/>
+      <c r="V36" s="230"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B37" s="229"/>
+      <c r="C37" s="222"/>
+      <c r="D37" s="218" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" s="219"/>
+      <c r="F37" s="219"/>
+      <c r="G37" s="221"/>
+      <c r="H37" s="221"/>
+      <c r="I37" s="219"/>
+      <c r="J37" s="219"/>
+      <c r="K37" s="221"/>
+      <c r="L37" s="221"/>
+      <c r="M37" s="219"/>
+      <c r="N37" s="219"/>
+      <c r="O37" s="221"/>
+      <c r="P37" s="221"/>
+      <c r="Q37" s="219"/>
+      <c r="R37" s="219"/>
+      <c r="S37" s="221"/>
+      <c r="T37" s="221"/>
+      <c r="U37" s="219"/>
+      <c r="V37" s="230"/>
+    </row>
+    <row r="38" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="229" t="s">
         <v>259</v>
       </c>
-      <c r="C30" s="186"/>
-    </row>
-    <row r="32" spans="2:14" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:23" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="117" t="s">
-        <v>262</v>
-      </c>
-      <c r="C33" s="130" t="s">
+      <c r="C38" s="217" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="218" t="s">
+        <v>221</v>
+      </c>
+      <c r="E38" s="219"/>
+      <c r="F38" s="220"/>
+      <c r="G38" s="221" t="e">
+        <f>G34</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H38" s="221" t="e">
+        <f>H34</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I38" s="219"/>
+      <c r="J38" s="220"/>
+      <c r="K38" s="221"/>
+      <c r="L38" s="221"/>
+      <c r="M38" s="219"/>
+      <c r="N38" s="220"/>
+      <c r="O38" s="221"/>
+      <c r="P38" s="221"/>
+      <c r="Q38" s="219"/>
+      <c r="R38" s="220"/>
+      <c r="S38" s="221"/>
+      <c r="T38" s="221"/>
+      <c r="U38" s="219"/>
+      <c r="V38" s="230"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B39" s="229"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="218" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="220"/>
+      <c r="F39" s="220"/>
+      <c r="G39" s="221"/>
+      <c r="H39" s="221"/>
+      <c r="I39" s="220"/>
+      <c r="J39" s="220"/>
+      <c r="K39" s="221"/>
+      <c r="L39" s="221"/>
+      <c r="M39" s="220"/>
+      <c r="N39" s="220"/>
+      <c r="O39" s="221"/>
+      <c r="P39" s="221"/>
+      <c r="Q39" s="220"/>
+      <c r="R39" s="220"/>
+      <c r="S39" s="221"/>
+      <c r="T39" s="221"/>
+      <c r="U39" s="219"/>
+      <c r="V39" s="230"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B40" s="229"/>
+      <c r="C40" s="222" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" s="218" t="s">
+        <v>221</v>
+      </c>
+      <c r="E40" s="219"/>
+      <c r="F40" s="219"/>
+      <c r="G40" s="221">
+        <f>G36</f>
+        <v>100</v>
+      </c>
+      <c r="H40" s="221">
+        <f>H36</f>
+        <v>60</v>
+      </c>
+      <c r="I40" s="219"/>
+      <c r="J40" s="219"/>
+      <c r="K40" s="221"/>
+      <c r="L40" s="221"/>
+      <c r="M40" s="219"/>
+      <c r="N40" s="219"/>
+      <c r="O40" s="221"/>
+      <c r="P40" s="221"/>
+      <c r="Q40" s="219"/>
+      <c r="R40" s="219"/>
+      <c r="S40" s="221"/>
+      <c r="T40" s="221"/>
+      <c r="U40" s="219"/>
+      <c r="V40" s="230"/>
+    </row>
+    <row r="41" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="231"/>
+      <c r="C41" s="232"/>
+      <c r="D41" s="233" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41" s="234"/>
+      <c r="F41" s="234"/>
+      <c r="G41" s="235"/>
+      <c r="H41" s="235"/>
+      <c r="I41" s="234"/>
+      <c r="J41" s="234"/>
+      <c r="K41" s="235"/>
+      <c r="L41" s="235"/>
+      <c r="M41" s="234"/>
+      <c r="N41" s="234"/>
+      <c r="O41" s="235"/>
+      <c r="P41" s="235"/>
+      <c r="Q41" s="234"/>
+      <c r="R41" s="234"/>
+      <c r="S41" s="235"/>
+      <c r="T41" s="235"/>
+      <c r="U41" s="234"/>
+      <c r="V41" s="112"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="245" t="s">
+        <v>257</v>
+      </c>
+      <c r="C46" s="198" t="s">
         <v>204</v>
       </c>
-      <c r="D33" s="117" t="s">
-        <v>203</v>
-      </c>
-      <c r="E33" s="184"/>
-      <c r="F33" s="183" t="s">
-        <v>212</v>
-      </c>
-      <c r="G33" s="129"/>
-      <c r="H33" s="192" t="s">
+      <c r="D46" s="256" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" s="257"/>
+      <c r="F46" s="256" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" s="257"/>
+      <c r="H46" s="255" t="s">
+        <v>252</v>
+      </c>
+      <c r="I46" s="255"/>
+      <c r="J46" s="256" t="s">
+        <v>110</v>
+      </c>
+      <c r="K46" s="257"/>
+      <c r="L46" s="256" t="s">
+        <v>279</v>
+      </c>
+      <c r="M46" s="255"/>
+      <c r="N46" s="255" t="s">
+        <v>280</v>
+      </c>
+      <c r="O46" s="257"/>
+    </row>
+    <row r="47" spans="2:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="246"/>
+      <c r="C47" s="244"/>
+      <c r="D47" s="267" t="s">
+        <v>278</v>
+      </c>
+      <c r="E47" s="279" t="s">
+        <v>277</v>
+      </c>
+      <c r="F47" s="267" t="s">
+        <v>278</v>
+      </c>
+      <c r="G47" s="279" t="s">
+        <v>277</v>
+      </c>
+      <c r="H47" s="260" t="s">
+        <v>278</v>
+      </c>
+      <c r="I47" s="260" t="s">
+        <v>277</v>
+      </c>
+      <c r="J47" s="267" t="s">
+        <v>278</v>
+      </c>
+      <c r="K47" s="279" t="s">
+        <v>277</v>
+      </c>
+      <c r="L47" s="267" t="s">
+        <v>278</v>
+      </c>
+      <c r="M47" s="260" t="s">
+        <v>277</v>
+      </c>
+      <c r="N47" s="260" t="s">
+        <v>278</v>
+      </c>
+      <c r="O47" s="268" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="263" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" s="269" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" s="283" t="s">
+        <v>281</v>
+      </c>
+      <c r="E48" s="286"/>
+      <c r="F48" s="283" t="s">
+        <v>281</v>
+      </c>
+      <c r="G48" s="286"/>
+      <c r="H48" s="272" t="s">
+        <v>281</v>
+      </c>
+      <c r="I48" s="286"/>
+      <c r="J48" s="272" t="s">
+        <v>281</v>
+      </c>
+      <c r="K48" s="280"/>
+      <c r="L48" s="275" t="s">
+        <v>209</v>
+      </c>
+      <c r="M48" s="251"/>
+      <c r="N48" s="251"/>
+      <c r="O48" s="273"/>
+    </row>
+    <row r="49" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B49" s="264"/>
+      <c r="C49" s="270" t="s">
         <v>265</v>
       </c>
-      <c r="I33" s="193"/>
-      <c r="J33" s="183" t="s">
-        <v>260</v>
-      </c>
-      <c r="K33" s="129"/>
-      <c r="L33" s="192" t="s">
-        <v>266</v>
-      </c>
-      <c r="M33" s="193"/>
-      <c r="N33" s="183" t="s">
-        <v>261</v>
-      </c>
-      <c r="O33" s="129"/>
-      <c r="P33" s="192" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q33" s="193"/>
-      <c r="R33" s="192" t="s">
-        <v>268</v>
-      </c>
-      <c r="S33" s="193"/>
-      <c r="T33" s="192" t="s">
-        <v>269</v>
-      </c>
-      <c r="U33" s="193"/>
-      <c r="V33" s="130" t="s">
-        <v>87</v>
-      </c>
-      <c r="W33" s="194" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="137"/>
-      <c r="C34" s="131"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="231"/>
-      <c r="F34" s="136" t="s">
-        <v>213</v>
-      </c>
-      <c r="G34" s="138" t="s">
-        <v>214</v>
-      </c>
-      <c r="H34" s="136" t="s">
-        <v>213</v>
-      </c>
-      <c r="I34" s="138" t="s">
-        <v>214</v>
-      </c>
-      <c r="J34" s="136" t="s">
-        <v>213</v>
-      </c>
-      <c r="K34" s="138" t="s">
-        <v>214</v>
-      </c>
-      <c r="L34" s="136" t="s">
-        <v>213</v>
-      </c>
-      <c r="M34" s="138" t="s">
-        <v>214</v>
-      </c>
-      <c r="N34" s="136" t="s">
-        <v>213</v>
-      </c>
-      <c r="O34" s="138" t="s">
-        <v>214</v>
-      </c>
-      <c r="P34" s="136" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q34" s="138" t="s">
-        <v>214</v>
-      </c>
-      <c r="R34" s="136" t="s">
-        <v>213</v>
-      </c>
-      <c r="S34" s="138" t="s">
-        <v>214</v>
-      </c>
-      <c r="T34" s="136" t="s">
-        <v>213</v>
-      </c>
-      <c r="U34" s="138" t="s">
-        <v>214</v>
-      </c>
-      <c r="V34" s="131"/>
-      <c r="W34" s="195"/>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B35" s="189" t="s">
-        <v>263</v>
-      </c>
-      <c r="C35" s="189" t="s">
+      <c r="D49" s="284"/>
+      <c r="E49" s="287"/>
+      <c r="F49" s="284"/>
+      <c r="G49" s="287"/>
+      <c r="H49" s="281"/>
+      <c r="I49" s="287"/>
+      <c r="J49" s="276"/>
+      <c r="K49" s="261"/>
+      <c r="L49" s="272"/>
+      <c r="M49" s="253"/>
+      <c r="N49" s="272" t="s">
+        <v>281</v>
+      </c>
+      <c r="O49" s="261"/>
+    </row>
+    <row r="50" spans="2:15" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="265" t="s">
+        <v>259</v>
+      </c>
+      <c r="C50" s="270" t="s">
         <v>205</v>
       </c>
-      <c r="D35" s="118" t="s">
-        <v>221</v>
-      </c>
-      <c r="E35" s="232"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="140">
-        <f>K4</f>
-        <v>283.14999999999998</v>
-      </c>
-      <c r="I35" s="140">
-        <f>L4</f>
-        <v>173.15</v>
-      </c>
-      <c r="J35" s="123"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="132"/>
-      <c r="M35" s="132"/>
-      <c r="N35" s="123"/>
-      <c r="O35" s="147"/>
-      <c r="P35" s="132"/>
-      <c r="Q35" s="132"/>
-      <c r="R35" s="123"/>
-      <c r="S35" s="147"/>
-      <c r="T35" s="132"/>
-      <c r="U35" s="132"/>
-      <c r="V35" s="135"/>
-      <c r="W35" s="127"/>
-    </row>
-    <row r="36" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="190"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="119" t="s">
-        <v>222</v>
-      </c>
-      <c r="E36" s="233"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="198"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="201"/>
-      <c r="M36" s="201"/>
-      <c r="N36" s="148"/>
-      <c r="O36" s="146"/>
-      <c r="P36" s="201"/>
-      <c r="Q36" s="201"/>
-      <c r="R36" s="148"/>
-      <c r="S36" s="146"/>
-      <c r="T36" s="201"/>
-      <c r="U36" s="201"/>
-      <c r="V36" s="134"/>
-      <c r="W36" s="128"/>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="190"/>
-      <c r="C37" s="197" t="s">
-        <v>270</v>
-      </c>
-      <c r="D37" s="118" t="s">
-        <v>221</v>
-      </c>
-      <c r="E37" s="232"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="124"/>
-      <c r="H37" s="199">
-        <f>K6</f>
-        <v>100</v>
-      </c>
-      <c r="I37" s="199">
-        <f>L6</f>
-        <v>60</v>
-      </c>
-      <c r="J37" s="123"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="201"/>
-      <c r="M37" s="201"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="124"/>
-      <c r="P37" s="201"/>
-      <c r="Q37" s="201"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="124"/>
-      <c r="T37" s="201"/>
-      <c r="U37" s="201"/>
-      <c r="V37" s="135"/>
-      <c r="W37" s="127"/>
-    </row>
-    <row r="38" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="191"/>
-      <c r="C38" s="196"/>
-      <c r="D38" s="119" t="s">
-        <v>222</v>
-      </c>
-      <c r="E38" s="233"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="200"/>
-      <c r="I38" s="200"/>
-      <c r="J38" s="125"/>
-      <c r="K38" s="126"/>
-      <c r="L38" s="201"/>
-      <c r="M38" s="201"/>
-      <c r="N38" s="125"/>
-      <c r="O38" s="126"/>
-      <c r="P38" s="201"/>
-      <c r="Q38" s="201"/>
-      <c r="R38" s="125"/>
-      <c r="S38" s="126"/>
-      <c r="T38" s="201"/>
-      <c r="U38" s="201"/>
-      <c r="V38" s="134"/>
-      <c r="W38" s="128"/>
-    </row>
-    <row r="39" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="189" t="s">
-        <v>264</v>
-      </c>
-      <c r="C39" s="189" t="s">
+      <c r="D50" s="284"/>
+      <c r="E50" s="287"/>
+      <c r="F50" s="284"/>
+      <c r="G50" s="287"/>
+      <c r="H50" s="281"/>
+      <c r="I50" s="287"/>
+      <c r="J50" s="276"/>
+      <c r="K50" s="261"/>
+      <c r="L50" s="277" t="s">
+        <v>209</v>
+      </c>
+      <c r="M50" s="252"/>
+      <c r="N50" s="252"/>
+      <c r="O50" s="274"/>
+    </row>
+    <row r="51" spans="2:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="266"/>
+      <c r="C51" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" s="285"/>
+      <c r="E51" s="288"/>
+      <c r="F51" s="285"/>
+      <c r="G51" s="288"/>
+      <c r="H51" s="282"/>
+      <c r="I51" s="288"/>
+      <c r="J51" s="278"/>
+      <c r="K51" s="262"/>
+      <c r="L51" s="272"/>
+      <c r="M51" s="254"/>
+      <c r="N51" s="272" t="s">
+        <v>281</v>
+      </c>
+      <c r="O51" s="262"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D52" s="249"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D53" s="249"/>
+    </row>
+    <row r="54" spans="2:15" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D54" s="249"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B55" s="294" t="s">
+        <v>293</v>
+      </c>
+      <c r="C55" s="295" t="s">
+        <v>292</v>
+      </c>
+      <c r="D55" s="296"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B56" s="297"/>
+      <c r="C56" s="106" t="s">
+        <v>284</v>
+      </c>
+      <c r="D56" s="298" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B57" s="299" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="303">
+        <v>2</v>
+      </c>
+      <c r="D57" s="230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B58" s="299" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="219">
+        <v>4</v>
+      </c>
+      <c r="D58" s="230">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B59" s="299" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="219">
+        <v>16</v>
+      </c>
+      <c r="D59" s="230">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B60" s="299" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="219">
+        <v>0.1</v>
+      </c>
+      <c r="D60" s="230">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="300" t="s">
+        <v>280</v>
+      </c>
+      <c r="C61" s="234">
+        <v>0</v>
+      </c>
+      <c r="D61" s="112">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+    </row>
+    <row r="63" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="301" t="s">
+        <v>285</v>
+      </c>
+      <c r="C63" s="250">
+        <f>SUM(C57:C61)</f>
+        <v>22.1</v>
+      </c>
+      <c r="D63" s="302">
+        <f>SUM(D57:D61)</f>
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B68" s="289" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="290" t="s">
+        <v>289</v>
+      </c>
+      <c r="D68" s="290" t="s">
+        <v>290</v>
+      </c>
+      <c r="E68" s="290" t="s">
+        <v>287</v>
+      </c>
+      <c r="F68" s="290" t="s">
+        <v>288</v>
+      </c>
+      <c r="G68" s="291" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="258" t="s">
         <v>205</v>
       </c>
-      <c r="D39" s="118" t="s">
-        <v>221</v>
-      </c>
-      <c r="E39" s="232"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="199">
-        <f>H35</f>
-        <v>283.14999999999998</v>
-      </c>
-      <c r="I39" s="199">
-        <f>I35</f>
-        <v>173.15</v>
-      </c>
-      <c r="J39" s="123"/>
-      <c r="K39" s="147"/>
-      <c r="L39" s="201"/>
-      <c r="M39" s="201"/>
-      <c r="N39" s="123"/>
-      <c r="O39" s="147"/>
-      <c r="P39" s="201"/>
-      <c r="Q39" s="201"/>
-      <c r="R39" s="123"/>
-      <c r="S39" s="147"/>
-      <c r="T39" s="201"/>
-      <c r="U39" s="201"/>
-      <c r="V39" s="135"/>
-      <c r="W39" s="127"/>
-    </row>
-    <row r="40" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="190"/>
-      <c r="C40" s="190"/>
-      <c r="D40" s="119" t="s">
-        <v>222</v>
-      </c>
-      <c r="E40" s="233"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="200"/>
-      <c r="I40" s="200"/>
-      <c r="J40" s="148"/>
-      <c r="K40" s="146"/>
-      <c r="L40" s="201"/>
-      <c r="M40" s="201"/>
-      <c r="N40" s="148"/>
-      <c r="O40" s="146"/>
-      <c r="P40" s="201"/>
-      <c r="Q40" s="201"/>
-      <c r="R40" s="148"/>
-      <c r="S40" s="146"/>
-      <c r="T40" s="201"/>
-      <c r="U40" s="201"/>
-      <c r="V40" s="134"/>
-      <c r="W40" s="128"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="190"/>
-      <c r="C41" s="197" t="s">
-        <v>270</v>
-      </c>
-      <c r="D41" s="118" t="s">
-        <v>221</v>
-      </c>
-      <c r="E41" s="232"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="199">
-        <f>H37</f>
-        <v>100</v>
-      </c>
-      <c r="I41" s="199">
-        <f>I37</f>
-        <v>60</v>
-      </c>
-      <c r="J41" s="123"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="201"/>
-      <c r="M41" s="201"/>
-      <c r="N41" s="123"/>
-      <c r="O41" s="124"/>
-      <c r="P41" s="201"/>
-      <c r="Q41" s="201"/>
-      <c r="R41" s="123"/>
-      <c r="S41" s="124"/>
-      <c r="T41" s="201"/>
-      <c r="U41" s="201"/>
-      <c r="V41" s="135"/>
-      <c r="W41" s="127"/>
-    </row>
-    <row r="42" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="191"/>
-      <c r="C42" s="196"/>
-      <c r="D42" s="119" t="s">
-        <v>222</v>
-      </c>
-      <c r="E42" s="233"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="141"/>
-      <c r="I42" s="141"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="133"/>
-      <c r="M42" s="133"/>
-      <c r="N42" s="125"/>
-      <c r="O42" s="126"/>
-      <c r="P42" s="133"/>
-      <c r="Q42" s="133"/>
-      <c r="R42" s="125"/>
-      <c r="S42" s="126"/>
-      <c r="T42" s="133"/>
-      <c r="U42" s="133"/>
-      <c r="V42" s="134"/>
-      <c r="W42" s="128"/>
+      <c r="C69" s="292">
+        <v>602.66999999999996</v>
+      </c>
+      <c r="D69" s="292">
+        <f>0.7*0.3</f>
+        <v>0.21</v>
+      </c>
+      <c r="E69" s="292">
+        <v>0.25</v>
+      </c>
+      <c r="F69" s="292">
+        <v>0.7</v>
+      </c>
+      <c r="G69" s="304">
+        <f>C69*D69*E69*F69</f>
+        <v>22.148122499999996</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="259" t="s">
+        <v>265</v>
+      </c>
+      <c r="C70" s="293">
+        <f>C69</f>
+        <v>602.66999999999996</v>
+      </c>
+      <c r="D70" s="306">
+        <f>0.936*0.3</f>
+        <v>0.28079999999999999</v>
+      </c>
+      <c r="E70" s="293">
+        <v>0.25</v>
+      </c>
+      <c r="F70" s="293">
+        <v>0.9</v>
+      </c>
+      <c r="G70" s="305">
+        <f>C70*D70*E70*F70</f>
+        <v>38.076690599999992</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
+  <mergeCells count="102">
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="T35:T42"/>
-    <mergeCell ref="U35:U42"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="L35:L42"/>
-    <mergeCell ref="M35:M42"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:V34"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="P35:P42"/>
-    <mergeCell ref="Q35:Q42"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
+++ b/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESATAN-TMS\ESATAN-TMS-Models\EO_Micro_Satellite_Project\Relevant Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5FA7AE-0755-4A41-97A9-1765D9FEE25E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E6A93A-39AB-49E9-AEAD-46244385346E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NODES&amp;LABELS (cnfg5)" sheetId="8" r:id="rId1"/>
@@ -137,6 +137,26 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={E5F2BCF5-C4BB-4054-9FA0-825FFD72DC5E}</author>
+  </authors>
+  <commentList>
+    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{E5F2BCF5-C4BB-4054-9FA0-825FFD72DC5E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    4*RWP100
+Reply:
+    https://storage.googleapis.com/blue-canyon-tech-news/1/2020/06/BCT_DataSheet_Components_ReactionWheels_06_2020.pdf</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={BDFEC537-1183-4619-9C1A-E2728858C75D}</author>
     <author>tc={F39D7AC3-F117-462C-AEC4-D2E1F36C7EAE}</author>
     <author>tc={8E8E0BF6-9B7A-4B23-B066-8CC4C2B02C69}</author>
@@ -180,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="345">
   <si>
     <t>ELEMENTO</t>
   </si>
@@ -1115,6 +1135,153 @@
   <si>
     <t xml:space="preserve"> Vol=</t>
   </si>
+  <si>
+    <t>2 W</t>
+  </si>
+  <si>
+    <t>4 W</t>
+  </si>
+  <si>
+    <t>16 W</t>
+  </si>
+  <si>
+    <t>0.15 W</t>
+  </si>
+  <si>
+    <t>0 W</t>
+  </si>
+  <si>
+    <t>8 W</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>70 K</t>
+  </si>
+  <si>
+    <t>https://aip.scitation.org/doi/pdf/10.1063/1.4706932</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>https://www.boydcorp.com/thermal/conduction-cooling/thermal-straps-busses/thermal-straps.html</t>
+  </si>
+  <si>
+    <t>https://info.boydcorp.com/hubfs/Thermal/Conduction-Cooling/Boyd-k-Core-Datasheet.pdf</t>
+  </si>
+  <si>
+    <t>https://thermal-space.com/thermal-lynx/</t>
+  </si>
+  <si>
+    <t>https://www.ijrte.org/wp-content/uploads/papers/v3i2/B1074053214.pdf</t>
+  </si>
+  <si>
+    <t>Payload</t>
+  </si>
+  <si>
+    <t>Payload ID</t>
+  </si>
+  <si>
+    <t>Cryocooler</t>
+  </si>
+  <si>
+    <t>Thermal Strap</t>
+  </si>
+  <si>
+    <t>Operating Temperature [K]</t>
+  </si>
+  <si>
+    <t>Manufaturer</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>Thermal lynx</t>
+  </si>
+  <si>
+    <t>Ricor</t>
+  </si>
+  <si>
+    <t>70x70x25</t>
+  </si>
+  <si>
+    <t>Dimensions [mm^3]</t>
+  </si>
+  <si>
+    <t>https://storage.googleapis.com/blue-canyon-tech-news/1/2020/06/BCT_DataSheet_Components_ReactionWheels_06_2020.pdf</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>https://www.endurosat.com/cubesat-store/cubesat-obc/onboard-computer-obc/</t>
+  </si>
+  <si>
+    <t>CCD PC</t>
+  </si>
+  <si>
+    <t>CCD290-99</t>
+  </si>
+  <si>
+    <t>CCD_Cfg1_PC</t>
+  </si>
+  <si>
+    <t>C:\ESATAN-TMS\ESATAN-TMS-Models\EO_Micro_Satellite_Project\Relevant Data</t>
+  </si>
+  <si>
+    <t>Experiment TBD</t>
+  </si>
+  <si>
+    <t>60x60x30</t>
+  </si>
+  <si>
+    <t>Reaction Wheels</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Blue canyon</t>
+  </si>
+  <si>
+    <t>Endurosat</t>
+  </si>
+  <si>
+    <t>Power Consumption [W]</t>
+  </si>
+  <si>
+    <t>150x150x40</t>
+  </si>
+  <si>
+    <t>37.8x66.2x14.5</t>
+  </si>
+  <si>
+    <t>Working fluid :          PC: Ammonia [200-400K]       AC: Nitrogen[65-120K]                  https://www.boydcorp.com/thermal/two-phase-cooling/cryogenic-heat-pipes.html</t>
+  </si>
+  <si>
+    <t>Heat Pipe*</t>
+  </si>
+  <si>
+    <t>xy</t>
+  </si>
+  <si>
+    <t>yx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DIST  +</t>
+  </si>
+  <si>
+    <t>DIST -</t>
+  </si>
 </sst>
 </file>
 
@@ -1126,7 +1293,7 @@
     <numFmt numFmtId="166" formatCode="0.0000000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1179,8 +1346,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1217,12 +1399,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="68">
     <border>
@@ -2090,7 +2266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2432,144 +2608,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2579,39 +2620,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2621,35 +2641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2660,178 +2652,387 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3905,9 +4106,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>95208</xdr:rowOff>
+      <xdr:rowOff>97113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3951,7 +4152,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>114112</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>154226</xdr:rowOff>
+      <xdr:rowOff>135176</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3995,7 +4196,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>78817</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>16245</xdr:rowOff>
+      <xdr:rowOff>1005</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4020,6 +4221,50 @@
         <a:xfrm>
           <a:off x="10256519" y="2096427"/>
           <a:ext cx="6700598" cy="5055948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>511932</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>94532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{605B9239-D26C-4CC8-81C3-2EB3BE1BFF1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11249025" y="1878330"/>
+          <a:ext cx="4112382" cy="5744762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4088,7 +4333,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>114112</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>133271</xdr:rowOff>
+      <xdr:rowOff>135176</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4132,7 +4377,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>134062</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>58155</xdr:rowOff>
+      <xdr:rowOff>54345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4165,10 +4410,191 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>73391</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA19145D-503C-4ADE-B869-BBBFD857AE3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334625" y="3028950"/>
+          <a:ext cx="7226666" cy="680000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>53855</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>58831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D210DE73-2CA0-4739-857F-0521A2E9415E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14828520" y="3909059"/>
+          <a:ext cx="3924815" cy="2727737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>79497</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>92627</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C42651-932C-49E3-8FFC-D762C8FAAE29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11620500" y="3838575"/>
+          <a:ext cx="4118097" cy="5744762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>95916</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>39840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557B7871-5238-4717-8860-1C5147627097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12079605" y="240030"/>
+          <a:ext cx="9916191" cy="1323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4608,6 +5034,17 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E78" dT="2021-05-12T15:22:37.51" personId="{7FEA3327-5DCA-4904-9FA0-972C46AA4A40}" id="{E5F2BCF5-C4BB-4054-9FA0-825FFD72DC5E}">
+    <text>4*RWP100</text>
+  </threadedComment>
+  <threadedComment ref="E78" dT="2021-05-12T15:34:31.84" personId="{7FEA3327-5DCA-4904-9FA0-972C46AA4A40}" id="{2ED9ACEB-AC82-49C4-B33E-818022039216}" parentId="{E5F2BCF5-C4BB-4054-9FA0-825FFD72DC5E}">
+    <text>https://storage.googleapis.com/blue-canyon-tech-news/1/2020/06/BCT_DataSheet_Components_ReactionWheels_06_2020.pdf</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D3" dT="2021-05-10T14:59:54.90" personId="{7FEA3327-5DCA-4904-9FA0-972C46AA4A40}" id="{BDFEC537-1183-4619-9C1A-E2728858C75D}">
     <text>Distancia del nodo central a su borde</text>
   </threadedComment>
@@ -7979,29 +8416,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="223" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="176" t="s">
+      <c r="C3" s="224" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176" t="s">
+      <c r="D3" s="224"/>
+      <c r="E3" s="224"/>
+      <c r="F3" s="224"/>
+      <c r="G3" s="224" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="177" t="s">
+      <c r="H3" s="224"/>
+      <c r="I3" s="224"/>
+      <c r="J3" s="224"/>
+      <c r="K3" s="225" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="177"/>
+      <c r="L3" s="225"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="175"/>
+      <c r="B4" s="223"/>
       <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
@@ -8026,8 +8463,8 @@
       <c r="J4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="225"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -8060,10 +8497,10 @@
       <c r="J5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="173" t="s">
+      <c r="K5" s="222" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="174"/>
+      <c r="L5" s="219"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -8096,10 +8533,10 @@
       <c r="J6" s="10">
         <v>0.1</v>
       </c>
-      <c r="K6" s="173" t="s">
+      <c r="K6" s="222" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="174"/>
+      <c r="L6" s="219"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -8132,8 +8569,8 @@
       <c r="J7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="174"/>
-      <c r="L7" s="174"/>
+      <c r="K7" s="219"/>
+      <c r="L7" s="219"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -8166,8 +8603,8 @@
       <c r="J8" s="10">
         <v>0.1</v>
       </c>
-      <c r="K8" s="178"/>
-      <c r="L8" s="179"/>
+      <c r="K8" s="220"/>
+      <c r="L8" s="221"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -8200,8 +8637,8 @@
       <c r="J9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="174"/>
-      <c r="L9" s="174"/>
+      <c r="K9" s="219"/>
+      <c r="L9" s="219"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -8234,8 +8671,8 @@
       <c r="J10" s="10">
         <v>0.92</v>
       </c>
-      <c r="K10" s="178"/>
-      <c r="L10" s="179"/>
+      <c r="K10" s="220"/>
+      <c r="L10" s="221"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -8268,8 +8705,8 @@
       <c r="J11" s="10">
         <v>1</v>
       </c>
-      <c r="K11" s="178"/>
-      <c r="L11" s="179"/>
+      <c r="K11" s="220"/>
+      <c r="L11" s="221"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -8302,8 +8739,8 @@
       <c r="J12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="174"/>
-      <c r="L12" s="174"/>
+      <c r="K12" s="219"/>
+      <c r="L12" s="219"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -8336,8 +8773,8 @@
       <c r="J13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="174"/>
-      <c r="L13" s="174"/>
+      <c r="K13" s="219"/>
+      <c r="L13" s="219"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -8370,8 +8807,8 @@
       <c r="J14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="174"/>
-      <c r="L14" s="174"/>
+      <c r="K14" s="219"/>
+      <c r="L14" s="219"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -8404,8 +8841,8 @@
       <c r="J15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="174"/>
-      <c r="L15" s="174"/>
+      <c r="K15" s="219"/>
+      <c r="L15" s="219"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -8472,11 +8909,17 @@
       <c r="J17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="174"/>
-      <c r="L17" s="174"/>
+      <c r="K17" s="219"/>
+      <c r="L17" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K7:L7"/>
@@ -8487,12 +8930,6 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8511,28 +8948,28 @@
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="226" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="177" t="s">
+      <c r="B4" s="227"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="225" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="177"/>
-      <c r="H4" s="180" t="s">
+      <c r="F4" s="225"/>
+      <c r="H4" s="226" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="181"/>
-      <c r="M4" s="182"/>
-      <c r="N4" s="177" t="s">
+      <c r="I4" s="227"/>
+      <c r="J4" s="227"/>
+      <c r="K4" s="227"/>
+      <c r="L4" s="227"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="225" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="177"/>
+      <c r="O4" s="225"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -8547,8 +8984,8 @@
       <c r="D5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="177"/>
-      <c r="F5" s="177"/>
+      <c r="E5" s="225"/>
+      <c r="F5" s="225"/>
       <c r="H5" s="9" t="s">
         <v>36</v>
       </c>
@@ -8567,8 +9004,8 @@
       <c r="M5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="177"/>
-      <c r="O5" s="177"/>
+      <c r="N5" s="225"/>
+      <c r="O5" s="225"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -8583,8 +9020,8 @@
       <c r="D6" s="5">
         <v>2700</v>
       </c>
-      <c r="E6" s="178"/>
-      <c r="F6" s="179"/>
+      <c r="E6" s="220"/>
+      <c r="F6" s="221"/>
       <c r="G6" s="3" t="s">
         <v>90</v>
       </c>
@@ -8606,8 +9043,8 @@
       <c r="M6" s="5">
         <v>1750</v>
       </c>
-      <c r="N6" s="178"/>
-      <c r="O6" s="179"/>
+      <c r="N6" s="220"/>
+      <c r="O6" s="221"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -8622,10 +9059,10 @@
       <c r="D7" s="11">
         <v>2840</v>
       </c>
-      <c r="E7" s="178" t="s">
+      <c r="E7" s="220" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="179"/>
+      <c r="F7" s="221"/>
       <c r="G7" s="3" t="s">
         <v>90</v>
       </c>
@@ -8651,10 +9088,10 @@
       <c r="D8" s="5">
         <v>2810</v>
       </c>
-      <c r="E8" s="178" t="s">
+      <c r="E8" s="220" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="179"/>
+      <c r="F8" s="221"/>
       <c r="G8" s="3" t="s">
         <v>90</v>
       </c>
@@ -8680,10 +9117,10 @@
       <c r="D9" s="3">
         <v>7760</v>
       </c>
-      <c r="E9" s="178" t="s">
+      <c r="E9" s="220" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="179"/>
+      <c r="F9" s="221"/>
       <c r="G9" s="3" t="s">
         <v>90</v>
       </c>
@@ -8709,8 +9146,8 @@
       <c r="D10" s="5">
         <v>5300</v>
       </c>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
+      <c r="E10" s="220"/>
+      <c r="F10" s="221"/>
       <c r="G10" s="3" t="s">
         <v>90</v>
       </c>
@@ -8728,8 +9165,8 @@
       <c r="D11" s="5">
         <v>5330</v>
       </c>
-      <c r="E11" s="178"/>
-      <c r="F11" s="179"/>
+      <c r="E11" s="220"/>
+      <c r="F11" s="221"/>
       <c r="G11" s="3" t="s">
         <v>90</v>
       </c>
@@ -8787,10 +9224,10 @@
       <c r="D14" s="46">
         <v>2300</v>
       </c>
-      <c r="E14" s="178" t="s">
+      <c r="E14" s="220" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="179"/>
+      <c r="F14" s="221"/>
       <c r="G14" s="3" t="s">
         <v>90</v>
       </c>
@@ -8808,14 +9245,20 @@
       <c r="D15" s="5">
         <v>300</v>
       </c>
-      <c r="E15" s="178"/>
-      <c r="F15" s="179"/>
+      <c r="E15" s="220"/>
+      <c r="F15" s="221"/>
       <c r="G15" s="3" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E15:F15"/>
@@ -8823,12 +9266,6 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8839,12 +9276,12 @@
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A2:M47"/>
+  <dimension ref="A2:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="J44" sqref="J44"/>
-      <selection pane="topRight" activeCell="A42" sqref="A42:C48"/>
+      <selection pane="topRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8861,8 +9298,8 @@
     <col min="10" max="10" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54" t="s">
         <v>127</v>
       </c>
@@ -8897,7 +9334,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="55" t="s">
         <v>129</v>
       </c>
@@ -8937,7 +9374,7 @@
         <v>7.3421305756203787E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
         <v>133</v>
       </c>
@@ -8952,33 +9389,35 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="E5" s="53">
-        <f>MATERIALS!B11</f>
+        <f>'GLs (CC)'!E5</f>
         <v>59</v>
       </c>
-      <c r="F5" s="73">
-        <f>PI()*(0.08^2)*0.01</f>
-        <v>2.0106192982974677E-4</v>
+      <c r="F5" s="128">
+        <f>'GLs (CC)'!F5</f>
+        <v>5.0265482457436698E-3</v>
       </c>
       <c r="G5" s="72">
         <f>MIN(F5,J5)</f>
         <v>4.0212385965949353E-5</v>
       </c>
       <c r="H5" s="53">
+        <f>'GLs (CC)'!H5</f>
         <v>100</v>
       </c>
       <c r="I5" s="53">
-        <v>0.24</v>
+        <f>'GLs (CC)'!I5</f>
+        <v>5</v>
       </c>
       <c r="J5" s="53">
-        <f>PI()*(0.08^2)*0.002</f>
+        <f>'GLs (CC)'!J5</f>
         <v>4.0212385965949353E-5</v>
       </c>
       <c r="K5" s="83">
         <f t="shared" ref="K5:K17" si="0">1 / ( (D5/(E5*F5)) + (1/(G5*H5))+(D5/(I5*J5)))</f>
-        <v>1.1562773333549455E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.5341807626192488E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
         <v>137</v>
       </c>
@@ -8993,11 +9432,11 @@
         <v>0.08</v>
       </c>
       <c r="E6" s="53">
-        <f>I5</f>
-        <v>0.24</v>
+        <f>'GLs (CC)'!E6</f>
+        <v>5</v>
       </c>
       <c r="F6" s="53">
-        <f>J5</f>
+        <f>'GLs (CC)'!F6</f>
         <v>4.0212385965949353E-5</v>
       </c>
       <c r="G6" s="53">
@@ -9005,21 +9444,32 @@
         <v>1.5393804002589989E-5</v>
       </c>
       <c r="H6" s="53">
+        <f>'GLs (CC)'!H6</f>
         <v>100</v>
       </c>
       <c r="I6" s="53">
-        <v>0.24</v>
-      </c>
-      <c r="J6" s="70">
-        <f>F4</f>
+        <f>'GLs (CC)'!I6</f>
+        <v>5</v>
+      </c>
+      <c r="J6" s="53">
+        <f>'GLs (CC)'!J6</f>
         <v>1.5393804002589989E-5</v>
       </c>
       <c r="K6" s="83">
         <f t="shared" si="0"/>
-        <v>3.2687573197271373E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.7918456039190629E-4</v>
+      </c>
+      <c r="V6">
+        <v>2.44808743E-2</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="X6" s="319" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
         <v>138</v>
       </c>
@@ -9033,11 +9483,11 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="E7" s="53">
-        <f>E6</f>
-        <v>0.24</v>
+        <f>'GLs (CC)'!E7</f>
+        <v>5</v>
       </c>
       <c r="F7" s="53">
-        <f>F6</f>
+        <f>'GLs (CC)'!F7</f>
         <v>4.0212385965949353E-5</v>
       </c>
       <c r="G7" s="53">
@@ -9045,22 +9495,32 @@
         <v>4.0212385965949353E-5</v>
       </c>
       <c r="H7" s="53">
-        <v>100</v>
+        <f>'GLs (CC)'!H7</f>
+        <v>200</v>
       </c>
       <c r="I7" s="53">
-        <f>MATERIALS!B6</f>
+        <f>'GLs (CC)'!I7</f>
         <v>160</v>
       </c>
-      <c r="J7" s="71">
-        <f>F17</f>
-        <v>4.908738521234052E-5</v>
+      <c r="J7" s="53">
+        <f>'GLs (CC)'!J7</f>
+        <v>7.8539816339744835E-3</v>
       </c>
       <c r="K7" s="83">
         <f t="shared" si="0"/>
-        <v>2.0336976997947383E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.8720178757291651E-3</v>
+      </c>
+      <c r="V7">
+        <v>2.0638799999999999E-2</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="X7" s="319" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="57" t="s">
         <v>136</v>
       </c>
@@ -9074,9 +9534,11 @@
         <v>0.13</v>
       </c>
       <c r="E8" s="53">
+        <f>'GLs (CC)'!E8</f>
         <v>160</v>
       </c>
       <c r="F8" s="53">
+        <f>'GLs (CC)'!F8</f>
         <v>4.908738521234052E-5</v>
       </c>
       <c r="G8" s="53">
@@ -9084,12 +9546,15 @@
         <v>4.908738521234052E-5</v>
       </c>
       <c r="H8" s="53">
+        <f>'GLs (CC)'!H8</f>
         <v>300</v>
       </c>
       <c r="I8" s="53">
+        <f>'GLs (CC)'!I8</f>
         <v>160</v>
       </c>
-      <c r="J8" s="71">
+      <c r="J8" s="53">
+        <f>'GLs (CC)'!J8</f>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K8" s="83">
@@ -9097,7 +9562,7 @@
         <v>1.1811765605433695E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
         <v>170</v>
       </c>
@@ -9111,10 +9576,11 @@
         <v>0.1</v>
       </c>
       <c r="E9" s="53">
+        <f>'GLs (CC)'!E9</f>
         <v>160</v>
       </c>
       <c r="F9" s="53">
-        <f>0.002*0.125</f>
+        <f>'GLs (CC)'!F9</f>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="G9" s="53">
@@ -9122,21 +9588,23 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="H9" s="53">
-        <v>300</v>
+        <f>'GLs (CC)'!H9</f>
+        <v>100</v>
       </c>
       <c r="I9" s="53">
-        <v>160</v>
-      </c>
-      <c r="J9" s="71">
-        <f>F13</f>
+        <f>'GLs (CC)'!I9</f>
+        <v>42</v>
+      </c>
+      <c r="J9" s="53">
+        <f>'GLs (CC)'!J9</f>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="K9" s="83">
         <f t="shared" si="0"/>
-        <v>5.7485029940119753E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.0638820638820641E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="57" t="s">
         <v>171</v>
       </c>
@@ -9152,11 +9620,11 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E10" s="53">
-        <f>E9</f>
+        <f>'GLs (CC)'!E10</f>
         <v>160</v>
       </c>
       <c r="F10" s="53">
-        <f>0.002*0.15</f>
+        <f>'GLs (CC)'!F10</f>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G10" s="53">
@@ -9164,23 +9632,23 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H10" s="53">
-        <f>H9</f>
-        <v>300</v>
+        <f>'GLs (CC)'!H10</f>
+        <v>100</v>
       </c>
       <c r="I10" s="53">
-        <f>I9</f>
-        <v>160</v>
-      </c>
-      <c r="J10" s="71">
-        <f t="shared" ref="J10:J12" si="2">F14</f>
+        <f>'GLs (CC)'!I10</f>
+        <v>42</v>
+      </c>
+      <c r="J10" s="53">
+        <f>'GLs (CC)'!J10</f>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="K10" s="83">
         <f t="shared" si="0"/>
-        <v>7.0243902439024397E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.4480874316939887E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="57" t="s">
         <v>172</v>
       </c>
@@ -9194,10 +9662,11 @@
         <v>0.1</v>
       </c>
       <c r="E11" s="53">
+        <f>'GLs (CC)'!E11</f>
         <v>160</v>
       </c>
       <c r="F11" s="53">
-        <f>F9</f>
+        <f>'GLs (CC)'!F11</f>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="G11" s="53">
@@ -9205,21 +9674,23 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="H11" s="53">
-        <v>300</v>
+        <f>'GLs (CC)'!H11</f>
+        <v>100</v>
       </c>
       <c r="I11" s="53">
-        <v>160</v>
-      </c>
-      <c r="J11" s="71">
-        <f t="shared" si="2"/>
+        <f>'GLs (CC)'!I11</f>
+        <v>42</v>
+      </c>
+      <c r="J11" s="53">
+        <f>'GLs (CC)'!J11</f>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="K11" s="83">
         <f t="shared" si="0"/>
-        <v>5.7485029940119753E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.0638820638820641E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
         <v>173</v>
       </c>
@@ -9236,11 +9707,11 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E12" s="53">
-        <f>E11</f>
+        <f>'GLs (CC)'!E12</f>
         <v>160</v>
       </c>
       <c r="F12" s="53">
-        <f>F10</f>
+        <f>'GLs (CC)'!F12</f>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G12" s="53">
@@ -9248,23 +9719,26 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H12" s="53">
-        <f>H11</f>
-        <v>300</v>
+        <f>'GLs (CC)'!H12</f>
+        <v>100</v>
       </c>
       <c r="I12" s="53">
-        <f>I11</f>
-        <v>160</v>
-      </c>
-      <c r="J12" s="71">
-        <f t="shared" si="2"/>
+        <f>'GLs (CC)'!I12</f>
+        <v>42</v>
+      </c>
+      <c r="J12" s="53">
+        <f>'GLs (CC)'!J12</f>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="K12" s="83">
         <f t="shared" si="0"/>
-        <v>7.0243902439024397E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.4480874316939887E-2</v>
+      </c>
+      <c r="V12">
+        <v>1.41371669411541E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="57" t="s">
         <v>174</v>
       </c>
@@ -9278,10 +9752,11 @@
         <v>0.1</v>
       </c>
       <c r="E13" s="53">
-        <v>160</v>
+        <f>'GLs (CC)'!E13</f>
+        <v>42</v>
       </c>
       <c r="F13" s="53">
-        <f>0.002*0.2</f>
+        <f>'GLs (CC)'!F13</f>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="G13" s="53">
@@ -9289,21 +9764,23 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="H13" s="53">
-        <v>300</v>
+        <f>'GLs (CC)'!H13</f>
+        <v>100</v>
       </c>
       <c r="I13" s="53">
+        <f>'GLs (CC)'!I13</f>
         <v>160</v>
       </c>
-      <c r="J13" s="71">
-        <f>F9</f>
+      <c r="J13" s="53">
+        <f>'GLs (CC)'!J13</f>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="K13" s="83">
         <f t="shared" si="0"/>
-        <v>5.7485029940119753E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.0638820638820641E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="57" t="s">
         <v>175</v>
       </c>
@@ -9320,11 +9797,11 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E14" s="53">
-        <f>E13</f>
-        <v>160</v>
+        <f>'GLs (CC)'!E14</f>
+        <v>42</v>
       </c>
       <c r="F14" s="53">
-        <f>0.002*0.15</f>
+        <f>'GLs (CC)'!F14</f>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G14" s="53">
@@ -9332,23 +9809,23 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H14" s="53">
-        <f>H13</f>
-        <v>300</v>
+        <f>'GLs (CC)'!H14</f>
+        <v>100</v>
       </c>
       <c r="I14" s="53">
-        <f>I13</f>
+        <f>'GLs (CC)'!I14</f>
         <v>160</v>
       </c>
-      <c r="J14" s="71">
-        <f t="shared" ref="J14:J16" si="3">F10</f>
+      <c r="J14" s="53">
+        <f>'GLs (CC)'!J14</f>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="K14" s="83">
         <f t="shared" si="0"/>
-        <v>7.0243902439024397E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.4480874316939887E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="57" t="s">
         <v>176</v>
       </c>
@@ -9362,10 +9839,11 @@
         <v>0.1</v>
       </c>
       <c r="E15" s="53">
-        <v>160</v>
+        <f>'GLs (CC)'!E15</f>
+        <v>42</v>
       </c>
       <c r="F15" s="53">
-        <f>F13</f>
+        <f>'GLs (CC)'!F15</f>
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="G15" s="53">
@@ -9373,21 +9851,23 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="H15" s="53">
-        <v>300</v>
+        <f>'GLs (CC)'!H15</f>
+        <v>100</v>
       </c>
       <c r="I15" s="53">
+        <f>'GLs (CC)'!I15</f>
         <v>160</v>
       </c>
-      <c r="J15" s="71">
-        <f t="shared" si="3"/>
+      <c r="J15" s="53">
+        <f>'GLs (CC)'!J15</f>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="K15" s="83">
         <f t="shared" si="0"/>
-        <v>5.7485029940119753E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.0638820638820641E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="57" t="s">
         <v>177</v>
       </c>
@@ -9404,11 +9884,11 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E16" s="53">
-        <f>E15</f>
-        <v>160</v>
+        <f>'GLs (CC)'!E16</f>
+        <v>42</v>
       </c>
       <c r="F16" s="53">
-        <f>F14</f>
+        <f>'GLs (CC)'!F16</f>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G16" s="53">
@@ -9416,20 +9896,20 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H16" s="53">
-        <f>H15</f>
-        <v>300</v>
+        <f>'GLs (CC)'!H16</f>
+        <v>100</v>
       </c>
       <c r="I16" s="53">
-        <f>I15</f>
+        <f>'GLs (CC)'!I16</f>
         <v>160</v>
       </c>
-      <c r="J16" s="71">
-        <f t="shared" si="3"/>
+      <c r="J16" s="53">
+        <f>'GLs (CC)'!J16</f>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="K16" s="83">
         <f t="shared" si="0"/>
-        <v>7.0243902439024397E-2</v>
+        <v>2.4480874316939887E-2</v>
       </c>
       <c r="M16" t="s">
         <v>180</v>
@@ -9449,32 +9929,33 @@
         <f>0.005+0.125</f>
         <v>0.13</v>
       </c>
-      <c r="E17" s="52">
-        <f>I7</f>
+      <c r="E17" s="53">
+        <f>'GLs (CC)'!E17</f>
         <v>160</v>
       </c>
       <c r="F17" s="52">
-        <f>PI()*(0.125^2)*0.001</f>
-        <v>4.908738521234052E-5</v>
+        <f>'GLs (CC)'!F17</f>
+        <v>7.8539816339744835E-3</v>
       </c>
       <c r="G17" s="52">
         <f t="shared" si="1"/>
-        <v>4.908738521234052E-5</v>
-      </c>
-      <c r="H17" s="52">
-        <v>300</v>
-      </c>
-      <c r="I17" s="52">
-        <f>E17</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H17" s="53">
+        <f>'GLs (CC)'!H17</f>
+        <v>100</v>
+      </c>
+      <c r="I17" s="53">
+        <f>'GLs (CC)'!I17</f>
         <v>160</v>
       </c>
-      <c r="J17" s="52">
-        <f>J4</f>
+      <c r="J17" s="53">
+        <f>'GLs (CC)'!J17</f>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K17" s="64">
         <f t="shared" si="0"/>
-        <v>1.1811765605433695E-2</v>
+        <v>0.35630608337574976</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -9515,19 +9996,18 @@
         <v>143</v>
       </c>
       <c r="D21" s="96">
-        <v>4500</v>
+        <v>60000</v>
       </c>
       <c r="E21" s="91">
-        <f>0.025^2*PI()</f>
-        <v>1.9634954084936209E-3</v>
+        <f>(0.007)*0.005</f>
+        <v>3.5000000000000004E-5</v>
       </c>
       <c r="F21" s="93">
-        <f>0.21</f>
         <v>0.21</v>
       </c>
       <c r="G21" s="94">
-        <f t="shared" ref="G21:G34" si="4">D21*E21/F21</f>
-        <v>42.074901610577591</v>
+        <f>D21*E21/F21</f>
+        <v>10</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>161</v>
@@ -9544,7 +10024,7 @@
         <v>142</v>
       </c>
       <c r="D22" s="97">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="E22" s="78">
         <f>0.015^2*PI()</f>
@@ -9554,8 +10034,8 @@
         <v>0.19</v>
       </c>
       <c r="G22" s="75">
-        <f t="shared" si="4"/>
-        <v>16.741381903998239</v>
+        <f t="shared" ref="G21:G34" si="2">D22*E22/F22</f>
+        <v>6.324522052621556</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -9569,20 +10049,20 @@
         <v>184</v>
       </c>
       <c r="D23" s="97">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="E23" s="78">
-        <f>0.01^2*PI()</f>
-        <v>3.1415926535897931E-4</v>
+        <f>0.08*0.004</f>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="F23" s="61">
         <v>0.35</v>
       </c>
       <c r="G23" s="75">
-        <f t="shared" si="4"/>
-        <v>4.0391905546154483</v>
-      </c>
-      <c r="I23" s="105" t="s">
+        <f t="shared" si="2"/>
+        <v>1.5542857142857145</v>
+      </c>
+      <c r="I23" s="308" t="s">
         <v>199</v>
       </c>
     </row>
@@ -9597,18 +10077,18 @@
         <v>184</v>
       </c>
       <c r="D24" s="97">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="E24" s="78">
-        <f>0.01^2*PI()</f>
-        <v>3.1415926535897931E-4</v>
+        <f t="shared" ref="E24:E28" si="3">0.08*0.004</f>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="F24" s="61">
         <v>0.16</v>
       </c>
       <c r="G24" s="75">
-        <f t="shared" si="4"/>
-        <v>8.8357293382212934</v>
+        <f t="shared" si="2"/>
+        <v>3.4000000000000004</v>
       </c>
       <c r="I24" s="104" t="s">
         <v>200</v>
@@ -9625,18 +10105,18 @@
         <v>184</v>
       </c>
       <c r="D25" s="98">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="E25" s="78">
-        <f>0.01^2*PI()</f>
-        <v>3.1415926535897931E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="F25" s="51">
         <v>0.05</v>
       </c>
       <c r="G25" s="75">
-        <f t="shared" si="4"/>
-        <v>28.274333882308138</v>
+        <f t="shared" si="2"/>
+        <v>10.88</v>
       </c>
       <c r="I25" t="s">
         <v>201</v>
@@ -9653,18 +10133,21 @@
         <v>190</v>
       </c>
       <c r="D26" s="98">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="E26" s="78">
-        <f>0.01^2*PI()</f>
-        <v>3.1415926535897931E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="F26" s="51">
         <v>0.38500000000000001</v>
       </c>
       <c r="G26" s="75">
-        <f t="shared" si="4"/>
-        <v>3.6719914132867713</v>
+        <f t="shared" si="2"/>
+        <v>1.412987012987013</v>
+      </c>
+      <c r="I26" s="307" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -9678,22 +10161,21 @@
         <v>142</v>
       </c>
       <c r="D27" s="97">
-        <f>D22</f>
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="E27" s="78">
-        <f>0.01^2*PI()</f>
-        <v>3.1415926535897931E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="F27" s="61">
         <v>0.31</v>
       </c>
       <c r="G27" s="75">
         <f>D27*E27/F27</f>
-        <v>4.5603764326303446</v>
+        <v>1.7548387096774194</v>
       </c>
       <c r="I27" s="105" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -9708,21 +10190,21 @@
       </c>
       <c r="D28" s="97">
         <f>D22</f>
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="E28" s="78">
-        <f>E27</f>
-        <v>3.1415926535897931E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="F28" s="61">
         <v>0.11</v>
       </c>
       <c r="G28" s="75">
-        <f t="shared" si="4"/>
-        <v>12.851969946503699</v>
-      </c>
-      <c r="I28" t="s">
-        <v>234</v>
+        <f t="shared" si="2"/>
+        <v>4.9454545454545462</v>
+      </c>
+      <c r="I28" s="308" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -9746,8 +10228,11 @@
         <v>0.05</v>
       </c>
       <c r="G29" s="75">
-        <f t="shared" si="4"/>
+        <f>D29*E29/F29</f>
         <v>1.0053096491487337</v>
+      </c>
+      <c r="I29" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -9761,18 +10246,21 @@
         <v>143</v>
       </c>
       <c r="D30" s="99">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="E30" s="79">
-        <f>0.06^2*PI()</f>
-        <v>1.1309733552923255E-2</v>
+        <f>0.08*0.004</f>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="F30" s="137">
         <v>0.04</v>
       </c>
       <c r="G30" s="75">
-        <f t="shared" ref="G30:G32" si="5">D30*E30/F30</f>
-        <v>1272.3450247038661</v>
+        <f t="shared" ref="G30:G32" si="4">D30*E30/F30</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="I30" s="105" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -9786,18 +10274,21 @@
         <v>190</v>
       </c>
       <c r="D31" s="100">
-        <v>0.24</v>
+        <v>5</v>
       </c>
       <c r="E31" s="85">
-        <f>0.001^2*PI()</f>
-        <v>3.1415926535897929E-6</v>
+        <f>0.003^2*PI()</f>
+        <v>2.8274333882308137E-5</v>
       </c>
       <c r="F31" s="51">
         <v>0.01</v>
       </c>
       <c r="G31" s="75">
-        <f t="shared" si="5"/>
-        <v>7.5398223686155033E-5</v>
+        <f t="shared" si="4"/>
+        <v>1.4137166941154067E-2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -9811,18 +10302,21 @@
         <v>191</v>
       </c>
       <c r="D32" s="100">
-        <v>0.24</v>
+        <v>5</v>
       </c>
       <c r="E32" s="85">
-        <f>0.001^2*PI()</f>
-        <v>3.1415926535897929E-6</v>
+        <f t="shared" ref="E32:E34" si="5">0.003^2*PI()</f>
+        <v>2.8274333882308137E-5</v>
       </c>
       <c r="F32" s="51">
         <v>0.01</v>
       </c>
       <c r="G32" s="75">
-        <f t="shared" si="5"/>
-        <v>7.5398223686155033E-5</v>
+        <f t="shared" si="4"/>
+        <v>1.4137166941154067E-2</v>
+      </c>
+      <c r="I32" s="105" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -9838,18 +10332,18 @@
         <v>Rad_IR_Tel</v>
       </c>
       <c r="D33" s="100">
-        <v>0.24</v>
+        <v>5</v>
       </c>
       <c r="E33" s="85">
-        <f>0.001^2*PI()</f>
-        <v>3.1415926535897929E-6</v>
+        <f t="shared" si="5"/>
+        <v>2.8274333882308137E-5</v>
       </c>
       <c r="F33" s="51">
         <v>0.01</v>
       </c>
       <c r="G33" s="75">
         <f>D33*E33/F33</f>
-        <v>7.5398223686155033E-5</v>
+        <v>1.4137166941154067E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9863,18 +10357,18 @@
         <v>142</v>
       </c>
       <c r="D34" s="101">
-        <v>0.24</v>
-      </c>
-      <c r="E34" s="81">
-        <f>E33</f>
-        <v>3.1415926535897929E-6</v>
+        <v>5</v>
+      </c>
+      <c r="E34" s="85">
+        <f t="shared" si="5"/>
+        <v>2.8274333882308137E-5</v>
       </c>
       <c r="F34" s="52">
         <v>0.01</v>
       </c>
       <c r="G34" s="77">
-        <f t="shared" si="4"/>
-        <v>7.5398223686155033E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.4137166941154067E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -9883,7 +10377,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="54" t="s">
         <v>127</v>
       </c>
@@ -9903,7 +10397,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="57" t="s">
         <v>163</v>
       </c>
@@ -9914,15 +10408,15 @@
         <v>145</v>
       </c>
       <c r="D38" s="33">
-        <v>500</v>
-      </c>
-      <c r="E38" s="53">
-        <f>0.04*0.08</f>
-        <v>3.2000000000000002E-3</v>
+        <v>300</v>
+      </c>
+      <c r="E38" s="125">
+        <f>0.06*0.06</f>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="F38" s="63">
         <f>D38*E38</f>
-        <v>1.6</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9936,15 +10430,15 @@
         <v>146</v>
       </c>
       <c r="D39" s="23">
-        <v>500</v>
-      </c>
-      <c r="E39" s="52">
-        <f>0.02*0.02</f>
-        <v>4.0000000000000002E-4</v>
+        <v>300</v>
+      </c>
+      <c r="E39" s="125">
+        <f>0.07*0.07</f>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F39" s="64">
         <f>D39*E39</f>
-        <v>0.2</v>
+        <v>1.4700000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -9996,10 +10490,10 @@
   </sheetPr>
   <dimension ref="A2:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="J44" sqref="J44"/>
-      <selection pane="topRight" activeCell="E46" sqref="E46"/>
+      <selection pane="topRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10110,8 +10604,8 @@
         <v>59</v>
       </c>
       <c r="F5" s="128">
-        <f>PI()*(0.08^2)*0.01</f>
-        <v>2.0106192982974677E-4</v>
+        <f>2*PI()*(0.08)*0.01</f>
+        <v>5.0265482457436698E-3</v>
       </c>
       <c r="G5" s="50">
         <f>MIN(F5,J5)</f>
@@ -10121,7 +10615,7 @@
         <v>100</v>
       </c>
       <c r="I5" s="125">
-        <v>0.24</v>
+        <v>5</v>
       </c>
       <c r="J5" s="125">
         <f>PI()*(0.08^2)*0.002</f>
@@ -10129,7 +10623,7 @@
       </c>
       <c r="K5" s="129">
         <f t="shared" ref="K5:K17" si="0">1 / ( (D5/(E5*F5)) + (1/(G5*H5))+(D5/(I5*J5)))</f>
-        <v>1.1562773333549455E-4</v>
+        <v>1.5341807626192488E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -10148,7 +10642,7 @@
       </c>
       <c r="E6" s="53">
         <f>I5</f>
-        <v>0.24</v>
+        <v>5</v>
       </c>
       <c r="F6" s="53">
         <f>J5</f>
@@ -10162,7 +10656,7 @@
         <v>100</v>
       </c>
       <c r="I6" s="53">
-        <v>0.24</v>
+        <v>5</v>
       </c>
       <c r="J6" s="70">
         <f>F4</f>
@@ -10170,7 +10664,7 @@
       </c>
       <c r="K6" s="83">
         <f t="shared" si="0"/>
-        <v>3.2687573197271373E-5</v>
+        <v>4.7918456039190629E-4</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -10188,7 +10682,7 @@
       </c>
       <c r="E7" s="53">
         <f>E6</f>
-        <v>0.24</v>
+        <v>5</v>
       </c>
       <c r="F7" s="53">
         <f>F6</f>
@@ -10199,7 +10693,7 @@
         <v>4.0212385965949353E-5</v>
       </c>
       <c r="H7" s="53">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I7" s="53">
         <f>MATERIALS!B6</f>
@@ -10207,11 +10701,11 @@
       </c>
       <c r="J7" s="71">
         <f>F17</f>
-        <v>4.908738521234052E-5</v>
+        <v>7.8539816339744835E-3</v>
       </c>
       <c r="K7" s="83">
         <f t="shared" si="0"/>
-        <v>2.0336976997947383E-4</v>
+        <v>2.8720178757291651E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -10276,10 +10770,10 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="H9" s="53">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I9" s="53">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="J9" s="71">
         <f>F13</f>
@@ -10287,7 +10781,7 @@
       </c>
       <c r="K9" s="83">
         <f t="shared" si="0"/>
-        <v>5.7485029940119753E-2</v>
+        <v>2.0638820638820641E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -10318,12 +10812,10 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H10" s="53">
-        <f>H9</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I10" s="53">
-        <f>I9</f>
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="J10" s="71">
         <f t="shared" ref="J10:J12" si="2">F14</f>
@@ -10331,7 +10823,7 @@
       </c>
       <c r="K10" s="83">
         <f t="shared" si="0"/>
-        <v>7.0243902439024397E-2</v>
+        <v>2.4480874316939887E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -10359,10 +10851,10 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="H11" s="53">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I11" s="53">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="J11" s="71">
         <f t="shared" si="2"/>
@@ -10370,7 +10862,7 @@
       </c>
       <c r="K11" s="83">
         <f t="shared" si="0"/>
-        <v>5.7485029940119753E-2</v>
+        <v>2.0638820638820641E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -10402,12 +10894,10 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H12" s="53">
-        <f>H11</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I12" s="53">
-        <f>I11</f>
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="J12" s="71">
         <f t="shared" si="2"/>
@@ -10415,7 +10905,7 @@
       </c>
       <c r="K12" s="83">
         <f t="shared" si="0"/>
-        <v>7.0243902439024397E-2</v>
+        <v>2.4480874316939887E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -10432,7 +10922,7 @@
         <v>0.1</v>
       </c>
       <c r="E13" s="53">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="F13" s="53">
         <f>0.002*0.2</f>
@@ -10443,7 +10933,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="H13" s="53">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I13" s="53">
         <v>160</v>
@@ -10454,7 +10944,7 @@
       </c>
       <c r="K13" s="83">
         <f t="shared" si="0"/>
-        <v>5.7485029940119753E-2</v>
+        <v>2.0638820638820641E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -10474,8 +10964,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E14" s="53">
-        <f>E13</f>
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="F14" s="53">
         <f>0.002*0.15</f>
@@ -10486,8 +10975,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H14" s="53">
-        <f>H13</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I14" s="53">
         <f>I13</f>
@@ -10499,7 +10987,7 @@
       </c>
       <c r="K14" s="83">
         <f t="shared" si="0"/>
-        <v>7.0243902439024397E-2</v>
+        <v>2.4480874316939887E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -10516,7 +11004,7 @@
         <v>0.1</v>
       </c>
       <c r="E15" s="53">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="F15" s="53">
         <f>F13</f>
@@ -10527,7 +11015,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="H15" s="53">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I15" s="53">
         <v>160</v>
@@ -10538,7 +11026,7 @@
       </c>
       <c r="K15" s="83">
         <f t="shared" si="0"/>
-        <v>5.7485029940119753E-2</v>
+        <v>2.0638820638820641E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -10558,8 +11046,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E16" s="53">
-        <f>E15</f>
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="F16" s="53">
         <f>F14</f>
@@ -10570,8 +11057,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H16" s="53">
-        <f>H15</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I16" s="53">
         <f>I15</f>
@@ -10583,7 +11069,7 @@
       </c>
       <c r="K16" s="83">
         <f t="shared" si="0"/>
-        <v>7.0243902439024397E-2</v>
+        <v>2.4480874316939887E-2</v>
       </c>
       <c r="M16" t="s">
         <v>180</v>
@@ -10608,15 +11094,15 @@
         <v>160</v>
       </c>
       <c r="F17" s="52">
-        <f>PI()*(0.125^2)*0.001</f>
-        <v>4.908738521234052E-5</v>
+        <f>2*PI()*(0.125)*0.01</f>
+        <v>7.8539816339744835E-3</v>
       </c>
       <c r="G17" s="52">
         <f t="shared" si="1"/>
-        <v>4.908738521234052E-5</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H17" s="52">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I17" s="52">
         <f>E17</f>
@@ -10628,7 +11114,7 @@
       </c>
       <c r="K17" s="64">
         <f t="shared" si="0"/>
-        <v>1.1811765605433695E-2</v>
+        <v>0.35630608337574976</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -10657,6 +11143,9 @@
       <c r="I20" s="103" t="s">
         <v>169</v>
       </c>
+      <c r="K20" s="1" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
@@ -10669,7 +11158,7 @@
         <v>142</v>
       </c>
       <c r="D21" s="60">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="E21" s="78">
         <f>0.015^2*PI()</f>
@@ -10680,7 +11169,7 @@
       </c>
       <c r="G21" s="94">
         <f t="shared" ref="G21:G24" si="4">D21*E21/F21</f>
-        <v>16.741381903998239</v>
+        <v>6.324522052621556</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -10694,20 +11183,20 @@
         <v>184</v>
       </c>
       <c r="D22" s="60">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="E22" s="78">
-        <f>0.01^2*PI()</f>
-        <v>3.1415926535897931E-4</v>
+        <f>0.08*0.004</f>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="F22" s="135">
         <v>0.35</v>
       </c>
       <c r="G22" s="75">
         <f t="shared" si="4"/>
-        <v>4.0391905546154483</v>
-      </c>
-      <c r="I22" s="105" t="s">
+        <v>1.5542857142857145</v>
+      </c>
+      <c r="I22" s="308" t="s">
         <v>199</v>
       </c>
     </row>
@@ -10722,18 +11211,18 @@
         <v>184</v>
       </c>
       <c r="D23" s="60">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="E23" s="78">
-        <f>0.01^2*PI()</f>
-        <v>3.1415926535897931E-4</v>
+        <f t="shared" ref="E23:E26" si="5">0.08*0.004</f>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="F23" s="135">
         <v>0.16</v>
       </c>
       <c r="G23" s="75">
         <f t="shared" si="4"/>
-        <v>8.8357293382212934</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="I23" s="104" t="s">
         <v>200</v>
@@ -10750,18 +11239,18 @@
         <v>184</v>
       </c>
       <c r="D24" s="136">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="E24" s="78">
-        <f>0.01^2*PI()</f>
-        <v>3.1415926535897931E-4</v>
+        <f t="shared" si="5"/>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="F24" s="22">
         <v>0.05</v>
       </c>
       <c r="G24" s="75">
         <f t="shared" si="4"/>
-        <v>28.274333882308138</v>
+        <v>10.88</v>
       </c>
       <c r="I24" t="s">
         <v>201</v>
@@ -10778,19 +11267,24 @@
         <v>142</v>
       </c>
       <c r="D25" s="60">
-        <f>D21</f>
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="E25" s="78">
-        <f>0.01^2*PI()</f>
-        <v>3.1415926535897931E-4</v>
+        <f t="shared" si="5"/>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="F25" s="135">
         <v>0.31</v>
       </c>
       <c r="G25" s="75">
-        <f t="shared" ref="G25:G33" si="5">D25*E25/F25</f>
-        <v>4.5603764326303446</v>
+        <f t="shared" ref="G25:G33" si="6">D25*E25/F25</f>
+        <v>1.7548387096774194</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I25" s="307" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -10805,21 +11299,21 @@
       </c>
       <c r="D26" s="60">
         <f>D21</f>
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="E26" s="78">
-        <f>E25</f>
-        <v>3.1415926535897931E-4</v>
+        <f t="shared" si="5"/>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="F26" s="135">
         <v>0.11</v>
       </c>
       <c r="G26" s="75">
-        <f t="shared" si="5"/>
-        <v>12.851969946503699</v>
+        <f t="shared" si="6"/>
+        <v>4.9454545454545462</v>
       </c>
       <c r="I26" s="105" t="s">
-        <v>233</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -10843,11 +11337,11 @@
         <v>0.05</v>
       </c>
       <c r="G27" s="75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0053096491487337</v>
       </c>
-      <c r="I27" t="s">
-        <v>234</v>
+      <c r="I27" s="308" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -10861,18 +11355,21 @@
         <v>143</v>
       </c>
       <c r="D28" s="66">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="E28" s="79">
-        <f>0.06^2*PI()</f>
-        <v>1.1309733552923255E-2</v>
+        <f>0.08*0.004</f>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="F28" s="137">
         <v>0.04</v>
       </c>
-      <c r="G28" s="243">
-        <f t="shared" si="5"/>
-        <v>1272.3450247038661</v>
+      <c r="G28" s="306">
+        <f t="shared" si="6"/>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="I28" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -10886,18 +11383,21 @@
         <v>191</v>
       </c>
       <c r="D29" s="21">
-        <v>0.24</v>
+        <v>5</v>
       </c>
       <c r="E29" s="85">
-        <f>0.001^2*PI()</f>
-        <v>3.1415926535897929E-6</v>
+        <f>0.003^2*PI()</f>
+        <v>2.8274333882308137E-5</v>
       </c>
       <c r="F29" s="22">
         <v>0.01</v>
       </c>
       <c r="G29" s="75">
-        <f t="shared" si="5"/>
-        <v>7.5398223686155033E-5</v>
+        <f t="shared" si="6"/>
+        <v>1.4137166941154067E-2</v>
+      </c>
+      <c r="I29" s="105" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -10911,18 +11411,21 @@
         <v>184</v>
       </c>
       <c r="D30" s="21">
-        <v>0.24</v>
+        <v>5</v>
       </c>
       <c r="E30" s="85">
-        <f>0.001^2*PI()</f>
-        <v>3.1415926535897929E-6</v>
+        <f>0.003^2*PI()</f>
+        <v>2.8274333882308137E-5</v>
       </c>
       <c r="F30" s="22">
         <v>0.01</v>
       </c>
       <c r="G30" s="75">
-        <f t="shared" si="5"/>
-        <v>7.5398223686155033E-5</v>
+        <f t="shared" si="6"/>
+        <v>1.4137166941154067E-2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -10936,17 +11439,21 @@
         <v>142</v>
       </c>
       <c r="D31" s="33">
-        <v>0.24</v>
-      </c>
-      <c r="E31" s="80">
-        <v>3.1415926535897929E-6</v>
+        <v>5</v>
+      </c>
+      <c r="E31" s="85">
+        <f>0.003^2*PI()</f>
+        <v>2.8274333882308137E-5</v>
       </c>
       <c r="F31" s="34">
         <v>0.01</v>
       </c>
       <c r="G31" s="75">
-        <f t="shared" si="5"/>
-        <v>7.5398223686155033E-5</v>
+        <f t="shared" si="6"/>
+        <v>1.4137166941154067E-2</v>
+      </c>
+      <c r="I31" s="105" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -10960,18 +11467,18 @@
         <v>237</v>
       </c>
       <c r="D32" s="33">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="E32" s="80">
-        <f>(0.008)^2*PI()</f>
-        <v>2.0106192982974675E-4</v>
+        <f>(0.005)^2*PI()</f>
+        <v>7.8539816339744827E-5</v>
       </c>
       <c r="F32" s="34">
         <v>0.02</v>
       </c>
       <c r="G32" s="75">
-        <f t="shared" si="5"/>
-        <v>45.238934211693014</v>
+        <f t="shared" si="6"/>
+        <v>6.6758843888783099</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -10988,15 +11495,15 @@
         <v>5</v>
       </c>
       <c r="E33" s="80">
-        <f t="shared" ref="E33" si="6">(0.008)^2*PI()</f>
-        <v>2.0106192982974675E-4</v>
+        <f>(0.005)^2*PI()</f>
+        <v>7.8539816339744827E-5</v>
       </c>
       <c r="F33" s="138">
         <v>0.125</v>
       </c>
       <c r="G33" s="133">
-        <f t="shared" si="5"/>
-        <v>8.0424771931898696E-3</v>
+        <f t="shared" si="6"/>
+        <v>3.1415926535897929E-3</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11010,18 +11517,18 @@
         <v>143</v>
       </c>
       <c r="D34" s="23">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="E34" s="81">
-        <f>(0.02)^2*PI()</f>
-        <v>1.2566370614359172E-3</v>
+        <f>(0.01)^2*PI()</f>
+        <v>3.1415926535897931E-4</v>
       </c>
       <c r="F34" s="25">
         <v>0.21</v>
       </c>
       <c r="G34" s="77">
         <f t="shared" ref="G34" si="7">D34*E34/F34</f>
-        <v>26.927937030769655</v>
+        <v>2.5431940529060229</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -11050,7 +11557,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>163</v>
       </c>
@@ -11064,12 +11571,12 @@
         <v>300</v>
       </c>
       <c r="E38" s="125">
-        <f>0.04*0.08</f>
-        <v>3.2000000000000002E-3</v>
+        <f>0.06*0.06</f>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="F38" s="130">
         <f>D38*E38</f>
-        <v>0.96000000000000008</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -11085,8 +11592,9 @@
       <c r="D39" s="139">
         <v>300</v>
       </c>
-      <c r="E39" s="140">
-        <v>4.0000000000000002E-4</v>
+      <c r="E39" s="125">
+        <f>0.07*0.07</f>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="F39" s="141">
         <v>0.2</v>
@@ -11148,14 +11656,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10655B4E-66E6-4719-AFA2-E9D02F4D9E32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10655B4E-66E6-4719-AFA2-E9D02F4D9E32}">
   <sheetPr>
     <tabColor theme="3" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:V70"/>
+  <dimension ref="B1:V91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32:J32"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11165,7 +11673,7 @@
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
     <col min="7" max="7" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
     <col min="9" max="9" width="12.21875" customWidth="1"/>
     <col min="10" max="10" width="10.109375" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" customWidth="1"/>
@@ -11180,40 +11688,44 @@
     <col min="23" max="24" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q1" t="s">
+        <v>326</v>
+      </c>
+    </row>
     <row r="2" spans="2:19" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="204" t="s">
+      <c r="B2" s="263" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="191" t="s">
+      <c r="C2" s="301" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="193" t="s">
+      <c r="D2" s="303" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="187" t="s">
+      <c r="E2" s="269" t="s">
         <v>266</v>
       </c>
-      <c r="F2" s="187" t="s">
+      <c r="F2" s="269" t="s">
         <v>268</v>
       </c>
-      <c r="G2" s="187" t="s">
+      <c r="G2" s="269" t="s">
         <v>208</v>
       </c>
       <c r="H2" s="160" t="s">
         <v>211</v>
       </c>
-      <c r="I2" s="195" t="s">
+      <c r="I2" s="261" t="s">
         <v>212</v>
       </c>
-      <c r="J2" s="197"/>
+      <c r="J2" s="262"/>
       <c r="K2" s="158" t="s">
         <v>223</v>
       </c>
-      <c r="L2" s="195" t="s">
+      <c r="L2" s="261" t="s">
         <v>224</v>
       </c>
-      <c r="M2" s="197"/>
+      <c r="M2" s="262"/>
       <c r="N2" s="158" t="s">
         <v>87</v>
       </c>
@@ -11222,12 +11734,12 @@
       </c>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="205"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
+      <c r="B3" s="264"/>
+      <c r="C3" s="302"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="270"/>
       <c r="H3" s="161"/>
       <c r="I3" s="117" t="s">
         <v>213</v>
@@ -11251,31 +11763,39 @@
       </c>
       <c r="C4" s="151"/>
       <c r="D4" s="172"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="248"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="186"/>
       <c r="H4" s="162"/>
       <c r="I4" s="121"/>
       <c r="J4" s="120"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="115"/>
+      <c r="K4" s="147" t="s">
+        <v>327</v>
+      </c>
+      <c r="L4" s="151">
+        <v>323</v>
+      </c>
+      <c r="M4" s="153">
+        <v>153</v>
+      </c>
+      <c r="N4" s="115" t="s">
+        <v>225</v>
+      </c>
       <c r="O4" s="114"/>
     </row>
     <row r="5" spans="2:19" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="185" t="s">
+      <c r="C5" s="295" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="189">
+      <c r="D5" s="265">
         <v>3</v>
       </c>
-      <c r="E5" s="236"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="238" t="s">
+      <c r="E5" s="299"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="267" t="s">
         <v>239</v>
       </c>
       <c r="H5" s="163">
@@ -11308,11 +11828,11 @@
       <c r="B6" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="186"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="241"/>
-      <c r="G6" s="239"/>
+      <c r="C6" s="296"/>
+      <c r="D6" s="266"/>
+      <c r="E6" s="300"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="268"/>
       <c r="H6" s="164"/>
       <c r="I6" s="165">
         <f>273.15-193.1242</f>
@@ -11358,7 +11878,7 @@
       <c r="K11" t="s">
         <v>295</v>
       </c>
-      <c r="L11" s="308">
+      <c r="L11" s="218">
         <f>(0.042)^2*PI()*0.071</f>
         <v>3.9346563030620004E-4</v>
       </c>
@@ -11377,7 +11897,7 @@
         <v>240</v>
       </c>
       <c r="C13" s="107"/>
-      <c r="O13" s="307"/>
+      <c r="O13" s="217"/>
       <c r="S13" t="s">
         <v>241</v>
       </c>
@@ -11387,6 +11907,12 @@
         <v>225</v>
       </c>
       <c r="C14" s="107"/>
+      <c r="D14" t="s">
+        <v>328</v>
+      </c>
+      <c r="E14" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" s="107" t="s">
@@ -11402,48 +11928,48 @@
     </row>
     <row r="19" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="204" t="s">
+      <c r="B20" s="263" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="191" t="s">
+      <c r="C20" s="301" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="193" t="s">
+      <c r="D20" s="303" t="s">
         <v>207</v>
       </c>
       <c r="E20" s="169"/>
-      <c r="F20" s="187" t="s">
+      <c r="F20" s="269" t="s">
         <v>208</v>
       </c>
-      <c r="G20" s="187" t="s">
+      <c r="G20" s="269" t="s">
         <v>249</v>
       </c>
-      <c r="H20" s="208" t="s">
+      <c r="H20" s="275" t="s">
         <v>250</v>
       </c>
       <c r="I20" s="158" t="s">
         <v>251</v>
       </c>
-      <c r="J20" s="195" t="s">
+      <c r="J20" s="261" t="s">
         <v>253</v>
       </c>
-      <c r="K20" s="196"/>
-      <c r="L20" s="197"/>
-      <c r="M20" s="198" t="s">
+      <c r="K20" s="293"/>
+      <c r="L20" s="262"/>
+      <c r="M20" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="202" t="s">
+      <c r="N20" s="281" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="205"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="194"/>
+      <c r="B21" s="264"/>
+      <c r="C21" s="302"/>
+      <c r="D21" s="304"/>
       <c r="E21" s="170"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="209"/>
+      <c r="F21" s="270"/>
+      <c r="G21" s="270"/>
+      <c r="H21" s="276"/>
       <c r="I21" s="159"/>
       <c r="J21" s="117" t="s">
         <v>145</v>
@@ -11454,24 +11980,24 @@
       <c r="L21" s="156" t="s">
         <v>252</v>
       </c>
-      <c r="M21" s="199"/>
-      <c r="N21" s="203"/>
+      <c r="M21" s="294"/>
+      <c r="N21" s="282"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="183" t="s">
+      <c r="C22" s="297" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="189">
+      <c r="D22" s="265">
         <v>4</v>
       </c>
       <c r="E22" s="171"/>
-      <c r="F22" s="189" t="s">
+      <c r="F22" s="265" t="s">
         <v>209</v>
       </c>
-      <c r="G22" s="214">
+      <c r="G22" s="283">
         <v>22.1</v>
       </c>
       <c r="H22" s="154">
@@ -11482,40 +12008,40 @@
       <c r="K22" s="152"/>
       <c r="L22" s="116"/>
       <c r="M22" s="116"/>
-      <c r="N22" s="206"/>
+      <c r="N22" s="273"/>
     </row>
     <row r="23" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="C23" s="184"/>
-      <c r="D23" s="190"/>
+      <c r="C23" s="298"/>
+      <c r="D23" s="266"/>
       <c r="E23" s="172"/>
-      <c r="F23" s="190"/>
-      <c r="G23" s="215"/>
+      <c r="F23" s="266"/>
+      <c r="G23" s="284"/>
       <c r="H23" s="155"/>
       <c r="I23" s="115"/>
       <c r="J23" s="151"/>
       <c r="K23" s="153"/>
       <c r="L23" s="115"/>
       <c r="M23" s="115"/>
-      <c r="N23" s="207"/>
+      <c r="N23" s="274"/>
     </row>
     <row r="24" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="185" t="s">
+      <c r="C24" s="295" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="189">
+      <c r="D24" s="265">
         <v>3</v>
       </c>
       <c r="E24" s="171"/>
-      <c r="F24" s="210" t="s">
+      <c r="F24" s="277" t="s">
         <v>239</v>
       </c>
-      <c r="G24" s="212">
+      <c r="G24" s="279">
         <f>22.1+16</f>
         <v>38.1</v>
       </c>
@@ -11527,24 +12053,24 @@
       <c r="K24" s="152"/>
       <c r="L24" s="116"/>
       <c r="M24" s="116"/>
-      <c r="N24" s="206"/>
+      <c r="N24" s="273"/>
     </row>
     <row r="25" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="C25" s="186"/>
-      <c r="D25" s="190"/>
+      <c r="C25" s="296"/>
+      <c r="D25" s="266"/>
       <c r="E25" s="172"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="213"/>
+      <c r="F25" s="278"/>
+      <c r="G25" s="280"/>
       <c r="H25" s="149"/>
       <c r="I25" s="115"/>
       <c r="J25" s="151"/>
       <c r="K25" s="153"/>
       <c r="L25" s="115"/>
       <c r="M25" s="115"/>
-      <c r="N25" s="207"/>
+      <c r="N25" s="274"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="157" t="s">
@@ -11554,58 +12080,58 @@
     </row>
     <row r="31" spans="2:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="2:22" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="204" t="s">
+      <c r="B32" s="263" t="s">
         <v>257</v>
       </c>
-      <c r="C32" s="202" t="s">
+      <c r="C32" s="281" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="204" t="s">
+      <c r="D32" s="263" t="s">
         <v>203</v>
       </c>
-      <c r="E32" s="200" t="s">
+      <c r="E32" s="259" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="201"/>
-      <c r="G32" s="195" t="s">
+      <c r="F32" s="260"/>
+      <c r="G32" s="261" t="s">
         <v>260</v>
       </c>
-      <c r="H32" s="197"/>
-      <c r="I32" s="200" t="s">
+      <c r="H32" s="262"/>
+      <c r="I32" s="259" t="s">
         <v>255</v>
       </c>
-      <c r="J32" s="201"/>
-      <c r="K32" s="195" t="s">
+      <c r="J32" s="260"/>
+      <c r="K32" s="261" t="s">
         <v>261</v>
       </c>
-      <c r="L32" s="197"/>
-      <c r="M32" s="200" t="s">
+      <c r="L32" s="262"/>
+      <c r="M32" s="259" t="s">
         <v>256</v>
       </c>
-      <c r="N32" s="201"/>
-      <c r="O32" s="195" t="s">
+      <c r="N32" s="260"/>
+      <c r="O32" s="261" t="s">
         <v>262</v>
       </c>
-      <c r="P32" s="197"/>
-      <c r="Q32" s="195" t="s">
+      <c r="P32" s="262"/>
+      <c r="Q32" s="261" t="s">
         <v>263</v>
       </c>
-      <c r="R32" s="197"/>
-      <c r="S32" s="195" t="s">
+      <c r="R32" s="262"/>
+      <c r="S32" s="261" t="s">
         <v>264</v>
       </c>
-      <c r="T32" s="197"/>
-      <c r="U32" s="202" t="s">
+      <c r="T32" s="262"/>
+      <c r="U32" s="281" t="s">
         <v>87</v>
       </c>
-      <c r="V32" s="202" t="s">
+      <c r="V32" s="281" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="33" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="205"/>
-      <c r="C33" s="216"/>
-      <c r="D33" s="205"/>
+      <c r="B33" s="264"/>
+      <c r="C33" s="288"/>
+      <c r="D33" s="264"/>
       <c r="E33" s="117" t="s">
         <v>213</v>
       </c>
@@ -11654,243 +12180,243 @@
       <c r="T33" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="U33" s="216"/>
-      <c r="V33" s="216"/>
+      <c r="U33" s="288"/>
+      <c r="V33" s="288"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B34" s="223" t="s">
+      <c r="B34" s="285" t="s">
         <v>258</v>
       </c>
-      <c r="C34" s="224" t="s">
+      <c r="C34" s="289" t="s">
         <v>205</v>
       </c>
-      <c r="D34" s="225" t="s">
+      <c r="D34" s="177" t="s">
         <v>221</v>
       </c>
-      <c r="E34" s="226"/>
-      <c r="F34" s="227"/>
-      <c r="G34" s="228" t="e">
+      <c r="E34" s="178"/>
+      <c r="F34" s="179"/>
+      <c r="G34" s="258" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H34" s="228" t="e">
+      <c r="H34" s="258" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I34" s="226"/>
-      <c r="J34" s="227"/>
-      <c r="K34" s="228"/>
-      <c r="L34" s="228"/>
-      <c r="M34" s="226"/>
-      <c r="N34" s="227"/>
-      <c r="O34" s="228"/>
-      <c r="P34" s="228"/>
-      <c r="Q34" s="226"/>
-      <c r="R34" s="227"/>
-      <c r="S34" s="228"/>
-      <c r="T34" s="228"/>
-      <c r="U34" s="226"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="179"/>
+      <c r="K34" s="258"/>
+      <c r="L34" s="258"/>
+      <c r="M34" s="178"/>
+      <c r="N34" s="179"/>
+      <c r="O34" s="258"/>
+      <c r="P34" s="258"/>
+      <c r="Q34" s="178"/>
+      <c r="R34" s="179"/>
+      <c r="S34" s="258"/>
+      <c r="T34" s="258"/>
+      <c r="U34" s="178"/>
       <c r="V34" s="111"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B35" s="229"/>
-      <c r="C35" s="217"/>
-      <c r="D35" s="218" t="s">
+      <c r="B35" s="286"/>
+      <c r="C35" s="290"/>
+      <c r="D35" s="173" t="s">
         <v>222</v>
       </c>
-      <c r="E35" s="220"/>
-      <c r="F35" s="220"/>
-      <c r="G35" s="221"/>
-      <c r="H35" s="221"/>
-      <c r="I35" s="220"/>
-      <c r="J35" s="220"/>
-      <c r="K35" s="221"/>
-      <c r="L35" s="221"/>
-      <c r="M35" s="220"/>
-      <c r="N35" s="220"/>
-      <c r="O35" s="221"/>
-      <c r="P35" s="221"/>
-      <c r="Q35" s="220"/>
-      <c r="R35" s="220"/>
-      <c r="S35" s="221"/>
-      <c r="T35" s="221"/>
-      <c r="U35" s="219"/>
-      <c r="V35" s="230"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="256"/>
+      <c r="H35" s="256"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="175"/>
+      <c r="K35" s="256"/>
+      <c r="L35" s="256"/>
+      <c r="M35" s="175"/>
+      <c r="N35" s="175"/>
+      <c r="O35" s="256"/>
+      <c r="P35" s="256"/>
+      <c r="Q35" s="175"/>
+      <c r="R35" s="175"/>
+      <c r="S35" s="256"/>
+      <c r="T35" s="256"/>
+      <c r="U35" s="174"/>
+      <c r="V35" s="180"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B36" s="229"/>
-      <c r="C36" s="222" t="s">
+      <c r="B36" s="286"/>
+      <c r="C36" s="291" t="s">
         <v>265</v>
       </c>
-      <c r="D36" s="218" t="s">
+      <c r="D36" s="173" t="s">
         <v>221</v>
       </c>
-      <c r="E36" s="219"/>
-      <c r="F36" s="219"/>
-      <c r="G36" s="221">
+      <c r="E36" s="174"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="256">
         <f>L5</f>
         <v>100</v>
       </c>
-      <c r="H36" s="221">
+      <c r="H36" s="256">
         <f>M5</f>
         <v>60</v>
       </c>
-      <c r="I36" s="219"/>
-      <c r="J36" s="219"/>
-      <c r="K36" s="221"/>
-      <c r="L36" s="221"/>
-      <c r="M36" s="219"/>
-      <c r="N36" s="219"/>
-      <c r="O36" s="221"/>
-      <c r="P36" s="221"/>
-      <c r="Q36" s="219"/>
-      <c r="R36" s="219"/>
-      <c r="S36" s="221"/>
-      <c r="T36" s="221"/>
-      <c r="U36" s="219"/>
-      <c r="V36" s="230"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="174"/>
+      <c r="K36" s="256"/>
+      <c r="L36" s="256"/>
+      <c r="M36" s="174"/>
+      <c r="N36" s="174"/>
+      <c r="O36" s="256"/>
+      <c r="P36" s="256"/>
+      <c r="Q36" s="174"/>
+      <c r="R36" s="174"/>
+      <c r="S36" s="256"/>
+      <c r="T36" s="256"/>
+      <c r="U36" s="174"/>
+      <c r="V36" s="180"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B37" s="229"/>
-      <c r="C37" s="222"/>
-      <c r="D37" s="218" t="s">
+      <c r="B37" s="286"/>
+      <c r="C37" s="291"/>
+      <c r="D37" s="173" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="219"/>
-      <c r="F37" s="219"/>
-      <c r="G37" s="221"/>
-      <c r="H37" s="221"/>
-      <c r="I37" s="219"/>
-      <c r="J37" s="219"/>
-      <c r="K37" s="221"/>
-      <c r="L37" s="221"/>
-      <c r="M37" s="219"/>
-      <c r="N37" s="219"/>
-      <c r="O37" s="221"/>
-      <c r="P37" s="221"/>
-      <c r="Q37" s="219"/>
-      <c r="R37" s="219"/>
-      <c r="S37" s="221"/>
-      <c r="T37" s="221"/>
-      <c r="U37" s="219"/>
-      <c r="V37" s="230"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="256"/>
+      <c r="H37" s="256"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="174"/>
+      <c r="K37" s="256"/>
+      <c r="L37" s="256"/>
+      <c r="M37" s="174"/>
+      <c r="N37" s="174"/>
+      <c r="O37" s="256"/>
+      <c r="P37" s="256"/>
+      <c r="Q37" s="174"/>
+      <c r="R37" s="174"/>
+      <c r="S37" s="256"/>
+      <c r="T37" s="256"/>
+      <c r="U37" s="174"/>
+      <c r="V37" s="180"/>
     </row>
     <row r="38" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="229" t="s">
+      <c r="B38" s="286" t="s">
         <v>259</v>
       </c>
-      <c r="C38" s="217" t="s">
+      <c r="C38" s="290" t="s">
         <v>205</v>
       </c>
-      <c r="D38" s="218" t="s">
+      <c r="D38" s="173" t="s">
         <v>221</v>
       </c>
-      <c r="E38" s="219"/>
-      <c r="F38" s="220"/>
-      <c r="G38" s="221" t="e">
+      <c r="E38" s="174"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="256" t="e">
         <f>G34</f>
         <v>#REF!</v>
       </c>
-      <c r="H38" s="221" t="e">
+      <c r="H38" s="256" t="e">
         <f>H34</f>
         <v>#REF!</v>
       </c>
-      <c r="I38" s="219"/>
-      <c r="J38" s="220"/>
-      <c r="K38" s="221"/>
-      <c r="L38" s="221"/>
-      <c r="M38" s="219"/>
-      <c r="N38" s="220"/>
-      <c r="O38" s="221"/>
-      <c r="P38" s="221"/>
-      <c r="Q38" s="219"/>
-      <c r="R38" s="220"/>
-      <c r="S38" s="221"/>
-      <c r="T38" s="221"/>
-      <c r="U38" s="219"/>
-      <c r="V38" s="230"/>
+      <c r="I38" s="174"/>
+      <c r="J38" s="175"/>
+      <c r="K38" s="256"/>
+      <c r="L38" s="256"/>
+      <c r="M38" s="174"/>
+      <c r="N38" s="175"/>
+      <c r="O38" s="256"/>
+      <c r="P38" s="256"/>
+      <c r="Q38" s="174"/>
+      <c r="R38" s="175"/>
+      <c r="S38" s="256"/>
+      <c r="T38" s="256"/>
+      <c r="U38" s="174"/>
+      <c r="V38" s="180"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B39" s="229"/>
-      <c r="C39" s="217"/>
-      <c r="D39" s="218" t="s">
+      <c r="B39" s="286"/>
+      <c r="C39" s="290"/>
+      <c r="D39" s="173" t="s">
         <v>222</v>
       </c>
-      <c r="E39" s="220"/>
-      <c r="F39" s="220"/>
-      <c r="G39" s="221"/>
-      <c r="H39" s="221"/>
-      <c r="I39" s="220"/>
-      <c r="J39" s="220"/>
-      <c r="K39" s="221"/>
-      <c r="L39" s="221"/>
-      <c r="M39" s="220"/>
-      <c r="N39" s="220"/>
-      <c r="O39" s="221"/>
-      <c r="P39" s="221"/>
-      <c r="Q39" s="220"/>
-      <c r="R39" s="220"/>
-      <c r="S39" s="221"/>
-      <c r="T39" s="221"/>
-      <c r="U39" s="219"/>
-      <c r="V39" s="230"/>
+      <c r="E39" s="175"/>
+      <c r="F39" s="175"/>
+      <c r="G39" s="256"/>
+      <c r="H39" s="256"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="175"/>
+      <c r="K39" s="256"/>
+      <c r="L39" s="256"/>
+      <c r="M39" s="175"/>
+      <c r="N39" s="175"/>
+      <c r="O39" s="256"/>
+      <c r="P39" s="256"/>
+      <c r="Q39" s="175"/>
+      <c r="R39" s="175"/>
+      <c r="S39" s="256"/>
+      <c r="T39" s="256"/>
+      <c r="U39" s="174"/>
+      <c r="V39" s="180"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B40" s="229"/>
-      <c r="C40" s="222" t="s">
+      <c r="B40" s="286"/>
+      <c r="C40" s="291" t="s">
         <v>265</v>
       </c>
-      <c r="D40" s="218" t="s">
+      <c r="D40" s="173" t="s">
         <v>221</v>
       </c>
-      <c r="E40" s="219"/>
-      <c r="F40" s="219"/>
-      <c r="G40" s="221">
+      <c r="E40" s="174"/>
+      <c r="F40" s="174"/>
+      <c r="G40" s="256">
         <f>G36</f>
         <v>100</v>
       </c>
-      <c r="H40" s="221">
+      <c r="H40" s="256">
         <f>H36</f>
         <v>60</v>
       </c>
-      <c r="I40" s="219"/>
-      <c r="J40" s="219"/>
-      <c r="K40" s="221"/>
-      <c r="L40" s="221"/>
-      <c r="M40" s="219"/>
-      <c r="N40" s="219"/>
-      <c r="O40" s="221"/>
-      <c r="P40" s="221"/>
-      <c r="Q40" s="219"/>
-      <c r="R40" s="219"/>
-      <c r="S40" s="221"/>
-      <c r="T40" s="221"/>
-      <c r="U40" s="219"/>
-      <c r="V40" s="230"/>
+      <c r="I40" s="174"/>
+      <c r="J40" s="174"/>
+      <c r="K40" s="256"/>
+      <c r="L40" s="256"/>
+      <c r="M40" s="174"/>
+      <c r="N40" s="174"/>
+      <c r="O40" s="256"/>
+      <c r="P40" s="256"/>
+      <c r="Q40" s="174"/>
+      <c r="R40" s="174"/>
+      <c r="S40" s="256"/>
+      <c r="T40" s="256"/>
+      <c r="U40" s="174"/>
+      <c r="V40" s="180"/>
     </row>
     <row r="41" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="231"/>
-      <c r="C41" s="232"/>
-      <c r="D41" s="233" t="s">
+      <c r="B41" s="287"/>
+      <c r="C41" s="292"/>
+      <c r="D41" s="181" t="s">
         <v>222</v>
       </c>
-      <c r="E41" s="234"/>
-      <c r="F41" s="234"/>
-      <c r="G41" s="235"/>
-      <c r="H41" s="235"/>
-      <c r="I41" s="234"/>
-      <c r="J41" s="234"/>
-      <c r="K41" s="235"/>
-      <c r="L41" s="235"/>
-      <c r="M41" s="234"/>
-      <c r="N41" s="234"/>
-      <c r="O41" s="235"/>
-      <c r="P41" s="235"/>
-      <c r="Q41" s="234"/>
-      <c r="R41" s="234"/>
-      <c r="S41" s="235"/>
-      <c r="T41" s="235"/>
-      <c r="U41" s="234"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="257"/>
+      <c r="H41" s="257"/>
+      <c r="I41" s="182"/>
+      <c r="J41" s="182"/>
+      <c r="K41" s="257"/>
+      <c r="L41" s="257"/>
+      <c r="M41" s="182"/>
+      <c r="N41" s="182"/>
+      <c r="O41" s="257"/>
+      <c r="P41" s="257"/>
+      <c r="Q41" s="182"/>
+      <c r="R41" s="182"/>
+      <c r="S41" s="257"/>
+      <c r="T41" s="257"/>
+      <c r="U41" s="182"/>
       <c r="V41" s="112"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.3">
@@ -11900,248 +12426,272 @@
     </row>
     <row r="45" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="245" t="s">
+      <c r="B46" s="252" t="s">
         <v>257</v>
       </c>
-      <c r="C46" s="198" t="s">
+      <c r="C46" s="254" t="s">
         <v>204</v>
       </c>
-      <c r="D46" s="256" t="s">
+      <c r="D46" s="247" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="257"/>
-      <c r="F46" s="256" t="s">
+      <c r="E46" s="248"/>
+      <c r="F46" s="247" t="s">
         <v>146</v>
       </c>
-      <c r="G46" s="257"/>
-      <c r="H46" s="255" t="s">
+      <c r="G46" s="248"/>
+      <c r="H46" s="249" t="s">
         <v>252</v>
       </c>
-      <c r="I46" s="255"/>
-      <c r="J46" s="256" t="s">
+      <c r="I46" s="249"/>
+      <c r="J46" s="247" t="s">
         <v>110</v>
       </c>
-      <c r="K46" s="257"/>
-      <c r="L46" s="256" t="s">
+      <c r="K46" s="248"/>
+      <c r="L46" s="247" t="s">
         <v>279</v>
       </c>
-      <c r="M46" s="255"/>
-      <c r="N46" s="255" t="s">
+      <c r="M46" s="249"/>
+      <c r="N46" s="249" t="s">
         <v>280</v>
       </c>
-      <c r="O46" s="257"/>
+      <c r="O46" s="248"/>
     </row>
     <row r="47" spans="2:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="246"/>
-      <c r="C47" s="244"/>
-      <c r="D47" s="267" t="s">
+      <c r="B47" s="253"/>
+      <c r="C47" s="255"/>
+      <c r="D47" s="196" t="s">
         <v>278</v>
       </c>
-      <c r="E47" s="279" t="s">
+      <c r="E47" s="202" t="s">
         <v>277</v>
       </c>
-      <c r="F47" s="267" t="s">
+      <c r="F47" s="196" t="s">
         <v>278</v>
       </c>
-      <c r="G47" s="279" t="s">
+      <c r="G47" s="202" t="s">
         <v>277</v>
       </c>
-      <c r="H47" s="260" t="s">
+      <c r="H47" s="193" t="s">
         <v>278</v>
       </c>
-      <c r="I47" s="260" t="s">
+      <c r="I47" s="193" t="s">
         <v>277</v>
       </c>
-      <c r="J47" s="267" t="s">
+      <c r="J47" s="196" t="s">
         <v>278</v>
       </c>
-      <c r="K47" s="279" t="s">
+      <c r="K47" s="202" t="s">
         <v>277</v>
       </c>
-      <c r="L47" s="267" t="s">
+      <c r="L47" s="196" t="s">
         <v>278</v>
       </c>
-      <c r="M47" s="260" t="s">
+      <c r="M47" s="193" t="s">
         <v>277</v>
       </c>
-      <c r="N47" s="260" t="s">
+      <c r="N47" s="193" t="s">
         <v>278</v>
       </c>
-      <c r="O47" s="268" t="s">
+      <c r="O47" s="197" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="48" spans="2:22" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="263" t="s">
+      <c r="B48" s="231" t="s">
         <v>258</v>
       </c>
-      <c r="C48" s="269" t="s">
+      <c r="C48" s="198" t="s">
         <v>205</v>
       </c>
-      <c r="D48" s="283" t="s">
+      <c r="D48" s="241" t="s">
         <v>281</v>
       </c>
-      <c r="E48" s="286"/>
-      <c r="F48" s="283" t="s">
+      <c r="E48" s="244" t="s">
+        <v>296</v>
+      </c>
+      <c r="F48" s="241" t="s">
         <v>281</v>
       </c>
-      <c r="G48" s="286"/>
-      <c r="H48" s="272" t="s">
+      <c r="G48" s="244" t="s">
+        <v>297</v>
+      </c>
+      <c r="H48" s="241" t="s">
         <v>281</v>
       </c>
-      <c r="I48" s="286"/>
-      <c r="J48" s="272" t="s">
+      <c r="I48" s="244" t="s">
+        <v>298</v>
+      </c>
+      <c r="J48" s="241" t="s">
         <v>281</v>
       </c>
-      <c r="K48" s="280"/>
-      <c r="L48" s="275" t="s">
+      <c r="K48" s="244" t="s">
+        <v>299</v>
+      </c>
+      <c r="L48" s="235" t="s">
         <v>209</v>
       </c>
-      <c r="M48" s="251"/>
-      <c r="N48" s="251"/>
-      <c r="O48" s="273"/>
+      <c r="M48" s="236"/>
+      <c r="N48" s="236"/>
+      <c r="O48" s="237"/>
     </row>
     <row r="49" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B49" s="264"/>
-      <c r="C49" s="270" t="s">
+      <c r="B49" s="232"/>
+      <c r="C49" s="199" t="s">
         <v>265</v>
       </c>
-      <c r="D49" s="284"/>
-      <c r="E49" s="287"/>
-      <c r="F49" s="284"/>
-      <c r="G49" s="287"/>
-      <c r="H49" s="281"/>
-      <c r="I49" s="287"/>
-      <c r="J49" s="276"/>
-      <c r="K49" s="261"/>
-      <c r="L49" s="272"/>
-      <c r="M49" s="253"/>
-      <c r="N49" s="272" t="s">
+      <c r="D49" s="242"/>
+      <c r="E49" s="305"/>
+      <c r="F49" s="242"/>
+      <c r="G49" s="305"/>
+      <c r="H49" s="242"/>
+      <c r="I49" s="305"/>
+      <c r="J49" s="242"/>
+      <c r="K49" s="305"/>
+      <c r="L49" s="201"/>
+      <c r="M49" s="189"/>
+      <c r="N49" s="201" t="s">
         <v>281</v>
       </c>
-      <c r="O49" s="261"/>
+      <c r="O49" s="194" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="50" spans="2:15" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="265" t="s">
+      <c r="B50" s="233" t="s">
         <v>259</v>
       </c>
-      <c r="C50" s="270" t="s">
+      <c r="C50" s="199" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="284"/>
-      <c r="E50" s="287"/>
-      <c r="F50" s="284"/>
-      <c r="G50" s="287"/>
-      <c r="H50" s="281"/>
-      <c r="I50" s="287"/>
-      <c r="J50" s="276"/>
-      <c r="K50" s="261"/>
-      <c r="L50" s="277" t="s">
+      <c r="D50" s="242"/>
+      <c r="E50" s="245" t="s">
+        <v>300</v>
+      </c>
+      <c r="F50" s="242"/>
+      <c r="G50" s="245" t="s">
+        <v>300</v>
+      </c>
+      <c r="H50" s="242"/>
+      <c r="I50" s="245" t="s">
+        <v>301</v>
+      </c>
+      <c r="J50" s="242"/>
+      <c r="K50" s="245" t="s">
+        <v>300</v>
+      </c>
+      <c r="L50" s="238" t="s">
         <v>209</v>
       </c>
-      <c r="M50" s="252"/>
-      <c r="N50" s="252"/>
-      <c r="O50" s="274"/>
+      <c r="M50" s="239"/>
+      <c r="N50" s="239"/>
+      <c r="O50" s="240"/>
     </row>
     <row r="51" spans="2:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="266"/>
-      <c r="C51" s="271" t="s">
+      <c r="B51" s="234"/>
+      <c r="C51" s="200" t="s">
         <v>265</v>
       </c>
-      <c r="D51" s="285"/>
-      <c r="E51" s="288"/>
-      <c r="F51" s="285"/>
-      <c r="G51" s="288"/>
-      <c r="H51" s="282"/>
-      <c r="I51" s="288"/>
-      <c r="J51" s="278"/>
-      <c r="K51" s="262"/>
-      <c r="L51" s="272"/>
-      <c r="M51" s="254"/>
-      <c r="N51" s="272" t="s">
+      <c r="D51" s="243"/>
+      <c r="E51" s="246"/>
+      <c r="F51" s="243"/>
+      <c r="G51" s="246"/>
+      <c r="H51" s="243"/>
+      <c r="I51" s="246"/>
+      <c r="J51" s="243"/>
+      <c r="K51" s="246"/>
+      <c r="L51" s="201" t="s">
+        <v>302</v>
+      </c>
+      <c r="M51" s="190" t="s">
+        <v>303</v>
+      </c>
+      <c r="N51" s="201" t="s">
         <v>281</v>
       </c>
-      <c r="O51" s="262"/>
+      <c r="O51" s="195" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D52" s="249"/>
+      <c r="D52" s="187"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D53" s="249"/>
+      <c r="D53" s="187"/>
     </row>
     <row r="54" spans="2:15" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D54" s="249"/>
+      <c r="D54" s="187"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="294" t="s">
+      <c r="B55" s="229" t="s">
         <v>293</v>
       </c>
-      <c r="C55" s="295" t="s">
+      <c r="C55" s="250" t="s">
         <v>292</v>
       </c>
-      <c r="D55" s="296"/>
+      <c r="D55" s="251"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="297"/>
+      <c r="B56" s="230"/>
       <c r="C56" s="106" t="s">
         <v>284</v>
       </c>
-      <c r="D56" s="298" t="s">
+      <c r="D56" s="208" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B57" s="299" t="s">
+      <c r="B57" s="209" t="s">
         <v>145</v>
       </c>
-      <c r="C57" s="303">
+      <c r="C57" s="213">
         <v>2</v>
       </c>
-      <c r="D57" s="230">
+      <c r="D57" s="180">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="299" t="s">
+      <c r="B58" s="209" t="s">
         <v>146</v>
       </c>
-      <c r="C58" s="219">
+      <c r="C58" s="174">
         <v>4</v>
       </c>
-      <c r="D58" s="230">
+      <c r="D58" s="180">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="299" t="s">
+      <c r="B59" s="209" t="s">
         <v>252</v>
       </c>
-      <c r="C59" s="219">
+      <c r="C59" s="174">
         <v>16</v>
       </c>
-      <c r="D59" s="230">
+      <c r="D59" s="180">
         <v>16</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="299" t="s">
+      <c r="B60" s="209" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="219">
+      <c r="C60" s="174">
         <v>0.1</v>
       </c>
-      <c r="D60" s="230">
+      <c r="D60" s="180">
         <v>0.1</v>
       </c>
     </row>
     <row r="61" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="300" t="s">
+      <c r="B61" s="210" t="s">
         <v>280</v>
       </c>
-      <c r="C61" s="234">
+      <c r="C61" s="182">
         <v>0</v>
       </c>
       <c r="D61" s="112">
@@ -12154,156 +12704,402 @@
       <c r="D62" s="46"/>
     </row>
     <row r="63" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="301" t="s">
+      <c r="B63" s="211" t="s">
         <v>285</v>
       </c>
-      <c r="C63" s="250">
+      <c r="C63" s="188">
         <f>SUM(C57:C61)</f>
         <v>22.1</v>
       </c>
-      <c r="D63" s="302">
+      <c r="D63" s="212">
         <f>SUM(D57:D61)</f>
         <v>38.1</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="67" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="68" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B68" s="289" t="s">
+    <row r="67" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="68" spans="2:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B68" s="203" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="290" t="s">
+      <c r="C68" s="204" t="s">
         <v>289</v>
       </c>
-      <c r="D68" s="290" t="s">
+      <c r="D68" s="204" t="s">
         <v>290</v>
       </c>
-      <c r="E68" s="290" t="s">
+      <c r="E68" s="204" t="s">
         <v>287</v>
       </c>
-      <c r="F68" s="290" t="s">
+      <c r="F68" s="204" t="s">
         <v>288</v>
       </c>
-      <c r="G68" s="291" t="s">
+      <c r="G68" s="205" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="258" t="s">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B69" s="191" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="292">
+      <c r="C69" s="206">
         <v>602.66999999999996</v>
       </c>
-      <c r="D69" s="292">
+      <c r="D69" s="206">
         <f>0.7*0.3</f>
         <v>0.21</v>
       </c>
-      <c r="E69" s="292">
+      <c r="E69" s="206">
         <v>0.25</v>
       </c>
-      <c r="F69" s="292">
+      <c r="F69" s="206">
         <v>0.7</v>
       </c>
-      <c r="G69" s="304">
+      <c r="G69" s="214">
         <f>C69*D69*E69*F69</f>
         <v>22.148122499999996</v>
       </c>
     </row>
-    <row r="70" spans="2:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="259" t="s">
+    <row r="70" spans="2:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="192" t="s">
         <v>265</v>
       </c>
-      <c r="C70" s="293">
+      <c r="C70" s="207">
         <f>C69</f>
         <v>602.66999999999996</v>
       </c>
-      <c r="D70" s="306">
+      <c r="D70" s="216">
         <f>0.936*0.3</f>
         <v>0.28079999999999999</v>
       </c>
-      <c r="E70" s="293">
+      <c r="E70" s="207">
         <v>0.25</v>
       </c>
-      <c r="F70" s="293">
+      <c r="F70" s="207">
         <v>0.9</v>
       </c>
-      <c r="G70" s="305">
+      <c r="G70" s="215">
         <f>C70*D70*E70*F70</f>
         <v>38.076690599999992</v>
       </c>
     </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="310" t="s">
+        <v>311</v>
+      </c>
+      <c r="C75" s="250" t="s">
+        <v>310</v>
+      </c>
+      <c r="D75" s="311" t="s">
+        <v>322</v>
+      </c>
+      <c r="E75" s="311" t="s">
+        <v>336</v>
+      </c>
+      <c r="F75" s="311" t="s">
+        <v>314</v>
+      </c>
+      <c r="G75" s="311"/>
+      <c r="H75" s="250" t="s">
+        <v>315</v>
+      </c>
+      <c r="I75" s="251" t="s">
+        <v>87</v>
+      </c>
+      <c r="N75" s="317"/>
+      <c r="O75" s="317"/>
+      <c r="P75" s="317"/>
+      <c r="Q75" s="317"/>
+      <c r="R75" s="317"/>
+      <c r="S75" s="317"/>
+      <c r="T75" s="317"/>
+      <c r="U75" s="317"/>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B76" s="312"/>
+      <c r="C76" s="223"/>
+      <c r="D76" s="309"/>
+      <c r="E76" s="309"/>
+      <c r="F76" s="173" t="s">
+        <v>214</v>
+      </c>
+      <c r="G76" s="173" t="s">
+        <v>213</v>
+      </c>
+      <c r="H76" s="223"/>
+      <c r="I76" s="313"/>
+      <c r="N76" s="317"/>
+      <c r="O76" s="317"/>
+      <c r="P76" s="317"/>
+      <c r="Q76" s="317"/>
+      <c r="T76" s="317"/>
+      <c r="U76" s="317"/>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B77" s="209" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="176" t="s">
+        <v>333</v>
+      </c>
+      <c r="D77" s="176" t="s">
+        <v>331</v>
+      </c>
+      <c r="E77" s="46">
+        <v>2</v>
+      </c>
+      <c r="F77" s="176">
+        <f>273.15-20</f>
+        <v>253.14999999999998</v>
+      </c>
+      <c r="G77" s="176">
+        <f>273.15+60</f>
+        <v>333.15</v>
+      </c>
+      <c r="H77" s="176" t="s">
+        <v>209</v>
+      </c>
+      <c r="I77" s="180" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B78" s="209" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" s="206" t="s">
+        <v>332</v>
+      </c>
+      <c r="D78" s="176" t="s">
+        <v>321</v>
+      </c>
+      <c r="E78" s="176">
+        <v>4</v>
+      </c>
+      <c r="F78" s="176">
+        <f>273.15-40</f>
+        <v>233.14999999999998</v>
+      </c>
+      <c r="G78" s="176">
+        <f>273.15+70</f>
+        <v>343.15</v>
+      </c>
+      <c r="H78" s="176" t="s">
+        <v>334</v>
+      </c>
+      <c r="I78" s="180" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B79" s="209" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="176" t="s">
+        <v>252</v>
+      </c>
+      <c r="D79" s="176" t="s">
+        <v>337</v>
+      </c>
+      <c r="E79" s="176">
+        <v>16</v>
+      </c>
+      <c r="F79" s="176">
+        <f>273.15-25</f>
+        <v>248.14999999999998</v>
+      </c>
+      <c r="G79" s="176">
+        <f>273.15+65</f>
+        <v>338.15</v>
+      </c>
+      <c r="H79" s="176" t="s">
+        <v>335</v>
+      </c>
+      <c r="I79" s="180" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B80" s="209" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" s="176" t="s">
+        <v>312</v>
+      </c>
+      <c r="D80" s="176" t="s">
+        <v>338</v>
+      </c>
+      <c r="E80" s="176">
+        <v>16</v>
+      </c>
+      <c r="F80" s="176">
+        <f>273.15-55</f>
+        <v>218.14999999999998</v>
+      </c>
+      <c r="G80" s="176">
+        <f>273.15+85</f>
+        <v>358.15</v>
+      </c>
+      <c r="H80" s="176" t="s">
+        <v>320</v>
+      </c>
+      <c r="I80" s="180" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="209" t="s">
+        <v>209</v>
+      </c>
+      <c r="C81" s="176" t="s">
+        <v>340</v>
+      </c>
+      <c r="D81" s="176" t="s">
+        <v>209</v>
+      </c>
+      <c r="E81" s="176">
+        <v>0</v>
+      </c>
+      <c r="F81" s="176" t="s">
+        <v>209</v>
+      </c>
+      <c r="G81" s="176" t="s">
+        <v>209</v>
+      </c>
+      <c r="H81" s="318" t="s">
+        <v>209</v>
+      </c>
+      <c r="I81" s="180" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="210" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" s="207" t="s">
+        <v>313</v>
+      </c>
+      <c r="D82" s="183" t="s">
+        <v>209</v>
+      </c>
+      <c r="E82" s="183">
+        <v>0</v>
+      </c>
+      <c r="F82" s="183">
+        <v>40</v>
+      </c>
+      <c r="G82" s="183">
+        <v>350</v>
+      </c>
+      <c r="H82" s="207" t="s">
+        <v>319</v>
+      </c>
+      <c r="I82" s="112" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="46"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="315" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" s="316" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>225</v>
+      </c>
+      <c r="C86" s="314" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="314" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>316</v>
+      </c>
+      <c r="C88" s="314" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>317</v>
+      </c>
+      <c r="C89" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>318</v>
+      </c>
+      <c r="C90" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>324</v>
+      </c>
+      <c r="C91" s="314" t="s">
+        <v>325</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="102">
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
+  <mergeCells count="123">
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="Q75:Q76"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="T75:T76"/>
+    <mergeCell ref="U75:U76"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="C32:C33"/>
@@ -12326,24 +13122,95 @@
     <mergeCell ref="L38:L39"/>
     <mergeCell ref="L34:L35"/>
     <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="F48:F51"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C91" r:id="rId1" xr:uid="{DF4E1866-1674-46F6-84A6-B6AB76967535}"/>
+    <hyperlink ref="C88" r:id="rId2" xr:uid="{27148B34-24C8-4770-A1D9-774CFB6B4506}"/>
+    <hyperlink ref="C86" r:id="rId3" xr:uid="{BDB4C730-ED67-41D5-88EC-CF0E5B7BF26B}"/>
+    <hyperlink ref="C87" r:id="rId4" xr:uid="{CC1AD0EE-C4FB-45D1-83D9-493F233B8501}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
+++ b/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESATAN-TMS\ESATAN-TMS-Models\EO_Micro_Satellite_Project\Relevant Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E6A93A-39AB-49E9-AEAD-46244385346E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA14C21D-BB1F-4853-9F4D-BC962659C184}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NODES&amp;LABELS (cnfg5)" sheetId="8" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="370">
   <si>
     <t>ELEMENTO</t>
   </si>
@@ -1282,6 +1282,81 @@
   <si>
     <t>DIST -</t>
   </si>
+  <si>
+    <t>Size x [m]</t>
+  </si>
+  <si>
+    <t>Size y [m]</t>
+  </si>
+  <si>
+    <t>Size z [m]</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Thickness [m]</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Surface 1</t>
+  </si>
+  <si>
+    <t>Surface 2</t>
+  </si>
+  <si>
+    <t>Al_anodized_black</t>
+  </si>
+  <si>
+    <t>Rectangle</t>
+  </si>
+  <si>
+    <t>Black Paint</t>
+  </si>
+  <si>
+    <t>GaAs/Al7075</t>
+  </si>
+  <si>
+    <t>Non-Geometrical Node</t>
+  </si>
+  <si>
+    <t>Disc</t>
+  </si>
+  <si>
+    <t>Goldised_Kapton</t>
+  </si>
+  <si>
+    <t>CCD_Detector</t>
+  </si>
+  <si>
+    <t>Cylinder</t>
+  </si>
+  <si>
+    <t>0.1 rmin</t>
+  </si>
+  <si>
+    <t>Cone</t>
+  </si>
+  <si>
+    <t>45 ang</t>
+  </si>
+  <si>
+    <t>0.2 hmax</t>
+  </si>
+  <si>
+    <t>hmin-0.1385</t>
+  </si>
+  <si>
+    <t>0.113333hmax</t>
+  </si>
+  <si>
+    <t>0.25 hmax</t>
+  </si>
 </sst>
 </file>
 
@@ -1293,7 +1368,7 @@
     <numFmt numFmtId="166" formatCode="0.0000000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1355,12 +1430,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2266,7 +2335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="320">
+  <cellXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2522,7 +2591,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2740,285 +2808,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3031,6 +2823,301 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4287,9 +4374,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>93303</xdr:rowOff>
+      <xdr:rowOff>97113</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4333,7 +4420,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>114112</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>135176</xdr:rowOff>
+      <xdr:rowOff>131366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4375,9 +4462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>134062</xdr:colOff>
+      <xdr:colOff>130252</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>54345</xdr:rowOff>
+      <xdr:rowOff>58155</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4463,9 +4550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>53855</xdr:colOff>
+      <xdr:colOff>57665</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>58831</xdr:rowOff>
+      <xdr:rowOff>56926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4509,7 +4596,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>79497</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>92627</xdr:rowOff>
+      <xdr:rowOff>96437</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5063,10 +5150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808A1311-6419-4949-A2BB-3628B364634E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:M32"/>
+  <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5074,16 +5161,18 @@
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="7" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="6" max="9" width="8.88671875" style="224"/>
+    <col min="10" max="13" width="11.6640625" style="224" customWidth="1"/>
+    <col min="15" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" customWidth="1"/>
+    <col min="19" max="19" width="10.21875" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
@@ -5099,8 +5188,33 @@
       <c r="E3" s="39" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F3" s="74" t="s">
+        <v>348</v>
+      </c>
+      <c r="G3" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="H3" s="74" t="s">
+        <v>346</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>347</v>
+      </c>
+      <c r="J3" s="74" t="s">
+        <v>350</v>
+      </c>
+      <c r="K3" s="74" t="s">
+        <v>352</v>
+      </c>
+      <c r="L3" s="74" t="s">
+        <v>353</v>
+      </c>
+      <c r="M3" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="N3" s="46"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
@@ -5114,24 +5228,32 @@
       <c r="E4" s="20">
         <v>19999</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="322"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -5145,11 +5267,35 @@
       <c r="E5" s="22">
         <v>10999</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="322" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" s="322">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="322">
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="322">
+        <v>0.375</v>
+      </c>
+      <c r="J5" s="323">
+        <v>2E-3</v>
+      </c>
+      <c r="K5" s="224" t="s">
+        <v>354</v>
+      </c>
+      <c r="L5" s="224" t="s">
+        <v>354</v>
+      </c>
+      <c r="M5" s="323" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
       <c r="B6" s="2" t="s">
         <v>95</v>
@@ -5163,11 +5309,35 @@
       <c r="E6" s="22">
         <v>11999</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="322" t="s">
+        <v>355</v>
+      </c>
+      <c r="G6" s="322">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="322">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="322" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="323">
+        <v>2E-3</v>
+      </c>
+      <c r="K6" s="322" t="s">
+        <v>356</v>
+      </c>
+      <c r="L6" s="322" t="s">
+        <v>356</v>
+      </c>
+      <c r="M6" s="322" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
       <c r="B7" s="67" t="s">
         <v>95</v>
@@ -5181,21 +5351,45 @@
       <c r="E7" s="68">
         <v>11999</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="I7" s="3">
+      <c r="F7" s="322" t="s">
+        <v>355</v>
+      </c>
+      <c r="G7" s="322">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="322">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="322" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="323">
+        <v>2E-3</v>
+      </c>
+      <c r="K7" s="322" t="s">
+        <v>356</v>
+      </c>
+      <c r="L7" s="322" t="s">
+        <v>356</v>
+      </c>
+      <c r="M7" s="322" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="46"/>
+      <c r="Q7" s="3">
         <v>12345</v>
       </c>
-      <c r="K7" t="s">
+      <c r="S7" t="s">
         <v>33</v>
       </c>
-      <c r="L7" t="s">
+      <c r="T7" t="s">
         <v>34</v>
       </c>
-      <c r="M7" t="s">
+      <c r="U7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
@@ -5209,11 +5403,35 @@
       <c r="E8" s="42">
         <v>29999</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="322" t="s">
+        <v>355</v>
+      </c>
+      <c r="G8" s="322">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="322">
+        <v>0.3</v>
+      </c>
+      <c r="I8" s="322" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="323">
+        <v>1E-3</v>
+      </c>
+      <c r="K8" s="322" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="322" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="322" t="s">
+        <v>357</v>
+      </c>
+      <c r="N8" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -5227,11 +5445,19 @@
       <c r="E9" s="22">
         <v>20999</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="322"/>
+      <c r="G9" s="322"/>
+      <c r="H9" s="322"/>
+      <c r="I9" s="322"/>
+      <c r="J9" s="322"/>
+      <c r="K9" s="322"/>
+      <c r="L9" s="322"/>
+      <c r="M9" s="322"/>
+      <c r="N9" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="B10" s="24" t="s">
         <v>9</v>
@@ -5245,20 +5471,28 @@
       <c r="E10" s="25">
         <v>21999</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="322"/>
+      <c r="G10" s="322"/>
+      <c r="H10" s="322"/>
+      <c r="I10" s="322"/>
+      <c r="J10" s="322"/>
+      <c r="K10" s="322"/>
+      <c r="L10" s="322"/>
+      <c r="M10" s="322"/>
+      <c r="N10" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>5</v>
       </c>
@@ -5272,20 +5506,28 @@
       <c r="E11" s="20">
         <v>39999</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="322"/>
+      <c r="G11" s="322"/>
+      <c r="H11" s="322"/>
+      <c r="I11" s="322"/>
+      <c r="J11" s="322"/>
+      <c r="K11" s="322"/>
+      <c r="L11" s="322"/>
+      <c r="M11" s="322"/>
+      <c r="N11" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I11" t="s">
+      <c r="Q11" t="s">
         <v>84</v>
       </c>
-      <c r="J11" t="s">
+      <c r="R11" t="s">
         <v>85</v>
       </c>
-      <c r="K11" t="s">
+      <c r="S11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -5299,11 +5541,35 @@
       <c r="E12" s="22">
         <v>30999</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="322" t="s">
+        <v>349</v>
+      </c>
+      <c r="G12" s="322">
+        <v>0.15</v>
+      </c>
+      <c r="H12" s="324">
+        <v>0.15</v>
+      </c>
+      <c r="I12" s="324">
+        <v>0.04</v>
+      </c>
+      <c r="J12" s="323">
+        <v>2E-3</v>
+      </c>
+      <c r="K12" s="322" t="s">
+        <v>356</v>
+      </c>
+      <c r="L12" s="322" t="s">
+        <v>356</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -5317,15 +5583,39 @@
       <c r="E13" s="22">
         <v>31999</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="322" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I13" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="J13" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="L13" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="M13" s="324" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="O13" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P13" s="35"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23"/>
       <c r="B14" s="24" t="s">
         <v>12</v>
@@ -5339,15 +5629,39 @@
       <c r="E14" s="25">
         <v>32999</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="322" t="s">
+        <v>358</v>
+      </c>
+      <c r="G14" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I14" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="J14" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="M14" s="324" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="O14" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="35"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>80</v>
       </c>
@@ -5361,11 +5675,19 @@
       <c r="E15" s="20">
         <v>49999</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="322"/>
+      <c r="G15" s="322"/>
+      <c r="H15" s="322"/>
+      <c r="I15" s="322"/>
+      <c r="J15" s="322"/>
+      <c r="K15" s="322"/>
+      <c r="L15" s="322"/>
+      <c r="M15" s="322"/>
+      <c r="N15" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="2" t="s">
         <v>3</v>
@@ -5379,11 +5701,35 @@
       <c r="E16" s="22">
         <v>40499</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="324" t="s">
+        <v>362</v>
+      </c>
+      <c r="G16" s="322">
+        <v>0.125</v>
+      </c>
+      <c r="H16" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I16" s="324">
+        <v>0.35</v>
+      </c>
+      <c r="J16" s="323">
+        <v>1E-3</v>
+      </c>
+      <c r="K16" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="L16" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="2" t="s">
         <v>3</v>
@@ -5397,9 +5743,19 @@
       <c r="E17" s="22">
         <v>40999</v>
       </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="322"/>
+      <c r="G17" s="322"/>
+      <c r="H17" s="322"/>
+      <c r="I17" s="322"/>
+      <c r="J17" s="322"/>
+      <c r="K17" s="322"/>
+      <c r="L17" s="322"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
         <v>114</v>
@@ -5413,9 +5769,35 @@
       <c r="E18" s="22">
         <v>45999</v>
       </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="324" t="s">
+        <v>359</v>
+      </c>
+      <c r="G18" s="322">
+        <v>0.125</v>
+      </c>
+      <c r="H18" s="322" t="s">
+        <v>363</v>
+      </c>
+      <c r="I18" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="J18" s="323">
+        <v>1E-3</v>
+      </c>
+      <c r="K18" s="324" t="s">
+        <v>356</v>
+      </c>
+      <c r="L18" s="324" t="s">
+        <v>356</v>
+      </c>
+      <c r="M18" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="2" t="s">
         <v>13</v>
@@ -5429,11 +5811,35 @@
       <c r="E19" s="22">
         <v>41999</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="322" t="s">
+        <v>359</v>
+      </c>
+      <c r="G19" s="322">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H19" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I19" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="J19" s="323">
+        <v>1E-3</v>
+      </c>
+      <c r="K19" s="322" t="s">
+        <v>360</v>
+      </c>
+      <c r="L19" s="322" t="s">
+        <v>361</v>
+      </c>
+      <c r="M19" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="N19" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="33"/>
       <c r="B20" s="29" t="s">
         <v>104</v>
@@ -5447,11 +5853,19 @@
       <c r="E20" s="34">
         <v>42999</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="322"/>
+      <c r="G20" s="322"/>
+      <c r="H20" s="322"/>
+      <c r="I20" s="322"/>
+      <c r="J20" s="322"/>
+      <c r="K20" s="322"/>
+      <c r="L20" s="322"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="33"/>
       <c r="B21" s="29" t="s">
         <v>105</v>
@@ -5465,11 +5879,35 @@
       <c r="E21" s="34">
         <v>43999</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="322" t="s">
+        <v>362</v>
+      </c>
+      <c r="G21" s="322">
+        <v>0.08</v>
+      </c>
+      <c r="H21" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I21" s="324">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="J21" s="323">
+        <v>2E-3</v>
+      </c>
+      <c r="K21" s="322" t="s">
+        <v>356</v>
+      </c>
+      <c r="L21" s="322" t="s">
+        <v>356</v>
+      </c>
+      <c r="M21" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="N21" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
       <c r="B22" s="29" t="s">
         <v>14</v>
@@ -5483,11 +5921,35 @@
       <c r="E22" s="34">
         <v>44999</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="322" t="s">
+        <v>359</v>
+      </c>
+      <c r="G22" s="322">
+        <v>0.08</v>
+      </c>
+      <c r="H22" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I22" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" s="322">
+        <v>0.01</v>
+      </c>
+      <c r="K22" s="322" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="322" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>6</v>
       </c>
@@ -5501,11 +5963,19 @@
       <c r="E23" s="20">
         <v>59999</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="322"/>
+      <c r="G23" s="322"/>
+      <c r="H23" s="322"/>
+      <c r="I23" s="322"/>
+      <c r="J23" s="322"/>
+      <c r="K23" s="322"/>
+      <c r="L23" s="322"/>
+      <c r="M23" s="322"/>
+      <c r="N23" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="2" t="s">
         <v>15</v>
@@ -5519,11 +5989,35 @@
       <c r="E24" s="22">
         <v>50999</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="324" t="s">
+        <v>349</v>
+      </c>
+      <c r="G24" s="324">
+        <v>0.42</v>
+      </c>
+      <c r="H24" s="324">
+        <v>0.32</v>
+      </c>
+      <c r="I24" s="324">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="J24" s="323">
+        <v>1E-3</v>
+      </c>
+      <c r="K24" s="324" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="324" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="N24" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="2" t="s">
         <v>16</v>
@@ -5537,11 +6031,19 @@
       <c r="E25" s="22">
         <v>51999</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
+      <c r="K25" s="322"/>
+      <c r="L25" s="322"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="33"/>
       <c r="B26" s="29" t="s">
         <v>116</v>
@@ -5555,11 +6057,35 @@
       <c r="E26" s="34">
         <v>51999</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="324" t="s">
+        <v>362</v>
+      </c>
+      <c r="G26" s="324">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H26" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I26" s="324">
+        <v>0.34</v>
+      </c>
+      <c r="J26" s="323">
+        <v>1E-3</v>
+      </c>
+      <c r="K26" s="324" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="324" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="N26" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>7</v>
       </c>
@@ -5573,9 +6099,19 @@
       <c r="E27" s="20">
         <v>69999</v>
       </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="322"/>
+      <c r="G27" s="322"/>
+      <c r="H27" s="322"/>
+      <c r="I27" s="322"/>
+      <c r="J27" s="322"/>
+      <c r="K27" s="322"/>
+      <c r="L27" s="322"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
@@ -5587,9 +6123,35 @@
       <c r="E28" s="22">
         <v>60999</v>
       </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="322" t="s">
+        <v>355</v>
+      </c>
+      <c r="G28" s="322">
+        <v>0.25</v>
+      </c>
+      <c r="H28" s="324">
+        <v>0.34</v>
+      </c>
+      <c r="I28" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="J28" s="323">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K28" s="322" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="322" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="N28" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="33"/>
       <c r="B29" s="29"/>
       <c r="C29" s="13" t="s">
@@ -5601,9 +6163,35 @@
       <c r="E29" s="34">
         <v>61999</v>
       </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="324" t="s">
+        <v>364</v>
+      </c>
+      <c r="G29" s="322" t="s">
+        <v>367</v>
+      </c>
+      <c r="H29" s="322" t="s">
+        <v>365</v>
+      </c>
+      <c r="I29" s="322" t="s">
+        <v>369</v>
+      </c>
+      <c r="J29" s="323">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K29" s="322" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="322" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="N29" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="33"/>
       <c r="B30" s="29"/>
       <c r="C30" s="24" t="s">
@@ -5615,9 +6203,35 @@
       <c r="E30" s="25">
         <v>62999</v>
       </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="324" t="s">
+        <v>359</v>
+      </c>
+      <c r="G30" s="322">
+        <v>0.13850000000000001</v>
+      </c>
+      <c r="H30" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" s="323">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K30" s="322" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30" s="322" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="N30" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="33"/>
       <c r="B31" s="29"/>
       <c r="C31" s="24" t="s">
@@ -5629,9 +6243,35 @@
       <c r="E31" s="25">
         <v>63999</v>
       </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="322" t="s">
+        <v>355</v>
+      </c>
+      <c r="G31" s="324">
+        <v>0.2</v>
+      </c>
+      <c r="H31" s="35">
+        <v>0.2</v>
+      </c>
+      <c r="I31" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="J31" s="325">
+        <v>0.01</v>
+      </c>
+      <c r="K31" s="324" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="324" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="N31" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="24" t="s">
@@ -5642,6 +6282,33 @@
       </c>
       <c r="E32" s="25">
         <v>64999</v>
+      </c>
+      <c r="F32" s="324" t="s">
+        <v>362</v>
+      </c>
+      <c r="G32" s="322">
+        <v>0.13850000000000001</v>
+      </c>
+      <c r="H32" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32" s="322" t="s">
+        <v>368</v>
+      </c>
+      <c r="J32" s="323">
+        <v>1E-3</v>
+      </c>
+      <c r="K32" s="322" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="322" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="N32" s="46" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -7663,10 +8330,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7401929-A231-4740-A755-864549E0C2CF}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A2:M35"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F24" sqref="F24:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7674,16 +8341,18 @@
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="7" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="6" max="12" width="8.88671875" style="224"/>
+    <col min="14" max="14" width="8.88671875" style="224"/>
+    <col min="15" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="15.109375" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" customWidth="1"/>
+    <col min="19" max="19" width="10.21875" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
@@ -7699,8 +8368,33 @@
       <c r="E3" s="39" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F3" s="74" t="s">
+        <v>348</v>
+      </c>
+      <c r="G3" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="H3" s="74" t="s">
+        <v>346</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>347</v>
+      </c>
+      <c r="J3" s="74" t="s">
+        <v>350</v>
+      </c>
+      <c r="K3" s="74" t="s">
+        <v>352</v>
+      </c>
+      <c r="L3" s="74" t="s">
+        <v>353</v>
+      </c>
+      <c r="M3" s="74" t="s">
+        <v>351</v>
+      </c>
+      <c r="N3" s="74"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
@@ -7714,24 +8408,30 @@
       <c r="E4" s="20">
         <v>19999</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="F4" s="321"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="320"/>
+      <c r="J4" s="320"/>
+      <c r="K4" s="320"/>
+      <c r="L4" s="320"/>
+      <c r="M4" s="320"/>
+      <c r="N4" s="320"/>
+      <c r="Q4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -7745,11 +8445,35 @@
       <c r="E5" s="22">
         <v>10999</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="322" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" s="322">
+        <v>0.4</v>
+      </c>
+      <c r="H5" s="322">
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="322">
+        <v>0.375</v>
+      </c>
+      <c r="J5" s="323">
+        <v>2E-3</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="M5" s="323" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="323" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
       <c r="B6" s="2" t="s">
         <v>95</v>
@@ -7763,11 +8487,35 @@
       <c r="E6" s="22">
         <v>11999</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="322" t="s">
+        <v>355</v>
+      </c>
+      <c r="G6" s="322">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="322">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="322" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="323">
+        <v>2E-3</v>
+      </c>
+      <c r="K6" s="322" t="s">
+        <v>356</v>
+      </c>
+      <c r="L6" s="322" t="s">
+        <v>356</v>
+      </c>
+      <c r="M6" s="322" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="322" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
       <c r="B7" s="67" t="s">
         <v>95</v>
@@ -7781,21 +8529,47 @@
       <c r="E7" s="68">
         <v>11999</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="I7" s="3">
+      <c r="F7" s="322" t="s">
+        <v>355</v>
+      </c>
+      <c r="G7" s="322">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="322">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="322" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="323">
+        <v>2E-3</v>
+      </c>
+      <c r="K7" s="322" t="s">
+        <v>356</v>
+      </c>
+      <c r="L7" s="322" t="s">
+        <v>356</v>
+      </c>
+      <c r="M7" s="322" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="322" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="3">
         <v>12345</v>
       </c>
-      <c r="K7" t="s">
+      <c r="S7" t="s">
         <v>33</v>
       </c>
-      <c r="L7" t="s">
+      <c r="T7" t="s">
         <v>34</v>
       </c>
-      <c r="M7" t="s">
+      <c r="U7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
         <v>4</v>
       </c>
@@ -7809,11 +8583,35 @@
       <c r="E8" s="42">
         <v>29999</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="322" t="s">
+        <v>355</v>
+      </c>
+      <c r="G8" s="322">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H8" s="322">
+        <v>0.3</v>
+      </c>
+      <c r="I8" s="322" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="323">
+        <v>1E-3</v>
+      </c>
+      <c r="K8" s="322" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="322" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" s="322" t="s">
+        <v>357</v>
+      </c>
+      <c r="N8" s="322" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -7827,11 +8625,19 @@
       <c r="E9" s="22">
         <v>20999</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="322"/>
+      <c r="G9" s="322"/>
+      <c r="H9" s="322"/>
+      <c r="I9" s="322"/>
+      <c r="J9" s="322"/>
+      <c r="K9" s="322"/>
+      <c r="L9" s="322"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="B10" s="24" t="s">
         <v>9</v>
@@ -7845,20 +8651,28 @@
       <c r="E10" s="25">
         <v>21999</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="322"/>
+      <c r="G10" s="322"/>
+      <c r="H10" s="322"/>
+      <c r="I10" s="322"/>
+      <c r="J10" s="322"/>
+      <c r="K10" s="322"/>
+      <c r="L10" s="322"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>5</v>
       </c>
@@ -7872,20 +8686,28 @@
       <c r="E11" s="20">
         <v>39999</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="322"/>
+      <c r="G11" s="322"/>
+      <c r="H11" s="322"/>
+      <c r="I11" s="322"/>
+      <c r="J11" s="322"/>
+      <c r="K11" s="322"/>
+      <c r="L11" s="322"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I11" t="s">
+      <c r="Q11" t="s">
         <v>84</v>
       </c>
-      <c r="J11" t="s">
+      <c r="R11" t="s">
         <v>85</v>
       </c>
-      <c r="K11" t="s">
+      <c r="S11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -7899,11 +8721,35 @@
       <c r="E12" s="22">
         <v>30999</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="322" t="s">
+        <v>349</v>
+      </c>
+      <c r="G12" s="322">
+        <v>0.15</v>
+      </c>
+      <c r="H12" s="324">
+        <v>0.15</v>
+      </c>
+      <c r="I12" s="324">
+        <v>0.04</v>
+      </c>
+      <c r="J12" s="323">
+        <v>2E-3</v>
+      </c>
+      <c r="K12" s="322" t="s">
+        <v>356</v>
+      </c>
+      <c r="L12" s="322" t="s">
+        <v>356</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -7917,15 +8763,39 @@
       <c r="E13" s="22">
         <v>31999</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="322" t="s">
+        <v>358</v>
+      </c>
+      <c r="G13" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I13" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="J13" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="L13" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="M13" s="324" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="35" t="s">
+      <c r="O13" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="35"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P13" s="35"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23"/>
       <c r="B14" s="24" t="s">
         <v>12</v>
@@ -7939,15 +8809,39 @@
       <c r="E14" s="25">
         <v>32999</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="322" t="s">
+        <v>358</v>
+      </c>
+      <c r="G14" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I14" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="J14" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="M14" s="324" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="O14" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="35"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P14" s="35"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>80</v>
       </c>
@@ -7961,17 +8855,25 @@
       <c r="E15" s="20">
         <v>49999</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="322"/>
+      <c r="G15" s="322"/>
+      <c r="H15" s="322"/>
+      <c r="I15" s="322"/>
+      <c r="J15" s="322"/>
+      <c r="K15" s="322"/>
+      <c r="L15" s="322"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D16" s="2">
         <v>40000</v>
@@ -7979,11 +8881,35 @@
       <c r="E16" s="22">
         <v>40499</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="324" t="s">
+        <v>362</v>
+      </c>
+      <c r="G16" s="322">
+        <v>0.125</v>
+      </c>
+      <c r="H16" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I16" s="324">
+        <v>0.35</v>
+      </c>
+      <c r="J16" s="323">
+        <v>1E-3</v>
+      </c>
+      <c r="K16" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="L16" s="324" t="s">
+        <v>354</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="2" t="s">
         <v>3</v>
@@ -7997,17 +8923,25 @@
       <c r="E17" s="22">
         <v>40999</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="322"/>
+      <c r="G17" s="322"/>
+      <c r="H17" s="322"/>
+      <c r="I17" s="322"/>
+      <c r="J17" s="322"/>
+      <c r="K17" s="322"/>
+      <c r="L17" s="322"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I17" s="105" t="s">
+      <c r="Q17" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="L17" s="105" t="s">
+      <c r="T17" s="105" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
         <v>114</v>
@@ -8021,11 +8955,35 @@
       <c r="E18" s="22">
         <v>45999</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="324" t="s">
+        <v>359</v>
+      </c>
+      <c r="G18" s="322">
+        <v>0.125</v>
+      </c>
+      <c r="H18" s="322" t="s">
+        <v>363</v>
+      </c>
+      <c r="I18" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="J18" s="323">
+        <v>1E-3</v>
+      </c>
+      <c r="K18" s="324" t="s">
+        <v>356</v>
+      </c>
+      <c r="L18" s="324" t="s">
+        <v>356</v>
+      </c>
+      <c r="M18" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="2" t="s">
         <v>13</v>
@@ -8039,11 +8997,35 @@
       <c r="E19" s="22">
         <v>41999</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="322" t="s">
+        <v>359</v>
+      </c>
+      <c r="G19" s="322">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H19" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I19" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="J19" s="323">
+        <v>1E-3</v>
+      </c>
+      <c r="K19" s="322" t="s">
+        <v>360</v>
+      </c>
+      <c r="L19" s="322" t="s">
+        <v>361</v>
+      </c>
+      <c r="M19" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="N19" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="33"/>
       <c r="B20" s="29" t="s">
         <v>104</v>
@@ -8057,11 +9039,19 @@
       <c r="E20" s="34">
         <v>42999</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="322"/>
+      <c r="G20" s="322"/>
+      <c r="H20" s="322"/>
+      <c r="I20" s="322"/>
+      <c r="J20" s="322"/>
+      <c r="K20" s="322"/>
+      <c r="L20" s="322"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="33"/>
       <c r="B21" s="29" t="s">
         <v>105</v>
@@ -8075,11 +9065,35 @@
       <c r="E21" s="34">
         <v>43999</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="322" t="s">
+        <v>362</v>
+      </c>
+      <c r="G21" s="322">
+        <v>0.08</v>
+      </c>
+      <c r="H21" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I21" s="324">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="J21" s="323">
+        <v>2E-3</v>
+      </c>
+      <c r="K21" s="322" t="s">
+        <v>356</v>
+      </c>
+      <c r="L21" s="322" t="s">
+        <v>356</v>
+      </c>
+      <c r="M21" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="N21" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
       <c r="B22" s="29" t="s">
         <v>14</v>
@@ -8093,11 +9107,35 @@
       <c r="E22" s="34">
         <v>44999</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="322" t="s">
+        <v>359</v>
+      </c>
+      <c r="G22" s="322">
+        <v>0.08</v>
+      </c>
+      <c r="H22" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I22" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" s="322">
+        <v>0.01</v>
+      </c>
+      <c r="K22" s="322" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="322" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>6</v>
       </c>
@@ -8111,11 +9149,19 @@
       <c r="E23" s="20">
         <v>59999</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="322"/>
+      <c r="G23" s="322"/>
+      <c r="H23" s="322"/>
+      <c r="I23" s="322"/>
+      <c r="J23" s="322"/>
+      <c r="K23" s="322"/>
+      <c r="L23" s="322"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="2" t="s">
         <v>15</v>
@@ -8124,16 +9170,40 @@
         <v>26</v>
       </c>
       <c r="D24" s="2">
-        <v>50000</v>
+        <v>51000</v>
       </c>
       <c r="E24" s="22">
-        <v>50999</v>
-      </c>
-      <c r="F24" s="3" t="s">
+        <v>51999</v>
+      </c>
+      <c r="F24" s="324" t="s">
+        <v>349</v>
+      </c>
+      <c r="G24" s="324">
+        <v>0.42</v>
+      </c>
+      <c r="H24" s="324">
+        <v>0.32</v>
+      </c>
+      <c r="I24" s="324">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="J24" s="323">
+        <v>1E-3</v>
+      </c>
+      <c r="K24" s="324" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="324" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="N24" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="2" t="s">
         <v>16</v>
@@ -8147,11 +9217,19 @@
       <c r="E25" s="22">
         <v>51999</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
+      <c r="K25" s="322"/>
+      <c r="L25" s="322"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="33"/>
       <c r="B26" s="29" t="s">
         <v>116</v>
@@ -8160,16 +9238,40 @@
         <v>117</v>
       </c>
       <c r="D26" s="29">
-        <v>51000</v>
+        <v>52000</v>
       </c>
       <c r="E26" s="34">
-        <v>51999</v>
-      </c>
-      <c r="F26" s="3" t="s">
+        <v>52999</v>
+      </c>
+      <c r="F26" s="324" t="s">
+        <v>362</v>
+      </c>
+      <c r="G26" s="324">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H26" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I26" s="324">
+        <v>0.34</v>
+      </c>
+      <c r="J26" s="323">
+        <v>1E-3</v>
+      </c>
+      <c r="K26" s="324" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="324" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="N26" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>7</v>
       </c>
@@ -8183,11 +9285,19 @@
       <c r="E27" s="20">
         <v>69999</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="322"/>
+      <c r="G27" s="322"/>
+      <c r="H27" s="322"/>
+      <c r="I27" s="322"/>
+      <c r="J27" s="322"/>
+      <c r="K27" s="322"/>
+      <c r="L27" s="322"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
@@ -8199,11 +9309,35 @@
       <c r="E28" s="22">
         <v>60999</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="322" t="s">
+        <v>355</v>
+      </c>
+      <c r="G28" s="322">
+        <v>0.25</v>
+      </c>
+      <c r="H28" s="324">
+        <v>0.34</v>
+      </c>
+      <c r="I28" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="J28" s="323">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K28" s="322" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="322" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="N28" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
@@ -8215,11 +9349,35 @@
       <c r="E29" s="22">
         <v>61999</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="324" t="s">
+        <v>364</v>
+      </c>
+      <c r="G29" s="322" t="s">
+        <v>367</v>
+      </c>
+      <c r="H29" s="322" t="s">
+        <v>365</v>
+      </c>
+      <c r="I29" s="322" t="s">
+        <v>366</v>
+      </c>
+      <c r="J29" s="323">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K29" s="322" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="322" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="N29" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="21"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
@@ -8231,85 +9389,187 @@
       <c r="E30" s="22">
         <v>62999</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="324" t="s">
+        <v>359</v>
+      </c>
+      <c r="G30" s="322">
+        <v>0.13850000000000001</v>
+      </c>
+      <c r="H30" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" s="323">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K30" s="322" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30" s="322" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="N30" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
+    <row r="31" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="D31" s="2">
-        <v>63000</v>
-      </c>
-      <c r="E31" s="22">
-        <v>63999</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="D31" s="24">
+        <v>64000</v>
+      </c>
+      <c r="E31" s="25">
+        <v>64999</v>
+      </c>
+      <c r="F31" s="324" t="s">
+        <v>362</v>
+      </c>
+      <c r="G31" s="322">
+        <v>0.13850000000000001</v>
+      </c>
+      <c r="H31" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I31" s="322" t="s">
+        <v>368</v>
+      </c>
+      <c r="J31" s="323">
+        <v>1E-3</v>
+      </c>
+      <c r="K31" s="322" t="s">
+        <v>50</v>
+      </c>
+      <c r="L31" s="322" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="N31" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="D32" s="24">
-        <v>64000</v>
-      </c>
-      <c r="E32" s="25">
-        <v>64999</v>
-      </c>
-      <c r="F32" s="3" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="41">
+        <v>70000</v>
+      </c>
+      <c r="E32" s="42">
+        <v>79000</v>
+      </c>
+      <c r="F32" s="322"/>
+      <c r="G32" s="322"/>
+      <c r="H32" s="322"/>
+      <c r="I32" s="322"/>
+      <c r="J32" s="322"/>
+      <c r="K32" s="322"/>
+      <c r="L32" s="322"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="D33" s="41">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="2">
         <v>70000</v>
       </c>
-      <c r="E33" s="42">
-        <v>79000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D34" s="2">
-        <v>70000</v>
-      </c>
-      <c r="E34" s="22">
+      <c r="E33" s="22">
+        <v>71900</v>
+      </c>
+      <c r="F33" s="324" t="s">
+        <v>358</v>
+      </c>
+      <c r="G33" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="H33" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I33" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="J33" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="K33" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="L33" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="M33" s="324" t="s">
+        <v>71</v>
+      </c>
+      <c r="N33" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34" s="24">
         <v>71000</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D35" s="24">
-        <v>72000</v>
-      </c>
-      <c r="E35" s="25">
-        <v>72999</v>
+      <c r="E34" s="25">
+        <v>71999</v>
+      </c>
+      <c r="F34" s="324" t="s">
+        <v>358</v>
+      </c>
+      <c r="G34" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="H34" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="I34" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="J34" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="K34" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="L34" s="324" t="s">
+        <v>209</v>
+      </c>
+      <c r="M34" s="324" t="s">
+        <v>71</v>
+      </c>
+      <c r="N34" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -8416,29 +9676,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="223" t="s">
+      <c r="B3" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="224" t="s">
+      <c r="C3" s="230" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="224"/>
-      <c r="G3" s="224" t="s">
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="224"/>
-      <c r="I3" s="224"/>
-      <c r="J3" s="224"/>
-      <c r="K3" s="225" t="s">
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="225"/>
+      <c r="L3" s="231"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="223"/>
+      <c r="B4" s="229"/>
       <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
@@ -8463,8 +9723,8 @@
       <c r="J4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="225"/>
-      <c r="L4" s="225"/>
+      <c r="K4" s="231"/>
+      <c r="L4" s="231"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -8497,10 +9757,10 @@
       <c r="J5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="222" t="s">
+      <c r="K5" s="227" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="219"/>
+      <c r="L5" s="228"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -8533,10 +9793,10 @@
       <c r="J6" s="10">
         <v>0.1</v>
       </c>
-      <c r="K6" s="222" t="s">
+      <c r="K6" s="227" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="219"/>
+      <c r="L6" s="228"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -8569,8 +9829,8 @@
       <c r="J7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="219"/>
-      <c r="L7" s="219"/>
+      <c r="K7" s="228"/>
+      <c r="L7" s="228"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -8603,8 +9863,8 @@
       <c r="J8" s="10">
         <v>0.1</v>
       </c>
-      <c r="K8" s="220"/>
-      <c r="L8" s="221"/>
+      <c r="K8" s="232"/>
+      <c r="L8" s="233"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -8637,8 +9897,8 @@
       <c r="J9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="219"/>
-      <c r="L9" s="219"/>
+      <c r="K9" s="228"/>
+      <c r="L9" s="228"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -8671,8 +9931,8 @@
       <c r="J10" s="10">
         <v>0.92</v>
       </c>
-      <c r="K10" s="220"/>
-      <c r="L10" s="221"/>
+      <c r="K10" s="232"/>
+      <c r="L10" s="233"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -8705,8 +9965,8 @@
       <c r="J11" s="10">
         <v>1</v>
       </c>
-      <c r="K11" s="220"/>
-      <c r="L11" s="221"/>
+      <c r="K11" s="232"/>
+      <c r="L11" s="233"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -8739,8 +9999,8 @@
       <c r="J12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="219"/>
-      <c r="L12" s="219"/>
+      <c r="K12" s="228"/>
+      <c r="L12" s="228"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -8773,8 +10033,8 @@
       <c r="J13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="219"/>
-      <c r="L13" s="219"/>
+      <c r="K13" s="228"/>
+      <c r="L13" s="228"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -8807,8 +10067,8 @@
       <c r="J14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="219"/>
-      <c r="L14" s="219"/>
+      <c r="K14" s="228"/>
+      <c r="L14" s="228"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -8841,8 +10101,8 @@
       <c r="J15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="219"/>
-      <c r="L15" s="219"/>
+      <c r="K15" s="228"/>
+      <c r="L15" s="228"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -8909,17 +10169,11 @@
       <c r="J17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="219"/>
-      <c r="L17" s="219"/>
+      <c r="K17" s="228"/>
+      <c r="L17" s="228"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K7:L7"/>
@@ -8930,6 +10184,12 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8948,28 +10208,28 @@
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="226" t="s">
+      <c r="A4" s="234" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="227"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="225" t="s">
+      <c r="B4" s="235"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="236"/>
+      <c r="E4" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="225"/>
-      <c r="H4" s="226" t="s">
+      <c r="F4" s="231"/>
+      <c r="H4" s="234" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="227"/>
-      <c r="J4" s="227"/>
-      <c r="K4" s="227"/>
-      <c r="L4" s="227"/>
-      <c r="M4" s="228"/>
-      <c r="N4" s="225" t="s">
+      <c r="I4" s="235"/>
+      <c r="J4" s="235"/>
+      <c r="K4" s="235"/>
+      <c r="L4" s="235"/>
+      <c r="M4" s="236"/>
+      <c r="N4" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="225"/>
+      <c r="O4" s="231"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -8984,8 +10244,8 @@
       <c r="D5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="225"/>
-      <c r="F5" s="225"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="231"/>
       <c r="H5" s="9" t="s">
         <v>36</v>
       </c>
@@ -9004,8 +10264,8 @@
       <c r="M5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="225"/>
-      <c r="O5" s="225"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="231"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -9020,8 +10280,8 @@
       <c r="D6" s="5">
         <v>2700</v>
       </c>
-      <c r="E6" s="220"/>
-      <c r="F6" s="221"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="233"/>
       <c r="G6" s="3" t="s">
         <v>90</v>
       </c>
@@ -9043,8 +10303,8 @@
       <c r="M6" s="5">
         <v>1750</v>
       </c>
-      <c r="N6" s="220"/>
-      <c r="O6" s="221"/>
+      <c r="N6" s="232"/>
+      <c r="O6" s="233"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -9059,10 +10319,10 @@
       <c r="D7" s="11">
         <v>2840</v>
       </c>
-      <c r="E7" s="220" t="s">
+      <c r="E7" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="221"/>
+      <c r="F7" s="233"/>
       <c r="G7" s="3" t="s">
         <v>90</v>
       </c>
@@ -9088,10 +10348,10 @@
       <c r="D8" s="5">
         <v>2810</v>
       </c>
-      <c r="E8" s="220" t="s">
+      <c r="E8" s="232" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="221"/>
+      <c r="F8" s="233"/>
       <c r="G8" s="3" t="s">
         <v>90</v>
       </c>
@@ -9117,10 +10377,10 @@
       <c r="D9" s="3">
         <v>7760</v>
       </c>
-      <c r="E9" s="220" t="s">
+      <c r="E9" s="232" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="221"/>
+      <c r="F9" s="233"/>
       <c r="G9" s="3" t="s">
         <v>90</v>
       </c>
@@ -9146,8 +10406,8 @@
       <c r="D10" s="5">
         <v>5300</v>
       </c>
-      <c r="E10" s="220"/>
-      <c r="F10" s="221"/>
+      <c r="E10" s="232"/>
+      <c r="F10" s="233"/>
       <c r="G10" s="3" t="s">
         <v>90</v>
       </c>
@@ -9165,8 +10425,8 @@
       <c r="D11" s="5">
         <v>5330</v>
       </c>
-      <c r="E11" s="220"/>
-      <c r="F11" s="221"/>
+      <c r="E11" s="232"/>
+      <c r="F11" s="233"/>
       <c r="G11" s="3" t="s">
         <v>90</v>
       </c>
@@ -9224,10 +10484,10 @@
       <c r="D14" s="46">
         <v>2300</v>
       </c>
-      <c r="E14" s="220" t="s">
+      <c r="E14" s="232" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="221"/>
+      <c r="F14" s="233"/>
       <c r="G14" s="3" t="s">
         <v>90</v>
       </c>
@@ -9245,20 +10505,14 @@
       <c r="D15" s="5">
         <v>300</v>
       </c>
-      <c r="E15" s="220"/>
-      <c r="F15" s="221"/>
+      <c r="E15" s="232"/>
+      <c r="F15" s="233"/>
       <c r="G15" s="3" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E15:F15"/>
@@ -9266,6 +10520,12 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9281,7 +10541,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="J44" sqref="J44"/>
-      <selection pane="topRight" activeCell="A26" sqref="A26"/>
+      <selection pane="topRight" activeCell="V6" sqref="V6:X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9465,7 +10725,7 @@
       <c r="W6" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="X6" s="319" t="s">
+      <c r="X6" s="226" t="s">
         <v>344</v>
       </c>
     </row>
@@ -9516,7 +10776,7 @@
       <c r="W7" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="X7" s="319" t="s">
+      <c r="X7" s="226" t="s">
         <v>343</v>
       </c>
     </row>
@@ -10034,7 +11294,7 @@
         <v>0.19</v>
       </c>
       <c r="G22" s="75">
-        <f t="shared" ref="G21:G34" si="2">D22*E22/F22</f>
+        <f t="shared" ref="G22:G34" si="2">D22*E22/F22</f>
         <v>6.324522052621556</v>
       </c>
     </row>
@@ -10062,7 +11322,7 @@
         <f t="shared" si="2"/>
         <v>1.5542857142857145</v>
       </c>
-      <c r="I23" s="308" t="s">
+      <c r="I23" s="220" t="s">
         <v>199</v>
       </c>
     </row>
@@ -10146,7 +11406,7 @@
         <f t="shared" si="2"/>
         <v>1.412987012987013</v>
       </c>
-      <c r="I26" s="307" t="s">
+      <c r="I26" s="219" t="s">
         <v>304</v>
       </c>
     </row>
@@ -10203,7 +11463,7 @@
         <f t="shared" si="2"/>
         <v>4.9454545454545462</v>
       </c>
-      <c r="I28" s="308" t="s">
+      <c r="I28" s="220" t="s">
         <v>233</v>
       </c>
     </row>
@@ -10488,12 +11748,12 @@
   <sheetPr codeName="Sheet11">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A2:M48"/>
+  <dimension ref="A2:X48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="J44" sqref="J44"/>
-      <selection pane="topRight" activeCell="G35" sqref="G35"/>
+      <selection pane="topRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10509,8 +11769,8 @@
     <col min="10" max="10" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54" t="s">
         <v>127</v>
       </c>
@@ -10545,7 +11805,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="122" t="s">
         <v>129</v>
       </c>
@@ -10585,7 +11845,7 @@
         <v>7.3421305756203787E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="122" t="s">
         <v>133</v>
       </c>
@@ -10626,7 +11886,7 @@
         <v>1.5341807626192488E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="57" t="s">
         <v>137</v>
       </c>
@@ -10666,8 +11926,17 @@
         <f t="shared" si="0"/>
         <v>4.7918456039190629E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="V6" s="224">
+        <v>2.44808743E-2</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="X6" s="226" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="57" t="s">
         <v>138</v>
       </c>
@@ -10707,8 +11976,17 @@
         <f t="shared" si="0"/>
         <v>2.8720178757291651E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="V7" s="224">
+        <v>2.0638799999999999E-2</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="X7" s="226" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="57" t="s">
         <v>136</v>
       </c>
@@ -10744,8 +12022,11 @@
         <f t="shared" si="0"/>
         <v>1.1811765605433695E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="V8" s="224"/>
+      <c r="W8" s="224"/>
+      <c r="X8" s="224"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="57" t="s">
         <v>170</v>
       </c>
@@ -10784,7 +12065,7 @@
         <v>2.0638820638820641E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="57" t="s">
         <v>171</v>
       </c>
@@ -10826,7 +12107,7 @@
         <v>2.4480874316939887E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="57" t="s">
         <v>172</v>
       </c>
@@ -10865,7 +12146,7 @@
         <v>2.0638820638820641E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="57" t="s">
         <v>173</v>
       </c>
@@ -10908,7 +12189,7 @@
         <v>2.4480874316939887E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="57" t="s">
         <v>174</v>
       </c>
@@ -10947,7 +12228,7 @@
         <v>2.0638820638820641E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="57" t="s">
         <v>175</v>
       </c>
@@ -10990,7 +12271,7 @@
         <v>2.4480874316939887E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="57" t="s">
         <v>176</v>
       </c>
@@ -11029,7 +12310,7 @@
         <v>2.0638820638820641E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="57" t="s">
         <v>177</v>
       </c>
@@ -11196,7 +12477,7 @@
         <f t="shared" si="4"/>
         <v>1.5542857142857145</v>
       </c>
-      <c r="I22" s="308" t="s">
+      <c r="I22" s="220" t="s">
         <v>199</v>
       </c>
     </row>
@@ -11283,7 +12564,7 @@
       <c r="H25" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="I25" s="307" t="s">
+      <c r="I25" s="219" t="s">
         <v>304</v>
       </c>
     </row>
@@ -11340,7 +12621,7 @@
         <f t="shared" si="6"/>
         <v>1.0053096491487337</v>
       </c>
-      <c r="I27" s="308" t="s">
+      <c r="I27" s="220" t="s">
         <v>233</v>
       </c>
     </row>
@@ -11364,7 +12645,7 @@
       <c r="F28" s="137">
         <v>0.04</v>
       </c>
-      <c r="G28" s="306">
+      <c r="G28" s="218">
         <f t="shared" si="6"/>
         <v>13.600000000000001</v>
       </c>
@@ -11481,7 +12762,7 @@
         <v>6.6758843888783099</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="131" t="s">
         <v>244</v>
       </c>
@@ -11505,8 +12786,11 @@
         <f t="shared" si="6"/>
         <v>3.1415926535897929E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J33">
+        <v>1.41371669411541E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
         <v>236</v>
       </c>
@@ -11531,13 +12815,13 @@
         <v>2.5431940529060229</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I35" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="54" t="s">
         <v>127</v>
       </c>
@@ -11557,11 +12841,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B38" s="142" t="s">
+      <c r="B38" s="141" t="s">
         <v>246</v>
       </c>
       <c r="C38" s="125" t="s">
@@ -11579,29 +12863,31 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="143" t="s">
+      <c r="B39" s="142" t="s">
         <v>246</v>
       </c>
       <c r="C39" s="140" t="s">
         <v>146</v>
       </c>
       <c r="D39" s="139">
+        <f>GLs!D39</f>
         <v>300</v>
       </c>
-      <c r="E39" s="125">
-        <f>0.07*0.07</f>
+      <c r="E39" s="139">
+        <f>GLs!E39</f>
         <v>4.9000000000000007E-3</v>
       </c>
-      <c r="F39" s="141">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="144" t="s">
+      <c r="F39" s="130">
+        <f>D39*E39</f>
+        <v>1.4700000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="143" t="s">
         <v>243</v>
       </c>
       <c r="B40" s="101" t="s">
@@ -11613,20 +12899,21 @@
       <c r="D40" s="23">
         <v>100</v>
       </c>
-      <c r="E40" s="145">
-        <v>4.2000000000000003E-2</v>
+      <c r="E40" s="144">
+        <f>0.0378*0.0662</f>
+        <v>2.5023599999999999E-3</v>
       </c>
       <c r="F40" s="64">
         <f>D40*E40/2</f>
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.12511800000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>272</v>
       </c>
@@ -11637,12 +12924,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>275</v>
       </c>
@@ -11662,8 +12949,8 @@
   </sheetPr>
   <dimension ref="B1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11694,39 +12981,39 @@
       </c>
     </row>
     <row r="2" spans="2:19" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="263" t="s">
+      <c r="B2" s="265" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="301" t="s">
+      <c r="C2" s="253" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="303" t="s">
+      <c r="D2" s="255" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="269" t="s">
+      <c r="E2" s="249" t="s">
         <v>266</v>
       </c>
-      <c r="F2" s="269" t="s">
+      <c r="F2" s="249" t="s">
         <v>268</v>
       </c>
-      <c r="G2" s="269" t="s">
+      <c r="G2" s="249" t="s">
         <v>208</v>
       </c>
-      <c r="H2" s="160" t="s">
+      <c r="H2" s="159" t="s">
         <v>211</v>
       </c>
-      <c r="I2" s="261" t="s">
+      <c r="I2" s="267" t="s">
         <v>212</v>
       </c>
-      <c r="J2" s="262"/>
-      <c r="K2" s="158" t="s">
+      <c r="J2" s="268"/>
+      <c r="K2" s="157" t="s">
         <v>223</v>
       </c>
-      <c r="L2" s="261" t="s">
+      <c r="L2" s="267" t="s">
         <v>224</v>
       </c>
-      <c r="M2" s="262"/>
-      <c r="N2" s="158" t="s">
+      <c r="M2" s="268"/>
+      <c r="N2" s="157" t="s">
         <v>87</v>
       </c>
       <c r="O2" s="110" t="s">
@@ -11734,48 +13021,48 @@
       </c>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="264"/>
-      <c r="C3" s="302"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="270"/>
-      <c r="F3" s="270"/>
-      <c r="G3" s="270"/>
-      <c r="H3" s="161"/>
+      <c r="B3" s="266"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="160"/>
       <c r="I3" s="117" t="s">
         <v>213</v>
       </c>
       <c r="J3" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="K3" s="159"/>
+      <c r="K3" s="158"/>
       <c r="L3" s="117" t="s">
         <v>213</v>
       </c>
       <c r="M3" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="N3" s="159"/>
+      <c r="N3" s="158"/>
       <c r="O3" s="119"/>
     </row>
     <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="151"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="162"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="161"/>
       <c r="I4" s="121"/>
       <c r="J4" s="120"/>
-      <c r="K4" s="147" t="s">
+      <c r="K4" s="146" t="s">
         <v>327</v>
       </c>
-      <c r="L4" s="151">
+      <c r="L4" s="150">
         <v>323</v>
       </c>
-      <c r="M4" s="153">
+      <c r="M4" s="152">
         <v>153</v>
       </c>
       <c r="N4" s="115" t="s">
@@ -11787,34 +13074,34 @@
       <c r="B5" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="295" t="s">
+      <c r="C5" s="245" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="265">
+      <c r="D5" s="275">
         <v>3</v>
       </c>
-      <c r="E5" s="299"/>
-      <c r="F5" s="271"/>
-      <c r="G5" s="267" t="s">
+      <c r="E5" s="251"/>
+      <c r="F5" s="279"/>
+      <c r="G5" s="277" t="s">
         <v>239</v>
       </c>
-      <c r="H5" s="163">
+      <c r="H5" s="162">
         <f>22.1+16</f>
         <v>38.1</v>
       </c>
-      <c r="I5" s="167">
+      <c r="I5" s="166">
         <f>273.15-193.127</f>
         <v>80.022999999999968</v>
       </c>
-      <c r="J5" s="168">
+      <c r="J5" s="167">
         <f>273.15-193.1314</f>
         <v>80.018599999999964</v>
       </c>
-      <c r="K5" s="146"/>
-      <c r="L5" s="150">
+      <c r="K5" s="145"/>
+      <c r="L5" s="149">
         <v>100</v>
       </c>
-      <c r="M5" s="152">
+      <c r="M5" s="151">
         <v>60</v>
       </c>
       <c r="N5" s="116" t="s">
@@ -11828,23 +13115,23 @@
       <c r="B6" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="296"/>
-      <c r="D6" s="266"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="272"/>
-      <c r="G6" s="268"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="165">
+      <c r="C6" s="246"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="252"/>
+      <c r="F6" s="280"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="164">
         <f>273.15-193.1242</f>
         <v>80.025799999999975</v>
       </c>
-      <c r="J6" s="166">
+      <c r="J6" s="165">
         <f>273.15-193.129</f>
         <v>80.020999999999987</v>
       </c>
-      <c r="K6" s="147"/>
-      <c r="L6" s="151"/>
-      <c r="M6" s="153"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="152"/>
       <c r="N6" s="115"/>
       <c r="O6" s="114"/>
     </row>
@@ -11878,7 +13165,7 @@
       <c r="K11" t="s">
         <v>295</v>
       </c>
-      <c r="L11" s="218">
+      <c r="L11" s="217">
         <f>(0.042)^2*PI()*0.071</f>
         <v>3.9346563030620004E-4</v>
       </c>
@@ -11897,7 +13184,7 @@
         <v>240</v>
       </c>
       <c r="C13" s="107"/>
-      <c r="O13" s="217"/>
+      <c r="O13" s="216"/>
       <c r="S13" t="s">
         <v>241</v>
       </c>
@@ -11921,217 +13208,217 @@
       <c r="C15" s="107"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="156" t="s">
         <v>248</v>
       </c>
-      <c r="C18" s="157"/>
+      <c r="C18" s="156"/>
     </row>
     <row r="19" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="263" t="s">
+      <c r="B20" s="265" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="301" t="s">
+      <c r="C20" s="253" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="303" t="s">
+      <c r="D20" s="255" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="169"/>
-      <c r="F20" s="269" t="s">
+      <c r="E20" s="168"/>
+      <c r="F20" s="249" t="s">
         <v>208</v>
       </c>
-      <c r="G20" s="269" t="s">
+      <c r="G20" s="249" t="s">
         <v>249</v>
       </c>
-      <c r="H20" s="275" t="s">
+      <c r="H20" s="283" t="s">
         <v>250</v>
       </c>
-      <c r="I20" s="158" t="s">
+      <c r="I20" s="157" t="s">
         <v>251</v>
       </c>
-      <c r="J20" s="261" t="s">
+      <c r="J20" s="267" t="s">
         <v>253</v>
       </c>
-      <c r="K20" s="293"/>
-      <c r="L20" s="262"/>
-      <c r="M20" s="254" t="s">
+      <c r="K20" s="292"/>
+      <c r="L20" s="268"/>
+      <c r="M20" s="293" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="281" t="s">
+      <c r="N20" s="260" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="264"/>
-      <c r="C21" s="302"/>
-      <c r="D21" s="304"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="270"/>
-      <c r="G21" s="270"/>
-      <c r="H21" s="276"/>
-      <c r="I21" s="159"/>
+      <c r="B21" s="266"/>
+      <c r="C21" s="254"/>
+      <c r="D21" s="256"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="250"/>
+      <c r="G21" s="250"/>
+      <c r="H21" s="284"/>
+      <c r="I21" s="158"/>
       <c r="J21" s="117" t="s">
         <v>145</v>
       </c>
       <c r="K21" s="118" t="s">
         <v>146</v>
       </c>
-      <c r="L21" s="156" t="s">
+      <c r="L21" s="155" t="s">
         <v>252</v>
       </c>
       <c r="M21" s="294"/>
-      <c r="N21" s="282"/>
+      <c r="N21" s="289"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="297" t="s">
+      <c r="C22" s="247" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="265">
+      <c r="D22" s="275">
         <v>4</v>
       </c>
-      <c r="E22" s="171"/>
-      <c r="F22" s="265" t="s">
+      <c r="E22" s="170"/>
+      <c r="F22" s="275" t="s">
         <v>209</v>
       </c>
-      <c r="G22" s="283">
+      <c r="G22" s="290">
         <v>22.1</v>
       </c>
-      <c r="H22" s="154">
+      <c r="H22" s="153">
         <v>2</v>
       </c>
       <c r="I22" s="116"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="152"/>
+      <c r="J22" s="149"/>
+      <c r="K22" s="151"/>
       <c r="L22" s="116"/>
       <c r="M22" s="116"/>
-      <c r="N22" s="273"/>
+      <c r="N22" s="281"/>
     </row>
     <row r="23" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="C23" s="298"/>
-      <c r="D23" s="266"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="266"/>
-      <c r="G23" s="284"/>
-      <c r="H23" s="155"/>
+      <c r="C23" s="248"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="276"/>
+      <c r="G23" s="291"/>
+      <c r="H23" s="154"/>
       <c r="I23" s="115"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="153"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="152"/>
       <c r="L23" s="115"/>
       <c r="M23" s="115"/>
-      <c r="N23" s="274"/>
+      <c r="N23" s="282"/>
     </row>
     <row r="24" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="295" t="s">
+      <c r="C24" s="245" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="265">
+      <c r="D24" s="275">
         <v>3</v>
       </c>
-      <c r="E24" s="171"/>
-      <c r="F24" s="277" t="s">
+      <c r="E24" s="170"/>
+      <c r="F24" s="285" t="s">
         <v>239</v>
       </c>
-      <c r="G24" s="279">
+      <c r="G24" s="287">
         <f>22.1+16</f>
         <v>38.1</v>
       </c>
-      <c r="H24" s="148">
+      <c r="H24" s="147">
         <v>2</v>
       </c>
       <c r="I24" s="116"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="152"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="151"/>
       <c r="L24" s="116"/>
       <c r="M24" s="116"/>
-      <c r="N24" s="273"/>
+      <c r="N24" s="281"/>
     </row>
     <row r="25" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="C25" s="296"/>
-      <c r="D25" s="266"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="278"/>
-      <c r="G25" s="280"/>
-      <c r="H25" s="149"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="276"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="286"/>
+      <c r="G25" s="288"/>
+      <c r="H25" s="148"/>
       <c r="I25" s="115"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="153"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="152"/>
       <c r="L25" s="115"/>
       <c r="M25" s="115"/>
-      <c r="N25" s="274"/>
+      <c r="N25" s="282"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="157" t="s">
+      <c r="B29" s="156" t="s">
         <v>254</v>
       </c>
-      <c r="C29" s="157"/>
+      <c r="C29" s="156"/>
     </row>
     <row r="31" spans="2:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="2:22" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="263" t="s">
+      <c r="B32" s="265" t="s">
         <v>257</v>
       </c>
-      <c r="C32" s="281" t="s">
+      <c r="C32" s="260" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="263" t="s">
+      <c r="D32" s="265" t="s">
         <v>203</v>
       </c>
-      <c r="E32" s="259" t="s">
+      <c r="E32" s="273" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="260"/>
-      <c r="G32" s="261" t="s">
+      <c r="F32" s="274"/>
+      <c r="G32" s="267" t="s">
         <v>260</v>
       </c>
-      <c r="H32" s="262"/>
-      <c r="I32" s="259" t="s">
+      <c r="H32" s="268"/>
+      <c r="I32" s="273" t="s">
         <v>255</v>
       </c>
-      <c r="J32" s="260"/>
-      <c r="K32" s="261" t="s">
+      <c r="J32" s="274"/>
+      <c r="K32" s="267" t="s">
         <v>261</v>
       </c>
-      <c r="L32" s="262"/>
-      <c r="M32" s="259" t="s">
+      <c r="L32" s="268"/>
+      <c r="M32" s="273" t="s">
         <v>256</v>
       </c>
-      <c r="N32" s="260"/>
-      <c r="O32" s="261" t="s">
+      <c r="N32" s="274"/>
+      <c r="O32" s="267" t="s">
         <v>262</v>
       </c>
-      <c r="P32" s="262"/>
-      <c r="Q32" s="261" t="s">
+      <c r="P32" s="268"/>
+      <c r="Q32" s="267" t="s">
         <v>263</v>
       </c>
-      <c r="R32" s="262"/>
-      <c r="S32" s="261" t="s">
+      <c r="R32" s="268"/>
+      <c r="S32" s="267" t="s">
         <v>264</v>
       </c>
-      <c r="T32" s="262"/>
-      <c r="U32" s="281" t="s">
+      <c r="T32" s="268"/>
+      <c r="U32" s="260" t="s">
         <v>87</v>
       </c>
-      <c r="V32" s="281" t="s">
+      <c r="V32" s="260" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="33" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="264"/>
-      <c r="C33" s="288"/>
-      <c r="D33" s="264"/>
+      <c r="B33" s="266"/>
+      <c r="C33" s="261"/>
+      <c r="D33" s="266"/>
       <c r="E33" s="117" t="s">
         <v>213</v>
       </c>
@@ -12180,243 +13467,243 @@
       <c r="T33" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="U33" s="288"/>
-      <c r="V33" s="288"/>
+      <c r="U33" s="261"/>
+      <c r="V33" s="261"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B34" s="285" t="s">
+      <c r="B34" s="257" t="s">
         <v>258</v>
       </c>
-      <c r="C34" s="289" t="s">
+      <c r="C34" s="262" t="s">
         <v>205</v>
       </c>
-      <c r="D34" s="177" t="s">
+      <c r="D34" s="176" t="s">
         <v>221</v>
       </c>
-      <c r="E34" s="178"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="258" t="e">
+      <c r="E34" s="177"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="270" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H34" s="258" t="e">
+      <c r="H34" s="270" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I34" s="178"/>
-      <c r="J34" s="179"/>
-      <c r="K34" s="258"/>
-      <c r="L34" s="258"/>
-      <c r="M34" s="178"/>
-      <c r="N34" s="179"/>
-      <c r="O34" s="258"/>
-      <c r="P34" s="258"/>
-      <c r="Q34" s="178"/>
-      <c r="R34" s="179"/>
-      <c r="S34" s="258"/>
-      <c r="T34" s="258"/>
-      <c r="U34" s="178"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="178"/>
+      <c r="K34" s="270"/>
+      <c r="L34" s="270"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="178"/>
+      <c r="O34" s="270"/>
+      <c r="P34" s="270"/>
+      <c r="Q34" s="177"/>
+      <c r="R34" s="178"/>
+      <c r="S34" s="270"/>
+      <c r="T34" s="270"/>
+      <c r="U34" s="177"/>
       <c r="V34" s="111"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B35" s="286"/>
-      <c r="C35" s="290"/>
-      <c r="D35" s="173" t="s">
+      <c r="B35" s="258"/>
+      <c r="C35" s="263"/>
+      <c r="D35" s="172" t="s">
         <v>222</v>
       </c>
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="256"/>
-      <c r="H35" s="256"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="256"/>
-      <c r="L35" s="256"/>
-      <c r="M35" s="175"/>
-      <c r="N35" s="175"/>
-      <c r="O35" s="256"/>
-      <c r="P35" s="256"/>
-      <c r="Q35" s="175"/>
-      <c r="R35" s="175"/>
-      <c r="S35" s="256"/>
-      <c r="T35" s="256"/>
-      <c r="U35" s="174"/>
-      <c r="V35" s="180"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="271"/>
+      <c r="H35" s="271"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="174"/>
+      <c r="K35" s="271"/>
+      <c r="L35" s="271"/>
+      <c r="M35" s="174"/>
+      <c r="N35" s="174"/>
+      <c r="O35" s="271"/>
+      <c r="P35" s="271"/>
+      <c r="Q35" s="174"/>
+      <c r="R35" s="174"/>
+      <c r="S35" s="271"/>
+      <c r="T35" s="271"/>
+      <c r="U35" s="173"/>
+      <c r="V35" s="179"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B36" s="286"/>
-      <c r="C36" s="291" t="s">
+      <c r="B36" s="258"/>
+      <c r="C36" s="264" t="s">
         <v>265</v>
       </c>
-      <c r="D36" s="173" t="s">
+      <c r="D36" s="172" t="s">
         <v>221</v>
       </c>
-      <c r="E36" s="174"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="256">
+      <c r="E36" s="173"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="271">
         <f>L5</f>
         <v>100</v>
       </c>
-      <c r="H36" s="256">
+      <c r="H36" s="271">
         <f>M5</f>
         <v>60</v>
       </c>
-      <c r="I36" s="174"/>
-      <c r="J36" s="174"/>
-      <c r="K36" s="256"/>
-      <c r="L36" s="256"/>
-      <c r="M36" s="174"/>
-      <c r="N36" s="174"/>
-      <c r="O36" s="256"/>
-      <c r="P36" s="256"/>
-      <c r="Q36" s="174"/>
-      <c r="R36" s="174"/>
-      <c r="S36" s="256"/>
-      <c r="T36" s="256"/>
-      <c r="U36" s="174"/>
-      <c r="V36" s="180"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="173"/>
+      <c r="K36" s="271"/>
+      <c r="L36" s="271"/>
+      <c r="M36" s="173"/>
+      <c r="N36" s="173"/>
+      <c r="O36" s="271"/>
+      <c r="P36" s="271"/>
+      <c r="Q36" s="173"/>
+      <c r="R36" s="173"/>
+      <c r="S36" s="271"/>
+      <c r="T36" s="271"/>
+      <c r="U36" s="173"/>
+      <c r="V36" s="179"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B37" s="286"/>
-      <c r="C37" s="291"/>
-      <c r="D37" s="173" t="s">
+      <c r="B37" s="258"/>
+      <c r="C37" s="264"/>
+      <c r="D37" s="172" t="s">
         <v>222</v>
       </c>
-      <c r="E37" s="174"/>
-      <c r="F37" s="174"/>
-      <c r="G37" s="256"/>
-      <c r="H37" s="256"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="174"/>
-      <c r="K37" s="256"/>
-      <c r="L37" s="256"/>
-      <c r="M37" s="174"/>
-      <c r="N37" s="174"/>
-      <c r="O37" s="256"/>
-      <c r="P37" s="256"/>
-      <c r="Q37" s="174"/>
-      <c r="R37" s="174"/>
-      <c r="S37" s="256"/>
-      <c r="T37" s="256"/>
-      <c r="U37" s="174"/>
-      <c r="V37" s="180"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="271"/>
+      <c r="H37" s="271"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="173"/>
+      <c r="K37" s="271"/>
+      <c r="L37" s="271"/>
+      <c r="M37" s="173"/>
+      <c r="N37" s="173"/>
+      <c r="O37" s="271"/>
+      <c r="P37" s="271"/>
+      <c r="Q37" s="173"/>
+      <c r="R37" s="173"/>
+      <c r="S37" s="271"/>
+      <c r="T37" s="271"/>
+      <c r="U37" s="173"/>
+      <c r="V37" s="179"/>
     </row>
     <row r="38" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="286" t="s">
+      <c r="B38" s="258" t="s">
         <v>259</v>
       </c>
-      <c r="C38" s="290" t="s">
+      <c r="C38" s="263" t="s">
         <v>205</v>
       </c>
-      <c r="D38" s="173" t="s">
+      <c r="D38" s="172" t="s">
         <v>221</v>
       </c>
-      <c r="E38" s="174"/>
-      <c r="F38" s="175"/>
-      <c r="G38" s="256" t="e">
+      <c r="E38" s="173"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="271" t="e">
         <f>G34</f>
         <v>#REF!</v>
       </c>
-      <c r="H38" s="256" t="e">
+      <c r="H38" s="271" t="e">
         <f>H34</f>
         <v>#REF!</v>
       </c>
-      <c r="I38" s="174"/>
-      <c r="J38" s="175"/>
-      <c r="K38" s="256"/>
-      <c r="L38" s="256"/>
-      <c r="M38" s="174"/>
-      <c r="N38" s="175"/>
-      <c r="O38" s="256"/>
-      <c r="P38" s="256"/>
-      <c r="Q38" s="174"/>
-      <c r="R38" s="175"/>
-      <c r="S38" s="256"/>
-      <c r="T38" s="256"/>
-      <c r="U38" s="174"/>
-      <c r="V38" s="180"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="174"/>
+      <c r="K38" s="271"/>
+      <c r="L38" s="271"/>
+      <c r="M38" s="173"/>
+      <c r="N38" s="174"/>
+      <c r="O38" s="271"/>
+      <c r="P38" s="271"/>
+      <c r="Q38" s="173"/>
+      <c r="R38" s="174"/>
+      <c r="S38" s="271"/>
+      <c r="T38" s="271"/>
+      <c r="U38" s="173"/>
+      <c r="V38" s="179"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B39" s="286"/>
-      <c r="C39" s="290"/>
-      <c r="D39" s="173" t="s">
+      <c r="B39" s="258"/>
+      <c r="C39" s="263"/>
+      <c r="D39" s="172" t="s">
         <v>222</v>
       </c>
-      <c r="E39" s="175"/>
-      <c r="F39" s="175"/>
-      <c r="G39" s="256"/>
-      <c r="H39" s="256"/>
-      <c r="I39" s="175"/>
-      <c r="J39" s="175"/>
-      <c r="K39" s="256"/>
-      <c r="L39" s="256"/>
-      <c r="M39" s="175"/>
-      <c r="N39" s="175"/>
-      <c r="O39" s="256"/>
-      <c r="P39" s="256"/>
-      <c r="Q39" s="175"/>
-      <c r="R39" s="175"/>
-      <c r="S39" s="256"/>
-      <c r="T39" s="256"/>
-      <c r="U39" s="174"/>
-      <c r="V39" s="180"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="271"/>
+      <c r="H39" s="271"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="174"/>
+      <c r="K39" s="271"/>
+      <c r="L39" s="271"/>
+      <c r="M39" s="174"/>
+      <c r="N39" s="174"/>
+      <c r="O39" s="271"/>
+      <c r="P39" s="271"/>
+      <c r="Q39" s="174"/>
+      <c r="R39" s="174"/>
+      <c r="S39" s="271"/>
+      <c r="T39" s="271"/>
+      <c r="U39" s="173"/>
+      <c r="V39" s="179"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B40" s="286"/>
-      <c r="C40" s="291" t="s">
+      <c r="B40" s="258"/>
+      <c r="C40" s="264" t="s">
         <v>265</v>
       </c>
-      <c r="D40" s="173" t="s">
+      <c r="D40" s="172" t="s">
         <v>221</v>
       </c>
-      <c r="E40" s="174"/>
-      <c r="F40" s="174"/>
-      <c r="G40" s="256">
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="271">
         <f>G36</f>
         <v>100</v>
       </c>
-      <c r="H40" s="256">
+      <c r="H40" s="271">
         <f>H36</f>
         <v>60</v>
       </c>
-      <c r="I40" s="174"/>
-      <c r="J40" s="174"/>
-      <c r="K40" s="256"/>
-      <c r="L40" s="256"/>
-      <c r="M40" s="174"/>
-      <c r="N40" s="174"/>
-      <c r="O40" s="256"/>
-      <c r="P40" s="256"/>
-      <c r="Q40" s="174"/>
-      <c r="R40" s="174"/>
-      <c r="S40" s="256"/>
-      <c r="T40" s="256"/>
-      <c r="U40" s="174"/>
-      <c r="V40" s="180"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="173"/>
+      <c r="K40" s="271"/>
+      <c r="L40" s="271"/>
+      <c r="M40" s="173"/>
+      <c r="N40" s="173"/>
+      <c r="O40" s="271"/>
+      <c r="P40" s="271"/>
+      <c r="Q40" s="173"/>
+      <c r="R40" s="173"/>
+      <c r="S40" s="271"/>
+      <c r="T40" s="271"/>
+      <c r="U40" s="173"/>
+      <c r="V40" s="179"/>
     </row>
     <row r="41" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="287"/>
-      <c r="C41" s="292"/>
-      <c r="D41" s="181" t="s">
+      <c r="B41" s="259"/>
+      <c r="C41" s="269"/>
+      <c r="D41" s="180" t="s">
         <v>222</v>
       </c>
-      <c r="E41" s="182"/>
-      <c r="F41" s="182"/>
-      <c r="G41" s="257"/>
-      <c r="H41" s="257"/>
-      <c r="I41" s="182"/>
-      <c r="J41" s="182"/>
-      <c r="K41" s="257"/>
-      <c r="L41" s="257"/>
-      <c r="M41" s="182"/>
-      <c r="N41" s="182"/>
-      <c r="O41" s="257"/>
-      <c r="P41" s="257"/>
-      <c r="Q41" s="182"/>
-      <c r="R41" s="182"/>
-      <c r="S41" s="257"/>
-      <c r="T41" s="257"/>
-      <c r="U41" s="182"/>
+      <c r="E41" s="181"/>
+      <c r="F41" s="181"/>
+      <c r="G41" s="272"/>
+      <c r="H41" s="272"/>
+      <c r="I41" s="181"/>
+      <c r="J41" s="181"/>
+      <c r="K41" s="272"/>
+      <c r="L41" s="272"/>
+      <c r="M41" s="181"/>
+      <c r="N41" s="181"/>
+      <c r="O41" s="272"/>
+      <c r="P41" s="272"/>
+      <c r="Q41" s="181"/>
+      <c r="R41" s="181"/>
+      <c r="S41" s="272"/>
+      <c r="T41" s="272"/>
+      <c r="U41" s="181"/>
       <c r="V41" s="112"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.3">
@@ -12426,272 +13713,272 @@
     </row>
     <row r="45" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="252" t="s">
+      <c r="B46" s="298" t="s">
         <v>257</v>
       </c>
-      <c r="C46" s="254" t="s">
+      <c r="C46" s="293" t="s">
         <v>204</v>
       </c>
-      <c r="D46" s="247" t="s">
+      <c r="D46" s="295" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="248"/>
-      <c r="F46" s="247" t="s">
+      <c r="E46" s="296"/>
+      <c r="F46" s="295" t="s">
         <v>146</v>
       </c>
-      <c r="G46" s="248"/>
-      <c r="H46" s="249" t="s">
+      <c r="G46" s="296"/>
+      <c r="H46" s="297" t="s">
         <v>252</v>
       </c>
-      <c r="I46" s="249"/>
-      <c r="J46" s="247" t="s">
+      <c r="I46" s="297"/>
+      <c r="J46" s="295" t="s">
         <v>110</v>
       </c>
-      <c r="K46" s="248"/>
-      <c r="L46" s="247" t="s">
+      <c r="K46" s="296"/>
+      <c r="L46" s="295" t="s">
         <v>279</v>
       </c>
-      <c r="M46" s="249"/>
-      <c r="N46" s="249" t="s">
+      <c r="M46" s="297"/>
+      <c r="N46" s="297" t="s">
         <v>280</v>
       </c>
-      <c r="O46" s="248"/>
+      <c r="O46" s="296"/>
     </row>
     <row r="47" spans="2:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="253"/>
-      <c r="C47" s="255"/>
-      <c r="D47" s="196" t="s">
+      <c r="B47" s="299"/>
+      <c r="C47" s="300"/>
+      <c r="D47" s="195" t="s">
         <v>278</v>
       </c>
-      <c r="E47" s="202" t="s">
+      <c r="E47" s="201" t="s">
         <v>277</v>
       </c>
-      <c r="F47" s="196" t="s">
+      <c r="F47" s="195" t="s">
         <v>278</v>
       </c>
-      <c r="G47" s="202" t="s">
+      <c r="G47" s="201" t="s">
         <v>277</v>
       </c>
-      <c r="H47" s="193" t="s">
+      <c r="H47" s="192" t="s">
         <v>278</v>
       </c>
-      <c r="I47" s="193" t="s">
+      <c r="I47" s="192" t="s">
         <v>277</v>
       </c>
-      <c r="J47" s="196" t="s">
+      <c r="J47" s="195" t="s">
         <v>278</v>
       </c>
-      <c r="K47" s="202" t="s">
+      <c r="K47" s="201" t="s">
         <v>277</v>
       </c>
-      <c r="L47" s="196" t="s">
+      <c r="L47" s="195" t="s">
         <v>278</v>
       </c>
-      <c r="M47" s="193" t="s">
+      <c r="M47" s="192" t="s">
         <v>277</v>
       </c>
-      <c r="N47" s="193" t="s">
+      <c r="N47" s="192" t="s">
         <v>278</v>
       </c>
-      <c r="O47" s="197" t="s">
+      <c r="O47" s="196" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="48" spans="2:22" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="231" t="s">
+      <c r="B48" s="310" t="s">
         <v>258</v>
       </c>
-      <c r="C48" s="198" t="s">
+      <c r="C48" s="197" t="s">
         <v>205</v>
       </c>
-      <c r="D48" s="241" t="s">
+      <c r="D48" s="301" t="s">
         <v>281</v>
       </c>
-      <c r="E48" s="244" t="s">
+      <c r="E48" s="304" t="s">
         <v>296</v>
       </c>
-      <c r="F48" s="241" t="s">
+      <c r="F48" s="301" t="s">
         <v>281</v>
       </c>
-      <c r="G48" s="244" t="s">
+      <c r="G48" s="304" t="s">
         <v>297</v>
       </c>
-      <c r="H48" s="241" t="s">
+      <c r="H48" s="301" t="s">
         <v>281</v>
       </c>
-      <c r="I48" s="244" t="s">
+      <c r="I48" s="304" t="s">
         <v>298</v>
       </c>
-      <c r="J48" s="241" t="s">
+      <c r="J48" s="301" t="s">
         <v>281</v>
       </c>
-      <c r="K48" s="244" t="s">
+      <c r="K48" s="304" t="s">
         <v>299</v>
       </c>
-      <c r="L48" s="235" t="s">
+      <c r="L48" s="314" t="s">
         <v>209</v>
       </c>
-      <c r="M48" s="236"/>
-      <c r="N48" s="236"/>
-      <c r="O48" s="237"/>
+      <c r="M48" s="315"/>
+      <c r="N48" s="315"/>
+      <c r="O48" s="316"/>
     </row>
     <row r="49" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B49" s="232"/>
-      <c r="C49" s="199" t="s">
+      <c r="B49" s="311"/>
+      <c r="C49" s="198" t="s">
         <v>265</v>
       </c>
-      <c r="D49" s="242"/>
+      <c r="D49" s="302"/>
       <c r="E49" s="305"/>
-      <c r="F49" s="242"/>
+      <c r="F49" s="302"/>
       <c r="G49" s="305"/>
-      <c r="H49" s="242"/>
+      <c r="H49" s="302"/>
       <c r="I49" s="305"/>
-      <c r="J49" s="242"/>
+      <c r="J49" s="302"/>
       <c r="K49" s="305"/>
-      <c r="L49" s="201"/>
-      <c r="M49" s="189"/>
-      <c r="N49" s="201" t="s">
+      <c r="L49" s="200"/>
+      <c r="M49" s="188"/>
+      <c r="N49" s="200" t="s">
         <v>281</v>
       </c>
-      <c r="O49" s="194" t="s">
+      <c r="O49" s="193" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="50" spans="2:15" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="233" t="s">
+      <c r="B50" s="312" t="s">
         <v>259</v>
       </c>
-      <c r="C50" s="199" t="s">
+      <c r="C50" s="198" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="242"/>
-      <c r="E50" s="245" t="s">
+      <c r="D50" s="302"/>
+      <c r="E50" s="306" t="s">
         <v>300</v>
       </c>
-      <c r="F50" s="242"/>
-      <c r="G50" s="245" t="s">
+      <c r="F50" s="302"/>
+      <c r="G50" s="306" t="s">
         <v>300</v>
       </c>
-      <c r="H50" s="242"/>
-      <c r="I50" s="245" t="s">
+      <c r="H50" s="302"/>
+      <c r="I50" s="306" t="s">
         <v>301</v>
       </c>
-      <c r="J50" s="242"/>
-      <c r="K50" s="245" t="s">
+      <c r="J50" s="302"/>
+      <c r="K50" s="306" t="s">
         <v>300</v>
       </c>
-      <c r="L50" s="238" t="s">
+      <c r="L50" s="317" t="s">
         <v>209</v>
       </c>
-      <c r="M50" s="239"/>
-      <c r="N50" s="239"/>
-      <c r="O50" s="240"/>
+      <c r="M50" s="318"/>
+      <c r="N50" s="318"/>
+      <c r="O50" s="319"/>
     </row>
     <row r="51" spans="2:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="234"/>
-      <c r="C51" s="200" t="s">
+      <c r="B51" s="313"/>
+      <c r="C51" s="199" t="s">
         <v>265</v>
       </c>
-      <c r="D51" s="243"/>
-      <c r="E51" s="246"/>
-      <c r="F51" s="243"/>
-      <c r="G51" s="246"/>
-      <c r="H51" s="243"/>
-      <c r="I51" s="246"/>
-      <c r="J51" s="243"/>
-      <c r="K51" s="246"/>
-      <c r="L51" s="201" t="s">
+      <c r="D51" s="303"/>
+      <c r="E51" s="307"/>
+      <c r="F51" s="303"/>
+      <c r="G51" s="307"/>
+      <c r="H51" s="303"/>
+      <c r="I51" s="307"/>
+      <c r="J51" s="303"/>
+      <c r="K51" s="307"/>
+      <c r="L51" s="200" t="s">
         <v>302</v>
       </c>
-      <c r="M51" s="190" t="s">
+      <c r="M51" s="189" t="s">
         <v>303</v>
       </c>
-      <c r="N51" s="201" t="s">
+      <c r="N51" s="200" t="s">
         <v>281</v>
       </c>
-      <c r="O51" s="195" t="s">
+      <c r="O51" s="194" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D52" s="187"/>
+      <c r="D52" s="186"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D53" s="187"/>
+      <c r="D53" s="186"/>
     </row>
     <row r="54" spans="2:15" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D54" s="187"/>
+      <c r="D54" s="186"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="229" t="s">
+      <c r="B55" s="308" t="s">
         <v>293</v>
       </c>
-      <c r="C55" s="250" t="s">
+      <c r="C55" s="242" t="s">
         <v>292</v>
       </c>
-      <c r="D55" s="251"/>
+      <c r="D55" s="243"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="230"/>
+      <c r="B56" s="309"/>
       <c r="C56" s="106" t="s">
         <v>284</v>
       </c>
-      <c r="D56" s="208" t="s">
+      <c r="D56" s="207" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B57" s="209" t="s">
+      <c r="B57" s="208" t="s">
         <v>145</v>
       </c>
-      <c r="C57" s="213">
+      <c r="C57" s="212">
         <v>2</v>
       </c>
-      <c r="D57" s="180">
+      <c r="D57" s="179">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B58" s="209" t="s">
+      <c r="B58" s="208" t="s">
         <v>146</v>
       </c>
-      <c r="C58" s="174">
+      <c r="C58" s="173">
         <v>4</v>
       </c>
-      <c r="D58" s="180">
+      <c r="D58" s="179">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B59" s="209" t="s">
+      <c r="B59" s="208" t="s">
         <v>252</v>
       </c>
-      <c r="C59" s="174">
+      <c r="C59" s="173">
         <v>16</v>
       </c>
-      <c r="D59" s="180">
+      <c r="D59" s="179">
         <v>16</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B60" s="209" t="s">
+      <c r="B60" s="208" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="174">
+      <c r="C60" s="173">
         <v>0.1</v>
       </c>
-      <c r="D60" s="180">
+      <c r="D60" s="179">
         <v>0.1</v>
       </c>
     </row>
     <row r="61" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="210" t="s">
+      <c r="B61" s="209" t="s">
         <v>280</v>
       </c>
-      <c r="C61" s="182">
+      <c r="C61" s="181">
         <v>0</v>
       </c>
       <c r="D61" s="112">
@@ -12704,14 +13991,14 @@
       <c r="D62" s="46"/>
     </row>
     <row r="63" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="211" t="s">
+      <c r="B63" s="210" t="s">
         <v>285</v>
       </c>
-      <c r="C63" s="188">
+      <c r="C63" s="187">
         <f>SUM(C57:C61)</f>
         <v>22.1</v>
       </c>
-      <c r="D63" s="212">
+      <c r="D63" s="211">
         <f>SUM(D57:D61)</f>
         <v>38.1</v>
       </c>
@@ -12723,66 +14010,66 @@
     </row>
     <row r="67" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="2:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B68" s="203" t="s">
+      <c r="B68" s="202" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="204" t="s">
+      <c r="C68" s="203" t="s">
         <v>289</v>
       </c>
-      <c r="D68" s="204" t="s">
+      <c r="D68" s="203" t="s">
         <v>290</v>
       </c>
-      <c r="E68" s="204" t="s">
+      <c r="E68" s="203" t="s">
         <v>287</v>
       </c>
-      <c r="F68" s="204" t="s">
+      <c r="F68" s="203" t="s">
         <v>288</v>
       </c>
-      <c r="G68" s="205" t="s">
+      <c r="G68" s="204" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="69" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B69" s="191" t="s">
+      <c r="B69" s="190" t="s">
         <v>205</v>
       </c>
-      <c r="C69" s="206">
+      <c r="C69" s="205">
         <v>602.66999999999996</v>
       </c>
-      <c r="D69" s="206">
+      <c r="D69" s="205">
         <f>0.7*0.3</f>
         <v>0.21</v>
       </c>
-      <c r="E69" s="206">
+      <c r="E69" s="205">
         <v>0.25</v>
       </c>
-      <c r="F69" s="206">
+      <c r="F69" s="205">
         <v>0.7</v>
       </c>
-      <c r="G69" s="214">
+      <c r="G69" s="213">
         <f>C69*D69*E69*F69</f>
         <v>22.148122499999996</v>
       </c>
     </row>
     <row r="70" spans="2:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="192" t="s">
+      <c r="B70" s="191" t="s">
         <v>265</v>
       </c>
-      <c r="C70" s="207">
+      <c r="C70" s="206">
         <f>C69</f>
         <v>602.66999999999996</v>
       </c>
-      <c r="D70" s="216">
+      <c r="D70" s="215">
         <f>0.936*0.3</f>
         <v>0.28079999999999999</v>
       </c>
-      <c r="E70" s="207">
+      <c r="E70" s="206">
         <v>0.25</v>
       </c>
-      <c r="F70" s="207">
+      <c r="F70" s="206">
         <v>0.9</v>
       </c>
-      <c r="G70" s="215">
+      <c r="G70" s="214">
         <f>C70*D70*E70*F70</f>
         <v>38.076690599999992</v>
       </c>
@@ -12794,215 +14081,215 @@
     </row>
     <row r="74" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="310" t="s">
+      <c r="B75" s="239" t="s">
         <v>311</v>
       </c>
-      <c r="C75" s="250" t="s">
+      <c r="C75" s="242" t="s">
         <v>310</v>
       </c>
-      <c r="D75" s="311" t="s">
+      <c r="D75" s="238" t="s">
         <v>322</v>
       </c>
-      <c r="E75" s="311" t="s">
+      <c r="E75" s="238" t="s">
         <v>336</v>
       </c>
-      <c r="F75" s="311" t="s">
+      <c r="F75" s="238" t="s">
         <v>314</v>
       </c>
-      <c r="G75" s="311"/>
-      <c r="H75" s="250" t="s">
+      <c r="G75" s="238"/>
+      <c r="H75" s="242" t="s">
         <v>315</v>
       </c>
-      <c r="I75" s="251" t="s">
+      <c r="I75" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="N75" s="317"/>
-      <c r="O75" s="317"/>
-      <c r="P75" s="317"/>
-      <c r="Q75" s="317"/>
-      <c r="R75" s="317"/>
-      <c r="S75" s="317"/>
-      <c r="T75" s="317"/>
-      <c r="U75" s="317"/>
+      <c r="N75" s="237"/>
+      <c r="O75" s="237"/>
+      <c r="P75" s="237"/>
+      <c r="Q75" s="237"/>
+      <c r="R75" s="237"/>
+      <c r="S75" s="237"/>
+      <c r="T75" s="237"/>
+      <c r="U75" s="237"/>
     </row>
     <row r="76" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B76" s="312"/>
-      <c r="C76" s="223"/>
-      <c r="D76" s="309"/>
-      <c r="E76" s="309"/>
-      <c r="F76" s="173" t="s">
+      <c r="B76" s="240"/>
+      <c r="C76" s="229"/>
+      <c r="D76" s="241"/>
+      <c r="E76" s="241"/>
+      <c r="F76" s="172" t="s">
         <v>214</v>
       </c>
-      <c r="G76" s="173" t="s">
+      <c r="G76" s="172" t="s">
         <v>213</v>
       </c>
-      <c r="H76" s="223"/>
-      <c r="I76" s="313"/>
-      <c r="N76" s="317"/>
-      <c r="O76" s="317"/>
-      <c r="P76" s="317"/>
-      <c r="Q76" s="317"/>
-      <c r="T76" s="317"/>
-      <c r="U76" s="317"/>
+      <c r="H76" s="229"/>
+      <c r="I76" s="244"/>
+      <c r="N76" s="237"/>
+      <c r="O76" s="237"/>
+      <c r="P76" s="237"/>
+      <c r="Q76" s="237"/>
+      <c r="T76" s="237"/>
+      <c r="U76" s="237"/>
     </row>
     <row r="77" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B77" s="209" t="s">
+      <c r="B77" s="208" t="s">
         <v>145</v>
       </c>
-      <c r="C77" s="176" t="s">
+      <c r="C77" s="175" t="s">
         <v>333</v>
       </c>
-      <c r="D77" s="176" t="s">
+      <c r="D77" s="175" t="s">
         <v>331</v>
       </c>
       <c r="E77" s="46">
         <v>2</v>
       </c>
-      <c r="F77" s="176">
+      <c r="F77" s="175">
         <f>273.15-20</f>
         <v>253.14999999999998</v>
       </c>
-      <c r="G77" s="176">
+      <c r="G77" s="175">
         <f>273.15+60</f>
         <v>333.15</v>
       </c>
-      <c r="H77" s="176" t="s">
+      <c r="H77" s="175" t="s">
         <v>209</v>
       </c>
-      <c r="I77" s="180" t="s">
+      <c r="I77" s="179" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="78" spans="2:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B78" s="209" t="s">
+      <c r="B78" s="208" t="s">
         <v>146</v>
       </c>
-      <c r="C78" s="206" t="s">
+      <c r="C78" s="205" t="s">
         <v>332</v>
       </c>
-      <c r="D78" s="176" t="s">
+      <c r="D78" s="175" t="s">
         <v>321</v>
       </c>
-      <c r="E78" s="176">
+      <c r="E78" s="175">
         <v>4</v>
       </c>
-      <c r="F78" s="176">
+      <c r="F78" s="175">
         <f>273.15-40</f>
         <v>233.14999999999998</v>
       </c>
-      <c r="G78" s="176">
+      <c r="G78" s="175">
         <f>273.15+70</f>
         <v>343.15</v>
       </c>
-      <c r="H78" s="176" t="s">
+      <c r="H78" s="175" t="s">
         <v>334</v>
       </c>
-      <c r="I78" s="180" t="s">
+      <c r="I78" s="179" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="79" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B79" s="209" t="s">
+      <c r="B79" s="208" t="s">
         <v>131</v>
       </c>
-      <c r="C79" s="176" t="s">
+      <c r="C79" s="175" t="s">
         <v>252</v>
       </c>
-      <c r="D79" s="176" t="s">
+      <c r="D79" s="175" t="s">
         <v>337</v>
       </c>
-      <c r="E79" s="176">
+      <c r="E79" s="175">
         <v>16</v>
       </c>
-      <c r="F79" s="176">
+      <c r="F79" s="175">
         <f>273.15-25</f>
         <v>248.14999999999998</v>
       </c>
-      <c r="G79" s="176">
+      <c r="G79" s="175">
         <f>273.15+65</f>
         <v>338.15</v>
       </c>
-      <c r="H79" s="176" t="s">
+      <c r="H79" s="175" t="s">
         <v>335</v>
       </c>
-      <c r="I79" s="180" t="s">
+      <c r="I79" s="179" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="80" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B80" s="209" t="s">
+      <c r="B80" s="208" t="s">
         <v>209</v>
       </c>
-      <c r="C80" s="176" t="s">
+      <c r="C80" s="175" t="s">
         <v>312</v>
       </c>
-      <c r="D80" s="176" t="s">
+      <c r="D80" s="175" t="s">
         <v>338</v>
       </c>
-      <c r="E80" s="176">
+      <c r="E80" s="175">
         <v>16</v>
       </c>
-      <c r="F80" s="176">
+      <c r="F80" s="175">
         <f>273.15-55</f>
         <v>218.14999999999998</v>
       </c>
-      <c r="G80" s="176">
+      <c r="G80" s="175">
         <f>273.15+85</f>
         <v>358.15</v>
       </c>
-      <c r="H80" s="176" t="s">
+      <c r="H80" s="175" t="s">
         <v>320</v>
       </c>
-      <c r="I80" s="180" t="s">
+      <c r="I80" s="179" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B81" s="209" t="s">
+      <c r="B81" s="208" t="s">
         <v>209</v>
       </c>
-      <c r="C81" s="176" t="s">
+      <c r="C81" s="175" t="s">
         <v>340</v>
       </c>
-      <c r="D81" s="176" t="s">
+      <c r="D81" s="175" t="s">
         <v>209</v>
       </c>
-      <c r="E81" s="176">
+      <c r="E81" s="175">
         <v>0</v>
       </c>
-      <c r="F81" s="176" t="s">
+      <c r="F81" s="175" t="s">
         <v>209</v>
       </c>
-      <c r="G81" s="176" t="s">
+      <c r="G81" s="175" t="s">
         <v>209</v>
       </c>
-      <c r="H81" s="318" t="s">
+      <c r="H81" s="225" t="s">
         <v>209</v>
       </c>
-      <c r="I81" s="180" t="s">
+      <c r="I81" s="179" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="82" spans="2:9" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="210" t="s">
+      <c r="B82" s="209" t="s">
         <v>209</v>
       </c>
-      <c r="C82" s="207" t="s">
+      <c r="C82" s="206" t="s">
         <v>313</v>
       </c>
-      <c r="D82" s="183" t="s">
+      <c r="D82" s="182" t="s">
         <v>209</v>
       </c>
-      <c r="E82" s="183">
+      <c r="E82" s="182">
         <v>0</v>
       </c>
-      <c r="F82" s="183">
+      <c r="F82" s="182">
         <v>40</v>
       </c>
-      <c r="G82" s="183">
+      <c r="G82" s="182">
         <v>350</v>
       </c>
-      <c r="H82" s="207" t="s">
+      <c r="H82" s="206" t="s">
         <v>319</v>
       </c>
       <c r="I82" s="112" t="s">
@@ -13020,10 +14307,10 @@
       <c r="I83" s="46"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B85" s="315" t="s">
+      <c r="B85" s="222" t="s">
         <v>218</v>
       </c>
-      <c r="C85" s="316" t="s">
+      <c r="C85" s="223" t="s">
         <v>339</v>
       </c>
     </row>
@@ -13031,7 +14318,7 @@
       <c r="B86" t="s">
         <v>225</v>
       </c>
-      <c r="C86" s="314" t="s">
+      <c r="C86" s="221" t="s">
         <v>309</v>
       </c>
     </row>
@@ -13039,7 +14326,7 @@
       <c r="B87" t="s">
         <v>226</v>
       </c>
-      <c r="C87" s="314" t="s">
+      <c r="C87" s="221" t="s">
         <v>308</v>
       </c>
     </row>
@@ -13047,7 +14334,7 @@
       <c r="B88" t="s">
         <v>316</v>
       </c>
-      <c r="C88" s="314" t="s">
+      <c r="C88" s="221" t="s">
         <v>241</v>
       </c>
     </row>
@@ -13071,109 +14358,14 @@
       <c r="B91" t="s">
         <v>324</v>
       </c>
-      <c r="C91" s="314" t="s">
+      <c r="C91" s="221" t="s">
         <v>325</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="Q75:Q76"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="T75:T76"/>
-    <mergeCell ref="U75:U76"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="P40:P41"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="T38:T39"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="T40:T41"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="P36:P37"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="F48:F51"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="H46:I46"/>
@@ -13198,8 +14390,103 @@
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="L48:O48"/>
     <mergeCell ref="L50:O50"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="T38:T39"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="T40:T41"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:P37"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="Q75:Q76"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="T75:T76"/>
+    <mergeCell ref="U75:U76"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="O75:O76"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C91" r:id="rId1" xr:uid="{DF4E1866-1674-46F6-84A6-B6AB76967535}"/>

--- a/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
+++ b/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESATAN-TMS\ESATAN-TMS-Models\EO_Micro_Satellite_Project\Relevant Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA14C21D-BB1F-4853-9F4D-BC962659C184}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083A3077-9AE4-4F45-922A-D2F5C3B3E6CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NODES&amp;LABELS (cnfg5)" sheetId="8" r:id="rId1"/>
@@ -2825,12 +2825,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2840,12 +2864,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2854,6 +2872,237 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2868,256 +3117,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4360,6 +4360,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>208744</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>151793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7119F9D-361F-46A0-BB11-5A2DB3B7942F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="8420100"/>
+          <a:ext cx="6447619" cy="4857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4621,6 +4665,50 @@
         <a:xfrm>
           <a:off x="11620500" y="3838575"/>
           <a:ext cx="4118097" cy="5744762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>201124</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>75593</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2234F1B6-D25E-4462-A077-47A1D509A708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="7800975"/>
+          <a:ext cx="6449524" cy="4857143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5152,7 +5240,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18:N19"/>
     </sheetView>
   </sheetViews>
@@ -5228,7 +5316,7 @@
       <c r="E4" s="20">
         <v>19999</v>
       </c>
-      <c r="F4" s="322"/>
+      <c r="F4" s="229"/>
       <c r="G4" s="46"/>
       <c r="H4" s="46"/>
       <c r="I4" s="46"/>
@@ -5267,19 +5355,19 @@
       <c r="E5" s="22">
         <v>10999</v>
       </c>
-      <c r="F5" s="322" t="s">
+      <c r="F5" s="229" t="s">
         <v>349</v>
       </c>
-      <c r="G5" s="322">
+      <c r="G5" s="229">
         <v>0.4</v>
       </c>
-      <c r="H5" s="322">
+      <c r="H5" s="229">
         <v>0.3</v>
       </c>
-      <c r="I5" s="322">
+      <c r="I5" s="229">
         <v>0.375</v>
       </c>
-      <c r="J5" s="323">
+      <c r="J5" s="230">
         <v>2E-3</v>
       </c>
       <c r="K5" s="224" t="s">
@@ -5288,7 +5376,7 @@
       <c r="L5" s="224" t="s">
         <v>354</v>
       </c>
-      <c r="M5" s="323" t="s">
+      <c r="M5" s="230" t="s">
         <v>71</v>
       </c>
       <c r="N5" s="46" t="s">
@@ -5309,28 +5397,28 @@
       <c r="E6" s="22">
         <v>11999</v>
       </c>
-      <c r="F6" s="322" t="s">
+      <c r="F6" s="229" t="s">
         <v>355</v>
       </c>
-      <c r="G6" s="322">
+      <c r="G6" s="229">
         <v>0.4</v>
       </c>
-      <c r="H6" s="322">
+      <c r="H6" s="229">
         <v>0.3</v>
       </c>
-      <c r="I6" s="322" t="s">
+      <c r="I6" s="229" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="323">
+      <c r="J6" s="230">
         <v>2E-3</v>
       </c>
-      <c r="K6" s="322" t="s">
+      <c r="K6" s="229" t="s">
         <v>356</v>
       </c>
-      <c r="L6" s="322" t="s">
+      <c r="L6" s="229" t="s">
         <v>356</v>
       </c>
-      <c r="M6" s="322" t="s">
+      <c r="M6" s="229" t="s">
         <v>79</v>
       </c>
       <c r="N6" s="46" t="s">
@@ -5351,28 +5439,28 @@
       <c r="E7" s="68">
         <v>11999</v>
       </c>
-      <c r="F7" s="322" t="s">
+      <c r="F7" s="229" t="s">
         <v>355</v>
       </c>
-      <c r="G7" s="322">
+      <c r="G7" s="229">
         <v>0.4</v>
       </c>
-      <c r="H7" s="322">
+      <c r="H7" s="229">
         <v>0.3</v>
       </c>
-      <c r="I7" s="322" t="s">
+      <c r="I7" s="229" t="s">
         <v>209</v>
       </c>
-      <c r="J7" s="323">
+      <c r="J7" s="230">
         <v>2E-3</v>
       </c>
-      <c r="K7" s="322" t="s">
+      <c r="K7" s="229" t="s">
         <v>356</v>
       </c>
-      <c r="L7" s="322" t="s">
+      <c r="L7" s="229" t="s">
         <v>356</v>
       </c>
-      <c r="M7" s="322" t="s">
+      <c r="M7" s="229" t="s">
         <v>79</v>
       </c>
       <c r="N7" s="46"/>
@@ -5403,28 +5491,28 @@
       <c r="E8" s="42">
         <v>29999</v>
       </c>
-      <c r="F8" s="322" t="s">
+      <c r="F8" s="229" t="s">
         <v>355</v>
       </c>
-      <c r="G8" s="322">
+      <c r="G8" s="229">
         <v>0.7</v>
       </c>
-      <c r="H8" s="322">
+      <c r="H8" s="229">
         <v>0.3</v>
       </c>
-      <c r="I8" s="322" t="s">
+      <c r="I8" s="229" t="s">
         <v>209</v>
       </c>
-      <c r="J8" s="323">
+      <c r="J8" s="230">
         <v>1E-3</v>
       </c>
-      <c r="K8" s="322" t="s">
+      <c r="K8" s="229" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="322" t="s">
+      <c r="L8" s="229" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="322" t="s">
+      <c r="M8" s="229" t="s">
         <v>357</v>
       </c>
       <c r="N8" s="46" t="s">
@@ -5445,14 +5533,14 @@
       <c r="E9" s="22">
         <v>20999</v>
       </c>
-      <c r="F9" s="322"/>
-      <c r="G9" s="322"/>
-      <c r="H9" s="322"/>
-      <c r="I9" s="322"/>
-      <c r="J9" s="322"/>
-      <c r="K9" s="322"/>
-      <c r="L9" s="322"/>
-      <c r="M9" s="322"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="229"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="229"/>
+      <c r="J9" s="229"/>
+      <c r="K9" s="229"/>
+      <c r="L9" s="229"/>
+      <c r="M9" s="229"/>
       <c r="N9" s="46" t="s">
         <v>90</v>
       </c>
@@ -5471,14 +5559,14 @@
       <c r="E10" s="25">
         <v>21999</v>
       </c>
-      <c r="F10" s="322"/>
-      <c r="G10" s="322"/>
-      <c r="H10" s="322"/>
-      <c r="I10" s="322"/>
-      <c r="J10" s="322"/>
-      <c r="K10" s="322"/>
-      <c r="L10" s="322"/>
-      <c r="M10" s="322"/>
+      <c r="F10" s="229"/>
+      <c r="G10" s="229"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="229"/>
+      <c r="J10" s="229"/>
+      <c r="K10" s="229"/>
+      <c r="L10" s="229"/>
+      <c r="M10" s="229"/>
       <c r="N10" s="46" t="s">
         <v>90</v>
       </c>
@@ -5506,14 +5594,14 @@
       <c r="E11" s="20">
         <v>39999</v>
       </c>
-      <c r="F11" s="322"/>
-      <c r="G11" s="322"/>
-      <c r="H11" s="322"/>
-      <c r="I11" s="322"/>
-      <c r="J11" s="322"/>
-      <c r="K11" s="322"/>
-      <c r="L11" s="322"/>
-      <c r="M11" s="322"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="229"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="229"/>
+      <c r="J11" s="229"/>
+      <c r="K11" s="229"/>
+      <c r="L11" s="229"/>
+      <c r="M11" s="229"/>
       <c r="N11" s="46" t="s">
         <v>90</v>
       </c>
@@ -5541,25 +5629,25 @@
       <c r="E12" s="22">
         <v>30999</v>
       </c>
-      <c r="F12" s="322" t="s">
+      <c r="F12" s="229" t="s">
         <v>349</v>
       </c>
-      <c r="G12" s="322">
+      <c r="G12" s="229">
         <v>0.15</v>
       </c>
-      <c r="H12" s="324">
+      <c r="H12" s="231">
         <v>0.15</v>
       </c>
-      <c r="I12" s="324">
+      <c r="I12" s="231">
         <v>0.04</v>
       </c>
-      <c r="J12" s="323">
+      <c r="J12" s="230">
         <v>2E-3</v>
       </c>
-      <c r="K12" s="322" t="s">
+      <c r="K12" s="229" t="s">
         <v>356</v>
       </c>
-      <c r="L12" s="322" t="s">
+      <c r="L12" s="229" t="s">
         <v>356</v>
       </c>
       <c r="M12" s="46" t="s">
@@ -5583,28 +5671,28 @@
       <c r="E13" s="22">
         <v>31999</v>
       </c>
-      <c r="F13" s="322" t="s">
+      <c r="F13" s="229" t="s">
         <v>358</v>
       </c>
-      <c r="G13" s="324" t="s">
+      <c r="G13" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="H13" s="324" t="s">
+      <c r="H13" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I13" s="324" t="s">
+      <c r="I13" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="J13" s="324" t="s">
+      <c r="J13" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="K13" s="324" t="s">
+      <c r="K13" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="L13" s="324" t="s">
+      <c r="L13" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="M13" s="324" t="s">
+      <c r="M13" s="231" t="s">
         <v>71</v>
       </c>
       <c r="N13" s="46" t="s">
@@ -5629,28 +5717,28 @@
       <c r="E14" s="25">
         <v>32999</v>
       </c>
-      <c r="F14" s="322" t="s">
+      <c r="F14" s="229" t="s">
         <v>358</v>
       </c>
-      <c r="G14" s="324" t="s">
+      <c r="G14" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="H14" s="324" t="s">
+      <c r="H14" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I14" s="324" t="s">
+      <c r="I14" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="J14" s="324" t="s">
+      <c r="J14" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="K14" s="324" t="s">
+      <c r="K14" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="L14" s="324" t="s">
+      <c r="L14" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="M14" s="324" t="s">
+      <c r="M14" s="231" t="s">
         <v>71</v>
       </c>
       <c r="N14" s="46" t="s">
@@ -5675,14 +5763,14 @@
       <c r="E15" s="20">
         <v>49999</v>
       </c>
-      <c r="F15" s="322"/>
-      <c r="G15" s="322"/>
-      <c r="H15" s="322"/>
-      <c r="I15" s="322"/>
-      <c r="J15" s="322"/>
-      <c r="K15" s="322"/>
-      <c r="L15" s="322"/>
-      <c r="M15" s="322"/>
+      <c r="F15" s="229"/>
+      <c r="G15" s="229"/>
+      <c r="H15" s="229"/>
+      <c r="I15" s="229"/>
+      <c r="J15" s="229"/>
+      <c r="K15" s="229"/>
+      <c r="L15" s="229"/>
+      <c r="M15" s="229"/>
       <c r="N15" s="46" t="s">
         <v>90</v>
       </c>
@@ -5701,25 +5789,25 @@
       <c r="E16" s="22">
         <v>40499</v>
       </c>
-      <c r="F16" s="324" t="s">
+      <c r="F16" s="231" t="s">
         <v>362</v>
       </c>
-      <c r="G16" s="322">
+      <c r="G16" s="229">
         <v>0.125</v>
       </c>
-      <c r="H16" s="324" t="s">
+      <c r="H16" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I16" s="324">
+      <c r="I16" s="231">
         <v>0.35</v>
       </c>
-      <c r="J16" s="323">
+      <c r="J16" s="230">
         <v>1E-3</v>
       </c>
-      <c r="K16" s="324" t="s">
+      <c r="K16" s="231" t="s">
         <v>354</v>
       </c>
-      <c r="L16" s="324" t="s">
+      <c r="L16" s="231" t="s">
         <v>354</v>
       </c>
       <c r="M16" s="46" t="s">
@@ -5743,13 +5831,13 @@
       <c r="E17" s="22">
         <v>40999</v>
       </c>
-      <c r="F17" s="322"/>
-      <c r="G17" s="322"/>
-      <c r="H17" s="322"/>
-      <c r="I17" s="322"/>
-      <c r="J17" s="322"/>
-      <c r="K17" s="322"/>
-      <c r="L17" s="322"/>
+      <c r="F17" s="229"/>
+      <c r="G17" s="229"/>
+      <c r="H17" s="229"/>
+      <c r="I17" s="229"/>
+      <c r="J17" s="229"/>
+      <c r="K17" s="229"/>
+      <c r="L17" s="229"/>
       <c r="M17" s="46"/>
       <c r="N17" s="46" t="s">
         <v>90</v>
@@ -5769,25 +5857,25 @@
       <c r="E18" s="22">
         <v>45999</v>
       </c>
-      <c r="F18" s="324" t="s">
+      <c r="F18" s="231" t="s">
         <v>359</v>
       </c>
-      <c r="G18" s="322">
+      <c r="G18" s="229">
         <v>0.125</v>
       </c>
-      <c r="H18" s="322" t="s">
+      <c r="H18" s="229" t="s">
         <v>363</v>
       </c>
-      <c r="I18" s="324" t="s">
+      <c r="I18" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="J18" s="323">
+      <c r="J18" s="230">
         <v>1E-3</v>
       </c>
-      <c r="K18" s="324" t="s">
+      <c r="K18" s="231" t="s">
         <v>356</v>
       </c>
-      <c r="L18" s="324" t="s">
+      <c r="L18" s="231" t="s">
         <v>356</v>
       </c>
       <c r="M18" s="46" t="s">
@@ -5811,25 +5899,25 @@
       <c r="E19" s="22">
         <v>41999</v>
       </c>
-      <c r="F19" s="322" t="s">
+      <c r="F19" s="229" t="s">
         <v>359</v>
       </c>
-      <c r="G19" s="322">
+      <c r="G19" s="229">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H19" s="324" t="s">
+      <c r="H19" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I19" s="324" t="s">
+      <c r="I19" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="J19" s="323">
+      <c r="J19" s="230">
         <v>1E-3</v>
       </c>
-      <c r="K19" s="322" t="s">
+      <c r="K19" s="229" t="s">
         <v>360</v>
       </c>
-      <c r="L19" s="322" t="s">
+      <c r="L19" s="229" t="s">
         <v>361</v>
       </c>
       <c r="M19" s="46" t="s">
@@ -5853,13 +5941,13 @@
       <c r="E20" s="34">
         <v>42999</v>
       </c>
-      <c r="F20" s="322"/>
-      <c r="G20" s="322"/>
-      <c r="H20" s="322"/>
-      <c r="I20" s="322"/>
-      <c r="J20" s="322"/>
-      <c r="K20" s="322"/>
-      <c r="L20" s="322"/>
+      <c r="F20" s="229"/>
+      <c r="G20" s="229"/>
+      <c r="H20" s="229"/>
+      <c r="I20" s="229"/>
+      <c r="J20" s="229"/>
+      <c r="K20" s="229"/>
+      <c r="L20" s="229"/>
       <c r="M20" s="46"/>
       <c r="N20" s="46" t="s">
         <v>90</v>
@@ -5879,25 +5967,25 @@
       <c r="E21" s="34">
         <v>43999</v>
       </c>
-      <c r="F21" s="322" t="s">
+      <c r="F21" s="229" t="s">
         <v>362</v>
       </c>
-      <c r="G21" s="322">
+      <c r="G21" s="229">
         <v>0.08</v>
       </c>
-      <c r="H21" s="324" t="s">
+      <c r="H21" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I21" s="324">
+      <c r="I21" s="231">
         <v>0.22500000000000001</v>
       </c>
-      <c r="J21" s="323">
+      <c r="J21" s="230">
         <v>2E-3</v>
       </c>
-      <c r="K21" s="322" t="s">
+      <c r="K21" s="229" t="s">
         <v>356</v>
       </c>
-      <c r="L21" s="322" t="s">
+      <c r="L21" s="229" t="s">
         <v>356</v>
       </c>
       <c r="M21" s="46" t="s">
@@ -5921,25 +6009,25 @@
       <c r="E22" s="34">
         <v>44999</v>
       </c>
-      <c r="F22" s="322" t="s">
+      <c r="F22" s="229" t="s">
         <v>359</v>
       </c>
-      <c r="G22" s="322">
+      <c r="G22" s="229">
         <v>0.08</v>
       </c>
-      <c r="H22" s="324" t="s">
+      <c r="H22" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I22" s="324" t="s">
+      <c r="I22" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="J22" s="322">
+      <c r="J22" s="229">
         <v>0.01</v>
       </c>
-      <c r="K22" s="322" t="s">
+      <c r="K22" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="L22" s="322" t="s">
+      <c r="L22" s="229" t="s">
         <v>52</v>
       </c>
       <c r="M22" s="46" t="s">
@@ -5963,14 +6051,14 @@
       <c r="E23" s="20">
         <v>59999</v>
       </c>
-      <c r="F23" s="322"/>
-      <c r="G23" s="322"/>
-      <c r="H23" s="322"/>
-      <c r="I23" s="322"/>
-      <c r="J23" s="322"/>
-      <c r="K23" s="322"/>
-      <c r="L23" s="322"/>
-      <c r="M23" s="322"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="229"/>
+      <c r="H23" s="229"/>
+      <c r="I23" s="229"/>
+      <c r="J23" s="229"/>
+      <c r="K23" s="229"/>
+      <c r="L23" s="229"/>
+      <c r="M23" s="229"/>
       <c r="N23" s="46" t="s">
         <v>90</v>
       </c>
@@ -5989,25 +6077,25 @@
       <c r="E24" s="22">
         <v>50999</v>
       </c>
-      <c r="F24" s="324" t="s">
+      <c r="F24" s="231" t="s">
         <v>349</v>
       </c>
-      <c r="G24" s="324">
+      <c r="G24" s="231">
         <v>0.42</v>
       </c>
-      <c r="H24" s="324">
+      <c r="H24" s="231">
         <v>0.32</v>
       </c>
-      <c r="I24" s="324">
+      <c r="I24" s="231">
         <v>0.39500000000000002</v>
       </c>
-      <c r="J24" s="323">
+      <c r="J24" s="230">
         <v>1E-3</v>
       </c>
-      <c r="K24" s="324" t="s">
+      <c r="K24" s="231" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="324" t="s">
+      <c r="L24" s="231" t="s">
         <v>54</v>
       </c>
       <c r="M24" s="46" t="s">
@@ -6031,13 +6119,13 @@
       <c r="E25" s="22">
         <v>51999</v>
       </c>
-      <c r="F25" s="322"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="322"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="322"/>
-      <c r="K25" s="322"/>
-      <c r="L25" s="322"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="229"/>
+      <c r="H25" s="229"/>
+      <c r="I25" s="229"/>
+      <c r="J25" s="229"/>
+      <c r="K25" s="229"/>
+      <c r="L25" s="229"/>
       <c r="M25" s="46"/>
       <c r="N25" s="46" t="s">
         <v>90</v>
@@ -6057,25 +6145,25 @@
       <c r="E26" s="34">
         <v>51999</v>
       </c>
-      <c r="F26" s="324" t="s">
+      <c r="F26" s="231" t="s">
         <v>362</v>
       </c>
-      <c r="G26" s="324">
+      <c r="G26" s="231">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H26" s="324" t="s">
+      <c r="H26" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I26" s="324">
+      <c r="I26" s="231">
         <v>0.34</v>
       </c>
-      <c r="J26" s="323">
+      <c r="J26" s="230">
         <v>1E-3</v>
       </c>
-      <c r="K26" s="324" t="s">
+      <c r="K26" s="231" t="s">
         <v>54</v>
       </c>
-      <c r="L26" s="324" t="s">
+      <c r="L26" s="231" t="s">
         <v>54</v>
       </c>
       <c r="M26" s="46" t="s">
@@ -6099,13 +6187,13 @@
       <c r="E27" s="20">
         <v>69999</v>
       </c>
-      <c r="F27" s="322"/>
-      <c r="G27" s="322"/>
-      <c r="H27" s="322"/>
-      <c r="I27" s="322"/>
-      <c r="J27" s="322"/>
-      <c r="K27" s="322"/>
-      <c r="L27" s="322"/>
+      <c r="F27" s="229"/>
+      <c r="G27" s="229"/>
+      <c r="H27" s="229"/>
+      <c r="I27" s="229"/>
+      <c r="J27" s="229"/>
+      <c r="K27" s="229"/>
+      <c r="L27" s="229"/>
       <c r="M27" s="46"/>
       <c r="N27" s="46" t="s">
         <v>90</v>
@@ -6123,25 +6211,25 @@
       <c r="E28" s="22">
         <v>60999</v>
       </c>
-      <c r="F28" s="322" t="s">
+      <c r="F28" s="229" t="s">
         <v>355</v>
       </c>
-      <c r="G28" s="322">
+      <c r="G28" s="229">
         <v>0.25</v>
       </c>
-      <c r="H28" s="324">
+      <c r="H28" s="231">
         <v>0.34</v>
       </c>
-      <c r="I28" s="324" t="s">
+      <c r="I28" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="J28" s="323">
+      <c r="J28" s="230">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K28" s="322" t="s">
+      <c r="K28" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="322" t="s">
+      <c r="L28" s="229" t="s">
         <v>50</v>
       </c>
       <c r="M28" s="46" t="s">
@@ -6163,25 +6251,25 @@
       <c r="E29" s="34">
         <v>61999</v>
       </c>
-      <c r="F29" s="324" t="s">
+      <c r="F29" s="231" t="s">
         <v>364</v>
       </c>
-      <c r="G29" s="322" t="s">
+      <c r="G29" s="229" t="s">
         <v>367</v>
       </c>
-      <c r="H29" s="322" t="s">
+      <c r="H29" s="229" t="s">
         <v>365</v>
       </c>
-      <c r="I29" s="322" t="s">
+      <c r="I29" s="229" t="s">
         <v>369</v>
       </c>
-      <c r="J29" s="323">
+      <c r="J29" s="230">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K29" s="322" t="s">
+      <c r="K29" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="322" t="s">
+      <c r="L29" s="229" t="s">
         <v>50</v>
       </c>
       <c r="M29" s="46" t="s">
@@ -6203,25 +6291,25 @@
       <c r="E30" s="25">
         <v>62999</v>
       </c>
-      <c r="F30" s="324" t="s">
+      <c r="F30" s="231" t="s">
         <v>359</v>
       </c>
-      <c r="G30" s="322">
+      <c r="G30" s="229">
         <v>0.13850000000000001</v>
       </c>
-      <c r="H30" s="324" t="s">
+      <c r="H30" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I30" s="324" t="s">
+      <c r="I30" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="J30" s="323">
+      <c r="J30" s="230">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K30" s="322" t="s">
+      <c r="K30" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="L30" s="322" t="s">
+      <c r="L30" s="229" t="s">
         <v>50</v>
       </c>
       <c r="M30" s="46" t="s">
@@ -6243,25 +6331,25 @@
       <c r="E31" s="25">
         <v>63999</v>
       </c>
-      <c r="F31" s="322" t="s">
+      <c r="F31" s="229" t="s">
         <v>355</v>
       </c>
-      <c r="G31" s="324">
+      <c r="G31" s="231">
         <v>0.2</v>
       </c>
       <c r="H31" s="35">
         <v>0.2</v>
       </c>
-      <c r="I31" s="324" t="s">
+      <c r="I31" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="J31" s="325">
+      <c r="J31" s="232">
         <v>0.01</v>
       </c>
-      <c r="K31" s="324" t="s">
+      <c r="K31" s="231" t="s">
         <v>50</v>
       </c>
-      <c r="L31" s="324" t="s">
+      <c r="L31" s="231" t="s">
         <v>50</v>
       </c>
       <c r="M31" s="46" t="s">
@@ -6283,25 +6371,25 @@
       <c r="E32" s="25">
         <v>64999</v>
       </c>
-      <c r="F32" s="324" t="s">
+      <c r="F32" s="231" t="s">
         <v>362</v>
       </c>
-      <c r="G32" s="322">
+      <c r="G32" s="229">
         <v>0.13850000000000001</v>
       </c>
-      <c r="H32" s="324" t="s">
+      <c r="H32" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I32" s="322" t="s">
+      <c r="I32" s="229" t="s">
         <v>368</v>
       </c>
-      <c r="J32" s="323">
+      <c r="J32" s="230">
         <v>1E-3</v>
       </c>
-      <c r="K32" s="322" t="s">
+      <c r="K32" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="L32" s="322" t="s">
+      <c r="L32" s="229" t="s">
         <v>50</v>
       </c>
       <c r="M32" s="46" t="s">
@@ -8408,15 +8496,15 @@
       <c r="E4" s="20">
         <v>19999</v>
       </c>
-      <c r="F4" s="321"/>
-      <c r="G4" s="320"/>
-      <c r="H4" s="320"/>
-      <c r="I4" s="320"/>
-      <c r="J4" s="320"/>
-      <c r="K4" s="320"/>
-      <c r="L4" s="320"/>
-      <c r="M4" s="320"/>
-      <c r="N4" s="320"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="227"/>
+      <c r="H4" s="227"/>
+      <c r="I4" s="227"/>
+      <c r="J4" s="227"/>
+      <c r="K4" s="227"/>
+      <c r="L4" s="227"/>
+      <c r="M4" s="227"/>
+      <c r="N4" s="227"/>
       <c r="Q4" s="1" t="s">
         <v>29</v>
       </c>
@@ -8445,19 +8533,19 @@
       <c r="E5" s="22">
         <v>10999</v>
       </c>
-      <c r="F5" s="322" t="s">
+      <c r="F5" s="229" t="s">
         <v>349</v>
       </c>
-      <c r="G5" s="322">
+      <c r="G5" s="229">
         <v>0.4</v>
       </c>
-      <c r="H5" s="322">
+      <c r="H5" s="229">
         <v>0.3</v>
       </c>
-      <c r="I5" s="322">
+      <c r="I5" s="229">
         <v>0.375</v>
       </c>
-      <c r="J5" s="323">
+      <c r="J5" s="230">
         <v>2E-3</v>
       </c>
       <c r="K5" s="46" t="s">
@@ -8466,10 +8554,10 @@
       <c r="L5" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="M5" s="323" t="s">
+      <c r="M5" s="230" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="323" t="s">
+      <c r="N5" s="230" t="s">
         <v>90</v>
       </c>
     </row>
@@ -8487,31 +8575,31 @@
       <c r="E6" s="22">
         <v>11999</v>
       </c>
-      <c r="F6" s="322" t="s">
+      <c r="F6" s="229" t="s">
         <v>355</v>
       </c>
-      <c r="G6" s="322">
+      <c r="G6" s="229">
         <v>0.4</v>
       </c>
-      <c r="H6" s="322">
+      <c r="H6" s="229">
         <v>0.3</v>
       </c>
-      <c r="I6" s="322" t="s">
+      <c r="I6" s="229" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="323">
+      <c r="J6" s="230">
         <v>2E-3</v>
       </c>
-      <c r="K6" s="322" t="s">
+      <c r="K6" s="229" t="s">
         <v>356</v>
       </c>
-      <c r="L6" s="322" t="s">
+      <c r="L6" s="229" t="s">
         <v>356</v>
       </c>
-      <c r="M6" s="322" t="s">
+      <c r="M6" s="229" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="322" t="s">
+      <c r="N6" s="229" t="s">
         <v>90</v>
       </c>
     </row>
@@ -8529,31 +8617,31 @@
       <c r="E7" s="68">
         <v>11999</v>
       </c>
-      <c r="F7" s="322" t="s">
+      <c r="F7" s="229" t="s">
         <v>355</v>
       </c>
-      <c r="G7" s="322">
+      <c r="G7" s="229">
         <v>0.4</v>
       </c>
-      <c r="H7" s="322">
+      <c r="H7" s="229">
         <v>0.3</v>
       </c>
-      <c r="I7" s="322" t="s">
+      <c r="I7" s="229" t="s">
         <v>209</v>
       </c>
-      <c r="J7" s="323">
+      <c r="J7" s="230">
         <v>2E-3</v>
       </c>
-      <c r="K7" s="322" t="s">
+      <c r="K7" s="229" t="s">
         <v>356</v>
       </c>
-      <c r="L7" s="322" t="s">
+      <c r="L7" s="229" t="s">
         <v>356</v>
       </c>
-      <c r="M7" s="322" t="s">
+      <c r="M7" s="229" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="322" t="s">
+      <c r="N7" s="229" t="s">
         <v>90</v>
       </c>
       <c r="Q7" s="3">
@@ -8583,31 +8671,31 @@
       <c r="E8" s="42">
         <v>29999</v>
       </c>
-      <c r="F8" s="322" t="s">
+      <c r="F8" s="229" t="s">
         <v>355</v>
       </c>
-      <c r="G8" s="322">
+      <c r="G8" s="229">
         <v>0.93600000000000005</v>
       </c>
-      <c r="H8" s="322">
+      <c r="H8" s="229">
         <v>0.3</v>
       </c>
-      <c r="I8" s="322" t="s">
+      <c r="I8" s="229" t="s">
         <v>209</v>
       </c>
-      <c r="J8" s="323">
+      <c r="J8" s="230">
         <v>1E-3</v>
       </c>
-      <c r="K8" s="322" t="s">
+      <c r="K8" s="229" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="322" t="s">
+      <c r="L8" s="229" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="322" t="s">
+      <c r="M8" s="229" t="s">
         <v>357</v>
       </c>
-      <c r="N8" s="322" t="s">
+      <c r="N8" s="229" t="s">
         <v>90</v>
       </c>
     </row>
@@ -8625,13 +8713,13 @@
       <c r="E9" s="22">
         <v>20999</v>
       </c>
-      <c r="F9" s="322"/>
-      <c r="G9" s="322"/>
-      <c r="H9" s="322"/>
-      <c r="I9" s="322"/>
-      <c r="J9" s="322"/>
-      <c r="K9" s="322"/>
-      <c r="L9" s="322"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="229"/>
+      <c r="H9" s="229"/>
+      <c r="I9" s="229"/>
+      <c r="J9" s="229"/>
+      <c r="K9" s="229"/>
+      <c r="L9" s="229"/>
       <c r="M9" s="46"/>
       <c r="N9" s="46" t="s">
         <v>90</v>
@@ -8651,13 +8739,13 @@
       <c r="E10" s="25">
         <v>21999</v>
       </c>
-      <c r="F10" s="322"/>
-      <c r="G10" s="322"/>
-      <c r="H10" s="322"/>
-      <c r="I10" s="322"/>
-      <c r="J10" s="322"/>
-      <c r="K10" s="322"/>
-      <c r="L10" s="322"/>
+      <c r="F10" s="229"/>
+      <c r="G10" s="229"/>
+      <c r="H10" s="229"/>
+      <c r="I10" s="229"/>
+      <c r="J10" s="229"/>
+      <c r="K10" s="229"/>
+      <c r="L10" s="229"/>
       <c r="M10" s="46"/>
       <c r="N10" s="46" t="s">
         <v>90</v>
@@ -8686,13 +8774,13 @@
       <c r="E11" s="20">
         <v>39999</v>
       </c>
-      <c r="F11" s="322"/>
-      <c r="G11" s="322"/>
-      <c r="H11" s="322"/>
-      <c r="I11" s="322"/>
-      <c r="J11" s="322"/>
-      <c r="K11" s="322"/>
-      <c r="L11" s="322"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="229"/>
+      <c r="H11" s="229"/>
+      <c r="I11" s="229"/>
+      <c r="J11" s="229"/>
+      <c r="K11" s="229"/>
+      <c r="L11" s="229"/>
       <c r="M11" s="46"/>
       <c r="N11" s="46" t="s">
         <v>90</v>
@@ -8721,25 +8809,25 @@
       <c r="E12" s="22">
         <v>30999</v>
       </c>
-      <c r="F12" s="322" t="s">
+      <c r="F12" s="229" t="s">
         <v>349</v>
       </c>
-      <c r="G12" s="322">
+      <c r="G12" s="229">
         <v>0.15</v>
       </c>
-      <c r="H12" s="324">
+      <c r="H12" s="231">
         <v>0.15</v>
       </c>
-      <c r="I12" s="324">
+      <c r="I12" s="231">
         <v>0.04</v>
       </c>
-      <c r="J12" s="323">
+      <c r="J12" s="230">
         <v>2E-3</v>
       </c>
-      <c r="K12" s="322" t="s">
+      <c r="K12" s="229" t="s">
         <v>356</v>
       </c>
-      <c r="L12" s="322" t="s">
+      <c r="L12" s="229" t="s">
         <v>356</v>
       </c>
       <c r="M12" s="46" t="s">
@@ -8763,28 +8851,28 @@
       <c r="E13" s="22">
         <v>31999</v>
       </c>
-      <c r="F13" s="322" t="s">
+      <c r="F13" s="229" t="s">
         <v>358</v>
       </c>
-      <c r="G13" s="324" t="s">
+      <c r="G13" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="H13" s="324" t="s">
+      <c r="H13" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I13" s="324" t="s">
+      <c r="I13" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="J13" s="324" t="s">
+      <c r="J13" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="K13" s="324" t="s">
+      <c r="K13" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="L13" s="324" t="s">
+      <c r="L13" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="M13" s="324" t="s">
+      <c r="M13" s="231" t="s">
         <v>71</v>
       </c>
       <c r="N13" s="46" t="s">
@@ -8809,28 +8897,28 @@
       <c r="E14" s="25">
         <v>32999</v>
       </c>
-      <c r="F14" s="322" t="s">
+      <c r="F14" s="229" t="s">
         <v>358</v>
       </c>
-      <c r="G14" s="324" t="s">
+      <c r="G14" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="H14" s="324" t="s">
+      <c r="H14" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I14" s="324" t="s">
+      <c r="I14" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="J14" s="324" t="s">
+      <c r="J14" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="K14" s="324" t="s">
+      <c r="K14" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="L14" s="324" t="s">
+      <c r="L14" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="M14" s="324" t="s">
+      <c r="M14" s="231" t="s">
         <v>71</v>
       </c>
       <c r="N14" s="46" t="s">
@@ -8855,13 +8943,13 @@
       <c r="E15" s="20">
         <v>49999</v>
       </c>
-      <c r="F15" s="322"/>
-      <c r="G15" s="322"/>
-      <c r="H15" s="322"/>
-      <c r="I15" s="322"/>
-      <c r="J15" s="322"/>
-      <c r="K15" s="322"/>
-      <c r="L15" s="322"/>
+      <c r="F15" s="229"/>
+      <c r="G15" s="229"/>
+      <c r="H15" s="229"/>
+      <c r="I15" s="229"/>
+      <c r="J15" s="229"/>
+      <c r="K15" s="229"/>
+      <c r="L15" s="229"/>
       <c r="M15" s="46"/>
       <c r="N15" s="46" t="s">
         <v>90</v>
@@ -8881,25 +8969,25 @@
       <c r="E16" s="22">
         <v>40499</v>
       </c>
-      <c r="F16" s="324" t="s">
+      <c r="F16" s="231" t="s">
         <v>362</v>
       </c>
-      <c r="G16" s="322">
+      <c r="G16" s="229">
         <v>0.125</v>
       </c>
-      <c r="H16" s="324" t="s">
+      <c r="H16" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I16" s="324">
+      <c r="I16" s="231">
         <v>0.35</v>
       </c>
-      <c r="J16" s="323">
+      <c r="J16" s="230">
         <v>1E-3</v>
       </c>
-      <c r="K16" s="324" t="s">
+      <c r="K16" s="231" t="s">
         <v>354</v>
       </c>
-      <c r="L16" s="324" t="s">
+      <c r="L16" s="231" t="s">
         <v>354</v>
       </c>
       <c r="M16" s="46" t="s">
@@ -8923,13 +9011,13 @@
       <c r="E17" s="22">
         <v>40999</v>
       </c>
-      <c r="F17" s="322"/>
-      <c r="G17" s="322"/>
-      <c r="H17" s="322"/>
-      <c r="I17" s="322"/>
-      <c r="J17" s="322"/>
-      <c r="K17" s="322"/>
-      <c r="L17" s="322"/>
+      <c r="F17" s="229"/>
+      <c r="G17" s="229"/>
+      <c r="H17" s="229"/>
+      <c r="I17" s="229"/>
+      <c r="J17" s="229"/>
+      <c r="K17" s="229"/>
+      <c r="L17" s="229"/>
       <c r="M17" s="46"/>
       <c r="N17" s="46" t="s">
         <v>90</v>
@@ -8955,25 +9043,25 @@
       <c r="E18" s="22">
         <v>45999</v>
       </c>
-      <c r="F18" s="324" t="s">
+      <c r="F18" s="231" t="s">
         <v>359</v>
       </c>
-      <c r="G18" s="322">
+      <c r="G18" s="229">
         <v>0.125</v>
       </c>
-      <c r="H18" s="322" t="s">
+      <c r="H18" s="229" t="s">
         <v>363</v>
       </c>
-      <c r="I18" s="324" t="s">
+      <c r="I18" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="J18" s="323">
+      <c r="J18" s="230">
         <v>1E-3</v>
       </c>
-      <c r="K18" s="324" t="s">
+      <c r="K18" s="231" t="s">
         <v>356</v>
       </c>
-      <c r="L18" s="324" t="s">
+      <c r="L18" s="231" t="s">
         <v>356</v>
       </c>
       <c r="M18" s="46" t="s">
@@ -8997,25 +9085,25 @@
       <c r="E19" s="22">
         <v>41999</v>
       </c>
-      <c r="F19" s="322" t="s">
+      <c r="F19" s="229" t="s">
         <v>359</v>
       </c>
-      <c r="G19" s="322">
+      <c r="G19" s="229">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H19" s="324" t="s">
+      <c r="H19" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I19" s="324" t="s">
+      <c r="I19" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="J19" s="323">
+      <c r="J19" s="230">
         <v>1E-3</v>
       </c>
-      <c r="K19" s="322" t="s">
+      <c r="K19" s="229" t="s">
         <v>360</v>
       </c>
-      <c r="L19" s="322" t="s">
+      <c r="L19" s="229" t="s">
         <v>361</v>
       </c>
       <c r="M19" s="46" t="s">
@@ -9039,13 +9127,13 @@
       <c r="E20" s="34">
         <v>42999</v>
       </c>
-      <c r="F20" s="322"/>
-      <c r="G20" s="322"/>
-      <c r="H20" s="322"/>
-      <c r="I20" s="322"/>
-      <c r="J20" s="322"/>
-      <c r="K20" s="322"/>
-      <c r="L20" s="322"/>
+      <c r="F20" s="229"/>
+      <c r="G20" s="229"/>
+      <c r="H20" s="229"/>
+      <c r="I20" s="229"/>
+      <c r="J20" s="229"/>
+      <c r="K20" s="229"/>
+      <c r="L20" s="229"/>
       <c r="M20" s="46"/>
       <c r="N20" s="46" t="s">
         <v>90</v>
@@ -9065,25 +9153,25 @@
       <c r="E21" s="34">
         <v>43999</v>
       </c>
-      <c r="F21" s="322" t="s">
+      <c r="F21" s="229" t="s">
         <v>362</v>
       </c>
-      <c r="G21" s="322">
+      <c r="G21" s="229">
         <v>0.08</v>
       </c>
-      <c r="H21" s="324" t="s">
+      <c r="H21" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I21" s="324">
+      <c r="I21" s="231">
         <v>0.22500000000000001</v>
       </c>
-      <c r="J21" s="323">
+      <c r="J21" s="230">
         <v>2E-3</v>
       </c>
-      <c r="K21" s="322" t="s">
+      <c r="K21" s="229" t="s">
         <v>356</v>
       </c>
-      <c r="L21" s="322" t="s">
+      <c r="L21" s="229" t="s">
         <v>356</v>
       </c>
       <c r="M21" s="46" t="s">
@@ -9107,25 +9195,25 @@
       <c r="E22" s="34">
         <v>44999</v>
       </c>
-      <c r="F22" s="322" t="s">
+      <c r="F22" s="229" t="s">
         <v>359</v>
       </c>
-      <c r="G22" s="322">
+      <c r="G22" s="229">
         <v>0.08</v>
       </c>
-      <c r="H22" s="324" t="s">
+      <c r="H22" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I22" s="324" t="s">
+      <c r="I22" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="J22" s="322">
+      <c r="J22" s="229">
         <v>0.01</v>
       </c>
-      <c r="K22" s="322" t="s">
+      <c r="K22" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="L22" s="322" t="s">
+      <c r="L22" s="229" t="s">
         <v>52</v>
       </c>
       <c r="M22" s="46" t="s">
@@ -9149,13 +9237,13 @@
       <c r="E23" s="20">
         <v>59999</v>
       </c>
-      <c r="F23" s="322"/>
-      <c r="G23" s="322"/>
-      <c r="H23" s="322"/>
-      <c r="I23" s="322"/>
-      <c r="J23" s="322"/>
-      <c r="K23" s="322"/>
-      <c r="L23" s="322"/>
+      <c r="F23" s="229"/>
+      <c r="G23" s="229"/>
+      <c r="H23" s="229"/>
+      <c r="I23" s="229"/>
+      <c r="J23" s="229"/>
+      <c r="K23" s="229"/>
+      <c r="L23" s="229"/>
       <c r="M23" s="46"/>
       <c r="N23" s="46" t="s">
         <v>90</v>
@@ -9175,25 +9263,25 @@
       <c r="E24" s="22">
         <v>51999</v>
       </c>
-      <c r="F24" s="324" t="s">
+      <c r="F24" s="231" t="s">
         <v>349</v>
       </c>
-      <c r="G24" s="324">
+      <c r="G24" s="231">
         <v>0.42</v>
       </c>
-      <c r="H24" s="324">
+      <c r="H24" s="231">
         <v>0.32</v>
       </c>
-      <c r="I24" s="324">
+      <c r="I24" s="231">
         <v>0.39500000000000002</v>
       </c>
-      <c r="J24" s="323">
+      <c r="J24" s="230">
         <v>1E-3</v>
       </c>
-      <c r="K24" s="324" t="s">
+      <c r="K24" s="231" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="324" t="s">
+      <c r="L24" s="231" t="s">
         <v>54</v>
       </c>
       <c r="M24" s="46" t="s">
@@ -9217,13 +9305,13 @@
       <c r="E25" s="22">
         <v>51999</v>
       </c>
-      <c r="F25" s="322"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="322"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="322"/>
-      <c r="K25" s="322"/>
-      <c r="L25" s="322"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="229"/>
+      <c r="H25" s="229"/>
+      <c r="I25" s="229"/>
+      <c r="J25" s="229"/>
+      <c r="K25" s="229"/>
+      <c r="L25" s="229"/>
       <c r="M25" s="46"/>
       <c r="N25" s="46" t="s">
         <v>90</v>
@@ -9243,25 +9331,25 @@
       <c r="E26" s="34">
         <v>52999</v>
       </c>
-      <c r="F26" s="324" t="s">
+      <c r="F26" s="231" t="s">
         <v>362</v>
       </c>
-      <c r="G26" s="324">
+      <c r="G26" s="231">
         <v>0.13500000000000001</v>
       </c>
-      <c r="H26" s="324" t="s">
+      <c r="H26" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I26" s="324">
+      <c r="I26" s="231">
         <v>0.34</v>
       </c>
-      <c r="J26" s="323">
+      <c r="J26" s="230">
         <v>1E-3</v>
       </c>
-      <c r="K26" s="324" t="s">
+      <c r="K26" s="231" t="s">
         <v>54</v>
       </c>
-      <c r="L26" s="324" t="s">
+      <c r="L26" s="231" t="s">
         <v>54</v>
       </c>
       <c r="M26" s="46" t="s">
@@ -9285,13 +9373,13 @@
       <c r="E27" s="20">
         <v>69999</v>
       </c>
-      <c r="F27" s="322"/>
-      <c r="G27" s="322"/>
-      <c r="H27" s="322"/>
-      <c r="I27" s="322"/>
-      <c r="J27" s="322"/>
-      <c r="K27" s="322"/>
-      <c r="L27" s="322"/>
+      <c r="F27" s="229"/>
+      <c r="G27" s="229"/>
+      <c r="H27" s="229"/>
+      <c r="I27" s="229"/>
+      <c r="J27" s="229"/>
+      <c r="K27" s="229"/>
+      <c r="L27" s="229"/>
       <c r="M27" s="46"/>
       <c r="N27" s="46" t="s">
         <v>90</v>
@@ -9309,25 +9397,25 @@
       <c r="E28" s="22">
         <v>60999</v>
       </c>
-      <c r="F28" s="322" t="s">
+      <c r="F28" s="229" t="s">
         <v>355</v>
       </c>
-      <c r="G28" s="322">
+      <c r="G28" s="229">
         <v>0.25</v>
       </c>
-      <c r="H28" s="324">
+      <c r="H28" s="231">
         <v>0.34</v>
       </c>
-      <c r="I28" s="324" t="s">
+      <c r="I28" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="J28" s="323">
+      <c r="J28" s="230">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K28" s="322" t="s">
+      <c r="K28" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="322" t="s">
+      <c r="L28" s="229" t="s">
         <v>50</v>
       </c>
       <c r="M28" s="46" t="s">
@@ -9349,25 +9437,25 @@
       <c r="E29" s="22">
         <v>61999</v>
       </c>
-      <c r="F29" s="324" t="s">
+      <c r="F29" s="231" t="s">
         <v>364</v>
       </c>
-      <c r="G29" s="322" t="s">
+      <c r="G29" s="229" t="s">
         <v>367</v>
       </c>
-      <c r="H29" s="322" t="s">
+      <c r="H29" s="229" t="s">
         <v>365</v>
       </c>
-      <c r="I29" s="322" t="s">
+      <c r="I29" s="229" t="s">
         <v>366</v>
       </c>
-      <c r="J29" s="323">
+      <c r="J29" s="230">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K29" s="322" t="s">
+      <c r="K29" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="322" t="s">
+      <c r="L29" s="229" t="s">
         <v>50</v>
       </c>
       <c r="M29" s="46" t="s">
@@ -9389,25 +9477,25 @@
       <c r="E30" s="22">
         <v>62999</v>
       </c>
-      <c r="F30" s="324" t="s">
+      <c r="F30" s="231" t="s">
         <v>359</v>
       </c>
-      <c r="G30" s="322">
+      <c r="G30" s="229">
         <v>0.13850000000000001</v>
       </c>
-      <c r="H30" s="324" t="s">
+      <c r="H30" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I30" s="324" t="s">
+      <c r="I30" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="J30" s="323">
+      <c r="J30" s="230">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K30" s="322" t="s">
+      <c r="K30" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="L30" s="322" t="s">
+      <c r="L30" s="229" t="s">
         <v>50</v>
       </c>
       <c r="M30" s="46" t="s">
@@ -9429,25 +9517,25 @@
       <c r="E31" s="25">
         <v>64999</v>
       </c>
-      <c r="F31" s="324" t="s">
+      <c r="F31" s="231" t="s">
         <v>362</v>
       </c>
-      <c r="G31" s="322">
+      <c r="G31" s="229">
         <v>0.13850000000000001</v>
       </c>
-      <c r="H31" s="324" t="s">
+      <c r="H31" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I31" s="322" t="s">
+      <c r="I31" s="229" t="s">
         <v>368</v>
       </c>
-      <c r="J31" s="323">
+      <c r="J31" s="230">
         <v>1E-3</v>
       </c>
-      <c r="K31" s="322" t="s">
+      <c r="K31" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="L31" s="322" t="s">
+      <c r="L31" s="229" t="s">
         <v>50</v>
       </c>
       <c r="M31" s="46" t="s">
@@ -9471,13 +9559,13 @@
       <c r="E32" s="42">
         <v>79000</v>
       </c>
-      <c r="F32" s="322"/>
-      <c r="G32" s="322"/>
-      <c r="H32" s="322"/>
-      <c r="I32" s="322"/>
-      <c r="J32" s="322"/>
-      <c r="K32" s="322"/>
-      <c r="L32" s="322"/>
+      <c r="F32" s="229"/>
+      <c r="G32" s="229"/>
+      <c r="H32" s="229"/>
+      <c r="I32" s="229"/>
+      <c r="J32" s="229"/>
+      <c r="K32" s="229"/>
+      <c r="L32" s="229"/>
       <c r="M32" s="46"/>
       <c r="N32" s="46" t="s">
         <v>90</v>
@@ -9497,28 +9585,28 @@
       <c r="E33" s="22">
         <v>71900</v>
       </c>
-      <c r="F33" s="324" t="s">
+      <c r="F33" s="231" t="s">
         <v>358</v>
       </c>
-      <c r="G33" s="324" t="s">
+      <c r="G33" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="H33" s="324" t="s">
+      <c r="H33" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I33" s="324" t="s">
+      <c r="I33" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="J33" s="324" t="s">
+      <c r="J33" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="K33" s="324" t="s">
+      <c r="K33" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="L33" s="324" t="s">
+      <c r="L33" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="M33" s="324" t="s">
+      <c r="M33" s="231" t="s">
         <v>71</v>
       </c>
       <c r="N33" s="46" t="s">
@@ -9539,28 +9627,28 @@
       <c r="E34" s="25">
         <v>71999</v>
       </c>
-      <c r="F34" s="324" t="s">
+      <c r="F34" s="231" t="s">
         <v>358</v>
       </c>
-      <c r="G34" s="324" t="s">
+      <c r="G34" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="H34" s="324" t="s">
+      <c r="H34" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="I34" s="324" t="s">
+      <c r="I34" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="J34" s="324" t="s">
+      <c r="J34" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="K34" s="324" t="s">
+      <c r="K34" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="L34" s="324" t="s">
+      <c r="L34" s="231" t="s">
         <v>209</v>
       </c>
-      <c r="M34" s="324" t="s">
+      <c r="M34" s="231" t="s">
         <v>71</v>
       </c>
       <c r="N34" s="46" t="s">
@@ -9676,29 +9764,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="229" t="s">
+      <c r="B3" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="230" t="s">
+      <c r="C3" s="238" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="230"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="230"/>
-      <c r="G3" s="230" t="s">
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="230"/>
-      <c r="I3" s="230"/>
-      <c r="J3" s="230"/>
-      <c r="K3" s="231" t="s">
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="231"/>
+      <c r="L3" s="239"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="229"/>
+      <c r="B4" s="237"/>
       <c r="C4" s="7" t="s">
         <v>41</v>
       </c>
@@ -9723,8 +9811,8 @@
       <c r="J4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="231"/>
-      <c r="L4" s="231"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="239"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -9757,10 +9845,10 @@
       <c r="J5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="227" t="s">
+      <c r="K5" s="236" t="s">
         <v>88</v>
       </c>
-      <c r="L5" s="228"/>
+      <c r="L5" s="233"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -9793,10 +9881,10 @@
       <c r="J6" s="10">
         <v>0.1</v>
       </c>
-      <c r="K6" s="227" t="s">
+      <c r="K6" s="236" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="228"/>
+      <c r="L6" s="233"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -9829,8 +9917,8 @@
       <c r="J7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="228"/>
-      <c r="L7" s="228"/>
+      <c r="K7" s="233"/>
+      <c r="L7" s="233"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -9863,8 +9951,8 @@
       <c r="J8" s="10">
         <v>0.1</v>
       </c>
-      <c r="K8" s="232"/>
-      <c r="L8" s="233"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="235"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -9897,8 +9985,8 @@
       <c r="J9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="228"/>
-      <c r="L9" s="228"/>
+      <c r="K9" s="233"/>
+      <c r="L9" s="233"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -9931,8 +10019,8 @@
       <c r="J10" s="10">
         <v>0.92</v>
       </c>
-      <c r="K10" s="232"/>
-      <c r="L10" s="233"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="235"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -9965,8 +10053,8 @@
       <c r="J11" s="10">
         <v>1</v>
       </c>
-      <c r="K11" s="232"/>
-      <c r="L11" s="233"/>
+      <c r="K11" s="234"/>
+      <c r="L11" s="235"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -9999,8 +10087,8 @@
       <c r="J12" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="228"/>
-      <c r="L12" s="228"/>
+      <c r="K12" s="233"/>
+      <c r="L12" s="233"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -10033,8 +10121,8 @@
       <c r="J13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="228"/>
-      <c r="L13" s="228"/>
+      <c r="K13" s="233"/>
+      <c r="L13" s="233"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -10067,8 +10155,8 @@
       <c r="J14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="228"/>
-      <c r="L14" s="228"/>
+      <c r="K14" s="233"/>
+      <c r="L14" s="233"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -10101,8 +10189,8 @@
       <c r="J15" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="228"/>
-      <c r="L15" s="228"/>
+      <c r="K15" s="233"/>
+      <c r="L15" s="233"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -10169,11 +10257,17 @@
       <c r="J17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="228"/>
-      <c r="L17" s="228"/>
+      <c r="K17" s="233"/>
+      <c r="L17" s="233"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K7:L7"/>
@@ -10184,12 +10278,6 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10208,28 +10296,28 @@
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="240" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="236"/>
-      <c r="E4" s="231" t="s">
+      <c r="B4" s="241"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="231"/>
-      <c r="H4" s="234" t="s">
+      <c r="F4" s="239"/>
+      <c r="H4" s="240" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="235"/>
-      <c r="J4" s="235"/>
-      <c r="K4" s="235"/>
-      <c r="L4" s="235"/>
-      <c r="M4" s="236"/>
-      <c r="N4" s="231" t="s">
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="242"/>
+      <c r="N4" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="O4" s="231"/>
+      <c r="O4" s="239"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -10244,8 +10332,8 @@
       <c r="D5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="231"/>
-      <c r="F5" s="231"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
       <c r="H5" s="9" t="s">
         <v>36</v>
       </c>
@@ -10264,8 +10352,8 @@
       <c r="M5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="231"/>
-      <c r="O5" s="231"/>
+      <c r="N5" s="239"/>
+      <c r="O5" s="239"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -10280,8 +10368,8 @@
       <c r="D6" s="5">
         <v>2700</v>
       </c>
-      <c r="E6" s="232"/>
-      <c r="F6" s="233"/>
+      <c r="E6" s="234"/>
+      <c r="F6" s="235"/>
       <c r="G6" s="3" t="s">
         <v>90</v>
       </c>
@@ -10303,8 +10391,8 @@
       <c r="M6" s="5">
         <v>1750</v>
       </c>
-      <c r="N6" s="232"/>
-      <c r="O6" s="233"/>
+      <c r="N6" s="234"/>
+      <c r="O6" s="235"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -10319,10 +10407,10 @@
       <c r="D7" s="11">
         <v>2840</v>
       </c>
-      <c r="E7" s="232" t="s">
+      <c r="E7" s="234" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="233"/>
+      <c r="F7" s="235"/>
       <c r="G7" s="3" t="s">
         <v>90</v>
       </c>
@@ -10348,10 +10436,10 @@
       <c r="D8" s="5">
         <v>2810</v>
       </c>
-      <c r="E8" s="232" t="s">
+      <c r="E8" s="234" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="233"/>
+      <c r="F8" s="235"/>
       <c r="G8" s="3" t="s">
         <v>90</v>
       </c>
@@ -10377,10 +10465,10 @@
       <c r="D9" s="3">
         <v>7760</v>
       </c>
-      <c r="E9" s="232" t="s">
+      <c r="E9" s="234" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="233"/>
+      <c r="F9" s="235"/>
       <c r="G9" s="3" t="s">
         <v>90</v>
       </c>
@@ -10406,8 +10494,8 @@
       <c r="D10" s="5">
         <v>5300</v>
       </c>
-      <c r="E10" s="232"/>
-      <c r="F10" s="233"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="235"/>
       <c r="G10" s="3" t="s">
         <v>90</v>
       </c>
@@ -10425,8 +10513,8 @@
       <c r="D11" s="5">
         <v>5330</v>
       </c>
-      <c r="E11" s="232"/>
-      <c r="F11" s="233"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="235"/>
       <c r="G11" s="3" t="s">
         <v>90</v>
       </c>
@@ -10484,10 +10572,10 @@
       <c r="D14" s="46">
         <v>2300</v>
       </c>
-      <c r="E14" s="232" t="s">
+      <c r="E14" s="234" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="233"/>
+      <c r="F14" s="235"/>
       <c r="G14" s="3" t="s">
         <v>90</v>
       </c>
@@ -10505,14 +10593,20 @@
       <c r="D15" s="5">
         <v>300</v>
       </c>
-      <c r="E15" s="232"/>
-      <c r="F15" s="233"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="235"/>
       <c r="G15" s="3" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E15:F15"/>
@@ -10520,12 +10614,6 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10538,10 +10626,10 @@
   </sheetPr>
   <dimension ref="A2:X47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="J44" sqref="J44"/>
-      <selection pane="topRight" activeCell="V6" sqref="V6:X8"/>
+      <selection pane="topRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11750,10 +11838,10 @@
   </sheetPr>
   <dimension ref="A2:X48"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="J44" sqref="J44"/>
-      <selection pane="topRight" activeCell="K34" sqref="K34"/>
+      <selection pane="topRight" activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12949,7 +13037,7 @@
   </sheetPr>
   <dimension ref="B1:V91"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
@@ -12981,38 +13069,38 @@
       </c>
     </row>
     <row r="2" spans="2:19" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="265" t="s">
+      <c r="B2" s="278" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="253" t="s">
+      <c r="C2" s="316" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="255" t="s">
+      <c r="D2" s="318" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="249" t="s">
+      <c r="E2" s="284" t="s">
         <v>266</v>
       </c>
-      <c r="F2" s="249" t="s">
+      <c r="F2" s="284" t="s">
         <v>268</v>
       </c>
-      <c r="G2" s="249" t="s">
+      <c r="G2" s="284" t="s">
         <v>208</v>
       </c>
       <c r="H2" s="159" t="s">
         <v>211</v>
       </c>
-      <c r="I2" s="267" t="s">
+      <c r="I2" s="276" t="s">
         <v>212</v>
       </c>
-      <c r="J2" s="268"/>
+      <c r="J2" s="277"/>
       <c r="K2" s="157" t="s">
         <v>223</v>
       </c>
-      <c r="L2" s="267" t="s">
+      <c r="L2" s="276" t="s">
         <v>224</v>
       </c>
-      <c r="M2" s="268"/>
+      <c r="M2" s="277"/>
       <c r="N2" s="157" t="s">
         <v>87</v>
       </c>
@@ -13021,12 +13109,12 @@
       </c>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="266"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
+      <c r="B3" s="279"/>
+      <c r="C3" s="317"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="285"/>
+      <c r="F3" s="285"/>
+      <c r="G3" s="285"/>
       <c r="H3" s="160"/>
       <c r="I3" s="117" t="s">
         <v>213</v>
@@ -13074,15 +13162,15 @@
       <c r="B5" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="245" t="s">
+      <c r="C5" s="310" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="275">
+      <c r="D5" s="280">
         <v>3</v>
       </c>
-      <c r="E5" s="251"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="277" t="s">
+      <c r="E5" s="314"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="282" t="s">
         <v>239</v>
       </c>
       <c r="H5" s="162">
@@ -13115,11 +13203,11 @@
       <c r="B6" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="246"/>
-      <c r="D6" s="276"/>
-      <c r="E6" s="252"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="278"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="281"/>
+      <c r="E6" s="315"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="283"/>
       <c r="H6" s="163"/>
       <c r="I6" s="164">
         <f>273.15-193.1242</f>
@@ -13215,48 +13303,48 @@
     </row>
     <row r="19" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="265" t="s">
+      <c r="B20" s="278" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="253" t="s">
+      <c r="C20" s="316" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="255" t="s">
+      <c r="D20" s="318" t="s">
         <v>207</v>
       </c>
       <c r="E20" s="168"/>
-      <c r="F20" s="249" t="s">
+      <c r="F20" s="284" t="s">
         <v>208</v>
       </c>
-      <c r="G20" s="249" t="s">
+      <c r="G20" s="284" t="s">
         <v>249</v>
       </c>
-      <c r="H20" s="283" t="s">
+      <c r="H20" s="290" t="s">
         <v>250</v>
       </c>
       <c r="I20" s="157" t="s">
         <v>251</v>
       </c>
-      <c r="J20" s="267" t="s">
+      <c r="J20" s="276" t="s">
         <v>253</v>
       </c>
-      <c r="K20" s="292"/>
-      <c r="L20" s="268"/>
-      <c r="M20" s="293" t="s">
+      <c r="K20" s="300"/>
+      <c r="L20" s="277"/>
+      <c r="M20" s="253" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="260" t="s">
+      <c r="N20" s="296" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="266"/>
-      <c r="C21" s="254"/>
-      <c r="D21" s="256"/>
+      <c r="B21" s="279"/>
+      <c r="C21" s="317"/>
+      <c r="D21" s="319"/>
       <c r="E21" s="169"/>
-      <c r="F21" s="250"/>
-      <c r="G21" s="250"/>
-      <c r="H21" s="284"/>
+      <c r="F21" s="285"/>
+      <c r="G21" s="285"/>
+      <c r="H21" s="291"/>
       <c r="I21" s="158"/>
       <c r="J21" s="117" t="s">
         <v>145</v>
@@ -13267,24 +13355,24 @@
       <c r="L21" s="155" t="s">
         <v>252</v>
       </c>
-      <c r="M21" s="294"/>
-      <c r="N21" s="289"/>
+      <c r="M21" s="301"/>
+      <c r="N21" s="297"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="247" t="s">
+      <c r="C22" s="312" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="275">
+      <c r="D22" s="280">
         <v>4</v>
       </c>
       <c r="E22" s="170"/>
-      <c r="F22" s="275" t="s">
+      <c r="F22" s="280" t="s">
         <v>209</v>
       </c>
-      <c r="G22" s="290">
+      <c r="G22" s="298">
         <v>22.1</v>
       </c>
       <c r="H22" s="153">
@@ -13295,40 +13383,40 @@
       <c r="K22" s="151"/>
       <c r="L22" s="116"/>
       <c r="M22" s="116"/>
-      <c r="N22" s="281"/>
+      <c r="N22" s="288"/>
     </row>
     <row r="23" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="C23" s="248"/>
-      <c r="D23" s="276"/>
+      <c r="C23" s="313"/>
+      <c r="D23" s="281"/>
       <c r="E23" s="171"/>
-      <c r="F23" s="276"/>
-      <c r="G23" s="291"/>
+      <c r="F23" s="281"/>
+      <c r="G23" s="299"/>
       <c r="H23" s="154"/>
       <c r="I23" s="115"/>
       <c r="J23" s="150"/>
       <c r="K23" s="152"/>
       <c r="L23" s="115"/>
       <c r="M23" s="115"/>
-      <c r="N23" s="282"/>
+      <c r="N23" s="289"/>
     </row>
     <row r="24" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="245" t="s">
+      <c r="C24" s="310" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="275">
+      <c r="D24" s="280">
         <v>3</v>
       </c>
       <c r="E24" s="170"/>
-      <c r="F24" s="285" t="s">
+      <c r="F24" s="292" t="s">
         <v>239</v>
       </c>
-      <c r="G24" s="287">
+      <c r="G24" s="294">
         <f>22.1+16</f>
         <v>38.1</v>
       </c>
@@ -13340,24 +13428,24 @@
       <c r="K24" s="151"/>
       <c r="L24" s="116"/>
       <c r="M24" s="116"/>
-      <c r="N24" s="281"/>
+      <c r="N24" s="288"/>
     </row>
     <row r="25" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="C25" s="246"/>
-      <c r="D25" s="276"/>
+      <c r="C25" s="311"/>
+      <c r="D25" s="281"/>
       <c r="E25" s="171"/>
-      <c r="F25" s="286"/>
-      <c r="G25" s="288"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="295"/>
       <c r="H25" s="148"/>
       <c r="I25" s="115"/>
       <c r="J25" s="150"/>
       <c r="K25" s="152"/>
       <c r="L25" s="115"/>
       <c r="M25" s="115"/>
-      <c r="N25" s="282"/>
+      <c r="N25" s="289"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="156" t="s">
@@ -13367,58 +13455,58 @@
     </row>
     <row r="31" spans="2:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="2:22" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="265" t="s">
+      <c r="B32" s="278" t="s">
         <v>257</v>
       </c>
-      <c r="C32" s="260" t="s">
+      <c r="C32" s="296" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="265" t="s">
+      <c r="D32" s="278" t="s">
         <v>203</v>
       </c>
-      <c r="E32" s="273" t="s">
+      <c r="E32" s="274" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="274"/>
-      <c r="G32" s="267" t="s">
+      <c r="F32" s="275"/>
+      <c r="G32" s="276" t="s">
         <v>260</v>
       </c>
-      <c r="H32" s="268"/>
-      <c r="I32" s="273" t="s">
+      <c r="H32" s="277"/>
+      <c r="I32" s="274" t="s">
         <v>255</v>
       </c>
-      <c r="J32" s="274"/>
-      <c r="K32" s="267" t="s">
+      <c r="J32" s="275"/>
+      <c r="K32" s="276" t="s">
         <v>261</v>
       </c>
-      <c r="L32" s="268"/>
-      <c r="M32" s="273" t="s">
+      <c r="L32" s="277"/>
+      <c r="M32" s="274" t="s">
         <v>256</v>
       </c>
-      <c r="N32" s="274"/>
-      <c r="O32" s="267" t="s">
+      <c r="N32" s="275"/>
+      <c r="O32" s="276" t="s">
         <v>262</v>
       </c>
-      <c r="P32" s="268"/>
-      <c r="Q32" s="267" t="s">
+      <c r="P32" s="277"/>
+      <c r="Q32" s="276" t="s">
         <v>263</v>
       </c>
-      <c r="R32" s="268"/>
-      <c r="S32" s="267" t="s">
+      <c r="R32" s="277"/>
+      <c r="S32" s="276" t="s">
         <v>264</v>
       </c>
-      <c r="T32" s="268"/>
-      <c r="U32" s="260" t="s">
+      <c r="T32" s="277"/>
+      <c r="U32" s="296" t="s">
         <v>87</v>
       </c>
-      <c r="V32" s="260" t="s">
+      <c r="V32" s="296" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="33" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="266"/>
-      <c r="C33" s="261"/>
-      <c r="D33" s="266"/>
+      <c r="B33" s="279"/>
+      <c r="C33" s="305"/>
+      <c r="D33" s="279"/>
       <c r="E33" s="117" t="s">
         <v>213</v>
       </c>
@@ -13467,14 +13555,14 @@
       <c r="T33" s="118" t="s">
         <v>214</v>
       </c>
-      <c r="U33" s="261"/>
-      <c r="V33" s="261"/>
+      <c r="U33" s="305"/>
+      <c r="V33" s="305"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B34" s="257" t="s">
+      <c r="B34" s="302" t="s">
         <v>258</v>
       </c>
-      <c r="C34" s="262" t="s">
+      <c r="C34" s="306" t="s">
         <v>205</v>
       </c>
       <c r="D34" s="176" t="s">
@@ -13482,32 +13570,32 @@
       </c>
       <c r="E34" s="177"/>
       <c r="F34" s="178"/>
-      <c r="G34" s="270" t="e">
+      <c r="G34" s="273" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H34" s="270" t="e">
+      <c r="H34" s="273" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I34" s="177"/>
       <c r="J34" s="178"/>
-      <c r="K34" s="270"/>
-      <c r="L34" s="270"/>
+      <c r="K34" s="273"/>
+      <c r="L34" s="273"/>
       <c r="M34" s="177"/>
       <c r="N34" s="178"/>
-      <c r="O34" s="270"/>
-      <c r="P34" s="270"/>
+      <c r="O34" s="273"/>
+      <c r="P34" s="273"/>
       <c r="Q34" s="177"/>
       <c r="R34" s="178"/>
-      <c r="S34" s="270"/>
-      <c r="T34" s="270"/>
+      <c r="S34" s="273"/>
+      <c r="T34" s="273"/>
       <c r="U34" s="177"/>
       <c r="V34" s="111"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B35" s="258"/>
-      <c r="C35" s="263"/>
+      <c r="B35" s="303"/>
+      <c r="C35" s="307"/>
       <c r="D35" s="172" t="s">
         <v>222</v>
       </c>
@@ -13531,8 +13619,8 @@
       <c r="V35" s="179"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B36" s="258"/>
-      <c r="C36" s="264" t="s">
+      <c r="B36" s="303"/>
+      <c r="C36" s="308" t="s">
         <v>265</v>
       </c>
       <c r="D36" s="172" t="s">
@@ -13564,8 +13652,8 @@
       <c r="V36" s="179"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B37" s="258"/>
-      <c r="C37" s="264"/>
+      <c r="B37" s="303"/>
+      <c r="C37" s="308"/>
       <c r="D37" s="172" t="s">
         <v>222</v>
       </c>
@@ -13589,10 +13677,10 @@
       <c r="V37" s="179"/>
     </row>
     <row r="38" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="258" t="s">
+      <c r="B38" s="303" t="s">
         <v>259</v>
       </c>
-      <c r="C38" s="263" t="s">
+      <c r="C38" s="307" t="s">
         <v>205</v>
       </c>
       <c r="D38" s="172" t="s">
@@ -13624,8 +13712,8 @@
       <c r="V38" s="179"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B39" s="258"/>
-      <c r="C39" s="263"/>
+      <c r="B39" s="303"/>
+      <c r="C39" s="307"/>
       <c r="D39" s="172" t="s">
         <v>222</v>
       </c>
@@ -13649,8 +13737,8 @@
       <c r="V39" s="179"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B40" s="258"/>
-      <c r="C40" s="264" t="s">
+      <c r="B40" s="303"/>
+      <c r="C40" s="308" t="s">
         <v>265</v>
       </c>
       <c r="D40" s="172" t="s">
@@ -13682,8 +13770,8 @@
       <c r="V40" s="179"/>
     </row>
     <row r="41" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="259"/>
-      <c r="C41" s="269"/>
+      <c r="B41" s="304"/>
+      <c r="C41" s="309"/>
       <c r="D41" s="180" t="s">
         <v>222</v>
       </c>
@@ -13713,40 +13801,40 @@
     </row>
     <row r="45" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="298" t="s">
+      <c r="B46" s="251" t="s">
         <v>257</v>
       </c>
-      <c r="C46" s="293" t="s">
+      <c r="C46" s="253" t="s">
         <v>204</v>
       </c>
-      <c r="D46" s="295" t="s">
+      <c r="D46" s="246" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="296"/>
-      <c r="F46" s="295" t="s">
+      <c r="E46" s="247"/>
+      <c r="F46" s="246" t="s">
         <v>146</v>
       </c>
-      <c r="G46" s="296"/>
-      <c r="H46" s="297" t="s">
+      <c r="G46" s="247"/>
+      <c r="H46" s="248" t="s">
         <v>252</v>
       </c>
-      <c r="I46" s="297"/>
-      <c r="J46" s="295" t="s">
+      <c r="I46" s="248"/>
+      <c r="J46" s="246" t="s">
         <v>110</v>
       </c>
-      <c r="K46" s="296"/>
-      <c r="L46" s="295" t="s">
+      <c r="K46" s="247"/>
+      <c r="L46" s="246" t="s">
         <v>279</v>
       </c>
-      <c r="M46" s="297"/>
-      <c r="N46" s="297" t="s">
+      <c r="M46" s="248"/>
+      <c r="N46" s="248" t="s">
         <v>280</v>
       </c>
-      <c r="O46" s="296"/>
+      <c r="O46" s="247"/>
     </row>
     <row r="47" spans="2:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="299"/>
-      <c r="C47" s="300"/>
+      <c r="B47" s="252"/>
+      <c r="C47" s="254"/>
       <c r="D47" s="195" t="s">
         <v>278</v>
       </c>
@@ -13785,56 +13873,56 @@
       </c>
     </row>
     <row r="48" spans="2:22" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="310" t="s">
+      <c r="B48" s="261" t="s">
         <v>258</v>
       </c>
       <c r="C48" s="197" t="s">
         <v>205</v>
       </c>
-      <c r="D48" s="301" t="s">
+      <c r="D48" s="243" t="s">
         <v>281</v>
       </c>
-      <c r="E48" s="304" t="s">
+      <c r="E48" s="255" t="s">
         <v>296</v>
       </c>
-      <c r="F48" s="301" t="s">
+      <c r="F48" s="243" t="s">
         <v>281</v>
       </c>
-      <c r="G48" s="304" t="s">
+      <c r="G48" s="255" t="s">
         <v>297</v>
       </c>
-      <c r="H48" s="301" t="s">
+      <c r="H48" s="243" t="s">
         <v>281</v>
       </c>
-      <c r="I48" s="304" t="s">
+      <c r="I48" s="255" t="s">
         <v>298</v>
       </c>
-      <c r="J48" s="301" t="s">
+      <c r="J48" s="243" t="s">
         <v>281</v>
       </c>
-      <c r="K48" s="304" t="s">
+      <c r="K48" s="255" t="s">
         <v>299</v>
       </c>
-      <c r="L48" s="314" t="s">
+      <c r="L48" s="265" t="s">
         <v>209</v>
       </c>
-      <c r="M48" s="315"/>
-      <c r="N48" s="315"/>
-      <c r="O48" s="316"/>
+      <c r="M48" s="266"/>
+      <c r="N48" s="266"/>
+      <c r="O48" s="267"/>
     </row>
     <row r="49" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B49" s="311"/>
+      <c r="B49" s="262"/>
       <c r="C49" s="198" t="s">
         <v>265</v>
       </c>
-      <c r="D49" s="302"/>
-      <c r="E49" s="305"/>
-      <c r="F49" s="302"/>
-      <c r="G49" s="305"/>
-      <c r="H49" s="302"/>
-      <c r="I49" s="305"/>
-      <c r="J49" s="302"/>
-      <c r="K49" s="305"/>
+      <c r="D49" s="244"/>
+      <c r="E49" s="256"/>
+      <c r="F49" s="244"/>
+      <c r="G49" s="256"/>
+      <c r="H49" s="244"/>
+      <c r="I49" s="256"/>
+      <c r="J49" s="244"/>
+      <c r="K49" s="256"/>
       <c r="L49" s="200"/>
       <c r="M49" s="188"/>
       <c r="N49" s="200" t="s">
@@ -13845,48 +13933,48 @@
       </c>
     </row>
     <row r="50" spans="2:15" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="312" t="s">
+      <c r="B50" s="263" t="s">
         <v>259</v>
       </c>
       <c r="C50" s="198" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="302"/>
-      <c r="E50" s="306" t="s">
+      <c r="D50" s="244"/>
+      <c r="E50" s="257" t="s">
         <v>300</v>
       </c>
-      <c r="F50" s="302"/>
-      <c r="G50" s="306" t="s">
+      <c r="F50" s="244"/>
+      <c r="G50" s="257" t="s">
         <v>300</v>
       </c>
-      <c r="H50" s="302"/>
-      <c r="I50" s="306" t="s">
+      <c r="H50" s="244"/>
+      <c r="I50" s="257" t="s">
         <v>301</v>
       </c>
-      <c r="J50" s="302"/>
-      <c r="K50" s="306" t="s">
+      <c r="J50" s="244"/>
+      <c r="K50" s="257" t="s">
         <v>300</v>
       </c>
-      <c r="L50" s="317" t="s">
+      <c r="L50" s="268" t="s">
         <v>209</v>
       </c>
-      <c r="M50" s="318"/>
-      <c r="N50" s="318"/>
-      <c r="O50" s="319"/>
+      <c r="M50" s="269"/>
+      <c r="N50" s="269"/>
+      <c r="O50" s="270"/>
     </row>
     <row r="51" spans="2:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="313"/>
+      <c r="B51" s="264"/>
       <c r="C51" s="199" t="s">
         <v>265</v>
       </c>
-      <c r="D51" s="303"/>
-      <c r="E51" s="307"/>
-      <c r="F51" s="303"/>
-      <c r="G51" s="307"/>
-      <c r="H51" s="303"/>
-      <c r="I51" s="307"/>
-      <c r="J51" s="303"/>
-      <c r="K51" s="307"/>
+      <c r="D51" s="245"/>
+      <c r="E51" s="258"/>
+      <c r="F51" s="245"/>
+      <c r="G51" s="258"/>
+      <c r="H51" s="245"/>
+      <c r="I51" s="258"/>
+      <c r="J51" s="245"/>
+      <c r="K51" s="258"/>
       <c r="L51" s="200" t="s">
         <v>302</v>
       </c>
@@ -13913,16 +14001,16 @@
       <c r="D54" s="186"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="308" t="s">
+      <c r="B55" s="259" t="s">
         <v>293</v>
       </c>
-      <c r="C55" s="242" t="s">
+      <c r="C55" s="249" t="s">
         <v>292</v>
       </c>
-      <c r="D55" s="243"/>
+      <c r="D55" s="250"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="309"/>
+      <c r="B56" s="260"/>
       <c r="C56" s="106" t="s">
         <v>284</v>
       </c>
@@ -14081,56 +14169,56 @@
     </row>
     <row r="74" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="2:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="239" t="s">
+      <c r="B75" s="322" t="s">
         <v>311</v>
       </c>
-      <c r="C75" s="242" t="s">
+      <c r="C75" s="249" t="s">
         <v>310</v>
       </c>
-      <c r="D75" s="238" t="s">
+      <c r="D75" s="321" t="s">
         <v>322</v>
       </c>
-      <c r="E75" s="238" t="s">
+      <c r="E75" s="321" t="s">
         <v>336</v>
       </c>
-      <c r="F75" s="238" t="s">
+      <c r="F75" s="321" t="s">
         <v>314</v>
       </c>
-      <c r="G75" s="238"/>
-      <c r="H75" s="242" t="s">
+      <c r="G75" s="321"/>
+      <c r="H75" s="249" t="s">
         <v>315</v>
       </c>
-      <c r="I75" s="243" t="s">
+      <c r="I75" s="250" t="s">
         <v>87</v>
       </c>
-      <c r="N75" s="237"/>
-      <c r="O75" s="237"/>
-      <c r="P75" s="237"/>
-      <c r="Q75" s="237"/>
-      <c r="R75" s="237"/>
-      <c r="S75" s="237"/>
-      <c r="T75" s="237"/>
-      <c r="U75" s="237"/>
+      <c r="N75" s="320"/>
+      <c r="O75" s="320"/>
+      <c r="P75" s="320"/>
+      <c r="Q75" s="320"/>
+      <c r="R75" s="320"/>
+      <c r="S75" s="320"/>
+      <c r="T75" s="320"/>
+      <c r="U75" s="320"/>
     </row>
     <row r="76" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B76" s="240"/>
-      <c r="C76" s="229"/>
-      <c r="D76" s="241"/>
-      <c r="E76" s="241"/>
+      <c r="B76" s="323"/>
+      <c r="C76" s="237"/>
+      <c r="D76" s="324"/>
+      <c r="E76" s="324"/>
       <c r="F76" s="172" t="s">
         <v>214</v>
       </c>
       <c r="G76" s="172" t="s">
         <v>213</v>
       </c>
-      <c r="H76" s="229"/>
-      <c r="I76" s="244"/>
-      <c r="N76" s="237"/>
-      <c r="O76" s="237"/>
-      <c r="P76" s="237"/>
-      <c r="Q76" s="237"/>
-      <c r="T76" s="237"/>
-      <c r="U76" s="237"/>
+      <c r="H76" s="237"/>
+      <c r="I76" s="325"/>
+      <c r="N76" s="320"/>
+      <c r="O76" s="320"/>
+      <c r="P76" s="320"/>
+      <c r="Q76" s="320"/>
+      <c r="T76" s="320"/>
+      <c r="U76" s="320"/>
     </row>
     <row r="77" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B77" s="208" t="s">
@@ -14364,27 +14452,84 @@
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="H48:H51"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="T75:T76"/>
+    <mergeCell ref="U75:U76"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="P75:P76"/>
+    <mergeCell ref="Q75:Q76"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B51"/>
@@ -14409,84 +14554,27 @@
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="G40:G41"/>
     <mergeCell ref="G38:G39"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="P75:P76"/>
-    <mergeCell ref="Q75:Q76"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="T75:T76"/>
-    <mergeCell ref="U75:U76"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="K50:K51"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C91" r:id="rId1" xr:uid="{DF4E1866-1674-46F6-84A6-B6AB76967535}"/>

--- a/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
+++ b/EO_Micro_Satellite_Project/Relevant Data/Satelite_avanzado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESATAN-TMS\ESATAN-TMS-Models\EO_Micro_Satellite_Project\Relevant Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083A3077-9AE4-4F45-922A-D2F5C3B3E6CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DA01B0-CC70-4715-AE8C-32F5535FA83C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="371">
   <si>
     <t>ELEMENTO</t>
   </si>
@@ -1356,6 +1356,9 @@
   </si>
   <si>
     <t>0.25 hmax</t>
+  </si>
+  <si>
+    <t>RAD_IR_Tel_STR</t>
   </si>
 </sst>
 </file>
@@ -2335,7 +2338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2873,6 +2876,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2882,6 +2897,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2891,220 +2918,196 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3120,6 +3123,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4193,9 +4200,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>97113</xdr:rowOff>
+      <xdr:rowOff>93303</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4239,7 +4246,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>114112</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>135176</xdr:rowOff>
+      <xdr:rowOff>131366</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4318,16 +4325,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>511932</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>94532</xdr:rowOff>
+      <xdr:colOff>454782</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>8807</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4350,8 +4357,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11249025" y="1878330"/>
-          <a:ext cx="4112382" cy="5744762"/>
+          <a:off x="11193780" y="1615440"/>
+          <a:ext cx="4120002" cy="5727617"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4369,7 +4376,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>208744</xdr:colOff>
+      <xdr:colOff>212554</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>151793</xdr:rowOff>
     </xdr:to>
@@ -4731,7 +4738,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>95916</xdr:colOff>
+      <xdr:colOff>92106</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>39840</xdr:rowOff>
     </xdr:to>
@@ -5241,7 +5248,7 @@
   <dimension ref="A2:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18:N19"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6323,7 +6330,7 @@
       <c r="A31" s="33"/>
       <c r="B31" s="29"/>
       <c r="C31" s="24" t="s">
-        <v>183</v>
+        <v>370</v>
       </c>
       <c r="D31" s="24">
         <v>63000</v>
@@ -8421,7 +8428,7 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:N31"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9672,7 +9679,7 @@
   <dimension ref="B3:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9755,7 +9762,7 @@
   <dimension ref="A3:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B12" sqref="B12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10223,8 +10230,8 @@
       <c r="J16" s="10">
         <v>0.75</v>
       </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
+      <c r="K16" s="234"/>
+      <c r="L16" s="235"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -10261,7 +10268,7 @@
       <c r="L17" s="233"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:F3"/>
@@ -10278,6 +10285,7 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10290,7 +10298,7 @@
   <dimension ref="A4:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10407,7 +10415,7 @@
       <c r="D7" s="11">
         <v>2840</v>
       </c>
-      <c r="E7" s="234" t="s">
+      <c r="E7" s="326" t="s">
         <v>92</v>
       </c>
       <c r="F7" s="235"/>
@@ -10436,7 +10444,7 @@
       <c r="D8" s="5">
         <v>2810</v>
       </c>
-      <c r="E8" s="234" t="s">
+      <c r="E8" s="326" t="s">
         <v>92</v>
       </c>
       <c r="F8" s="235"/>
@@ -10615,6 +10623,10 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E14:F14"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{4F68657E-46EF-458D-B324-9307F0D5DF32}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{ED9ADA7D-7841-4106-9DF8-ED3AC77BB18A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10626,10 +10638,10 @@
   </sheetPr>
   <dimension ref="A2:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="J44" sqref="J44"/>
-      <selection pane="topRight" activeCell="G48" sqref="G48"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10761,7 +10773,7 @@
         <v>4.0212385965949353E-5</v>
       </c>
       <c r="K5" s="83">
-        <f t="shared" ref="K5:K17" si="0">1 / ( (D5/(E5*F5)) + (1/(G5*H5))+(D5/(I5*J5)))</f>
+        <f>1 / ( (D5/(E5*F5)) + (1/(G5*H5))+(D5/(I5*J5)))</f>
         <v>1.5341807626192488E-3</v>
       </c>
     </row>
@@ -10788,7 +10800,7 @@
         <v>4.0212385965949353E-5</v>
       </c>
       <c r="G6" s="53">
-        <f t="shared" ref="G6:G17" si="1">MIN(F6,J6)</f>
+        <f t="shared" ref="G6:G17" si="0">MIN(F6,J6)</f>
         <v>1.5393804002589989E-5</v>
       </c>
       <c r="H6" s="53">
@@ -10804,7 +10816,7 @@
         <v>1.5393804002589989E-5</v>
       </c>
       <c r="K6" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K5:K17" si="1">1 / ( (D6/(E6*F6)) + (1/(G6*H6))+(D6/(I6*J6)))</f>
         <v>4.7918456039190629E-4</v>
       </c>
       <c r="V6">
@@ -10839,7 +10851,7 @@
         <v>4.0212385965949353E-5</v>
       </c>
       <c r="G7" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.0212385965949353E-5</v>
       </c>
       <c r="H7" s="53">
@@ -10855,7 +10867,7 @@
         <v>7.8539816339744835E-3</v>
       </c>
       <c r="K7" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8720178757291651E-3</v>
       </c>
       <c r="V7">
@@ -10890,7 +10902,7 @@
         <v>4.908738521234052E-5</v>
       </c>
       <c r="G8" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.908738521234052E-5</v>
       </c>
       <c r="H8" s="53">
@@ -10906,7 +10918,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K8" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1811765605433695E-2</v>
       </c>
     </row>
@@ -10932,7 +10944,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="G9" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="H9" s="53">
@@ -10948,7 +10960,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="K9" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0638820638820641E-2</v>
       </c>
     </row>
@@ -10976,7 +10988,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G10" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H10" s="53">
@@ -10992,7 +11004,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="K10" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4480874316939887E-2</v>
       </c>
     </row>
@@ -11018,7 +11030,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="G11" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="H11" s="53">
@@ -11034,7 +11046,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="K11" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0638820638820641E-2</v>
       </c>
     </row>
@@ -11063,7 +11075,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G12" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H12" s="53">
@@ -11079,7 +11091,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="K12" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4480874316939887E-2</v>
       </c>
       <c r="V12">
@@ -11108,7 +11120,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="G13" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="H13" s="53">
@@ -11124,7 +11136,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="K13" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0638820638820641E-2</v>
       </c>
     </row>
@@ -11153,7 +11165,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G14" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H14" s="53">
@@ -11169,7 +11181,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="K14" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4480874316939887E-2</v>
       </c>
     </row>
@@ -11195,7 +11207,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="G15" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="H15" s="53">
@@ -11211,7 +11223,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="K15" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0638820638820641E-2</v>
       </c>
     </row>
@@ -11240,7 +11252,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G16" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="H16" s="53">
@@ -11256,7 +11268,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="K16" s="83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4480874316939887E-2</v>
       </c>
       <c r="M16" t="s">
@@ -11286,7 +11298,7 @@
         <v>7.8539816339744835E-3</v>
       </c>
       <c r="G17" s="52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H17" s="53">
@@ -11302,7 +11314,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K17" s="64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35630608337574976</v>
       </c>
     </row>
@@ -11494,7 +11506,7 @@
         <f t="shared" si="2"/>
         <v>1.412987012987013</v>
       </c>
-      <c r="I26" s="219" t="s">
+      <c r="I26" s="327" t="s">
         <v>304</v>
       </c>
     </row>
@@ -11522,7 +11534,7 @@
         <f>D27*E27/F27</f>
         <v>1.7548387096774194</v>
       </c>
-      <c r="I27" s="105" t="s">
+      <c r="I27" s="221" t="s">
         <v>309</v>
       </c>
     </row>
@@ -11824,10 +11836,14 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I26" r:id="rId1" xr:uid="{7DF6537E-5F85-4FD8-B638-2EAEBD39D398}"/>
+    <hyperlink ref="I27" r:id="rId2" xr:uid="{A4F4D239-4B05-408E-8844-357372EB7A72}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -11838,10 +11854,10 @@
   </sheetPr>
   <dimension ref="A2:X48"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="J44" sqref="J44"/>
-      <selection pane="topRight" activeCell="N59" sqref="N59"/>
+      <selection pane="topRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13037,8 +13053,8 @@
   </sheetPr>
   <dimension ref="B1:V91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13069,38 +13085,38 @@
       </c>
     </row>
     <row r="2" spans="2:19" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="278" t="s">
+      <c r="B2" s="272" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="316" t="s">
+      <c r="C2" s="314" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="318" t="s">
+      <c r="D2" s="316" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="284" t="s">
+      <c r="E2" s="278" t="s">
         <v>266</v>
       </c>
-      <c r="F2" s="284" t="s">
+      <c r="F2" s="278" t="s">
         <v>268</v>
       </c>
-      <c r="G2" s="284" t="s">
+      <c r="G2" s="278" t="s">
         <v>208</v>
       </c>
       <c r="H2" s="159" t="s">
         <v>211</v>
       </c>
-      <c r="I2" s="276" t="s">
+      <c r="I2" s="294" t="s">
         <v>212</v>
       </c>
-      <c r="J2" s="277"/>
+      <c r="J2" s="296"/>
       <c r="K2" s="157" t="s">
         <v>223</v>
       </c>
-      <c r="L2" s="276" t="s">
+      <c r="L2" s="294" t="s">
         <v>224</v>
       </c>
-      <c r="M2" s="277"/>
+      <c r="M2" s="296"/>
       <c r="N2" s="157" t="s">
         <v>87</v>
       </c>
@@ -13109,12 +13125,12 @@
       </c>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="279"/>
-      <c r="C3" s="317"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="285"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="279"/>
       <c r="H3" s="160"/>
       <c r="I3" s="117" t="s">
         <v>213</v>
@@ -13162,15 +13178,15 @@
       <c r="B5" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="310" t="s">
+      <c r="C5" s="298" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="280">
+      <c r="D5" s="274">
         <v>3</v>
       </c>
-      <c r="E5" s="314"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="282" t="s">
+      <c r="E5" s="312"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="276" t="s">
         <v>239</v>
       </c>
       <c r="H5" s="162">
@@ -13203,11 +13219,11 @@
       <c r="B6" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="311"/>
-      <c r="D6" s="281"/>
-      <c r="E6" s="315"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="283"/>
+      <c r="C6" s="299"/>
+      <c r="D6" s="275"/>
+      <c r="E6" s="313"/>
+      <c r="F6" s="281"/>
+      <c r="G6" s="277"/>
       <c r="H6" s="163"/>
       <c r="I6" s="164">
         <f>273.15-193.1242</f>
@@ -13273,7 +13289,7 @@
       </c>
       <c r="C13" s="107"/>
       <c r="O13" s="216"/>
-      <c r="S13" t="s">
+      <c r="S13" s="221" t="s">
         <v>241</v>
       </c>
     </row>
@@ -13303,48 +13319,48 @@
     </row>
     <row r="19" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="278" t="s">
+      <c r="B20" s="272" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="316" t="s">
+      <c r="C20" s="314" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="318" t="s">
+      <c r="D20" s="316" t="s">
         <v>207</v>
       </c>
       <c r="E20" s="168"/>
-      <c r="F20" s="284" t="s">
+      <c r="F20" s="278" t="s">
         <v>208</v>
       </c>
-      <c r="G20" s="284" t="s">
+      <c r="G20" s="278" t="s">
         <v>249</v>
       </c>
-      <c r="H20" s="290" t="s">
+      <c r="H20" s="284" t="s">
         <v>250</v>
       </c>
       <c r="I20" s="157" t="s">
         <v>251</v>
       </c>
-      <c r="J20" s="276" t="s">
+      <c r="J20" s="294" t="s">
         <v>253</v>
       </c>
-      <c r="K20" s="300"/>
-      <c r="L20" s="277"/>
-      <c r="M20" s="253" t="s">
+      <c r="K20" s="295"/>
+      <c r="L20" s="296"/>
+      <c r="M20" s="245" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="296" t="s">
+      <c r="N20" s="290" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="279"/>
-      <c r="C21" s="317"/>
-      <c r="D21" s="319"/>
+      <c r="B21" s="273"/>
+      <c r="C21" s="315"/>
+      <c r="D21" s="317"/>
       <c r="E21" s="169"/>
-      <c r="F21" s="285"/>
-      <c r="G21" s="285"/>
-      <c r="H21" s="291"/>
+      <c r="F21" s="279"/>
+      <c r="G21" s="279"/>
+      <c r="H21" s="285"/>
       <c r="I21" s="158"/>
       <c r="J21" s="117" t="s">
         <v>145</v>
@@ -13355,24 +13371,24 @@
       <c r="L21" s="155" t="s">
         <v>252</v>
       </c>
-      <c r="M21" s="301"/>
-      <c r="N21" s="297"/>
+      <c r="M21" s="297"/>
+      <c r="N21" s="291"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B22" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="312" t="s">
+      <c r="C22" s="300" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="280">
+      <c r="D22" s="274">
         <v>4</v>
       </c>
       <c r="E22" s="170"/>
-      <c r="F22" s="280" t="s">
+      <c r="F22" s="274" t="s">
         <v>209</v>
       </c>
-      <c r="G22" s="298">
+      <c r="G22" s="292">
         <v>22.1</v>
       </c>
       <c r="H22" s="153">
@@ -13383,40 +13399,40 @@
       <c r="K22" s="151"/>
       <c r="L22" s="116"/>
       <c r="M22" s="116"/>
-      <c r="N22" s="288"/>
+      <c r="N22" s="282"/>
     </row>
     <row r="23" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="C23" s="313"/>
-      <c r="D23" s="281"/>
+      <c r="C23" s="301"/>
+      <c r="D23" s="275"/>
       <c r="E23" s="171"/>
-      <c r="F23" s="281"/>
-      <c r="G23" s="299"/>
+      <c r="F23" s="275"/>
+      <c r="G23" s="293"/>
       <c r="H23" s="154"/>
       <c r="I23" s="115"/>
       <c r="J23" s="150"/>
       <c r="K23" s="152"/>
       <c r="L23" s="115"/>
       <c r="M23" s="115"/>
-      <c r="N23" s="289"/>
+      <c r="N23" s="283"/>
     </row>
     <row r="24" spans="2:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="108" t="s">
         <v>221</v>
       </c>
-      <c r="C24" s="310" t="s">
+      <c r="C24" s="298" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="280">
+      <c r="D24" s="274">
         <v>3</v>
       </c>
       <c r="E24" s="170"/>
-      <c r="F24" s="292" t="s">
+      <c r="F24" s="286" t="s">
         <v>239</v>
       </c>
-      <c r="G24" s="294">
+      <c r="G24" s="288">
         <f>22.1+16</f>
         <v>38.1</v>
       </c>
@@ -13428,24 +13444,24 @@
       <c r="K24" s="151"/>
       <c r="L24" s="116"/>
       <c r="M24" s="116"/>
-      <c r="N24" s="288"/>
+      <c r="N24" s="282"/>
     </row>
     <row r="25" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="109" t="s">
         <v>222</v>
       </c>
-      <c r="C25" s="311"/>
-      <c r="D25" s="281"/>
+      <c r="C25" s="299"/>
+      <c r="D25" s="275"/>
       <c r="E25" s="171"/>
-      <c r="F25" s="293"/>
-      <c r="G25" s="295"/>
+      <c r="F25" s="287"/>
+      <c r="G25" s="289"/>
       <c r="H25" s="148"/>
       <c r="I25" s="115"/>
       <c r="J25" s="150"/>
       <c r="K25" s="152"/>
       <c r="L25" s="115"/>
       <c r="M25" s="115"/>
-      <c r="N25" s="289"/>
+      <c r="N25" s="283"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B29" s="156" t="s">
@@ -13455,58 +13471,58 @@
     </row>
     <row r="31" spans="2:22" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="2:22" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="278" t="s">
+      <c r="B32" s="272" t="s">
         <v>257</v>
       </c>
-      <c r="C32" s="296" t="s">
+      <c r="C32" s="290" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="278" t="s">
+      <c r="D32" s="272" t="s">
         <v>203</v>
       </c>
-      <c r="E32" s="274" t="s">
+      <c r="E32" s="310" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="275"/>
-      <c r="G32" s="276" t="s">
+      <c r="F32" s="311"/>
+      <c r="G32" s="294" t="s">
         <v>260</v>
       </c>
-      <c r="H32" s="277"/>
-      <c r="I32" s="274" t="s">
+      <c r="H32" s="296"/>
+      <c r="I32" s="310" t="s">
         <v>255</v>
       </c>
-      <c r="J32" s="275"/>
-      <c r="K32" s="276" t="s">
+      <c r="J32" s="311"/>
+      <c r="K32" s="294" t="s">
         <v>261</v>
       </c>
-      <c r="L32" s="277"/>
-      <c r="M32" s="274" t="s">
+      <c r="L32" s="296"/>
+      <c r="M32" s="310" t="s">
         <v>256</v>
       </c>
-      <c r="N32" s="275"/>
-      <c r="O32" s="276" t="s">
+      <c r="N32" s="311"/>
+      <c r="O32" s="294" t="s">
         <v>262</v>
       </c>
-      <c r="P32" s="277"/>
-      <c r="Q32" s="276" t="s">
+      <c r="P32" s="296"/>
+      <c r="Q32" s="294" t="s">
         <v>263</v>
       </c>
-      <c r="R32" s="277"/>
-      <c r="S32" s="276" t="s">
+      <c r="R32" s="296"/>
+      <c r="S32" s="294" t="s">
         <v>264</v>
       </c>
-      <c r="T32" s="277"/>
-      <c r="U32" s="296" t="s">
+      <c r="T32" s="296"/>
+      <c r="U32" s="290" t="s">
         <v>87</v>
       </c>
-      <c r="V32" s="296" t="s">
+      <c r="V32" s="290" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="33" spans="2:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="279"/>
+      <c r="B33" s="273"/>
       <c r="C33" s="305"/>
-      <c r="D33" s="279"/>
+      <c r="D33" s="273"/>
       <c r="E33" s="117" t="s">
         <v>213</v>
       </c>
@@ -13570,26 +13586,26 @@
       </c>
       <c r="E34" s="177"/>
       <c r="F34" s="178"/>
-      <c r="G34" s="273" t="e">
+      <c r="G34" s="271" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H34" s="273" t="e">
+      <c r="H34" s="271" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I34" s="177"/>
       <c r="J34" s="178"/>
-      <c r="K34" s="273"/>
-      <c r="L34" s="273"/>
+      <c r="K34" s="271"/>
+      <c r="L34" s="271"/>
       <c r="M34" s="177"/>
       <c r="N34" s="178"/>
-      <c r="O34" s="273"/>
-      <c r="P34" s="273"/>
+      <c r="O34" s="271"/>
+      <c r="P34" s="271"/>
       <c r="Q34" s="177"/>
       <c r="R34" s="178"/>
-      <c r="S34" s="273"/>
-      <c r="T34" s="273"/>
+      <c r="S34" s="271"/>
+      <c r="T34" s="271"/>
       <c r="U34" s="177"/>
       <c r="V34" s="111"/>
     </row>
@@ -13601,20 +13617,20 @@
       </c>
       <c r="E35" s="174"/>
       <c r="F35" s="174"/>
-      <c r="G35" s="271"/>
-      <c r="H35" s="271"/>
+      <c r="G35" s="269"/>
+      <c r="H35" s="269"/>
       <c r="I35" s="174"/>
       <c r="J35" s="174"/>
-      <c r="K35" s="271"/>
-      <c r="L35" s="271"/>
+      <c r="K35" s="269"/>
+      <c r="L35" s="269"/>
       <c r="M35" s="174"/>
       <c r="N35" s="174"/>
-      <c r="O35" s="271"/>
-      <c r="P35" s="271"/>
+      <c r="O35" s="269"/>
+      <c r="P35" s="269"/>
       <c r="Q35" s="174"/>
       <c r="R35" s="174"/>
-      <c r="S35" s="271"/>
-      <c r="T35" s="271"/>
+      <c r="S35" s="269"/>
+      <c r="T35" s="269"/>
       <c r="U35" s="173"/>
       <c r="V35" s="179"/>
     </row>
@@ -13628,26 +13644,26 @@
       </c>
       <c r="E36" s="173"/>
       <c r="F36" s="173"/>
-      <c r="G36" s="271">
+      <c r="G36" s="269">
         <f>L5</f>
         <v>100</v>
       </c>
-      <c r="H36" s="271">
+      <c r="H36" s="269">
         <f>M5</f>
         <v>60</v>
       </c>
       <c r="I36" s="173"/>
       <c r="J36" s="173"/>
-      <c r="K36" s="271"/>
-      <c r="L36" s="271"/>
+      <c r="K36" s="269"/>
+      <c r="L36" s="269"/>
       <c r="M36" s="173"/>
       <c r="N36" s="173"/>
-      <c r="O36" s="271"/>
-      <c r="P36" s="271"/>
+      <c r="O36" s="269"/>
+      <c r="P36" s="269"/>
       <c r="Q36" s="173"/>
       <c r="R36" s="173"/>
-      <c r="S36" s="271"/>
-      <c r="T36" s="271"/>
+      <c r="S36" s="269"/>
+      <c r="T36" s="269"/>
       <c r="U36" s="173"/>
       <c r="V36" s="179"/>
     </row>
@@ -13659,20 +13675,20 @@
       </c>
       <c r="E37" s="173"/>
       <c r="F37" s="173"/>
-      <c r="G37" s="271"/>
-      <c r="H37" s="271"/>
+      <c r="G37" s="269"/>
+      <c r="H37" s="269"/>
       <c r="I37" s="173"/>
       <c r="J37" s="173"/>
-      <c r="K37" s="271"/>
-      <c r="L37" s="271"/>
+      <c r="K37" s="269"/>
+      <c r="L37" s="269"/>
       <c r="M37" s="173"/>
       <c r="N37" s="173"/>
-      <c r="O37" s="271"/>
-      <c r="P37" s="271"/>
+      <c r="O37" s="269"/>
+      <c r="P37" s="269"/>
       <c r="Q37" s="173"/>
       <c r="R37" s="173"/>
-      <c r="S37" s="271"/>
-      <c r="T37" s="271"/>
+      <c r="S37" s="269"/>
+      <c r="T37" s="269"/>
       <c r="U37" s="173"/>
       <c r="V37" s="179"/>
     </row>
@@ -13688,26 +13704,26 @@
       </c>
       <c r="E38" s="173"/>
       <c r="F38" s="174"/>
-      <c r="G38" s="271" t="e">
+      <c r="G38" s="269" t="e">
         <f>G34</f>
         <v>#REF!</v>
       </c>
-      <c r="H38" s="271" t="e">
+      <c r="H38" s="269" t="e">
         <f>H34</f>
         <v>#REF!</v>
       </c>
       <c r="I38" s="173"/>
       <c r="J38" s="174"/>
-      <c r="K38" s="271"/>
-      <c r="L38" s="271"/>
+      <c r="K38" s="269"/>
+      <c r="L38" s="269"/>
       <c r="M38" s="173"/>
       <c r="N38" s="174"/>
-      <c r="O38" s="271"/>
-      <c r="P38" s="271"/>
+      <c r="O38" s="269"/>
+      <c r="P38" s="269"/>
       <c r="Q38" s="173"/>
       <c r="R38" s="174"/>
-      <c r="S38" s="271"/>
-      <c r="T38" s="271"/>
+      <c r="S38" s="269"/>
+      <c r="T38" s="269"/>
       <c r="U38" s="173"/>
       <c r="V38" s="179"/>
     </row>
@@ -13719,20 +13735,20 @@
       </c>
       <c r="E39" s="174"/>
       <c r="F39" s="174"/>
-      <c r="G39" s="271"/>
-      <c r="H39" s="271"/>
+      <c r="G39" s="269"/>
+      <c r="H39" s="269"/>
       <c r="I39" s="174"/>
       <c r="J39" s="174"/>
-      <c r="K39" s="271"/>
-      <c r="L39" s="271"/>
+      <c r="K39" s="269"/>
+      <c r="L39" s="269"/>
       <c r="M39" s="174"/>
       <c r="N39" s="174"/>
-      <c r="O39" s="271"/>
-      <c r="P39" s="271"/>
+      <c r="O39" s="269"/>
+      <c r="P39" s="269"/>
       <c r="Q39" s="174"/>
       <c r="R39" s="174"/>
-      <c r="S39" s="271"/>
-      <c r="T39" s="271"/>
+      <c r="S39" s="269"/>
+      <c r="T39" s="269"/>
       <c r="U39" s="173"/>
       <c r="V39" s="179"/>
     </row>
@@ -13746,26 +13762,26 @@
       </c>
       <c r="E40" s="173"/>
       <c r="F40" s="173"/>
-      <c r="G40" s="271">
+      <c r="G40" s="269">
         <f>G36</f>
         <v>100</v>
       </c>
-      <c r="H40" s="271">
+      <c r="H40" s="269">
         <f>H36</f>
         <v>60</v>
       </c>
       <c r="I40" s="173"/>
       <c r="J40" s="173"/>
-      <c r="K40" s="271"/>
-      <c r="L40" s="271"/>
+      <c r="K40" s="269"/>
+      <c r="L40" s="269"/>
       <c r="M40" s="173"/>
       <c r="N40" s="173"/>
-      <c r="O40" s="271"/>
-      <c r="P40" s="271"/>
+      <c r="O40" s="269"/>
+      <c r="P40" s="269"/>
       <c r="Q40" s="173"/>
       <c r="R40" s="173"/>
-      <c r="S40" s="271"/>
-      <c r="T40" s="271"/>
+      <c r="S40" s="269"/>
+      <c r="T40" s="269"/>
       <c r="U40" s="173"/>
       <c r="V40" s="179"/>
     </row>
@@ -13777,20 +13793,20 @@
       </c>
       <c r="E41" s="181"/>
       <c r="F41" s="181"/>
-      <c r="G41" s="272"/>
-      <c r="H41" s="272"/>
+      <c r="G41" s="270"/>
+      <c r="H41" s="270"/>
       <c r="I41" s="181"/>
       <c r="J41" s="181"/>
-      <c r="K41" s="272"/>
-      <c r="L41" s="272"/>
+      <c r="K41" s="270"/>
+      <c r="L41" s="270"/>
       <c r="M41" s="181"/>
       <c r="N41" s="181"/>
-      <c r="O41" s="272"/>
-      <c r="P41" s="272"/>
+      <c r="O41" s="270"/>
+      <c r="P41" s="270"/>
       <c r="Q41" s="181"/>
       <c r="R41" s="181"/>
-      <c r="S41" s="272"/>
-      <c r="T41" s="272"/>
+      <c r="S41" s="270"/>
+      <c r="T41" s="270"/>
       <c r="U41" s="181"/>
       <c r="V41" s="112"/>
     </row>
@@ -13801,40 +13817,40 @@
     </row>
     <row r="45" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="46" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="251" t="s">
+      <c r="B46" s="243" t="s">
         <v>257</v>
       </c>
-      <c r="C46" s="253" t="s">
+      <c r="C46" s="245" t="s">
         <v>204</v>
       </c>
-      <c r="D46" s="246" t="s">
+      <c r="D46" s="254" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="247"/>
-      <c r="F46" s="246" t="s">
+      <c r="E46" s="255"/>
+      <c r="F46" s="254" t="s">
         <v>146</v>
       </c>
-      <c r="G46" s="247"/>
-      <c r="H46" s="248" t="s">
+      <c r="G46" s="255"/>
+      <c r="H46" s="256" t="s">
         <v>252</v>
       </c>
-      <c r="I46" s="248"/>
-      <c r="J46" s="246" t="s">
+      <c r="I46" s="256"/>
+      <c r="J46" s="254" t="s">
         <v>110</v>
       </c>
-      <c r="K46" s="247"/>
-      <c r="L46" s="246" t="s">
+      <c r="K46" s="255"/>
+      <c r="L46" s="254" t="s">
         <v>279</v>
       </c>
-      <c r="M46" s="248"/>
-      <c r="N46" s="248" t="s">
+      <c r="M46" s="256"/>
+      <c r="N46" s="256" t="s">
         <v>280</v>
       </c>
-      <c r="O46" s="247"/>
+      <c r="O46" s="255"/>
     </row>
     <row r="47" spans="2:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="252"/>
-      <c r="C47" s="254"/>
+      <c r="B47" s="244"/>
+      <c r="C47" s="246"/>
       <c r="D47" s="195" t="s">
         <v>278</v>
       </c>
@@ -13873,56 +13889,56 @@
       </c>
     </row>
     <row r="48" spans="2:22" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="261" t="s">
+      <c r="B48" s="259" t="s">
         <v>258</v>
       </c>
       <c r="C48" s="197" t="s">
         <v>205</v>
       </c>
-      <c r="D48" s="243" t="s">
+      <c r="D48" s="247" t="s">
         <v>281</v>
       </c>
-      <c r="E48" s="255" t="s">
+      <c r="E48" s="250" t="s">
         <v>296</v>
       </c>
-      <c r="F48" s="243" t="s">
+      <c r="F48" s="247" t="s">
         <v>281</v>
       </c>
-      <c r="G48" s="255" t="s">
+      <c r="G48" s="250" t="s">
         <v>297</v>
       </c>
-      <c r="H48" s="243" t="s">
+      <c r="H48" s="247" t="s">
         <v>281</v>
       </c>
-      <c r="I48" s="255" t="s">
+      <c r="I48" s="250" t="s">
         <v>298</v>
       </c>
-      <c r="J48" s="243" t="s">
+      <c r="J48" s="247" t="s">
         <v>281</v>
       </c>
-      <c r="K48" s="255" t="s">
+      <c r="K48" s="250" t="s">
         <v>299</v>
       </c>
-      <c r="L48" s="265" t="s">
+      <c r="L48" s="263" t="s">
         <v>209</v>
       </c>
-      <c r="M48" s="266"/>
-      <c r="N48" s="266"/>
-      <c r="O48" s="267"/>
+      <c r="M48" s="264"/>
+      <c r="N48" s="264"/>
+      <c r="O48" s="265"/>
     </row>
     <row r="49" spans="2:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B49" s="262"/>
+      <c r="B49" s="260"/>
       <c r="C49" s="198" t="s">
         <v>265</v>
       </c>
-      <c r="D49" s="244"/>
-      <c r="E49" s="256"/>
-      <c r="F49" s="244"/>
-      <c r="G49" s="256"/>
-      <c r="H49" s="244"/>
-      <c r="I49" s="256"/>
-      <c r="J49" s="244"/>
-      <c r="K49" s="256"/>
+      <c r="D49" s="248"/>
+      <c r="E49" s="251"/>
+      <c r="F49" s="248"/>
+      <c r="G49" s="251"/>
+      <c r="H49" s="248"/>
+      <c r="I49" s="251"/>
+      <c r="J49" s="248"/>
+      <c r="K49" s="251"/>
       <c r="L49" s="200"/>
       <c r="M49" s="188"/>
       <c r="N49" s="200" t="s">
@@ -13933,48 +13949,48 @@
       </c>
     </row>
     <row r="50" spans="2:15" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="263" t="s">
+      <c r="B50" s="261" t="s">
         <v>259</v>
       </c>
       <c r="C50" s="198" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="244"/>
-      <c r="E50" s="257" t="s">
+      <c r="D50" s="248"/>
+      <c r="E50" s="252" t="s">
         <v>300</v>
       </c>
-      <c r="F50" s="244"/>
-      <c r="G50" s="257" t="s">
+      <c r="F50" s="248"/>
+      <c r="G50" s="252" t="s">
         <v>300</v>
       </c>
-      <c r="H50" s="244"/>
-      <c r="I50" s="257" t="s">
+      <c r="H50" s="248"/>
+      <c r="I50" s="252" t="s">
         <v>301</v>
       </c>
-      <c r="J50" s="244"/>
-      <c r="K50" s="257" t="s">
+      <c r="J50" s="248"/>
+      <c r="K50" s="252" t="s">
         <v>300</v>
       </c>
-      <c r="L50" s="268" t="s">
+      <c r="L50" s="266" t="s">
         <v>209</v>
       </c>
-      <c r="M50" s="269"/>
-      <c r="N50" s="269"/>
-      <c r="O50" s="270"/>
+      <c r="M50" s="267"/>
+      <c r="N50" s="267"/>
+      <c r="O50" s="268"/>
     </row>
     <row r="51" spans="2:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="264"/>
+      <c r="B51" s="262"/>
       <c r="C51" s="199" t="s">
         <v>265</v>
       </c>
-      <c r="D51" s="245"/>
-      <c r="E51" s="258"/>
-      <c r="F51" s="245"/>
-      <c r="G51" s="258"/>
-      <c r="H51" s="245"/>
-      <c r="I51" s="258"/>
-      <c r="J51" s="245"/>
-      <c r="K51" s="258"/>
+      <c r="D51" s="249"/>
+      <c r="E51" s="253"/>
+      <c r="F51" s="249"/>
+      <c r="G51" s="253"/>
+      <c r="H51" s="249"/>
+      <c r="I51" s="253"/>
+      <c r="J51" s="249"/>
+      <c r="K51" s="253"/>
       <c r="L51" s="200" t="s">
         <v>302</v>
       </c>
@@ -14001,16 +14017,16 @@
       <c r="D54" s="186"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="259" t="s">
+      <c r="B55" s="257" t="s">
         <v>293</v>
       </c>
-      <c r="C55" s="249" t="s">
+      <c r="C55" s="319" t="s">
         <v>292</v>
       </c>
-      <c r="D55" s="250"/>
+      <c r="D55" s="320"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="260"/>
+      <c r="B56" s="258"/>
       <c r="C56" s="106" t="s">
         <v>284</v>
       </c>
@@ -14172,7 +14188,7 @@
       <c r="B75" s="322" t="s">
         <v>311</v>
       </c>
-      <c r="C75" s="249" t="s">
+      <c r="C75" s="319" t="s">
         <v>310</v>
       </c>
       <c r="D75" s="321" t="s">
@@ -14185,20 +14201,20 @@
         <v>314</v>
       </c>
       <c r="G75" s="321"/>
-      <c r="H75" s="249" t="s">
+      <c r="H75" s="319" t="s">
         <v>315</v>
       </c>
-      <c r="I75" s="250" t="s">
+      <c r="I75" s="320" t="s">
         <v>87</v>
       </c>
-      <c r="N75" s="320"/>
-      <c r="O75" s="320"/>
-      <c r="P75" s="320"/>
-      <c r="Q75" s="320"/>
-      <c r="R75" s="320"/>
-      <c r="S75" s="320"/>
-      <c r="T75" s="320"/>
-      <c r="U75" s="320"/>
+      <c r="N75" s="318"/>
+      <c r="O75" s="318"/>
+      <c r="P75" s="318"/>
+      <c r="Q75" s="318"/>
+      <c r="R75" s="318"/>
+      <c r="S75" s="318"/>
+      <c r="T75" s="318"/>
+      <c r="U75" s="318"/>
     </row>
     <row r="76" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B76" s="323"/>
@@ -14213,12 +14229,12 @@
       </c>
       <c r="H76" s="237"/>
       <c r="I76" s="325"/>
-      <c r="N76" s="320"/>
-      <c r="O76" s="320"/>
-      <c r="P76" s="320"/>
-      <c r="Q76" s="320"/>
-      <c r="T76" s="320"/>
-      <c r="U76" s="320"/>
+      <c r="N76" s="318"/>
+      <c r="O76" s="318"/>
+      <c r="P76" s="318"/>
+      <c r="Q76" s="318"/>
+      <c r="T76" s="318"/>
+      <c r="U76" s="318"/>
     </row>
     <row r="77" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B77" s="208" t="s">
@@ -14438,7 +14454,7 @@
       <c r="B90" t="s">
         <v>318</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="221" t="s">
         <v>323</v>
       </c>
     </row>
@@ -14473,6 +14489,18 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="P75:P76"/>
     <mergeCell ref="Q75:Q76"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="C55:D55"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="C32:C33"/>
@@ -14521,15 +14549,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="L2:M2"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B51"/>
@@ -14570,9 +14589,6 @@
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C55:D55"/>
     <mergeCell ref="K48:K49"/>
     <mergeCell ref="K50:K51"/>
   </mergeCells>
@@ -14581,11 +14597,13 @@
     <hyperlink ref="C88" r:id="rId2" xr:uid="{27148B34-24C8-4770-A1D9-774CFB6B4506}"/>
     <hyperlink ref="C86" r:id="rId3" xr:uid="{BDB4C730-ED67-41D5-88EC-CF0E5B7BF26B}"/>
     <hyperlink ref="C87" r:id="rId4" xr:uid="{CC1AD0EE-C4FB-45D1-83D9-493F233B8501}"/>
+    <hyperlink ref="C90" r:id="rId5" xr:uid="{E940EBD4-3343-4667-A163-9A72E6655CB0}"/>
+    <hyperlink ref="S13" r:id="rId6" xr:uid="{D1069386-1652-40C3-B50C-7CC6EDCDDE4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
 
